--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HP102"/>
+  <dimension ref="A1:HQ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1028,6 +1028,9 @@
       <c r="HP1" t="n">
         <v>10324</v>
       </c>
+      <c r="HQ1" t="n">
+        <v>10333</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1704,6 +1707,9 @@
       <c r="HP2" t="n">
         <v>2020</v>
       </c>
+      <c r="HQ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2380,6 +2386,9 @@
       <c r="HP3" t="n">
         <v>27</v>
       </c>
+      <c r="HQ3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3056,6 +3065,9 @@
       <c r="HP4" t="n">
         <v>0</v>
       </c>
+      <c r="HQ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3732,6 +3744,9 @@
       <c r="HP5" t="n">
         <v>1</v>
       </c>
+      <c r="HQ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4408,6 +4423,9 @@
       <c r="HP6" t="n">
         <v>40</v>
       </c>
+      <c r="HQ6" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5084,6 +5102,9 @@
       <c r="HP7" t="n">
         <v>46</v>
       </c>
+      <c r="HQ7" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5760,6 +5781,9 @@
       <c r="HP8" t="n">
         <v>-6</v>
       </c>
+      <c r="HQ8" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6436,6 +6460,9 @@
       <c r="HP9" t="n">
         <v>0</v>
       </c>
+      <c r="HQ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7112,6 +7139,9 @@
       <c r="HP10" t="n">
         <v>14</v>
       </c>
+      <c r="HQ10" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7788,6 +7818,9 @@
       <c r="HP11" t="n">
         <v>190</v>
       </c>
+      <c r="HQ11" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8464,6 +8497,9 @@
       <c r="HP12" t="n">
         <v>110</v>
       </c>
+      <c r="HQ12" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9140,6 +9176,9 @@
       <c r="HP13" t="n">
         <v>300</v>
       </c>
+      <c r="HQ13" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9816,6 +9855,9 @@
       <c r="HP14" t="n">
         <v>1.73</v>
       </c>
+      <c r="HQ14" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10492,6 +10534,9 @@
       <c r="HP15" t="n">
         <v>42</v>
       </c>
+      <c r="HQ15" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11168,6 +11213,9 @@
       <c r="HP16" t="n">
         <v>62</v>
       </c>
+      <c r="HQ16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11844,6 +11892,9 @@
       <c r="HP17" t="n">
         <v>45</v>
       </c>
+      <c r="HQ17" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12520,6 +12571,9 @@
       <c r="HP18" t="n">
         <v>24</v>
       </c>
+      <c r="HQ18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13196,6 +13250,9 @@
       <c r="HP19" t="n">
         <v>19</v>
       </c>
+      <c r="HQ19" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13872,6 +13929,9 @@
       <c r="HP20" t="n">
         <v>6</v>
       </c>
+      <c r="HQ20" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14548,6 +14608,9 @@
       <c r="HP21" t="n">
         <v>4</v>
       </c>
+      <c r="HQ21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15224,6 +15287,9 @@
       <c r="HP22" t="n">
         <v>3</v>
       </c>
+      <c r="HQ22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15900,6 +15966,9 @@
       <c r="HP23" t="n">
         <v>1</v>
       </c>
+      <c r="HQ23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16576,6 +16645,9 @@
       <c r="HP24" t="n">
         <v>10</v>
       </c>
+      <c r="HQ24" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17252,6 +17324,9 @@
       <c r="HP25" t="n">
         <v>60</v>
       </c>
+      <c r="HQ25" t="n">
+        <v>53.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17928,6 +18003,9 @@
       <c r="HP26" t="n">
         <v>50</v>
       </c>
+      <c r="HQ26" t="n">
+        <v>22.06</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18604,6 +18682,9 @@
       <c r="HP27" t="n">
         <v>30</v>
       </c>
+      <c r="HQ27" t="n">
+        <v>11.72</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19280,6 +19361,9 @@
       <c r="HP28" t="n">
         <v>29</v>
       </c>
+      <c r="HQ28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -19956,6 +20040,9 @@
       <c r="HP29" t="n">
         <v>59</v>
       </c>
+      <c r="HQ29" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20632,6 +20719,9 @@
       <c r="HP30" t="n">
         <v>38</v>
       </c>
+      <c r="HQ30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21308,6 +21398,9 @@
       <c r="HP31" t="n">
         <v>58</v>
       </c>
+      <c r="HQ31" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21984,6 +22077,9 @@
       <c r="HP32" t="n">
         <v>5.8</v>
       </c>
+      <c r="HQ32" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22660,6 +22756,9 @@
       <c r="HP33" t="n">
         <v>9.67</v>
       </c>
+      <c r="HQ33" t="n">
+        <v>3.53</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23336,6 +23435,9 @@
       <c r="HP34" t="n">
         <v>15.5</v>
       </c>
+      <c r="HQ34" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24012,6 +24114,9 @@
       <c r="HP35" t="n">
         <v>10.3</v>
       </c>
+      <c r="HQ35" t="n">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24688,6 +24793,9 @@
       <c r="HP36" t="n">
         <v>188.5</v>
       </c>
+      <c r="HQ36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25364,6 +25472,9 @@
       <c r="HP37" t="n">
         <v>84.8</v>
       </c>
+      <c r="HQ37" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26040,6 +26151,9 @@
       <c r="HP38" t="n">
         <v>26.41</v>
       </c>
+      <c r="HQ38" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26716,6 +26830,9 @@
       <c r="HP39" t="n">
         <v>123.6</v>
       </c>
+      <c r="HQ39" t="n">
+        <v>99.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27392,6 +27509,9 @@
       <c r="HP40" t="n">
         <v>5</v>
       </c>
+      <c r="HQ40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28068,6 +28188,9 @@
       <c r="HP41" t="n">
         <v>5</v>
       </c>
+      <c r="HQ41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28744,6 +28867,9 @@
       <c r="HP42" t="n">
         <v>3</v>
       </c>
+      <c r="HQ42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29420,6 +29546,9 @@
       <c r="HP43" t="n">
         <v>9</v>
       </c>
+      <c r="HQ43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30096,6 +30225,9 @@
       <c r="HP44" t="n">
         <v>139</v>
       </c>
+      <c r="HQ44" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30772,6 +30904,9 @@
       <c r="HP45" t="n">
         <v>147</v>
       </c>
+      <c r="HQ45" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31448,6 +31583,9 @@
       <c r="HP46" t="n">
         <v>197</v>
       </c>
+      <c r="HQ46" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32124,6 +32262,9 @@
       <c r="HP47" t="n">
         <v>65.7</v>
       </c>
+      <c r="HQ47" t="n">
+        <v>70.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32800,6 +32941,9 @@
       <c r="HP48" t="n">
         <v>59</v>
       </c>
+      <c r="HQ48" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33476,6 +33620,9 @@
       <c r="HP49" t="n">
         <v>8</v>
       </c>
+      <c r="HQ49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34152,6 +34299,9 @@
       <c r="HP50" t="n">
         <v>5</v>
       </c>
+      <c r="HQ50" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34828,6 +34978,9 @@
       <c r="HP51" t="n">
         <v>29</v>
       </c>
+      <c r="HQ51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35504,6 +35657,9 @@
       <c r="HP52" t="n">
         <v>38</v>
       </c>
+      <c r="HQ52" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36180,6 +36336,9 @@
       <c r="HP53" t="n">
         <v>43</v>
       </c>
+      <c r="HQ53" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -36856,6 +37015,9 @@
       <c r="HP54" t="n">
         <v>1</v>
       </c>
+      <c r="HQ54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37532,6 +37694,9 @@
       <c r="HP55" t="n">
         <v>4</v>
       </c>
+      <c r="HQ55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38208,6 +38373,9 @@
       <c r="HP56" t="n">
         <v>66.7</v>
       </c>
+      <c r="HQ56" t="n">
+        <v>64.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -38884,6 +39052,9 @@
       <c r="HP57" t="n">
         <v>177</v>
       </c>
+      <c r="HQ57" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39560,6 +39731,9 @@
       <c r="HP58" t="n">
         <v>91</v>
       </c>
+      <c r="HQ58" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40236,6 +40410,9 @@
       <c r="HP59" t="n">
         <v>268</v>
       </c>
+      <c r="HQ59" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -40912,6 +41089,9 @@
       <c r="HP60" t="n">
         <v>1.95</v>
       </c>
+      <c r="HQ60" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41588,6 +41768,9 @@
       <c r="HP61" t="n">
         <v>32</v>
       </c>
+      <c r="HQ61" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42264,6 +42447,9 @@
       <c r="HP62" t="n">
         <v>66</v>
       </c>
+      <c r="HQ62" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -42940,6 +43126,9 @@
       <c r="HP63" t="n">
         <v>23</v>
       </c>
+      <c r="HQ63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43616,6 +43805,9 @@
       <c r="HP64" t="n">
         <v>19</v>
       </c>
+      <c r="HQ64" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44292,6 +44484,9 @@
       <c r="HP65" t="n">
         <v>24</v>
       </c>
+      <c r="HQ65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -44968,6 +45163,9 @@
       <c r="HP66" t="n">
         <v>6</v>
       </c>
+      <c r="HQ66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45644,6 +45842,9 @@
       <c r="HP67" t="n">
         <v>3</v>
       </c>
+      <c r="HQ67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46320,6 +46521,9 @@
       <c r="HP68" t="n">
         <v>7</v>
       </c>
+      <c r="HQ68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -46996,6 +47200,9 @@
       <c r="HP69" t="n">
         <v>3</v>
       </c>
+      <c r="HQ69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47672,6 +47879,9 @@
       <c r="HP70" t="n">
         <v>16</v>
       </c>
+      <c r="HQ70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48348,6 +48558,9 @@
       <c r="HP71" t="n">
         <v>37.5</v>
       </c>
+      <c r="HQ71" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49024,6 +49237,9 @@
       <c r="HP72" t="n">
         <v>44.67</v>
       </c>
+      <c r="HQ72" t="n">
+        <v>38.89</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49700,6 +49916,9 @@
       <c r="HP73" t="n">
         <v>16.75</v>
       </c>
+      <c r="HQ73" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50376,6 +50595,9 @@
       <c r="HP74" t="n">
         <v>41</v>
       </c>
+      <c r="HQ74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51052,6 +51274,9 @@
       <c r="HP75" t="n">
         <v>73</v>
       </c>
+      <c r="HQ75" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51728,6 +51953,9 @@
       <c r="HP76" t="n">
         <v>50</v>
       </c>
+      <c r="HQ76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52404,6 +52632,9 @@
       <c r="HP77" t="n">
         <v>44</v>
       </c>
+      <c r="HQ77" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53080,6 +53311,9 @@
       <c r="HP78" t="n">
         <v>2.75</v>
       </c>
+      <c r="HQ78" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53756,6 +53990,9 @@
       <c r="HP79" t="n">
         <v>7.33</v>
       </c>
+      <c r="HQ79" t="n">
+        <v>5.56</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54432,6 +54669,9 @@
       <c r="HP80" t="n">
         <v>29.5</v>
       </c>
+      <c r="HQ80" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55108,6 +55348,9 @@
       <c r="HP81" t="n">
         <v>13.6</v>
       </c>
+      <c r="HQ81" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -55784,6 +56027,9 @@
       <c r="HP82" t="n">
         <v>185.5</v>
       </c>
+      <c r="HQ82" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56460,6 +56706,9 @@
       <c r="HP83" t="n">
         <v>86.2</v>
       </c>
+      <c r="HQ83" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57136,6 +57385,9 @@
       <c r="HP84" t="n">
         <v>27.8</v>
       </c>
+      <c r="HQ84" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -57812,6 +58064,9 @@
       <c r="HP85" t="n">
         <v>132</v>
       </c>
+      <c r="HQ85" t="n">
+        <v>69.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58488,6 +58743,9 @@
       <c r="HP86" t="n">
         <v>4</v>
       </c>
+      <c r="HQ86" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59164,6 +59422,9 @@
       <c r="HP87" t="n">
         <v>6</v>
       </c>
+      <c r="HQ87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -59840,6 +60101,9 @@
       <c r="HP88" t="n">
         <v>3</v>
       </c>
+      <c r="HQ88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60516,6 +60780,9 @@
       <c r="HP89" t="n">
         <v>9</v>
       </c>
+      <c r="HQ89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61192,6 +61459,9 @@
       <c r="HP90" t="n">
         <v>134</v>
       </c>
+      <c r="HQ90" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -61868,6 +62138,9 @@
       <c r="HP91" t="n">
         <v>114</v>
       </c>
+      <c r="HQ91" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62544,6 +62817,9 @@
       <c r="HP92" t="n">
         <v>156</v>
       </c>
+      <c r="HQ92" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63220,6 +63496,9 @@
       <c r="HP93" t="n">
         <v>58.2</v>
       </c>
+      <c r="HQ93" t="n">
+        <v>73.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -63896,6 +64175,9 @@
       <c r="HP94" t="n">
         <v>73</v>
       </c>
+      <c r="HQ94" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64572,6 +64854,9 @@
       <c r="HP95" t="n">
         <v>9</v>
       </c>
+      <c r="HQ95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65248,6 +65533,9 @@
       <c r="HP96" t="n">
         <v>6</v>
       </c>
+      <c r="HQ96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -65924,6 +66212,9 @@
       <c r="HP97" t="n">
         <v>41</v>
       </c>
+      <c r="HQ97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66600,6 +66891,9 @@
       <c r="HP98" t="n">
         <v>50</v>
       </c>
+      <c r="HQ98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67276,6 +67570,9 @@
       <c r="HP99" t="n">
         <v>47</v>
       </c>
+      <c r="HQ99" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -67952,6 +68249,9 @@
       <c r="HP100" t="n">
         <v>2</v>
       </c>
+      <c r="HQ100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68628,6 +68928,9 @@
       <c r="HP101" t="n">
         <v>3</v>
       </c>
+      <c r="HQ101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69304,8 +69607,11 @@
       <c r="HP102" t="n">
         <v>50</v>
       </c>
+      <c r="HQ102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HQ102"/>
+  <dimension ref="A1:HR102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,6 +1031,9 @@
       <c r="HQ1" t="n">
         <v>10333</v>
       </c>
+      <c r="HR1" t="n">
+        <v>10339</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1710,6 +1713,9 @@
       <c r="HQ2" t="n">
         <v>2021</v>
       </c>
+      <c r="HR2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2389,6 +2395,9 @@
       <c r="HQ3" t="n">
         <v>1</v>
       </c>
+      <c r="HR3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3068,6 +3077,9 @@
       <c r="HQ4" t="n">
         <v>1</v>
       </c>
+      <c r="HR4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3747,6 +3759,9 @@
       <c r="HQ5" t="n">
         <v>1</v>
       </c>
+      <c r="HR5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4426,6 +4441,9 @@
       <c r="HQ6" t="n">
         <v>117</v>
       </c>
+      <c r="HR6" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5105,6 +5123,9 @@
       <c r="HQ7" t="n">
         <v>65</v>
       </c>
+      <c r="HR7" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5784,6 +5805,9 @@
       <c r="HQ8" t="n">
         <v>52</v>
       </c>
+      <c r="HR8" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6463,6 +6487,9 @@
       <c r="HQ9" t="n">
         <v>1</v>
       </c>
+      <c r="HR9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7142,6 +7169,9 @@
       <c r="HQ10" t="n">
         <v>12</v>
       </c>
+      <c r="HR10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7821,6 +7851,9 @@
       <c r="HQ11" t="n">
         <v>229</v>
       </c>
+      <c r="HR11" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8500,6 +8533,9 @@
       <c r="HQ12" t="n">
         <v>146</v>
       </c>
+      <c r="HR12" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9179,6 +9215,9 @@
       <c r="HQ13" t="n">
         <v>375</v>
       </c>
+      <c r="HR13" t="n">
+        <v>433</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9858,6 +9897,9 @@
       <c r="HQ14" t="n">
         <v>1.57</v>
       </c>
+      <c r="HR14" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10537,6 +10579,9 @@
       <c r="HQ15" t="n">
         <v>87</v>
       </c>
+      <c r="HR15" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11216,6 +11261,9 @@
       <c r="HQ16" t="n">
         <v>54</v>
       </c>
+      <c r="HR16" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11895,6 +11943,9 @@
       <c r="HQ17" t="n">
         <v>36</v>
       </c>
+      <c r="HR17" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12574,6 +12625,9 @@
       <c r="HQ18" t="n">
         <v>23</v>
       </c>
+      <c r="HR18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13253,6 +13307,9 @@
       <c r="HQ19" t="n">
         <v>33</v>
       </c>
+      <c r="HR19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13932,6 +13989,9 @@
       <c r="HQ20" t="n">
         <v>17</v>
       </c>
+      <c r="HR20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14611,6 +14671,9 @@
       <c r="HQ21" t="n">
         <v>11</v>
       </c>
+      <c r="HR21" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15290,6 +15353,9 @@
       <c r="HQ22" t="n">
         <v>13</v>
       </c>
+      <c r="HR22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -15969,6 +16035,9 @@
       <c r="HQ23" t="n">
         <v>2</v>
       </c>
+      <c r="HR23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16648,6 +16717,9 @@
       <c r="HQ24" t="n">
         <v>32</v>
       </c>
+      <c r="HR24" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17327,6 +17399,9 @@
       <c r="HQ25" t="n">
         <v>53.1</v>
       </c>
+      <c r="HR25" t="n">
+        <v>62.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18006,6 +18081,9 @@
       <c r="HQ26" t="n">
         <v>22.06</v>
       </c>
+      <c r="HR26" t="n">
+        <v>24.06</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18685,6 +18763,9 @@
       <c r="HQ27" t="n">
         <v>11.72</v>
       </c>
+      <c r="HR27" t="n">
+        <v>14.93</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19364,6 +19445,9 @@
       <c r="HQ28" t="n">
         <v>36</v>
       </c>
+      <c r="HR28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20043,6 +20127,9 @@
       <c r="HQ29" t="n">
         <v>68</v>
       </c>
+      <c r="HR29" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20722,6 +20809,9 @@
       <c r="HQ30" t="n">
         <v>40</v>
       </c>
+      <c r="HR30" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21401,6 +21491,9 @@
       <c r="HQ31" t="n">
         <v>60</v>
       </c>
+      <c r="HR31" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22080,6 +22173,9 @@
       <c r="HQ32" t="n">
         <v>1.88</v>
       </c>
+      <c r="HR32" t="n">
+        <v>2.14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22759,6 +22855,9 @@
       <c r="HQ33" t="n">
         <v>3.53</v>
       </c>
+      <c r="HR33" t="n">
+        <v>3.44</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23438,6 +23537,9 @@
       <c r="HQ34" t="n">
         <v>50</v>
       </c>
+      <c r="HR34" t="n">
+        <v>43.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24117,6 +24219,9 @@
       <c r="HQ35" t="n">
         <v>28.3</v>
       </c>
+      <c r="HR35" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24796,6 +24901,9 @@
       <c r="HQ36" t="n">
         <v>188.3</v>
       </c>
+      <c r="HR36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25475,6 +25583,9 @@
       <c r="HQ37" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="HR37" t="n">
+        <v>83.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26154,6 +26265,9 @@
       <c r="HQ38" t="n">
         <v>25.91</v>
       </c>
+      <c r="HR38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26833,6 +26947,9 @@
       <c r="HQ39" t="n">
         <v>99.5</v>
       </c>
+      <c r="HR39" t="n">
+        <v>100.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27512,6 +27629,9 @@
       <c r="HQ40" t="n">
         <v>7</v>
       </c>
+      <c r="HR40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28191,6 +28311,9 @@
       <c r="HQ41" t="n">
         <v>6</v>
       </c>
+      <c r="HR41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28870,6 +28993,9 @@
       <c r="HQ42" t="n">
         <v>3</v>
       </c>
+      <c r="HR42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29549,6 +29675,9 @@
       <c r="HQ43" t="n">
         <v>7</v>
       </c>
+      <c r="HR43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30228,6 +30357,9 @@
       <c r="HQ44" t="n">
         <v>148</v>
       </c>
+      <c r="HR44" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -30907,6 +31039,9 @@
       <c r="HQ45" t="n">
         <v>220</v>
       </c>
+      <c r="HR45" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31586,6 +31721,9 @@
       <c r="HQ46" t="n">
         <v>263</v>
       </c>
+      <c r="HR46" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32265,6 +32403,9 @@
       <c r="HQ47" t="n">
         <v>70.09999999999999</v>
       </c>
+      <c r="HR47" t="n">
+        <v>75.8</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -32944,6 +33085,9 @@
       <c r="HQ48" t="n">
         <v>68</v>
       </c>
+      <c r="HR48" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33623,6 +33767,9 @@
       <c r="HQ49" t="n">
         <v>10</v>
       </c>
+      <c r="HR49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34302,6 +34449,9 @@
       <c r="HQ50" t="n">
         <v>17</v>
       </c>
+      <c r="HR50" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -34981,6 +35131,9 @@
       <c r="HQ51" t="n">
         <v>36</v>
       </c>
+      <c r="HR51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35660,6 +35813,9 @@
       <c r="HQ52" t="n">
         <v>40</v>
       </c>
+      <c r="HR52" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36339,6 +36495,9 @@
       <c r="HQ53" t="n">
         <v>50</v>
       </c>
+      <c r="HR53" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37018,6 +37177,9 @@
       <c r="HQ54" t="n">
         <v>9</v>
       </c>
+      <c r="HR54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37697,6 +37859,9 @@
       <c r="HQ55" t="n">
         <v>11</v>
       </c>
+      <c r="HR55" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38376,6 +38541,9 @@
       <c r="HQ56" t="n">
         <v>64.7</v>
       </c>
+      <c r="HR56" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39055,6 +39223,9 @@
       <c r="HQ57" t="n">
         <v>193</v>
       </c>
+      <c r="HR57" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39734,6 +39905,9 @@
       <c r="HQ58" t="n">
         <v>157</v>
       </c>
+      <c r="HR58" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40413,6 +40587,9 @@
       <c r="HQ59" t="n">
         <v>350</v>
       </c>
+      <c r="HR59" t="n">
+        <v>342</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41092,6 +41269,9 @@
       <c r="HQ60" t="n">
         <v>1.23</v>
       </c>
+      <c r="HR60" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41771,6 +41951,9 @@
       <c r="HQ61" t="n">
         <v>77</v>
       </c>
+      <c r="HR61" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42450,6 +42633,9 @@
       <c r="HQ62" t="n">
         <v>56</v>
       </c>
+      <c r="HR62" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43129,6 +43315,9 @@
       <c r="HQ63" t="n">
         <v>28</v>
       </c>
+      <c r="HR63" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -43808,6 +43997,9 @@
       <c r="HQ64" t="n">
         <v>33</v>
       </c>
+      <c r="HR64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44487,6 +44679,9 @@
       <c r="HQ65" t="n">
         <v>23</v>
       </c>
+      <c r="HR65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45166,6 +45361,9 @@
       <c r="HQ66" t="n">
         <v>9</v>
       </c>
+      <c r="HR66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -45845,6 +46043,9 @@
       <c r="HQ67" t="n">
         <v>6</v>
       </c>
+      <c r="HR67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46524,6 +46725,9 @@
       <c r="HQ68" t="n">
         <v>9</v>
       </c>
+      <c r="HR68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47203,6 +47407,9 @@
       <c r="HQ69" t="n">
         <v>2</v>
       </c>
+      <c r="HR69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -47882,6 +48089,9 @@
       <c r="HQ70" t="n">
         <v>20</v>
       </c>
+      <c r="HR70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48561,6 +48771,9 @@
       <c r="HQ71" t="n">
         <v>45</v>
       </c>
+      <c r="HR71" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49240,6 +49453,9 @@
       <c r="HQ72" t="n">
         <v>38.89</v>
       </c>
+      <c r="HR72" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -49919,6 +50135,9 @@
       <c r="HQ73" t="n">
         <v>17.5</v>
       </c>
+      <c r="HR73" t="n">
+        <v>17.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50598,6 +50817,9 @@
       <c r="HQ74" t="n">
         <v>29</v>
       </c>
+      <c r="HR74" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51277,6 +51499,9 @@
       <c r="HQ75" t="n">
         <v>64</v>
       </c>
+      <c r="HR75" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -51956,6 +52181,9 @@
       <c r="HQ76" t="n">
         <v>43</v>
       </c>
+      <c r="HR76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52635,6 +52863,9 @@
       <c r="HQ77" t="n">
         <v>50</v>
       </c>
+      <c r="HR77" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53314,6 +53545,9 @@
       <c r="HQ78" t="n">
         <v>2.5</v>
       </c>
+      <c r="HR78" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -53993,6 +54227,9 @@
       <c r="HQ79" t="n">
         <v>5.56</v>
       </c>
+      <c r="HR79" t="n">
+        <v>4.33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54672,6 +54909,9 @@
       <c r="HQ80" t="n">
         <v>36</v>
       </c>
+      <c r="HR80" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55351,6 +55591,9 @@
       <c r="HQ81" t="n">
         <v>18</v>
       </c>
+      <c r="HR81" t="n">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56030,6 +56273,9 @@
       <c r="HQ82" t="n">
         <v>188.4</v>
       </c>
+      <c r="HR82" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56709,6 +56955,9 @@
       <c r="HQ83" t="n">
         <v>83.7</v>
       </c>
+      <c r="HR83" t="n">
+        <v>84.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57388,6 +57637,9 @@
       <c r="HQ84" t="n">
         <v>24</v>
       </c>
+      <c r="HR84" t="n">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58067,6 +58319,9 @@
       <c r="HQ85" t="n">
         <v>69.7</v>
       </c>
+      <c r="HR85" t="n">
+        <v>66.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -58746,6 +59001,9 @@
       <c r="HQ86" t="n">
         <v>13</v>
       </c>
+      <c r="HR86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59425,6 +59683,9 @@
       <c r="HQ87" t="n">
         <v>4</v>
       </c>
+      <c r="HR87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60104,6 +60365,9 @@
       <c r="HQ88" t="n">
         <v>3</v>
       </c>
+      <c r="HR88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -60783,6 +61047,9 @@
       <c r="HQ89" t="n">
         <v>3</v>
       </c>
+      <c r="HR89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61462,6 +61729,9 @@
       <c r="HQ90" t="n">
         <v>138</v>
       </c>
+      <c r="HR90" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62141,6 +62411,9 @@
       <c r="HQ91" t="n">
         <v>205</v>
       </c>
+      <c r="HR91" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -62820,6 +63093,9 @@
       <c r="HQ92" t="n">
         <v>257</v>
       </c>
+      <c r="HR92" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63499,6 +63775,9 @@
       <c r="HQ93" t="n">
         <v>73.40000000000001</v>
       </c>
+      <c r="HR93" t="n">
+        <v>73.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64178,6 +64457,9 @@
       <c r="HQ94" t="n">
         <v>64</v>
       </c>
+      <c r="HR94" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -64857,6 +65139,9 @@
       <c r="HQ95" t="n">
         <v>6</v>
       </c>
+      <c r="HR95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65536,6 +65821,9 @@
       <c r="HQ96" t="n">
         <v>8</v>
       </c>
+      <c r="HR96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66215,6 +66503,9 @@
       <c r="HQ97" t="n">
         <v>29</v>
       </c>
+      <c r="HR97" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -66894,6 +67185,9 @@
       <c r="HQ98" t="n">
         <v>43</v>
       </c>
+      <c r="HR98" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67573,6 +67867,9 @@
       <c r="HQ99" t="n">
         <v>52</v>
       </c>
+      <c r="HR99" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68252,6 +68549,9 @@
       <c r="HQ100" t="n">
         <v>6</v>
       </c>
+      <c r="HR100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -68931,6 +69231,9 @@
       <c r="HQ101" t="n">
         <v>6</v>
       </c>
+      <c r="HR101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69610,6 +69913,9 @@
       <c r="HQ102" t="n">
         <v>66.7</v>
       </c>
+      <c r="HR102" t="n">
+        <v>44.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HR102"/>
+  <dimension ref="A1:HS102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,6 +1034,9 @@
       <c r="HR1" t="n">
         <v>10339</v>
       </c>
+      <c r="HS1" t="n">
+        <v>10350</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1716,6 +1719,9 @@
       <c r="HR2" t="n">
         <v>2021</v>
       </c>
+      <c r="HS2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2398,6 +2404,9 @@
       <c r="HR3" t="n">
         <v>2</v>
       </c>
+      <c r="HS3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3080,6 +3089,9 @@
       <c r="HR4" t="n">
         <v>0</v>
       </c>
+      <c r="HS4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3762,6 +3774,9 @@
       <c r="HR5" t="n">
         <v>0</v>
       </c>
+      <c r="HS5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4444,6 +4459,9 @@
       <c r="HR6" t="n">
         <v>119</v>
       </c>
+      <c r="HS6" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5126,6 +5144,9 @@
       <c r="HR7" t="n">
         <v>65</v>
       </c>
+      <c r="HS7" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5808,6 +5829,9 @@
       <c r="HR8" t="n">
         <v>54</v>
       </c>
+      <c r="HS8" t="n">
+        <v>-37</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6490,6 +6514,9 @@
       <c r="HR9" t="n">
         <v>1</v>
       </c>
+      <c r="HS9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7172,6 +7199,9 @@
       <c r="HR10" t="n">
         <v>5</v>
       </c>
+      <c r="HS10" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7854,6 +7884,9 @@
       <c r="HR11" t="n">
         <v>242</v>
       </c>
+      <c r="HS11" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8536,6 +8569,9 @@
       <c r="HR12" t="n">
         <v>191</v>
       </c>
+      <c r="HS12" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9218,6 +9254,9 @@
       <c r="HR13" t="n">
         <v>433</v>
       </c>
+      <c r="HS13" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9900,6 +9939,9 @@
       <c r="HR14" t="n">
         <v>1.27</v>
       </c>
+      <c r="HS14" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10582,6 +10624,9 @@
       <c r="HR15" t="n">
         <v>104</v>
       </c>
+      <c r="HS15" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11264,6 +11309,9 @@
       <c r="HR16" t="n">
         <v>50</v>
       </c>
+      <c r="HS16" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11946,6 +11994,9 @@
       <c r="HR17" t="n">
         <v>38</v>
       </c>
+      <c r="HS17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12628,6 +12679,9 @@
       <c r="HR18" t="n">
         <v>23</v>
       </c>
+      <c r="HS18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13310,6 +13364,9 @@
       <c r="HR19" t="n">
         <v>20</v>
       </c>
+      <c r="HS19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13992,6 +14049,9 @@
       <c r="HR20" t="n">
         <v>18</v>
       </c>
+      <c r="HS20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14674,6 +14734,9 @@
       <c r="HR21" t="n">
         <v>14</v>
       </c>
+      <c r="HS21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15356,6 +15419,9 @@
       <c r="HR22" t="n">
         <v>9</v>
       </c>
+      <c r="HS22" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16038,6 +16104,9 @@
       <c r="HR23" t="n">
         <v>2</v>
       </c>
+      <c r="HS23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16720,6 +16789,9 @@
       <c r="HR24" t="n">
         <v>29</v>
       </c>
+      <c r="HS24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17402,6 +17474,9 @@
       <c r="HR25" t="n">
         <v>62.1</v>
       </c>
+      <c r="HS25" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18084,6 +18159,9 @@
       <c r="HR26" t="n">
         <v>24.06</v>
       </c>
+      <c r="HS26" t="n">
+        <v>31.91</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18766,6 +18844,9 @@
       <c r="HR27" t="n">
         <v>14.93</v>
       </c>
+      <c r="HS27" t="n">
+        <v>21.94</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19448,6 +19529,9 @@
       <c r="HR28" t="n">
         <v>39</v>
       </c>
+      <c r="HS28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20130,6 +20214,9 @@
       <c r="HR29" t="n">
         <v>70</v>
       </c>
+      <c r="HS29" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20812,6 +20899,9 @@
       <c r="HR30" t="n">
         <v>29</v>
       </c>
+      <c r="HS30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21494,6 +21584,9 @@
       <c r="HR31" t="n">
         <v>62</v>
       </c>
+      <c r="HS31" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22176,6 +22269,9 @@
       <c r="HR32" t="n">
         <v>2.14</v>
       </c>
+      <c r="HS32" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22858,6 +22954,9 @@
       <c r="HR33" t="n">
         <v>3.44</v>
       </c>
+      <c r="HS33" t="n">
+        <v>3.64</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23540,6 +23639,9 @@
       <c r="HR34" t="n">
         <v>43.5</v>
       </c>
+      <c r="HS34" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24222,6 +24324,9 @@
       <c r="HR35" t="n">
         <v>29</v>
       </c>
+      <c r="HS35" t="n">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -24904,6 +25009,9 @@
       <c r="HR36" t="n">
         <v>187.9</v>
       </c>
+      <c r="HS36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25586,6 +25694,9 @@
       <c r="HR37" t="n">
         <v>83.40000000000001</v>
       </c>
+      <c r="HS37" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26268,6 +26379,9 @@
       <c r="HR38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HS38" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -26950,6 +27064,9 @@
       <c r="HR39" t="n">
         <v>100.3</v>
       </c>
+      <c r="HS39" t="n">
+        <v>103.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27632,6 +27749,9 @@
       <c r="HR40" t="n">
         <v>7</v>
       </c>
+      <c r="HS40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28314,6 +28434,9 @@
       <c r="HR41" t="n">
         <v>5</v>
       </c>
+      <c r="HS41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -28996,6 +29119,9 @@
       <c r="HR42" t="n">
         <v>3</v>
       </c>
+      <c r="HS42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29678,6 +29804,9 @@
       <c r="HR43" t="n">
         <v>7</v>
       </c>
+      <c r="HS43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30360,6 +30489,9 @@
       <c r="HR44" t="n">
         <v>154</v>
       </c>
+      <c r="HS44" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31042,6 +31174,9 @@
       <c r="HR45" t="n">
         <v>277</v>
       </c>
+      <c r="HS45" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31724,6 +31859,9 @@
       <c r="HR46" t="n">
         <v>328</v>
       </c>
+      <c r="HS46" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32406,6 +32544,9 @@
       <c r="HR47" t="n">
         <v>75.8</v>
       </c>
+      <c r="HS47" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33088,6 +33229,9 @@
       <c r="HR48" t="n">
         <v>70</v>
       </c>
+      <c r="HS48" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33770,6 +33914,9 @@
       <c r="HR49" t="n">
         <v>10</v>
       </c>
+      <c r="HS49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34452,6 +34599,9 @@
       <c r="HR50" t="n">
         <v>18</v>
       </c>
+      <c r="HS50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35134,6 +35284,9 @@
       <c r="HR51" t="n">
         <v>39</v>
       </c>
+      <c r="HS51" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35816,6 +35969,9 @@
       <c r="HR52" t="n">
         <v>29</v>
       </c>
+      <c r="HS52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36498,6 +36654,9 @@
       <c r="HR53" t="n">
         <v>45</v>
       </c>
+      <c r="HS53" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37180,6 +37339,9 @@
       <c r="HR54" t="n">
         <v>8</v>
       </c>
+      <c r="HS54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -37862,6 +38024,9 @@
       <c r="HR55" t="n">
         <v>14</v>
       </c>
+      <c r="HS55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38544,6 +38709,9 @@
       <c r="HR56" t="n">
         <v>77.8</v>
       </c>
+      <c r="HS56" t="n">
+        <v>90.90000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39226,6 +39394,9 @@
       <c r="HR57" t="n">
         <v>198</v>
       </c>
+      <c r="HS57" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -39908,6 +40079,9 @@
       <c r="HR58" t="n">
         <v>144</v>
       </c>
+      <c r="HS58" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40590,6 +40764,9 @@
       <c r="HR59" t="n">
         <v>342</v>
       </c>
+      <c r="HS59" t="n">
+        <v>412</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41272,6 +41449,9 @@
       <c r="HR60" t="n">
         <v>1.38</v>
       </c>
+      <c r="HS60" t="n">
+        <v>1.94</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41954,6 +42134,9 @@
       <c r="HR61" t="n">
         <v>82</v>
       </c>
+      <c r="HS61" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42636,6 +42819,9 @@
       <c r="HR62" t="n">
         <v>55</v>
       </c>
+      <c r="HS62" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43318,6 +43504,9 @@
       <c r="HR63" t="n">
         <v>24</v>
       </c>
+      <c r="HS63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44000,6 +44189,9 @@
       <c r="HR64" t="n">
         <v>20</v>
       </c>
+      <c r="HS64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44682,6 +44874,9 @@
       <c r="HR65" t="n">
         <v>23</v>
       </c>
+      <c r="HS65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45364,6 +45559,9 @@
       <c r="HR66" t="n">
         <v>9</v>
       </c>
+      <c r="HS66" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46046,6 +46244,9 @@
       <c r="HR67" t="n">
         <v>4</v>
       </c>
+      <c r="HS67" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46728,6 +46929,9 @@
       <c r="HR68" t="n">
         <v>7</v>
       </c>
+      <c r="HS68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47410,6 +47614,9 @@
       <c r="HR69" t="n">
         <v>4</v>
       </c>
+      <c r="HS69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48092,6 +48299,9 @@
       <c r="HR70" t="n">
         <v>20</v>
       </c>
+      <c r="HS70" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48774,6 +48984,9 @@
       <c r="HR71" t="n">
         <v>45</v>
       </c>
+      <c r="HS71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49456,6 +49669,9 @@
       <c r="HR72" t="n">
         <v>38</v>
       </c>
+      <c r="HS72" t="n">
+        <v>25.75</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50138,6 +50354,9 @@
       <c r="HR73" t="n">
         <v>17.1</v>
       </c>
+      <c r="HS73" t="n">
+        <v>14.71</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -50820,6 +51039,9 @@
       <c r="HR74" t="n">
         <v>28</v>
       </c>
+      <c r="HS74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51502,6 +51724,9 @@
       <c r="HR75" t="n">
         <v>62</v>
       </c>
+      <c r="HS75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52184,6 +52409,9 @@
       <c r="HR76" t="n">
         <v>44</v>
       </c>
+      <c r="HS76" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -52866,6 +53094,9 @@
       <c r="HR77" t="n">
         <v>39</v>
       </c>
+      <c r="HS77" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53548,6 +53779,9 @@
       <c r="HR78" t="n">
         <v>1.95</v>
       </c>
+      <c r="HS78" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54230,6 +54464,9 @@
       <c r="HR79" t="n">
         <v>4.33</v>
       </c>
+      <c r="HS79" t="n">
+        <v>3.56</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -54912,6 +55149,9 @@
       <c r="HR80" t="n">
         <v>41</v>
       </c>
+      <c r="HS80" t="n">
+        <v>47.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55594,6 +55834,9 @@
       <c r="HR81" t="n">
         <v>23.1</v>
       </c>
+      <c r="HS81" t="n">
+        <v>28.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56276,6 +56519,9 @@
       <c r="HR82" t="n">
         <v>186.9</v>
       </c>
+      <c r="HS82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -56958,6 +57204,9 @@
       <c r="HR83" t="n">
         <v>84.5</v>
       </c>
+      <c r="HS83" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57640,6 +57889,9 @@
       <c r="HR84" t="n">
         <v>24.33</v>
       </c>
+      <c r="HS84" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58322,6 +58574,9 @@
       <c r="HR85" t="n">
         <v>66.40000000000001</v>
       </c>
+      <c r="HS85" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59004,6 +59259,9 @@
       <c r="HR86" t="n">
         <v>12</v>
       </c>
+      <c r="HS86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59686,6 +59944,9 @@
       <c r="HR87" t="n">
         <v>6</v>
       </c>
+      <c r="HS87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60368,6 +60629,9 @@
       <c r="HR88" t="n">
         <v>2</v>
       </c>
+      <c r="HS88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61050,6 +61314,9 @@
       <c r="HR89" t="n">
         <v>3</v>
       </c>
+      <c r="HS89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -61732,6 +61999,9 @@
       <c r="HR90" t="n">
         <v>128</v>
       </c>
+      <c r="HS90" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62414,6 +62684,9 @@
       <c r="HR91" t="n">
         <v>210</v>
       </c>
+      <c r="HS91" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63096,6 +63369,9 @@
       <c r="HR92" t="n">
         <v>251</v>
       </c>
+      <c r="HS92" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -63778,6 +64054,9 @@
       <c r="HR93" t="n">
         <v>73.40000000000001</v>
       </c>
+      <c r="HS93" t="n">
+        <v>79.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64460,6 +64739,9 @@
       <c r="HR94" t="n">
         <v>62</v>
       </c>
+      <c r="HS94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65142,6 +65424,9 @@
       <c r="HR95" t="n">
         <v>9</v>
       </c>
+      <c r="HS95" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -65824,6 +66109,9 @@
       <c r="HR96" t="n">
         <v>10</v>
       </c>
+      <c r="HS96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66506,6 +66794,9 @@
       <c r="HR97" t="n">
         <v>28</v>
       </c>
+      <c r="HS97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67188,6 +67479,9 @@
       <c r="HR98" t="n">
         <v>44</v>
       </c>
+      <c r="HS98" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -67870,6 +68164,9 @@
       <c r="HR99" t="n">
         <v>52</v>
       </c>
+      <c r="HS99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68552,6 +68849,9 @@
       <c r="HR100" t="n">
         <v>3</v>
       </c>
+      <c r="HS100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69234,6 +69534,9 @@
       <c r="HR101" t="n">
         <v>4</v>
       </c>
+      <c r="HS101" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -69916,6 +70219,9 @@
       <c r="HR102" t="n">
         <v>44.4</v>
       </c>
+      <c r="HS102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HS102"/>
+  <dimension ref="A1:HT102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,6 +1037,9 @@
       <c r="HS1" t="n">
         <v>10350</v>
       </c>
+      <c r="HT1" t="n">
+        <v>10355</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1722,6 +1725,9 @@
       <c r="HS2" t="n">
         <v>2021</v>
       </c>
+      <c r="HT2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2407,6 +2413,9 @@
       <c r="HS3" t="n">
         <v>3</v>
       </c>
+      <c r="HT3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3092,6 +3101,9 @@
       <c r="HS4" t="n">
         <v>1</v>
       </c>
+      <c r="HT4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3777,6 +3789,9 @@
       <c r="HS5" t="n">
         <v>0</v>
       </c>
+      <c r="HT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4462,6 +4477,9 @@
       <c r="HS6" t="n">
         <v>71</v>
       </c>
+      <c r="HT6" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5147,6 +5165,9 @@
       <c r="HS7" t="n">
         <v>108</v>
       </c>
+      <c r="HT7" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5832,6 +5853,9 @@
       <c r="HS8" t="n">
         <v>-37</v>
       </c>
+      <c r="HT8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6517,6 +6541,9 @@
       <c r="HS9" t="n">
         <v>0</v>
       </c>
+      <c r="HT9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7202,6 +7229,9 @@
       <c r="HS10" t="n">
         <v>17</v>
       </c>
+      <c r="HT10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7887,6 +7917,9 @@
       <c r="HS11" t="n">
         <v>198</v>
       </c>
+      <c r="HT11" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8572,6 +8605,9 @@
       <c r="HS12" t="n">
         <v>153</v>
       </c>
+      <c r="HT12" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9257,6 +9293,9 @@
       <c r="HS13" t="n">
         <v>351</v>
       </c>
+      <c r="HT13" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9942,6 +9981,9 @@
       <c r="HS14" t="n">
         <v>1.29</v>
       </c>
+      <c r="HT14" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10627,6 +10669,9 @@
       <c r="HS15" t="n">
         <v>87</v>
       </c>
+      <c r="HT15" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11312,6 +11357,9 @@
       <c r="HS16" t="n">
         <v>52</v>
       </c>
+      <c r="HT16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -11997,6 +12045,9 @@
       <c r="HS17" t="n">
         <v>30</v>
       </c>
+      <c r="HT17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12682,6 +12733,9 @@
       <c r="HS18" t="n">
         <v>16</v>
       </c>
+      <c r="HT18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13367,6 +13421,9 @@
       <c r="HS19" t="n">
         <v>21</v>
       </c>
+      <c r="HT19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14052,6 +14109,9 @@
       <c r="HS20" t="n">
         <v>11</v>
       </c>
+      <c r="HT20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14737,6 +14797,9 @@
       <c r="HS21" t="n">
         <v>10</v>
       </c>
+      <c r="HT21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15422,6 +15485,9 @@
       <c r="HS22" t="n">
         <v>4</v>
       </c>
+      <c r="HT22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16107,6 +16173,9 @@
       <c r="HS23" t="n">
         <v>1</v>
       </c>
+      <c r="HT23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16792,6 +16861,9 @@
       <c r="HS24" t="n">
         <v>16</v>
       </c>
+      <c r="HT24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17477,6 +17549,9 @@
       <c r="HS25" t="n">
         <v>68.8</v>
       </c>
+      <c r="HT25" t="n">
+        <v>45.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18162,6 +18237,9 @@
       <c r="HS26" t="n">
         <v>31.91</v>
       </c>
+      <c r="HT26" t="n">
+        <v>34.64</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18847,6 +18925,9 @@
       <c r="HS27" t="n">
         <v>21.94</v>
       </c>
+      <c r="HT27" t="n">
+        <v>15.88</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19532,6 +19613,9 @@
       <c r="HS28" t="n">
         <v>27</v>
       </c>
+      <c r="HT28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20217,6 +20301,9 @@
       <c r="HS29" t="n">
         <v>59</v>
       </c>
+      <c r="HT29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20902,6 +20989,9 @@
       <c r="HS30" t="n">
         <v>41</v>
       </c>
+      <c r="HT30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21587,6 +21677,9 @@
       <c r="HS31" t="n">
         <v>40</v>
       </c>
+      <c r="HT31" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22272,6 +22365,9 @@
       <c r="HS32" t="n">
         <v>2.5</v>
       </c>
+      <c r="HT32" t="n">
+        <v>2.54</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -22957,6 +23053,9 @@
       <c r="HS33" t="n">
         <v>3.64</v>
       </c>
+      <c r="HT33" t="n">
+        <v>5.55</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23642,6 +23741,9 @@
       <c r="HS34" t="n">
         <v>37.5</v>
       </c>
+      <c r="HT34" t="n">
+        <v>34.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24327,6 +24429,9 @@
       <c r="HS35" t="n">
         <v>27.5</v>
       </c>
+      <c r="HT35" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25012,6 +25117,9 @@
       <c r="HS36" t="n">
         <v>188.5</v>
       </c>
+      <c r="HT36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25697,6 +25805,9 @@
       <c r="HS37" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="HT37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26382,6 +26493,9 @@
       <c r="HS38" t="n">
         <v>25.91</v>
       </c>
+      <c r="HT38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27067,6 +27181,9 @@
       <c r="HS39" t="n">
         <v>103.4</v>
       </c>
+      <c r="HT39" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27752,6 +27869,9 @@
       <c r="HS40" t="n">
         <v>7</v>
       </c>
+      <c r="HT40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28437,6 +28557,9 @@
       <c r="HS41" t="n">
         <v>5</v>
       </c>
+      <c r="HT41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29122,6 +29245,9 @@
       <c r="HS42" t="n">
         <v>3</v>
       </c>
+      <c r="HT42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29807,6 +29933,9 @@
       <c r="HS43" t="n">
         <v>7</v>
       </c>
+      <c r="HT43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30492,6 +30621,9 @@
       <c r="HS44" t="n">
         <v>135</v>
       </c>
+      <c r="HT44" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31177,6 +31309,9 @@
       <c r="HS45" t="n">
         <v>211</v>
       </c>
+      <c r="HT45" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -31862,6 +31997,9 @@
       <c r="HS46" t="n">
         <v>264</v>
       </c>
+      <c r="HT46" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32547,6 +32685,9 @@
       <c r="HS47" t="n">
         <v>75.2</v>
       </c>
+      <c r="HT47" t="n">
+        <v>69.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33232,6 +33373,9 @@
       <c r="HS48" t="n">
         <v>59</v>
       </c>
+      <c r="HT48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33917,6 +34061,9 @@
       <c r="HS49" t="n">
         <v>13</v>
       </c>
+      <c r="HT49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34602,6 +34749,9 @@
       <c r="HS50" t="n">
         <v>9</v>
       </c>
+      <c r="HT50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35287,6 +35437,9 @@
       <c r="HS51" t="n">
         <v>27</v>
       </c>
+      <c r="HT51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -35972,6 +36125,9 @@
       <c r="HS52" t="n">
         <v>41</v>
       </c>
+      <c r="HT52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36657,6 +36813,9 @@
       <c r="HS53" t="n">
         <v>54</v>
       </c>
+      <c r="HT53" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37342,6 +37501,9 @@
       <c r="HS54" t="n">
         <v>4</v>
       </c>
+      <c r="HT54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38027,6 +38189,9 @@
       <c r="HS55" t="n">
         <v>10</v>
       </c>
+      <c r="HT55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38712,6 +38877,9 @@
       <c r="HS56" t="n">
         <v>90.90000000000001</v>
       </c>
+      <c r="HT56" t="n">
+        <v>54.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39397,6 +39565,9 @@
       <c r="HS57" t="n">
         <v>272</v>
       </c>
+      <c r="HT57" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40082,6 +40253,9 @@
       <c r="HS58" t="n">
         <v>140</v>
       </c>
+      <c r="HT58" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40767,6 +40941,9 @@
       <c r="HS59" t="n">
         <v>412</v>
       </c>
+      <c r="HT59" t="n">
+        <v>366</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41452,6 +41629,9 @@
       <c r="HS60" t="n">
         <v>1.94</v>
       </c>
+      <c r="HT60" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42137,6 +42317,9 @@
       <c r="HS61" t="n">
         <v>141</v>
       </c>
+      <c r="HT61" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -42822,6 +43005,9 @@
       <c r="HS62" t="n">
         <v>46</v>
       </c>
+      <c r="HT62" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43507,6 +43693,9 @@
       <c r="HS63" t="n">
         <v>32</v>
       </c>
+      <c r="HT63" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44192,6 +44381,9 @@
       <c r="HS64" t="n">
         <v>21</v>
       </c>
+      <c r="HT64" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -44877,6 +45069,9 @@
       <c r="HS65" t="n">
         <v>16</v>
       </c>
+      <c r="HT65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45562,6 +45757,9 @@
       <c r="HS66" t="n">
         <v>16</v>
       </c>
+      <c r="HT66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46247,6 +46445,9 @@
       <c r="HS67" t="n">
         <v>12</v>
       </c>
+      <c r="HT67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -46932,6 +47133,9 @@
       <c r="HS68" t="n">
         <v>11</v>
       </c>
+      <c r="HT68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47617,6 +47821,9 @@
       <c r="HS69" t="n">
         <v>1</v>
       </c>
+      <c r="HT69" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48302,6 +48509,9 @@
       <c r="HS70" t="n">
         <v>28</v>
       </c>
+      <c r="HT70" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -48987,6 +49197,9 @@
       <c r="HS71" t="n">
         <v>57.1</v>
       </c>
+      <c r="HT71" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49672,6 +49885,9 @@
       <c r="HS72" t="n">
         <v>25.75</v>
       </c>
+      <c r="HT72" t="n">
+        <v>33.27</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50357,6 +50573,9 @@
       <c r="HS73" t="n">
         <v>14.71</v>
       </c>
+      <c r="HT73" t="n">
+        <v>16.64</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51042,6 +51261,9 @@
       <c r="HS74" t="n">
         <v>41</v>
       </c>
+      <c r="HT74" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51727,6 +51949,9 @@
       <c r="HS75" t="n">
         <v>49</v>
       </c>
+      <c r="HT75" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52412,6 +52637,9 @@
       <c r="HS76" t="n">
         <v>29</v>
       </c>
+      <c r="HT76" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53097,6 +53325,9 @@
       <c r="HS77" t="n">
         <v>57</v>
       </c>
+      <c r="HT77" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -53782,6 +54013,9 @@
       <c r="HS78" t="n">
         <v>2.04</v>
       </c>
+      <c r="HT78" t="n">
+        <v>2.23</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54467,6 +54701,9 @@
       <c r="HS79" t="n">
         <v>3.56</v>
       </c>
+      <c r="HT79" t="n">
+        <v>4.45</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55152,6 +55389,9 @@
       <c r="HS80" t="n">
         <v>47.4</v>
       </c>
+      <c r="HT80" t="n">
+        <v>34.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -55837,6 +56077,9 @@
       <c r="HS81" t="n">
         <v>28.1</v>
       </c>
+      <c r="HT81" t="n">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56522,6 +56765,9 @@
       <c r="HS82" t="n">
         <v>187.7</v>
       </c>
+      <c r="HT82" t="n">
+        <v>185.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57207,6 +57453,9 @@
       <c r="HS83" t="n">
         <v>87.90000000000001</v>
       </c>
+      <c r="HT83" t="n">
+        <v>84.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -57892,6 +58141,9 @@
       <c r="HS84" t="n">
         <v>26.8</v>
       </c>
+      <c r="HT84" t="n">
+        <v>26.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58577,6 +58829,9 @@
       <c r="HS85" t="n">
         <v>124</v>
       </c>
+      <c r="HT85" t="n">
+        <v>113.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59262,6 +59517,9 @@
       <c r="HS86" t="n">
         <v>6</v>
       </c>
+      <c r="HT86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -59947,6 +60205,9 @@
       <c r="HS87" t="n">
         <v>5</v>
       </c>
+      <c r="HT87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60632,6 +60893,9 @@
       <c r="HS88" t="n">
         <v>3</v>
       </c>
+      <c r="HT88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61317,6 +61581,9 @@
       <c r="HS89" t="n">
         <v>9</v>
       </c>
+      <c r="HT89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62002,6 +62269,9 @@
       <c r="HS90" t="n">
         <v>152</v>
       </c>
+      <c r="HT90" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62687,6 +62957,9 @@
       <c r="HS91" t="n">
         <v>270</v>
       </c>
+      <c r="HT91" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63372,6 +63645,9 @@
       <c r="HS92" t="n">
         <v>329</v>
       </c>
+      <c r="HT92" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64057,6 +64333,9 @@
       <c r="HS93" t="n">
         <v>79.90000000000001</v>
       </c>
+      <c r="HT93" t="n">
+        <v>75.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -64742,6 +65021,9 @@
       <c r="HS94" t="n">
         <v>49</v>
       </c>
+      <c r="HT94" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65427,6 +65709,9 @@
       <c r="HS95" t="n">
         <v>21</v>
       </c>
+      <c r="HT95" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66112,6 +66397,9 @@
       <c r="HS96" t="n">
         <v>15</v>
       </c>
+      <c r="HT96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -66797,6 +67085,9 @@
       <c r="HS97" t="n">
         <v>41</v>
       </c>
+      <c r="HT97" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67482,6 +67773,9 @@
       <c r="HS98" t="n">
         <v>29</v>
       </c>
+      <c r="HT98" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68167,6 +68461,9 @@
       <c r="HS99" t="n">
         <v>56</v>
       </c>
+      <c r="HT99" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -68852,6 +69149,9 @@
       <c r="HS100" t="n">
         <v>0</v>
       </c>
+      <c r="HT100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69537,6 +69837,9 @@
       <c r="HS101" t="n">
         <v>12</v>
       </c>
+      <c r="HT101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70222,6 +70525,9 @@
       <c r="HS102" t="n">
         <v>75</v>
       </c>
+      <c r="HT102" t="n">
+        <v>72.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HT102"/>
+  <dimension ref="A1:HU102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1040,6 +1040,9 @@
       <c r="HT1" t="n">
         <v>10355</v>
       </c>
+      <c r="HU1" t="n">
+        <v>10367</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1728,6 +1731,9 @@
       <c r="HT2" t="n">
         <v>2021</v>
       </c>
+      <c r="HU2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2416,6 +2422,9 @@
       <c r="HT3" t="n">
         <v>4</v>
       </c>
+      <c r="HU3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3104,6 +3113,9 @@
       <c r="HT4" t="n">
         <v>0</v>
       </c>
+      <c r="HU4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3792,6 +3804,9 @@
       <c r="HT5" t="n">
         <v>0</v>
       </c>
+      <c r="HU5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4480,6 +4495,9 @@
       <c r="HT6" t="n">
         <v>79</v>
       </c>
+      <c r="HU6" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5168,6 +5186,9 @@
       <c r="HT7" t="n">
         <v>77</v>
       </c>
+      <c r="HU7" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5856,6 +5877,9 @@
       <c r="HT8" t="n">
         <v>2</v>
       </c>
+      <c r="HU8" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6544,6 +6568,9 @@
       <c r="HT9" t="n">
         <v>1</v>
       </c>
+      <c r="HU9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7232,6 +7259,9 @@
       <c r="HT10" t="n">
         <v>14</v>
       </c>
+      <c r="HU10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7920,6 +7950,9 @@
       <c r="HT11" t="n">
         <v>232</v>
       </c>
+      <c r="HU11" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8608,6 +8641,9 @@
       <c r="HT12" t="n">
         <v>149</v>
       </c>
+      <c r="HU12" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9296,6 +9332,9 @@
       <c r="HT13" t="n">
         <v>381</v>
       </c>
+      <c r="HU13" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -9984,6 +10023,9 @@
       <c r="HT14" t="n">
         <v>1.56</v>
       </c>
+      <c r="HU14" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10672,6 +10714,9 @@
       <c r="HT15" t="n">
         <v>95</v>
       </c>
+      <c r="HU15" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11360,6 +11405,9 @@
       <c r="HT16" t="n">
         <v>54</v>
       </c>
+      <c r="HU16" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12048,6 +12096,9 @@
       <c r="HT17" t="n">
         <v>25</v>
       </c>
+      <c r="HU17" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12736,6 +12787,9 @@
       <c r="HT18" t="n">
         <v>22</v>
       </c>
+      <c r="HU18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13424,6 +13478,9 @@
       <c r="HT19" t="n">
         <v>12</v>
       </c>
+      <c r="HU19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14112,6 +14169,9 @@
       <c r="HT20" t="n">
         <v>11</v>
       </c>
+      <c r="HU20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14800,6 +14860,9 @@
       <c r="HT21" t="n">
         <v>6</v>
       </c>
+      <c r="HU21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15488,6 +15551,9 @@
       <c r="HT22" t="n">
         <v>10</v>
       </c>
+      <c r="HU22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16176,6 +16242,9 @@
       <c r="HT23" t="n">
         <v>3</v>
       </c>
+      <c r="HU23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16864,6 +16933,9 @@
       <c r="HT24" t="n">
         <v>24</v>
       </c>
+      <c r="HU24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17552,6 +17624,9 @@
       <c r="HT25" t="n">
         <v>45.8</v>
       </c>
+      <c r="HU25" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18240,6 +18315,9 @@
       <c r="HT26" t="n">
         <v>34.64</v>
       </c>
+      <c r="HU26" t="n">
+        <v>26.67</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -18928,6 +19006,9 @@
       <c r="HT27" t="n">
         <v>15.88</v>
       </c>
+      <c r="HU27" t="n">
+        <v>19.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19616,6 +19697,9 @@
       <c r="HT28" t="n">
         <v>36</v>
       </c>
+      <c r="HU28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20304,6 +20388,9 @@
       <c r="HT29" t="n">
         <v>63</v>
       </c>
+      <c r="HU29" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -20992,6 +21079,9 @@
       <c r="HT30" t="n">
         <v>38</v>
       </c>
+      <c r="HU30" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21680,6 +21770,9 @@
       <c r="HT31" t="n">
         <v>61</v>
       </c>
+      <c r="HU31" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22368,6 +22461,9 @@
       <c r="HT32" t="n">
         <v>2.54</v>
       </c>
+      <c r="HU32" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23056,6 +23152,9 @@
       <c r="HT33" t="n">
         <v>5.55</v>
       </c>
+      <c r="HU33" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23744,6 +23843,9 @@
       <c r="HT34" t="n">
         <v>34.4</v>
       </c>
+      <c r="HU34" t="n">
+        <v>43.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24432,6 +24534,9 @@
       <c r="HT35" t="n">
         <v>18</v>
       </c>
+      <c r="HU35" t="n">
+        <v>31.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25120,6 +25225,9 @@
       <c r="HT36" t="n">
         <v>188</v>
       </c>
+      <c r="HU36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25808,6 +25916,9 @@
       <c r="HT37" t="n">
         <v>84</v>
       </c>
+      <c r="HU37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26496,6 +26607,9 @@
       <c r="HT38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HU38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27184,6 +27298,9 @@
       <c r="HT39" t="n">
         <v>103</v>
       </c>
+      <c r="HU39" t="n">
+        <v>101.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27872,6 +27989,9 @@
       <c r="HT40" t="n">
         <v>7</v>
       </c>
+      <c r="HU40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28560,6 +28680,9 @@
       <c r="HT41" t="n">
         <v>5</v>
       </c>
+      <c r="HU41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29248,6 +29371,9 @@
       <c r="HT42" t="n">
         <v>4</v>
       </c>
+      <c r="HU42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -29936,6 +30062,9 @@
       <c r="HT43" t="n">
         <v>7</v>
       </c>
+      <c r="HU43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30624,6 +30753,9 @@
       <c r="HT44" t="n">
         <v>154</v>
       </c>
+      <c r="HU44" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31312,6 +31444,9 @@
       <c r="HT45" t="n">
         <v>228</v>
       </c>
+      <c r="HU45" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32000,6 +32135,9 @@
       <c r="HT46" t="n">
         <v>264</v>
       </c>
+      <c r="HU46" t="n">
+        <v>304</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32688,6 +32826,9 @@
       <c r="HT47" t="n">
         <v>69.3</v>
       </c>
+      <c r="HU47" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33376,6 +33517,9 @@
       <c r="HT48" t="n">
         <v>63</v>
       </c>
+      <c r="HU48" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34064,6 +34208,9 @@
       <c r="HT49" t="n">
         <v>9</v>
       </c>
+      <c r="HU49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34752,6 +34899,9 @@
       <c r="HT50" t="n">
         <v>16</v>
       </c>
+      <c r="HU50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35440,6 +35590,9 @@
       <c r="HT51" t="n">
         <v>36</v>
       </c>
+      <c r="HU51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36128,6 +36281,9 @@
       <c r="HT52" t="n">
         <v>38</v>
       </c>
+      <c r="HU52" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36816,6 +36972,9 @@
       <c r="HT53" t="n">
         <v>62</v>
       </c>
+      <c r="HU53" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37504,6 +37663,9 @@
       <c r="HT54" t="n">
         <v>2</v>
       </c>
+      <c r="HU54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38192,6 +38354,9 @@
       <c r="HT55" t="n">
         <v>6</v>
       </c>
+      <c r="HU55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -38880,6 +39045,9 @@
       <c r="HT56" t="n">
         <v>54.5</v>
       </c>
+      <c r="HU56" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39568,6 +39736,9 @@
       <c r="HT57" t="n">
         <v>201</v>
       </c>
+      <c r="HU57" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40256,6 +40427,9 @@
       <c r="HT58" t="n">
         <v>165</v>
       </c>
+      <c r="HU58" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -40944,6 +41118,9 @@
       <c r="HT59" t="n">
         <v>366</v>
       </c>
+      <c r="HU59" t="n">
+        <v>333</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41632,6 +41809,9 @@
       <c r="HT60" t="n">
         <v>1.22</v>
       </c>
+      <c r="HU60" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42320,6 +42500,9 @@
       <c r="HT61" t="n">
         <v>73</v>
       </c>
+      <c r="HU61" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43008,6 +43191,9 @@
       <c r="HT62" t="n">
         <v>52</v>
       </c>
+      <c r="HU62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43696,6 +43882,9 @@
       <c r="HT63" t="n">
         <v>27</v>
       </c>
+      <c r="HU63" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44384,6 +44573,9 @@
       <c r="HT64" t="n">
         <v>12</v>
       </c>
+      <c r="HU64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45072,6 +45264,9 @@
       <c r="HT65" t="n">
         <v>21</v>
       </c>
+      <c r="HU65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45760,6 +45955,9 @@
       <c r="HT66" t="n">
         <v>11</v>
       </c>
+      <c r="HU66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46448,6 +46646,9 @@
       <c r="HT67" t="n">
         <v>8</v>
       </c>
+      <c r="HU67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47136,6 +47337,9 @@
       <c r="HT68" t="n">
         <v>6</v>
       </c>
+      <c r="HU68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -47824,6 +48028,9 @@
       <c r="HT69" t="n">
         <v>5</v>
       </c>
+      <c r="HU69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48512,6 +48719,9 @@
       <c r="HT70" t="n">
         <v>22</v>
       </c>
+      <c r="HU70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49200,6 +49410,9 @@
       <c r="HT71" t="n">
         <v>50</v>
       </c>
+      <c r="HU71" t="n">
+        <v>39.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -49888,6 +50101,9 @@
       <c r="HT72" t="n">
         <v>33.27</v>
       </c>
+      <c r="HU72" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50576,6 +50792,9 @@
       <c r="HT73" t="n">
         <v>16.64</v>
       </c>
+      <c r="HU73" t="n">
+        <v>14.48</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51264,6 +51483,9 @@
       <c r="HT74" t="n">
         <v>24</v>
       </c>
+      <c r="HU74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -51952,6 +52174,9 @@
       <c r="HT75" t="n">
         <v>65</v>
       </c>
+      <c r="HU75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52640,6 +52865,9 @@
       <c r="HT76" t="n">
         <v>47</v>
       </c>
+      <c r="HU76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53328,6 +53556,9 @@
       <c r="HT77" t="n">
         <v>49</v>
       </c>
+      <c r="HU77" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54016,6 +54247,9 @@
       <c r="HT78" t="n">
         <v>2.23</v>
       </c>
+      <c r="HU78" t="n">
+        <v>2.48</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54704,6 +54938,9 @@
       <c r="HT79" t="n">
         <v>4.45</v>
       </c>
+      <c r="HU79" t="n">
+        <v>6.33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55392,6 +55629,9 @@
       <c r="HT80" t="n">
         <v>34.7</v>
       </c>
+      <c r="HU80" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56080,6 +56320,9 @@
       <c r="HT81" t="n">
         <v>22.4</v>
       </c>
+      <c r="HU81" t="n">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -56768,6 +57011,9 @@
       <c r="HT82" t="n">
         <v>185.3</v>
       </c>
+      <c r="HU82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57456,6 +57702,9 @@
       <c r="HT83" t="n">
         <v>84.7</v>
       </c>
+      <c r="HU83" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58144,6 +58393,9 @@
       <c r="HT84" t="n">
         <v>26.74</v>
       </c>
+      <c r="HU84" t="n">
+        <v>26.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -58832,6 +59084,9 @@
       <c r="HT85" t="n">
         <v>113.7</v>
       </c>
+      <c r="HU85" t="n">
+        <v>109.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59520,6 +59775,9 @@
       <c r="HT86" t="n">
         <v>7</v>
       </c>
+      <c r="HU86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60208,6 +60466,9 @@
       <c r="HT87" t="n">
         <v>5</v>
       </c>
+      <c r="HU87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -60896,6 +61157,9 @@
       <c r="HT88" t="n">
         <v>3</v>
       </c>
+      <c r="HU88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61584,6 +61848,9 @@
       <c r="HT89" t="n">
         <v>7</v>
       </c>
+      <c r="HU89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62272,6 +62539,9 @@
       <c r="HT90" t="n">
         <v>119</v>
       </c>
+      <c r="HU90" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -62960,6 +63230,9 @@
       <c r="HT91" t="n">
         <v>229</v>
       </c>
+      <c r="HU91" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63648,6 +63921,9 @@
       <c r="HT92" t="n">
         <v>277</v>
       </c>
+      <c r="HU92" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64336,6 +64612,9 @@
       <c r="HT93" t="n">
         <v>75.7</v>
       </c>
+      <c r="HU93" t="n">
+        <v>68.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65024,6 +65303,9 @@
       <c r="HT94" t="n">
         <v>65</v>
       </c>
+      <c r="HU94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65712,6 +65994,9 @@
       <c r="HT95" t="n">
         <v>6</v>
       </c>
+      <c r="HU95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66400,6 +66685,9 @@
       <c r="HT96" t="n">
         <v>6</v>
       </c>
+      <c r="HU96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67088,6 +67376,9 @@
       <c r="HT97" t="n">
         <v>24</v>
       </c>
+      <c r="HU97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -67776,6 +68067,9 @@
       <c r="HT98" t="n">
         <v>47</v>
       </c>
+      <c r="HU98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68464,6 +68758,9 @@
       <c r="HT99" t="n">
         <v>40</v>
       </c>
+      <c r="HU99" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69152,6 +69449,9 @@
       <c r="HT100" t="n">
         <v>9</v>
       </c>
+      <c r="HU100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -69840,6 +70140,9 @@
       <c r="HT101" t="n">
         <v>8</v>
       </c>
+      <c r="HU101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70528,6 +70831,9 @@
       <c r="HT102" t="n">
         <v>72.7</v>
       </c>
+      <c r="HU102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU102"/>
+  <dimension ref="A1:HV102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1043,6 +1111,9 @@
       <c r="HU1" t="n">
         <v>10367</v>
       </c>
+      <c r="HV1" t="n">
+        <v>10380</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1734,6 +1805,9 @@
       <c r="HU2" t="n">
         <v>2021</v>
       </c>
+      <c r="HV2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2425,6 +2499,9 @@
       <c r="HU3" t="n">
         <v>5</v>
       </c>
+      <c r="HV3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3116,6 +3193,9 @@
       <c r="HU4" t="n">
         <v>1</v>
       </c>
+      <c r="HV4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3807,6 +3887,9 @@
       <c r="HU5" t="n">
         <v>1</v>
       </c>
+      <c r="HV5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4498,6 +4581,9 @@
       <c r="HU6" t="n">
         <v>96</v>
       </c>
+      <c r="HV6" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5189,6 +5275,9 @@
       <c r="HU7" t="n">
         <v>68</v>
       </c>
+      <c r="HV7" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5880,6 +5969,9 @@
       <c r="HU8" t="n">
         <v>28</v>
       </c>
+      <c r="HV8" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6571,6 +6663,9 @@
       <c r="HU9" t="n">
         <v>1</v>
       </c>
+      <c r="HV9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7262,6 +7357,9 @@
       <c r="HU10" t="n">
         <v>3</v>
       </c>
+      <c r="HV10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7953,6 +8051,9 @@
       <c r="HU11" t="n">
         <v>240</v>
       </c>
+      <c r="HV11" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8644,6 +8745,9 @@
       <c r="HU12" t="n">
         <v>160</v>
       </c>
+      <c r="HV12" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9335,6 +9439,9 @@
       <c r="HU13" t="n">
         <v>400</v>
       </c>
+      <c r="HV13" t="n">
+        <v>460</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10026,6 +10133,9 @@
       <c r="HU14" t="n">
         <v>1.5</v>
       </c>
+      <c r="HV14" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10717,6 +10827,9 @@
       <c r="HU15" t="n">
         <v>110</v>
       </c>
+      <c r="HV15" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11408,6 +11521,9 @@
       <c r="HU16" t="n">
         <v>48</v>
       </c>
+      <c r="HV16" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12099,6 +12215,9 @@
       <c r="HU17" t="n">
         <v>29</v>
       </c>
+      <c r="HV17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12790,6 +12909,9 @@
       <c r="HU18" t="n">
         <v>15</v>
       </c>
+      <c r="HV18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13481,6 +13603,9 @@
       <c r="HU19" t="n">
         <v>23</v>
       </c>
+      <c r="HV19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14172,6 +14297,9 @@
       <c r="HU20" t="n">
         <v>15</v>
       </c>
+      <c r="HV20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14863,6 +14991,9 @@
       <c r="HU21" t="n">
         <v>11</v>
       </c>
+      <c r="HV21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15554,6 +15685,9 @@
       <c r="HU22" t="n">
         <v>6</v>
       </c>
+      <c r="HV22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16245,6 +16379,9 @@
       <c r="HU23" t="n">
         <v>0</v>
       </c>
+      <c r="HV23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -16936,6 +17073,9 @@
       <c r="HU24" t="n">
         <v>21</v>
       </c>
+      <c r="HV24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17627,6 +17767,9 @@
       <c r="HU25" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="HV25" t="n">
+        <v>60.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18318,6 +18461,9 @@
       <c r="HU26" t="n">
         <v>26.67</v>
       </c>
+      <c r="HV26" t="n">
+        <v>32.86</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19009,6 +19155,9 @@
       <c r="HU27" t="n">
         <v>19.05</v>
       </c>
+      <c r="HV27" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19700,6 +19849,9 @@
       <c r="HU28" t="n">
         <v>32</v>
       </c>
+      <c r="HV28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20391,6 +20543,9 @@
       <c r="HU29" t="n">
         <v>69</v>
       </c>
+      <c r="HV29" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21082,6 +21237,9 @@
       <c r="HU30" t="n">
         <v>48</v>
       </c>
+      <c r="HV30" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21773,6 +21931,9 @@
       <c r="HU31" t="n">
         <v>48</v>
       </c>
+      <c r="HV31" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22464,6 +22625,9 @@
       <c r="HU32" t="n">
         <v>2.29</v>
       </c>
+      <c r="HV32" t="n">
+        <v>2.26</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23155,6 +23319,9 @@
       <c r="HU33" t="n">
         <v>3.2</v>
       </c>
+      <c r="HV33" t="n">
+        <v>3.71</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -23846,6 +24013,9 @@
       <c r="HU34" t="n">
         <v>43.8</v>
       </c>
+      <c r="HV34" t="n">
+        <v>42.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24537,6 +24707,9 @@
       <c r="HU35" t="n">
         <v>31.2</v>
       </c>
+      <c r="HV35" t="n">
+        <v>26.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25228,6 +25401,9 @@
       <c r="HU36" t="n">
         <v>187.7</v>
       </c>
+      <c r="HV36" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -25919,6 +26095,9 @@
       <c r="HU37" t="n">
         <v>84</v>
       </c>
+      <c r="HV37" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26610,6 +26789,9 @@
       <c r="HU38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HV38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27301,6 +27483,9 @@
       <c r="HU39" t="n">
         <v>101.6</v>
       </c>
+      <c r="HV39" t="n">
+        <v>102.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -27992,6 +28177,9 @@
       <c r="HU40" t="n">
         <v>7</v>
       </c>
+      <c r="HV40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28683,6 +28871,9 @@
       <c r="HU41" t="n">
         <v>5</v>
       </c>
+      <c r="HV41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29374,6 +29565,9 @@
       <c r="HU42" t="n">
         <v>4</v>
       </c>
+      <c r="HV42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30065,6 +30259,9 @@
       <c r="HU43" t="n">
         <v>7</v>
       </c>
+      <c r="HV43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30756,6 +30953,9 @@
       <c r="HU44" t="n">
         <v>141</v>
       </c>
+      <c r="HV44" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31447,6 +31647,9 @@
       <c r="HU45" t="n">
         <v>250</v>
       </c>
+      <c r="HV45" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32138,6 +32341,9 @@
       <c r="HU46" t="n">
         <v>304</v>
       </c>
+      <c r="HV46" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -32829,6 +33035,9 @@
       <c r="HU47" t="n">
         <v>76</v>
       </c>
+      <c r="HV47" t="n">
+        <v>78.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33520,6 +33729,9 @@
       <c r="HU48" t="n">
         <v>69</v>
       </c>
+      <c r="HV48" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34211,6 +34423,9 @@
       <c r="HU49" t="n">
         <v>15</v>
       </c>
+      <c r="HV49" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -34902,6 +35117,9 @@
       <c r="HU50" t="n">
         <v>13</v>
       </c>
+      <c r="HV50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35593,6 +35811,9 @@
       <c r="HU51" t="n">
         <v>32</v>
       </c>
+      <c r="HV51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36284,6 +36505,9 @@
       <c r="HU52" t="n">
         <v>48</v>
       </c>
+      <c r="HV52" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -36975,6 +37199,9 @@
       <c r="HU53" t="n">
         <v>57</v>
       </c>
+      <c r="HV53" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37666,6 +37893,9 @@
       <c r="HU54" t="n">
         <v>4</v>
       </c>
+      <c r="HV54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38357,6 +38587,9 @@
       <c r="HU55" t="n">
         <v>11</v>
       </c>
+      <c r="HV55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39048,6 +39281,9 @@
       <c r="HU56" t="n">
         <v>73.3</v>
       </c>
+      <c r="HV56" t="n">
+        <v>64.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39739,6 +39975,9 @@
       <c r="HU57" t="n">
         <v>213</v>
       </c>
+      <c r="HV57" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40430,6 +40669,9 @@
       <c r="HU58" t="n">
         <v>120</v>
       </c>
+      <c r="HV58" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41121,6 +41363,9 @@
       <c r="HU59" t="n">
         <v>333</v>
       </c>
+      <c r="HV59" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41812,6 +42057,9 @@
       <c r="HU60" t="n">
         <v>1.77</v>
       </c>
+      <c r="HV60" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42503,6 +42751,9 @@
       <c r="HU61" t="n">
         <v>94</v>
       </c>
+      <c r="HV61" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43194,6 +43445,9 @@
       <c r="HU62" t="n">
         <v>57</v>
       </c>
+      <c r="HV62" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -43885,6 +44139,9 @@
       <c r="HU63" t="n">
         <v>25</v>
       </c>
+      <c r="HV63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44576,6 +44833,9 @@
       <c r="HU64" t="n">
         <v>23</v>
       </c>
+      <c r="HV64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45267,6 +45527,9 @@
       <c r="HU65" t="n">
         <v>15</v>
       </c>
+      <c r="HV65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -45958,6 +46221,9 @@
       <c r="HU66" t="n">
         <v>9</v>
       </c>
+      <c r="HV66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46649,6 +46915,9 @@
       <c r="HU67" t="n">
         <v>6</v>
       </c>
+      <c r="HV67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47340,6 +47609,9 @@
       <c r="HU68" t="n">
         <v>10</v>
       </c>
+      <c r="HV68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48031,6 +48303,9 @@
       <c r="HU69" t="n">
         <v>4</v>
       </c>
+      <c r="HV69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -48722,6 +48997,9 @@
       <c r="HU70" t="n">
         <v>23</v>
       </c>
+      <c r="HV70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49413,6 +49691,9 @@
       <c r="HU71" t="n">
         <v>39.1</v>
       </c>
+      <c r="HV71" t="n">
+        <v>35.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50104,6 +50385,9 @@
       <c r="HU72" t="n">
         <v>37</v>
       </c>
+      <c r="HV72" t="n">
+        <v>62.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -50795,6 +51079,9 @@
       <c r="HU73" t="n">
         <v>14.48</v>
       </c>
+      <c r="HV73" t="n">
+        <v>22.21</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51486,6 +51773,9 @@
       <c r="HU74" t="n">
         <v>36</v>
       </c>
+      <c r="HV74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52177,6 +52467,9 @@
       <c r="HU75" t="n">
         <v>59</v>
       </c>
+      <c r="HV75" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -52868,6 +53161,9 @@
       <c r="HU76" t="n">
         <v>33</v>
       </c>
+      <c r="HV76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53559,6 +53855,9 @@
       <c r="HU77" t="n">
         <v>57</v>
       </c>
+      <c r="HV77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54250,6 +54549,9 @@
       <c r="HU78" t="n">
         <v>2.48</v>
       </c>
+      <c r="HV78" t="n">
+        <v>3.71</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -54941,6 +55243,9 @@
       <c r="HU79" t="n">
         <v>6.33</v>
       </c>
+      <c r="HV79" t="n">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55632,6 +55937,9 @@
       <c r="HU80" t="n">
         <v>33.3</v>
       </c>
+      <c r="HV80" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56323,6 +56631,9 @@
       <c r="HU81" t="n">
         <v>15.8</v>
       </c>
+      <c r="HV81" t="n">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57014,6 +57325,9 @@
       <c r="HU82" t="n">
         <v>187.9</v>
       </c>
+      <c r="HV82" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -57705,6 +58019,9 @@
       <c r="HU83" t="n">
         <v>86.3</v>
       </c>
+      <c r="HV83" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58396,6 +58713,9 @@
       <c r="HU84" t="n">
         <v>26.33</v>
       </c>
+      <c r="HV84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59087,6 +59407,9 @@
       <c r="HU85" t="n">
         <v>109.4</v>
       </c>
+      <c r="HV85" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -59778,6 +60101,9 @@
       <c r="HU86" t="n">
         <v>6</v>
       </c>
+      <c r="HV86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60469,6 +60795,9 @@
       <c r="HU87" t="n">
         <v>5</v>
       </c>
+      <c r="HV87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61160,6 +61489,9 @@
       <c r="HU88" t="n">
         <v>7</v>
       </c>
+      <c r="HV88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -61851,6 +62183,9 @@
       <c r="HU89" t="n">
         <v>4</v>
       </c>
+      <c r="HV89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62542,6 +62877,9 @@
       <c r="HU90" t="n">
         <v>134</v>
       </c>
+      <c r="HV90" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63233,6 +63571,9 @@
       <c r="HU91" t="n">
         <v>192</v>
       </c>
+      <c r="HV91" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -63924,6 +64265,9 @@
       <c r="HU92" t="n">
         <v>227</v>
       </c>
+      <c r="HV92" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64615,6 +64959,9 @@
       <c r="HU93" t="n">
         <v>68.2</v>
       </c>
+      <c r="HV93" t="n">
+        <v>69.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65306,6 +65653,9 @@
       <c r="HU94" t="n">
         <v>59</v>
       </c>
+      <c r="HV94" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -65997,6 +66347,9 @@
       <c r="HU95" t="n">
         <v>14</v>
       </c>
+      <c r="HV95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -66688,6 +67041,9 @@
       <c r="HU96" t="n">
         <v>14</v>
       </c>
+      <c r="HV96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67379,6 +67735,9 @@
       <c r="HU97" t="n">
         <v>36</v>
       </c>
+      <c r="HV97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68070,6 +68429,9 @@
       <c r="HU98" t="n">
         <v>33</v>
       </c>
+      <c r="HV98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -68761,6 +69123,9 @@
       <c r="HU99" t="n">
         <v>52</v>
       </c>
+      <c r="HV99" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69452,6 +69817,9 @@
       <c r="HU100" t="n">
         <v>5</v>
       </c>
+      <c r="HV100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70143,6 +70511,9 @@
       <c r="HU101" t="n">
         <v>6</v>
       </c>
+      <c r="HV101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -70834,6 +71205,9 @@
       <c r="HU102" t="n">
         <v>66.7</v>
       </c>
+      <c r="HV102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HV102"/>
+  <dimension ref="A1:HW102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1114,6 +1046,9 @@
       <c r="HV1" t="n">
         <v>10380</v>
       </c>
+      <c r="HW1" t="n">
+        <v>10381</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1808,6 +1743,9 @@
       <c r="HV2" t="n">
         <v>2021</v>
       </c>
+      <c r="HW2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2502,6 +2440,9 @@
       <c r="HV3" t="n">
         <v>6</v>
       </c>
+      <c r="HW3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3196,6 +3137,9 @@
       <c r="HV4" t="n">
         <v>0</v>
       </c>
+      <c r="HW4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3890,6 +3834,9 @@
       <c r="HV5" t="n">
         <v>0</v>
       </c>
+      <c r="HW5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4584,6 +4531,9 @@
       <c r="HV6" t="n">
         <v>93</v>
       </c>
+      <c r="HW6" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5278,6 +5228,9 @@
       <c r="HV7" t="n">
         <v>39</v>
       </c>
+      <c r="HW7" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5972,6 +5925,9 @@
       <c r="HV8" t="n">
         <v>54</v>
       </c>
+      <c r="HW8" t="n">
+        <v>-49</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6666,6 +6622,9 @@
       <c r="HV9" t="n">
         <v>1</v>
       </c>
+      <c r="HW9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7360,6 +7319,9 @@
       <c r="HV10" t="n">
         <v>15</v>
       </c>
+      <c r="HW10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8054,6 +8016,9 @@
       <c r="HV11" t="n">
         <v>278</v>
       </c>
+      <c r="HW11" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8748,6 +8713,9 @@
       <c r="HV12" t="n">
         <v>182</v>
       </c>
+      <c r="HW12" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9442,6 +9410,9 @@
       <c r="HV13" t="n">
         <v>460</v>
       </c>
+      <c r="HW13" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10136,6 +10107,9 @@
       <c r="HV14" t="n">
         <v>1.53</v>
       </c>
+      <c r="HW14" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10830,6 +10804,9 @@
       <c r="HV15" t="n">
         <v>157</v>
       </c>
+      <c r="HW15" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11524,6 +11501,9 @@
       <c r="HV16" t="n">
         <v>48</v>
       </c>
+      <c r="HW16" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12218,6 +12198,9 @@
       <c r="HV17" t="n">
         <v>35</v>
       </c>
+      <c r="HW17" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12912,6 +12895,9 @@
       <c r="HV18" t="n">
         <v>19</v>
       </c>
+      <c r="HW18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13606,6 +13592,9 @@
       <c r="HV19" t="n">
         <v>15</v>
       </c>
+      <c r="HW19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14300,6 +14289,9 @@
       <c r="HV20" t="n">
         <v>14</v>
       </c>
+      <c r="HW20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14994,6 +14986,9 @@
       <c r="HV21" t="n">
         <v>9</v>
       </c>
+      <c r="HW21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15688,6 +15683,9 @@
       <c r="HV22" t="n">
         <v>8</v>
       </c>
+      <c r="HW22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16382,6 +16380,9 @@
       <c r="HV23" t="n">
         <v>1</v>
       </c>
+      <c r="HW23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17076,6 +17077,9 @@
       <c r="HV24" t="n">
         <v>23</v>
       </c>
+      <c r="HW24" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17770,6 +17774,9 @@
       <c r="HV25" t="n">
         <v>60.9</v>
       </c>
+      <c r="HW25" t="n">
+        <v>26.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18464,6 +18471,9 @@
       <c r="HV26" t="n">
         <v>32.86</v>
       </c>
+      <c r="HW26" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19158,6 +19168,9 @@
       <c r="HV27" t="n">
         <v>20</v>
       </c>
+      <c r="HW27" t="n">
+        <v>19.05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19852,6 +19865,9 @@
       <c r="HV28" t="n">
         <v>37</v>
       </c>
+      <c r="HW28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20546,6 +20562,9 @@
       <c r="HV29" t="n">
         <v>42</v>
       </c>
+      <c r="HW29" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21240,6 +21259,9 @@
       <c r="HV30" t="n">
         <v>45</v>
       </c>
+      <c r="HW30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21934,6 +21956,9 @@
       <c r="HV31" t="n">
         <v>52</v>
       </c>
+      <c r="HW31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22628,6 +22653,9 @@
       <c r="HV32" t="n">
         <v>2.26</v>
       </c>
+      <c r="HW32" t="n">
+        <v>3.05</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23322,6 +23350,9 @@
       <c r="HV33" t="n">
         <v>3.71</v>
       </c>
+      <c r="HW33" t="n">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24016,6 +24047,9 @@
       <c r="HV34" t="n">
         <v>42.3</v>
       </c>
+      <c r="HW34" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24710,6 +24744,9 @@
       <c r="HV35" t="n">
         <v>26.9</v>
       </c>
+      <c r="HW35" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25404,6 +25441,9 @@
       <c r="HV36" t="n">
         <v>187.4</v>
       </c>
+      <c r="HW36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26098,6 +26138,9 @@
       <c r="HV37" t="n">
         <v>83.3</v>
       </c>
+      <c r="HW37" t="n">
+        <v>83.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26792,6 +26835,9 @@
       <c r="HV38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HW38" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27486,6 +27532,9 @@
       <c r="HV39" t="n">
         <v>102.1</v>
       </c>
+      <c r="HW39" t="n">
+        <v>94.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28180,6 +28229,9 @@
       <c r="HV40" t="n">
         <v>7</v>
       </c>
+      <c r="HW40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28874,6 +28926,9 @@
       <c r="HV41" t="n">
         <v>5</v>
       </c>
+      <c r="HW41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29568,6 +29623,9 @@
       <c r="HV42" t="n">
         <v>3</v>
       </c>
+      <c r="HW42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30262,6 +30320,9 @@
       <c r="HV43" t="n">
         <v>7</v>
       </c>
+      <c r="HW43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -30956,6 +31017,9 @@
       <c r="HV44" t="n">
         <v>138</v>
       </c>
+      <c r="HW44" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31650,6 +31714,9 @@
       <c r="HV45" t="n">
         <v>314</v>
       </c>
+      <c r="HW45" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32344,6 +32411,9 @@
       <c r="HV46" t="n">
         <v>362</v>
       </c>
+      <c r="HW46" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33038,6 +33108,9 @@
       <c r="HV47" t="n">
         <v>78.7</v>
       </c>
+      <c r="HW47" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33732,6 +33805,9 @@
       <c r="HV48" t="n">
         <v>42</v>
       </c>
+      <c r="HW48" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34426,6 +34502,9 @@
       <c r="HV49" t="n">
         <v>19</v>
       </c>
+      <c r="HW49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35120,6 +35199,9 @@
       <c r="HV50" t="n">
         <v>12</v>
       </c>
+      <c r="HW50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35814,6 +35896,9 @@
       <c r="HV51" t="n">
         <v>37</v>
       </c>
+      <c r="HW51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36508,6 +36593,9 @@
       <c r="HV52" t="n">
         <v>45</v>
       </c>
+      <c r="HW52" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37202,6 +37290,9 @@
       <c r="HV53" t="n">
         <v>43</v>
       </c>
+      <c r="HW53" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37896,6 +37987,9 @@
       <c r="HV54" t="n">
         <v>2</v>
       </c>
+      <c r="HW54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38590,6 +38684,9 @@
       <c r="HV55" t="n">
         <v>9</v>
       </c>
+      <c r="HW55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39284,6 +39381,9 @@
       <c r="HV56" t="n">
         <v>64.3</v>
       </c>
+      <c r="HW56" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -39978,6 +40078,9 @@
       <c r="HV57" t="n">
         <v>209</v>
       </c>
+      <c r="HW57" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40672,6 +40775,9 @@
       <c r="HV58" t="n">
         <v>102</v>
       </c>
+      <c r="HW58" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41366,6 +41472,9 @@
       <c r="HV59" t="n">
         <v>311</v>
       </c>
+      <c r="HW59" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42060,6 +42169,9 @@
       <c r="HV60" t="n">
         <v>2.05</v>
       </c>
+      <c r="HW60" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42754,6 +42866,9 @@
       <c r="HV61" t="n">
         <v>91</v>
       </c>
+      <c r="HW61" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43448,6 +43563,9 @@
       <c r="HV62" t="n">
         <v>51</v>
       </c>
+      <c r="HW62" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44142,6 +44260,9 @@
       <c r="HV63" t="n">
         <v>32</v>
       </c>
+      <c r="HW63" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44836,6 +44957,9 @@
       <c r="HV64" t="n">
         <v>15</v>
       </c>
+      <c r="HW64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45530,6 +45654,9 @@
       <c r="HV65" t="n">
         <v>19</v>
       </c>
+      <c r="HW65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46224,6 +46351,9 @@
       <c r="HV66" t="n">
         <v>5</v>
       </c>
+      <c r="HW66" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -46918,6 +47048,9 @@
       <c r="HV67" t="n">
         <v>4</v>
       </c>
+      <c r="HW67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47612,6 +47745,9 @@
       <c r="HV68" t="n">
         <v>8</v>
       </c>
+      <c r="HW68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48306,6 +48442,9 @@
       <c r="HV69" t="n">
         <v>1</v>
       </c>
+      <c r="HW69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49000,6 +49139,9 @@
       <c r="HV70" t="n">
         <v>14</v>
       </c>
+      <c r="HW70" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49694,6 +49836,9 @@
       <c r="HV71" t="n">
         <v>35.7</v>
       </c>
+      <c r="HW71" t="n">
+        <v>46.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50388,6 +50533,9 @@
       <c r="HV72" t="n">
         <v>62.2</v>
       </c>
+      <c r="HW72" t="n">
+        <v>27.62</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51082,6 +51230,9 @@
       <c r="HV73" t="n">
         <v>22.21</v>
       </c>
+      <c r="HW73" t="n">
+        <v>12.82</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51776,6 +51927,9 @@
       <c r="HV74" t="n">
         <v>34</v>
       </c>
+      <c r="HW74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52470,6 +52624,9 @@
       <c r="HV75" t="n">
         <v>58</v>
       </c>
+      <c r="HW75" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53164,6 +53321,9 @@
       <c r="HV76" t="n">
         <v>38</v>
       </c>
+      <c r="HW76" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -53858,6 +54018,9 @@
       <c r="HV77" t="n">
         <v>52</v>
       </c>
+      <c r="HW77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54552,6 +54715,9 @@
       <c r="HV78" t="n">
         <v>3.71</v>
       </c>
+      <c r="HW78" t="n">
+        <v>1.96</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55246,6 +55412,9 @@
       <c r="HV79" t="n">
         <v>10.4</v>
       </c>
+      <c r="HW79" t="n">
+        <v>4.23</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -55940,6 +56109,9 @@
       <c r="HV80" t="n">
         <v>25</v>
       </c>
+      <c r="HW80" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56634,6 +56806,9 @@
       <c r="HV81" t="n">
         <v>9.6</v>
       </c>
+      <c r="HW81" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57328,6 +57503,9 @@
       <c r="HV82" t="n">
         <v>188.1</v>
       </c>
+      <c r="HW82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58022,6 +58200,9 @@
       <c r="HV83" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="HW83" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58716,6 +58897,9 @@
       <c r="HV84" t="n">
         <v>24.8</v>
       </c>
+      <c r="HW84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59410,6 +59594,9 @@
       <c r="HV85" t="n">
         <v>77.8</v>
       </c>
+      <c r="HW85" t="n">
+        <v>103.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60104,6 +60291,9 @@
       <c r="HV86" t="n">
         <v>7</v>
       </c>
+      <c r="HW86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60798,6 +60988,9 @@
       <c r="HV87" t="n">
         <v>8</v>
       </c>
+      <c r="HW87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61492,6 +61685,9 @@
       <c r="HV88" t="n">
         <v>6</v>
       </c>
+      <c r="HW88" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62186,6 +62382,9 @@
       <c r="HV89" t="n">
         <v>2</v>
       </c>
+      <c r="HW89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -62880,6 +63079,9 @@
       <c r="HV90" t="n">
         <v>130</v>
       </c>
+      <c r="HW90" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63574,6 +63776,9 @@
       <c r="HV91" t="n">
         <v>173</v>
       </c>
+      <c r="HW91" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64268,6 +64473,9 @@
       <c r="HV92" t="n">
         <v>215</v>
       </c>
+      <c r="HW92" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -64962,6 +65170,9 @@
       <c r="HV93" t="n">
         <v>69.09999999999999</v>
       </c>
+      <c r="HW93" t="n">
+        <v>66.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65656,6 +65867,9 @@
       <c r="HV94" t="n">
         <v>58</v>
       </c>
+      <c r="HW94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66350,6 +66564,9 @@
       <c r="HV95" t="n">
         <v>17</v>
       </c>
+      <c r="HW95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67044,6 +67261,9 @@
       <c r="HV96" t="n">
         <v>10</v>
       </c>
+      <c r="HW96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67738,6 +67958,9 @@
       <c r="HV97" t="n">
         <v>34</v>
       </c>
+      <c r="HW97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68432,6 +68655,9 @@
       <c r="HV98" t="n">
         <v>38</v>
       </c>
+      <c r="HW98" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69126,6 +69352,9 @@
       <c r="HV99" t="n">
         <v>34</v>
       </c>
+      <c r="HW99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -69820,6 +70049,9 @@
       <c r="HV100" t="n">
         <v>5</v>
       </c>
+      <c r="HW100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70514,6 +70746,9 @@
       <c r="HV101" t="n">
         <v>4</v>
       </c>
+      <c r="HW101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71208,6 +71443,9 @@
       <c r="HV102" t="n">
         <v>80</v>
       </c>
+      <c r="HW102" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HW102"/>
+  <dimension ref="A1:HX102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,6 +1049,9 @@
       <c r="HW1" t="n">
         <v>10381</v>
       </c>
+      <c r="HX1" t="n">
+        <v>10397</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1746,6 +1749,9 @@
       <c r="HW2" t="n">
         <v>2021</v>
       </c>
+      <c r="HX2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2443,6 +2449,9 @@
       <c r="HW3" t="n">
         <v>7</v>
       </c>
+      <c r="HX3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3140,6 +3149,9 @@
       <c r="HW4" t="n">
         <v>1</v>
       </c>
+      <c r="HX4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3837,6 +3849,9 @@
       <c r="HW5" t="n">
         <v>0</v>
       </c>
+      <c r="HX5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4534,6 +4549,9 @@
       <c r="HW6" t="n">
         <v>44</v>
       </c>
+      <c r="HX6" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5231,6 +5249,9 @@
       <c r="HW7" t="n">
         <v>93</v>
       </c>
+      <c r="HX7" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5928,6 +5949,9 @@
       <c r="HW8" t="n">
         <v>-49</v>
       </c>
+      <c r="HX8" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6625,6 +6649,9 @@
       <c r="HW9" t="n">
         <v>0</v>
       </c>
+      <c r="HX9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7322,6 +7349,9 @@
       <c r="HW10" t="n">
         <v>2</v>
       </c>
+      <c r="HX10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8019,6 +8049,9 @@
       <c r="HW11" t="n">
         <v>204</v>
       </c>
+      <c r="HX11" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8716,6 +8749,9 @@
       <c r="HW12" t="n">
         <v>158</v>
       </c>
+      <c r="HX12" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9413,6 +9449,9 @@
       <c r="HW13" t="n">
         <v>362</v>
       </c>
+      <c r="HX13" t="n">
+        <v>418</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10110,6 +10149,9 @@
       <c r="HW14" t="n">
         <v>1.29</v>
       </c>
+      <c r="HX14" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10807,6 +10849,9 @@
       <c r="HW15" t="n">
         <v>88</v>
       </c>
+      <c r="HX15" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11504,6 +11549,9 @@
       <c r="HW16" t="n">
         <v>50</v>
       </c>
+      <c r="HX16" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12201,6 +12249,9 @@
       <c r="HW17" t="n">
         <v>33</v>
       </c>
+      <c r="HX17" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12898,6 +12949,9 @@
       <c r="HW18" t="n">
         <v>22</v>
       </c>
+      <c r="HX18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13595,6 +13649,9 @@
       <c r="HW19" t="n">
         <v>18</v>
       </c>
+      <c r="HX19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14292,6 +14349,9 @@
       <c r="HW20" t="n">
         <v>5</v>
       </c>
+      <c r="HX20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14989,6 +15049,9 @@
       <c r="HW21" t="n">
         <v>5</v>
       </c>
+      <c r="HX21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15686,6 +15749,9 @@
       <c r="HW22" t="n">
         <v>13</v>
       </c>
+      <c r="HX22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16383,6 +16449,9 @@
       <c r="HW23" t="n">
         <v>1</v>
       </c>
+      <c r="HX23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17080,6 +17149,9 @@
       <c r="HW24" t="n">
         <v>19</v>
       </c>
+      <c r="HX24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17777,6 +17849,9 @@
       <c r="HW25" t="n">
         <v>26.3</v>
       </c>
+      <c r="HX25" t="n">
+        <v>44.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18474,6 +18549,9 @@
       <c r="HW26" t="n">
         <v>72.40000000000001</v>
       </c>
+      <c r="HX26" t="n">
+        <v>34.83</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19171,6 +19249,9 @@
       <c r="HW27" t="n">
         <v>19.05</v>
       </c>
+      <c r="HX27" t="n">
+        <v>15.48</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19868,6 +19949,9 @@
       <c r="HW28" t="n">
         <v>29</v>
       </c>
+      <c r="HX28" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20565,6 +20649,9 @@
       <c r="HW29" t="n">
         <v>62</v>
       </c>
+      <c r="HX29" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21262,6 +21349,9 @@
       <c r="HW30" t="n">
         <v>39</v>
       </c>
+      <c r="HX30" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21959,6 +22049,9 @@
       <c r="HW31" t="n">
         <v>58</v>
       </c>
+      <c r="HX31" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22656,6 +22749,9 @@
       <c r="HW32" t="n">
         <v>3.05</v>
       </c>
+      <c r="HX32" t="n">
+        <v>2.33</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23353,6 +23449,9 @@
       <c r="HW33" t="n">
         <v>11.6</v>
       </c>
+      <c r="HX33" t="n">
+        <v>5.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24050,6 +24149,9 @@
       <c r="HW34" t="n">
         <v>31</v>
       </c>
+      <c r="HX34" t="n">
+        <v>38.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24747,6 +24849,9 @@
       <c r="HW35" t="n">
         <v>8.6</v>
       </c>
+      <c r="HX35" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25444,6 +25549,9 @@
       <c r="HW36" t="n">
         <v>187.5</v>
       </c>
+      <c r="HX36" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26141,6 +26249,9 @@
       <c r="HW37" t="n">
         <v>83.59999999999999</v>
       </c>
+      <c r="HX37" t="n">
+        <v>83.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26838,6 +26949,9 @@
       <c r="HW38" t="n">
         <v>25.49</v>
       </c>
+      <c r="HX38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27535,6 +27649,9 @@
       <c r="HW39" t="n">
         <v>94.2</v>
       </c>
+      <c r="HX39" t="n">
+        <v>103.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28232,6 +28349,9 @@
       <c r="HW40" t="n">
         <v>7</v>
       </c>
+      <c r="HX40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -28929,6 +29049,9 @@
       <c r="HW41" t="n">
         <v>6</v>
       </c>
+      <c r="HX41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29626,6 +29749,9 @@
       <c r="HW42" t="n">
         <v>4</v>
       </c>
+      <c r="HX42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30323,6 +30449,9 @@
       <c r="HW43" t="n">
         <v>6</v>
       </c>
+      <c r="HX43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31020,6 +31149,9 @@
       <c r="HW44" t="n">
         <v>133</v>
       </c>
+      <c r="HX44" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31717,6 +31849,9 @@
       <c r="HW45" t="n">
         <v>220</v>
       </c>
+      <c r="HX45" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32414,6 +32549,9 @@
       <c r="HW46" t="n">
         <v>262</v>
       </c>
+      <c r="HX46" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33111,6 +33249,9 @@
       <c r="HW47" t="n">
         <v>72.40000000000001</v>
       </c>
+      <c r="HX47" t="n">
+        <v>69.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33808,6 +33949,9 @@
       <c r="HW48" t="n">
         <v>62</v>
       </c>
+      <c r="HX48" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34505,6 +34649,9 @@
       <c r="HW49" t="n">
         <v>13</v>
       </c>
+      <c r="HX49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35202,6 +35349,9 @@
       <c r="HW50" t="n">
         <v>14</v>
       </c>
+      <c r="HX50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -35899,6 +36049,9 @@
       <c r="HW51" t="n">
         <v>29</v>
       </c>
+      <c r="HX51" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36596,6 +36749,9 @@
       <c r="HW52" t="n">
         <v>39</v>
       </c>
+      <c r="HX52" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37293,6 +37449,9 @@
       <c r="HW53" t="n">
         <v>41</v>
       </c>
+      <c r="HX53" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -37990,6 +38149,9 @@
       <c r="HW54" t="n">
         <v>1</v>
       </c>
+      <c r="HX54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38687,6 +38849,9 @@
       <c r="HW55" t="n">
         <v>5</v>
       </c>
+      <c r="HX55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39384,6 +39549,9 @@
       <c r="HW56" t="n">
         <v>100</v>
       </c>
+      <c r="HX56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40081,6 +40249,9 @@
       <c r="HW57" t="n">
         <v>234</v>
       </c>
+      <c r="HX57" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40778,6 +40949,9 @@
       <c r="HW58" t="n">
         <v>125</v>
       </c>
+      <c r="HX58" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41475,6 +41649,9 @@
       <c r="HW59" t="n">
         <v>359</v>
       </c>
+      <c r="HX59" t="n">
+        <v>322</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42172,6 +42349,9 @@
       <c r="HW60" t="n">
         <v>1.87</v>
       </c>
+      <c r="HX60" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -42869,6 +43049,9 @@
       <c r="HW61" t="n">
         <v>93</v>
       </c>
+      <c r="HX61" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43566,6 +43749,9 @@
       <c r="HW62" t="n">
         <v>56</v>
       </c>
+      <c r="HX62" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44263,6 +44449,9 @@
       <c r="HW63" t="n">
         <v>24</v>
       </c>
+      <c r="HX63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -44960,6 +45149,9 @@
       <c r="HW64" t="n">
         <v>18</v>
       </c>
+      <c r="HX64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45657,6 +45849,9 @@
       <c r="HW65" t="n">
         <v>22</v>
       </c>
+      <c r="HX65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46354,6 +46549,9 @@
       <c r="HW66" t="n">
         <v>13</v>
       </c>
+      <c r="HX66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47051,6 +47249,9 @@
       <c r="HW67" t="n">
         <v>10</v>
       </c>
+      <c r="HX67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47748,6 +47949,9 @@
       <c r="HW68" t="n">
         <v>12</v>
       </c>
+      <c r="HX68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48445,6 +48649,9 @@
       <c r="HW69" t="n">
         <v>3</v>
       </c>
+      <c r="HX69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49142,6 +49349,9 @@
       <c r="HW70" t="n">
         <v>28</v>
       </c>
+      <c r="HX70" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -49839,6 +50049,9 @@
       <c r="HW71" t="n">
         <v>46.4</v>
       </c>
+      <c r="HX71" t="n">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50536,6 +50749,9 @@
       <c r="HW72" t="n">
         <v>27.62</v>
       </c>
+      <c r="HX72" t="n">
+        <v>64.40000000000001</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51233,6 +51449,9 @@
       <c r="HW73" t="n">
         <v>12.82</v>
       </c>
+      <c r="HX73" t="n">
+        <v>24.77</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -51930,6 +52149,9 @@
       <c r="HW74" t="n">
         <v>32</v>
       </c>
+      <c r="HX74" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52627,6 +52849,9 @@
       <c r="HW75" t="n">
         <v>63</v>
       </c>
+      <c r="HX75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53324,6 +53549,9 @@
       <c r="HW76" t="n">
         <v>50</v>
       </c>
+      <c r="HX76" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54021,6 +54249,9 @@
       <c r="HW77" t="n">
         <v>55</v>
       </c>
+      <c r="HX77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54718,6 +54949,9 @@
       <c r="HW78" t="n">
         <v>1.96</v>
       </c>
+      <c r="HX78" t="n">
+        <v>3.69</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55415,6 +55649,9 @@
       <c r="HW79" t="n">
         <v>4.23</v>
       </c>
+      <c r="HX79" t="n">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56112,6 +56349,9 @@
       <c r="HW80" t="n">
         <v>45.5</v>
       </c>
+      <c r="HX80" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -56809,6 +57049,9 @@
       <c r="HW81" t="n">
         <v>23.6</v>
       </c>
+      <c r="HX81" t="n">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57506,6 +57749,9 @@
       <c r="HW82" t="n">
         <v>188.5</v>
       </c>
+      <c r="HX82" t="n">
+        <v>186.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58203,6 +58449,9 @@
       <c r="HW83" t="n">
         <v>87.5</v>
       </c>
+      <c r="HX83" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -58900,6 +59149,9 @@
       <c r="HW84" t="n">
         <v>26</v>
       </c>
+      <c r="HX84" t="n">
+        <v>24.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59597,6 +59849,9 @@
       <c r="HW85" t="n">
         <v>103.3</v>
       </c>
+      <c r="HX85" t="n">
+        <v>76.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60294,6 +60549,9 @@
       <c r="HW86" t="n">
         <v>6</v>
       </c>
+      <c r="HX86" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -60991,6 +61249,9 @@
       <c r="HW87" t="n">
         <v>5</v>
       </c>
+      <c r="HX87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61688,6 +61949,9 @@
       <c r="HW88" t="n">
         <v>7</v>
       </c>
+      <c r="HX88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62385,6 +62649,9 @@
       <c r="HW89" t="n">
         <v>4</v>
       </c>
+      <c r="HX89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63082,6 +63349,9 @@
       <c r="HW90" t="n">
         <v>154</v>
       </c>
+      <c r="HX90" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -63779,6 +64049,9 @@
       <c r="HW91" t="n">
         <v>194</v>
       </c>
+      <c r="HX91" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64476,6 +64749,9 @@
       <c r="HW92" t="n">
         <v>238</v>
       </c>
+      <c r="HX92" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65173,6 +65449,9 @@
       <c r="HW93" t="n">
         <v>66.3</v>
       </c>
+      <c r="HX93" t="n">
+        <v>61.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -65870,6 +66149,9 @@
       <c r="HW94" t="n">
         <v>63</v>
       </c>
+      <c r="HX94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66567,6 +66849,9 @@
       <c r="HW95" t="n">
         <v>10</v>
       </c>
+      <c r="HX95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67264,6 +67549,9 @@
       <c r="HW96" t="n">
         <v>14</v>
       </c>
+      <c r="HX96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -67961,6 +68249,9 @@
       <c r="HW97" t="n">
         <v>32</v>
       </c>
+      <c r="HX97" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68658,6 +68949,9 @@
       <c r="HW98" t="n">
         <v>50</v>
       </c>
+      <c r="HX98" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69355,6 +69649,9 @@
       <c r="HW99" t="n">
         <v>56</v>
       </c>
+      <c r="HX99" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70052,6 +70349,9 @@
       <c r="HW100" t="n">
         <v>3</v>
       </c>
+      <c r="HX100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -70749,6 +71049,9 @@
       <c r="HW101" t="n">
         <v>10</v>
       </c>
+      <c r="HX101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71446,6 +71749,9 @@
       <c r="HW102" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="HX102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HX102"/>
+  <dimension ref="A1:HY102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1052,6 +1052,9 @@
       <c r="HX1" t="n">
         <v>10397</v>
       </c>
+      <c r="HY1" t="n">
+        <v>10406</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1752,6 +1755,9 @@
       <c r="HX2" t="n">
         <v>2021</v>
       </c>
+      <c r="HY2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2452,6 +2458,9 @@
       <c r="HX3" t="n">
         <v>8</v>
       </c>
+      <c r="HY3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3152,6 +3161,9 @@
       <c r="HX4" t="n">
         <v>0</v>
       </c>
+      <c r="HY4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3852,6 +3864,9 @@
       <c r="HX5" t="n">
         <v>0</v>
       </c>
+      <c r="HY5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4552,6 +4567,9 @@
       <c r="HX6" t="n">
         <v>87</v>
       </c>
+      <c r="HY6" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5252,6 +5270,9 @@
       <c r="HX7" t="n">
         <v>38</v>
       </c>
+      <c r="HY7" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5952,6 +5973,9 @@
       <c r="HX8" t="n">
         <v>49</v>
       </c>
+      <c r="HY8" t="n">
+        <v>-19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6652,6 +6676,9 @@
       <c r="HX9" t="n">
         <v>1</v>
       </c>
+      <c r="HY9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7352,6 +7379,9 @@
       <c r="HX10" t="n">
         <v>1</v>
       </c>
+      <c r="HY10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8052,6 +8082,9 @@
       <c r="HX11" t="n">
         <v>257</v>
       </c>
+      <c r="HY11" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8752,6 +8785,9 @@
       <c r="HX12" t="n">
         <v>161</v>
       </c>
+      <c r="HY12" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9452,6 +9488,9 @@
       <c r="HX13" t="n">
         <v>418</v>
       </c>
+      <c r="HY13" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10152,6 +10191,9 @@
       <c r="HX14" t="n">
         <v>1.6</v>
       </c>
+      <c r="HY14" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10852,6 +10894,9 @@
       <c r="HX15" t="n">
         <v>84</v>
       </c>
+      <c r="HY15" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11552,6 +11597,9 @@
       <c r="HX16" t="n">
         <v>85</v>
       </c>
+      <c r="HY16" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12252,6 +12300,9 @@
       <c r="HX17" t="n">
         <v>42</v>
       </c>
+      <c r="HY17" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -12952,6 +13003,9 @@
       <c r="HX18" t="n">
         <v>18</v>
       </c>
+      <c r="HY18" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13652,6 +13706,9 @@
       <c r="HX19" t="n">
         <v>21</v>
       </c>
+      <c r="HY19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14352,6 +14409,9 @@
       <c r="HX20" t="n">
         <v>12</v>
       </c>
+      <c r="HY20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15052,6 +15112,9 @@
       <c r="HX21" t="n">
         <v>9</v>
       </c>
+      <c r="HY21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15752,6 +15815,9 @@
       <c r="HX22" t="n">
         <v>12</v>
       </c>
+      <c r="HY22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16452,6 +16518,9 @@
       <c r="HX23" t="n">
         <v>3</v>
       </c>
+      <c r="HY23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17152,6 +17221,9 @@
       <c r="HX24" t="n">
         <v>27</v>
       </c>
+      <c r="HY24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17852,6 +17924,9 @@
       <c r="HX25" t="n">
         <v>44.4</v>
       </c>
+      <c r="HY25" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18552,6 +18627,9 @@
       <c r="HX26" t="n">
         <v>34.83</v>
       </c>
+      <c r="HY26" t="n">
+        <v>28.08</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19252,6 +19330,9 @@
       <c r="HX27" t="n">
         <v>15.48</v>
       </c>
+      <c r="HY27" t="n">
+        <v>19.82</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -19952,6 +20033,9 @@
       <c r="HX28" t="n">
         <v>44</v>
       </c>
+      <c r="HY28" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20652,6 +20736,9 @@
       <c r="HX29" t="n">
         <v>65</v>
       </c>
+      <c r="HY29" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21352,6 +21439,9 @@
       <c r="HX30" t="n">
         <v>43</v>
       </c>
+      <c r="HY30" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22052,6 +22142,9 @@
       <c r="HX31" t="n">
         <v>63</v>
       </c>
+      <c r="HY31" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22752,6 +22845,9 @@
       <c r="HX32" t="n">
         <v>2.33</v>
       </c>
+      <c r="HY32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23452,6 +23548,9 @@
       <c r="HX33" t="n">
         <v>5.25</v>
       </c>
+      <c r="HY33" t="n">
+        <v>4.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24152,6 +24251,9 @@
       <c r="HX34" t="n">
         <v>38.1</v>
       </c>
+      <c r="HY34" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -24852,6 +24954,9 @@
       <c r="HX35" t="n">
         <v>19</v>
       </c>
+      <c r="HY35" t="n">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25552,6 +25657,9 @@
       <c r="HX36" t="n">
         <v>187.5</v>
       </c>
+      <c r="HY36" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26252,6 +26360,9 @@
       <c r="HX37" t="n">
         <v>83.5</v>
       </c>
+      <c r="HY37" t="n">
+        <v>83.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -26952,6 +27063,9 @@
       <c r="HX38" t="n">
         <v>25.8</v>
       </c>
+      <c r="HY38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27652,6 +27766,9 @@
       <c r="HX39" t="n">
         <v>103.7</v>
       </c>
+      <c r="HY39" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28352,6 +28469,9 @@
       <c r="HX40" t="n">
         <v>7</v>
       </c>
+      <c r="HY40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29052,6 +29172,9 @@
       <c r="HX41" t="n">
         <v>6</v>
       </c>
+      <c r="HY41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -29752,6 +29875,9 @@
       <c r="HX42" t="n">
         <v>3</v>
       </c>
+      <c r="HY42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30452,6 +30578,9 @@
       <c r="HX43" t="n">
         <v>7</v>
       </c>
+      <c r="HY43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31152,6 +31281,9 @@
       <c r="HX44" t="n">
         <v>170</v>
       </c>
+      <c r="HY44" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -31852,6 +31984,9 @@
       <c r="HX45" t="n">
         <v>235</v>
       </c>
+      <c r="HY45" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32552,6 +32687,9 @@
       <c r="HX46" t="n">
         <v>290</v>
       </c>
+      <c r="HY46" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33252,6 +33390,9 @@
       <c r="HX47" t="n">
         <v>69.40000000000001</v>
       </c>
+      <c r="HY47" t="n">
+        <v>74.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33952,6 +34093,9 @@
       <c r="HX48" t="n">
         <v>65</v>
       </c>
+      <c r="HY48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34652,6 +34796,9 @@
       <c r="HX49" t="n">
         <v>13</v>
       </c>
+      <c r="HY49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35352,6 +35499,9 @@
       <c r="HX50" t="n">
         <v>12</v>
       </c>
+      <c r="HY50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36052,6 +36202,9 @@
       <c r="HX51" t="n">
         <v>44</v>
       </c>
+      <c r="HY51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -36752,6 +36905,9 @@
       <c r="HX52" t="n">
         <v>43</v>
       </c>
+      <c r="HY52" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37452,6 +37608,9 @@
       <c r="HX53" t="n">
         <v>57</v>
       </c>
+      <c r="HY53" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38152,6 +38311,9 @@
       <c r="HX54" t="n">
         <v>3</v>
       </c>
+      <c r="HY54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -38852,6 +39014,9 @@
       <c r="HX55" t="n">
         <v>9</v>
       </c>
+      <c r="HY55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39552,6 +39717,9 @@
       <c r="HX56" t="n">
         <v>75</v>
       </c>
+      <c r="HY56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40252,6 +40420,9 @@
       <c r="HX57" t="n">
         <v>197</v>
       </c>
+      <c r="HY57" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -40952,6 +41123,9 @@
       <c r="HX58" t="n">
         <v>125</v>
       </c>
+      <c r="HY58" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41652,6 +41826,9 @@
       <c r="HX59" t="n">
         <v>322</v>
       </c>
+      <c r="HY59" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42352,6 +42529,9 @@
       <c r="HX60" t="n">
         <v>1.58</v>
       </c>
+      <c r="HY60" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43052,6 +43232,9 @@
       <c r="HX61" t="n">
         <v>46</v>
       </c>
+      <c r="HY61" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -43752,6 +43935,9 @@
       <c r="HX62" t="n">
         <v>76</v>
       </c>
+      <c r="HY62" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44452,6 +44638,9 @@
       <c r="HX63" t="n">
         <v>32</v>
       </c>
+      <c r="HY63" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45152,6 +45341,9 @@
       <c r="HX64" t="n">
         <v>21</v>
       </c>
+      <c r="HY64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -45852,6 +46044,9 @@
       <c r="HX65" t="n">
         <v>18</v>
       </c>
+      <c r="HY65" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46552,6 +46747,9 @@
       <c r="HX66" t="n">
         <v>5</v>
       </c>
+      <c r="HY66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47252,6 +47450,9 @@
       <c r="HX67" t="n">
         <v>4</v>
       </c>
+      <c r="HY67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -47952,6 +48153,9 @@
       <c r="HX68" t="n">
         <v>8</v>
       </c>
+      <c r="HY68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -48652,6 +48856,9 @@
       <c r="HX69" t="n">
         <v>0</v>
       </c>
+      <c r="HY69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49352,6 +49559,9 @@
       <c r="HX70" t="n">
         <v>13</v>
       </c>
+      <c r="HY70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50052,6 +50262,9 @@
       <c r="HX71" t="n">
         <v>38.5</v>
       </c>
+      <c r="HY71" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -50752,6 +50965,9 @@
       <c r="HX72" t="n">
         <v>64.40000000000001</v>
       </c>
+      <c r="HY72" t="n">
+        <v>25.4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51452,6 +51668,9 @@
       <c r="HX73" t="n">
         <v>24.77</v>
       </c>
+      <c r="HY73" t="n">
+        <v>18.14</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52152,6 +52371,9 @@
       <c r="HX74" t="n">
         <v>38</v>
       </c>
+      <c r="HY74" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -52852,6 +53074,9 @@
       <c r="HX75" t="n">
         <v>59</v>
       </c>
+      <c r="HY75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -53552,6 +53777,9 @@
       <c r="HX76" t="n">
         <v>48</v>
       </c>
+      <c r="HY76" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54252,6 +54480,9 @@
       <c r="HX77" t="n">
         <v>48</v>
       </c>
+      <c r="HY77" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -54952,6 +55183,9 @@
       <c r="HX78" t="n">
         <v>3.69</v>
       </c>
+      <c r="HY78" t="n">
+        <v>2.62</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -55652,6 +55886,9 @@
       <c r="HX79" t="n">
         <v>9.6</v>
       </c>
+      <c r="HY79" t="n">
+        <v>3.67</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56352,6 +56589,9 @@
       <c r="HX80" t="n">
         <v>27.1</v>
       </c>
+      <c r="HY80" t="n">
+        <v>34.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57052,6 +57292,9 @@
       <c r="HX81" t="n">
         <v>10.4</v>
       </c>
+      <c r="HY81" t="n">
+        <v>27.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -57752,6 +57995,9 @@
       <c r="HX82" t="n">
         <v>186.7</v>
       </c>
+      <c r="HY82" t="n">
+        <v>186.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58452,6 +58698,9 @@
       <c r="HX83" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="HY83" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59152,6 +59401,9 @@
       <c r="HX84" t="n">
         <v>24.49</v>
       </c>
+      <c r="HY84" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -59852,6 +60104,9 @@
       <c r="HX85" t="n">
         <v>76.2</v>
       </c>
+      <c r="HY85" t="n">
+        <v>89.7</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -60552,6 +60807,9 @@
       <c r="HX86" t="n">
         <v>13</v>
       </c>
+      <c r="HY86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61252,6 +61510,9 @@
       <c r="HX87" t="n">
         <v>3</v>
       </c>
+      <c r="HY87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -61952,6 +62213,9 @@
       <c r="HX88" t="n">
         <v>1</v>
       </c>
+      <c r="HY88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -62652,6 +62916,9 @@
       <c r="HX89" t="n">
         <v>6</v>
       </c>
+      <c r="HY89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63352,6 +63619,9 @@
       <c r="HX90" t="n">
         <v>159</v>
       </c>
+      <c r="HY90" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64052,6 +64322,9 @@
       <c r="HX91" t="n">
         <v>145</v>
       </c>
+      <c r="HY91" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -64752,6 +65025,9 @@
       <c r="HX92" t="n">
         <v>199</v>
       </c>
+      <c r="HY92" t="n">
+        <v>292</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -65452,6 +65728,9 @@
       <c r="HX93" t="n">
         <v>61.8</v>
       </c>
+      <c r="HY93" t="n">
+        <v>76.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66152,6 +66431,9 @@
       <c r="HX94" t="n">
         <v>59</v>
       </c>
+      <c r="HY94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -66852,6 +67134,9 @@
       <c r="HX95" t="n">
         <v>5</v>
       </c>
+      <c r="HY95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -67552,6 +67837,9 @@
       <c r="HX96" t="n">
         <v>2</v>
       </c>
+      <c r="HY96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68252,6 +68540,9 @@
       <c r="HX97" t="n">
         <v>38</v>
       </c>
+      <c r="HY97" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -68952,6 +69243,9 @@
       <c r="HX98" t="n">
         <v>48</v>
       </c>
+      <c r="HY98" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -69652,6 +69946,9 @@
       <c r="HX99" t="n">
         <v>56</v>
       </c>
+      <c r="HY99" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70352,6 +70649,9 @@
       <c r="HX100" t="n">
         <v>0</v>
       </c>
+      <c r="HY100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71052,6 +71352,9 @@
       <c r="HX101" t="n">
         <v>4</v>
       </c>
+      <c r="HY101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -71752,6 +72055,9 @@
       <c r="HX102" t="n">
         <v>80</v>
       </c>
+      <c r="HY102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HZ102"/>
+  <dimension ref="A1:IA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,6 +1058,9 @@
       <c r="HZ1" t="n">
         <v>10410</v>
       </c>
+      <c r="IA1" t="n">
+        <v>10424</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1764,6 +1767,9 @@
       <c r="HZ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IA2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2470,6 +2476,9 @@
       <c r="HZ3" t="n">
         <v>10</v>
       </c>
+      <c r="IA3" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3176,6 +3185,9 @@
       <c r="HZ4" t="n">
         <v>1</v>
       </c>
+      <c r="IA4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3882,6 +3894,9 @@
       <c r="HZ5" t="n">
         <v>1</v>
       </c>
+      <c r="IA5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4588,6 +4603,9 @@
       <c r="HZ6" t="n">
         <v>59</v>
       </c>
+      <c r="IA6" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5294,6 +5312,9 @@
       <c r="HZ7" t="n">
         <v>58</v>
       </c>
+      <c r="IA7" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6000,6 +6021,9 @@
       <c r="HZ8" t="n">
         <v>1</v>
       </c>
+      <c r="IA8" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6706,6 +6730,9 @@
       <c r="HZ9" t="n">
         <v>1</v>
       </c>
+      <c r="IA9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7412,6 +7439,9 @@
       <c r="HZ10" t="n">
         <v>4</v>
       </c>
+      <c r="IA10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8118,6 +8148,9 @@
       <c r="HZ11" t="n">
         <v>216</v>
       </c>
+      <c r="IA11" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8824,6 +8857,9 @@
       <c r="HZ12" t="n">
         <v>127</v>
       </c>
+      <c r="IA12" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9530,6 +9566,9 @@
       <c r="HZ13" t="n">
         <v>343</v>
       </c>
+      <c r="IA13" t="n">
+        <v>424</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10236,6 +10275,9 @@
       <c r="HZ14" t="n">
         <v>1.7</v>
       </c>
+      <c r="IA14" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10942,6 +10984,9 @@
       <c r="HZ15" t="n">
         <v>99</v>
       </c>
+      <c r="IA15" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11648,6 +11693,9 @@
       <c r="HZ16" t="n">
         <v>56</v>
       </c>
+      <c r="IA16" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12354,6 +12402,9 @@
       <c r="HZ17" t="n">
         <v>11</v>
       </c>
+      <c r="IA17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13060,6 +13111,9 @@
       <c r="HZ18" t="n">
         <v>12</v>
       </c>
+      <c r="IA18" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13766,6 +13820,9 @@
       <c r="HZ19" t="n">
         <v>16</v>
       </c>
+      <c r="IA19" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14472,6 +14529,9 @@
       <c r="HZ20" t="n">
         <v>8</v>
       </c>
+      <c r="IA20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15178,6 +15238,9 @@
       <c r="HZ21" t="n">
         <v>7</v>
       </c>
+      <c r="IA21" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15884,6 +15947,9 @@
       <c r="HZ22" t="n">
         <v>8</v>
       </c>
+      <c r="IA22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16590,6 +16656,9 @@
       <c r="HZ23" t="n">
         <v>3</v>
       </c>
+      <c r="IA23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17296,6 +17365,9 @@
       <c r="HZ24" t="n">
         <v>19</v>
       </c>
+      <c r="IA24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18002,6 +18074,9 @@
       <c r="HZ25" t="n">
         <v>42.1</v>
       </c>
+      <c r="IA25" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18708,6 +18783,9 @@
       <c r="HZ26" t="n">
         <v>42.88</v>
       </c>
+      <c r="IA26" t="n">
+        <v>23.56</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19414,6 +19492,9 @@
       <c r="HZ27" t="n">
         <v>18.05</v>
       </c>
+      <c r="IA27" t="n">
+        <v>16.96</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20120,6 +20201,9 @@
       <c r="HZ28" t="n">
         <v>29</v>
       </c>
+      <c r="IA28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20826,6 +20910,9 @@
       <c r="HZ29" t="n">
         <v>49</v>
       </c>
+      <c r="IA29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21532,6 +21619,9 @@
       <c r="HZ30" t="n">
         <v>42</v>
       </c>
+      <c r="IA30" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22238,6 +22328,9 @@
       <c r="HZ31" t="n">
         <v>48</v>
       </c>
+      <c r="IA31" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -22944,6 +23037,9 @@
       <c r="HZ32" t="n">
         <v>2.53</v>
       </c>
+      <c r="IA32" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23650,6 +23746,9 @@
       <c r="HZ33" t="n">
         <v>6</v>
       </c>
+      <c r="IA33" t="n">
+        <v>3.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24356,6 +24455,9 @@
       <c r="HZ34" t="n">
         <v>33.3</v>
       </c>
+      <c r="IA34" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25062,6 +25164,9 @@
       <c r="HZ35" t="n">
         <v>16.7</v>
       </c>
+      <c r="IA35" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25768,6 +25873,9 @@
       <c r="HZ36" t="n">
         <v>188.3</v>
       </c>
+      <c r="IA36" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26474,6 +26582,9 @@
       <c r="HZ37" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="IA37" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27180,6 +27291,9 @@
       <c r="HZ38" t="n">
         <v>25.8</v>
       </c>
+      <c r="IA38" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -27886,6 +28000,9 @@
       <c r="HZ39" t="n">
         <v>104.7</v>
       </c>
+      <c r="IA39" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28592,6 +28709,9 @@
       <c r="HZ40" t="n">
         <v>7</v>
       </c>
+      <c r="IA40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29298,6 +29418,9 @@
       <c r="HZ41" t="n">
         <v>6</v>
       </c>
+      <c r="IA41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30004,6 +30127,9 @@
       <c r="HZ42" t="n">
         <v>2</v>
       </c>
+      <c r="IA42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30710,6 +30836,9 @@
       <c r="HZ43" t="n">
         <v>7</v>
       </c>
+      <c r="IA43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31416,6 +31545,9 @@
       <c r="HZ44" t="n">
         <v>127</v>
       </c>
+      <c r="IA44" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32122,6 +32254,9 @@
       <c r="HZ45" t="n">
         <v>206</v>
       </c>
+      <c r="IA45" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32828,6 +32963,9 @@
       <c r="HZ46" t="n">
         <v>244</v>
       </c>
+      <c r="IA46" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33534,6 +33672,9 @@
       <c r="HZ47" t="n">
         <v>71.09999999999999</v>
       </c>
+      <c r="IA47" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34240,6 +34381,9 @@
       <c r="HZ48" t="n">
         <v>49</v>
       </c>
+      <c r="IA48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -34946,6 +35090,9 @@
       <c r="HZ49" t="n">
         <v>14</v>
       </c>
+      <c r="IA49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35652,6 +35799,9 @@
       <c r="HZ50" t="n">
         <v>10</v>
       </c>
+      <c r="IA50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36358,6 +36508,9 @@
       <c r="HZ51" t="n">
         <v>29</v>
       </c>
+      <c r="IA51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37064,6 +37217,9 @@
       <c r="HZ52" t="n">
         <v>42</v>
       </c>
+      <c r="IA52" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37770,6 +37926,9 @@
       <c r="HZ53" t="n">
         <v>48</v>
       </c>
+      <c r="IA53" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38476,6 +38635,9 @@
       <c r="HZ54" t="n">
         <v>2</v>
       </c>
+      <c r="IA54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39182,6 +39344,9 @@
       <c r="HZ55" t="n">
         <v>7</v>
       </c>
+      <c r="IA55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -39888,6 +40053,9 @@
       <c r="HZ56" t="n">
         <v>87.5</v>
       </c>
+      <c r="IA56" t="n">
+        <v>72.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40594,6 +40762,9 @@
       <c r="HZ57" t="n">
         <v>259</v>
       </c>
+      <c r="IA57" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41300,6 +41471,9 @@
       <c r="HZ58" t="n">
         <v>159</v>
       </c>
+      <c r="IA58" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42006,6 +42180,9 @@
       <c r="HZ59" t="n">
         <v>418</v>
       </c>
+      <c r="IA59" t="n">
+        <v>352</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42712,6 +42889,9 @@
       <c r="HZ60" t="n">
         <v>1.63</v>
       </c>
+      <c r="IA60" t="n">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43418,6 +43598,9 @@
       <c r="HZ61" t="n">
         <v>138</v>
       </c>
+      <c r="IA61" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44124,6 +44307,9 @@
       <c r="HZ62" t="n">
         <v>49</v>
       </c>
+      <c r="IA62" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -44830,6 +45016,9 @@
       <c r="HZ63" t="n">
         <v>42</v>
       </c>
+      <c r="IA63" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45536,6 +45725,9 @@
       <c r="HZ64" t="n">
         <v>16</v>
       </c>
+      <c r="IA64" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46242,6 +46434,9 @@
       <c r="HZ65" t="n">
         <v>12</v>
       </c>
+      <c r="IA65" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -46948,6 +47143,9 @@
       <c r="HZ66" t="n">
         <v>8</v>
       </c>
+      <c r="IA66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47654,6 +47852,9 @@
       <c r="HZ67" t="n">
         <v>4</v>
       </c>
+      <c r="IA67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48360,6 +48561,9 @@
       <c r="HZ68" t="n">
         <v>9</v>
       </c>
+      <c r="IA68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49066,6 +49270,9 @@
       <c r="HZ69" t="n">
         <v>1</v>
       </c>
+      <c r="IA69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49772,6 +49979,9 @@
       <c r="HZ70" t="n">
         <v>18</v>
       </c>
+      <c r="IA70" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50478,6 +50688,9 @@
       <c r="HZ71" t="n">
         <v>44.4</v>
       </c>
+      <c r="IA71" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51184,6 +51397,9 @@
       <c r="HZ72" t="n">
         <v>52.25</v>
       </c>
+      <c r="IA72" t="n">
+        <v>39.11</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -51890,6 +52106,9 @@
       <c r="HZ73" t="n">
         <v>23.22</v>
       </c>
+      <c r="IA73" t="n">
+        <v>14.67</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52596,6 +52815,9 @@
       <c r="HZ74" t="n">
         <v>35</v>
       </c>
+      <c r="IA74" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53302,6 +53524,9 @@
       <c r="HZ75" t="n">
         <v>57</v>
       </c>
+      <c r="IA75" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54008,6 +54233,9 @@
       <c r="HZ76" t="n">
         <v>39</v>
       </c>
+      <c r="IA76" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54714,6 +54942,9 @@
       <c r="HZ77" t="n">
         <v>51</v>
       </c>
+      <c r="IA77" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55420,6 +55651,9 @@
       <c r="HZ78" t="n">
         <v>2.83</v>
       </c>
+      <c r="IA78" t="n">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56126,6 +56360,9 @@
       <c r="HZ79" t="n">
         <v>6.38</v>
       </c>
+      <c r="IA79" t="n">
+        <v>6.44</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -56832,6 +57069,9 @@
       <c r="HZ80" t="n">
         <v>33.3</v>
       </c>
+      <c r="IA80" t="n">
+        <v>34.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57538,6 +57778,9 @@
       <c r="HZ81" t="n">
         <v>15.7</v>
       </c>
+      <c r="IA81" t="n">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58244,6 +58487,9 @@
       <c r="HZ82" t="n">
         <v>188.8</v>
       </c>
+      <c r="IA82" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -58950,6 +59196,9 @@
       <c r="HZ83" t="n">
         <v>86.2</v>
       </c>
+      <c r="IA83" t="n">
+        <v>86.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59656,6 +59905,9 @@
       <c r="HZ84" t="n">
         <v>26</v>
       </c>
+      <c r="IA84" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60362,6 +60614,9 @@
       <c r="HZ85" t="n">
         <v>106.7</v>
       </c>
+      <c r="IA85" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61068,6 +61323,9 @@
       <c r="HZ86" t="n">
         <v>8</v>
       </c>
+      <c r="IA86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -61774,6 +62032,9 @@
       <c r="HZ87" t="n">
         <v>3</v>
       </c>
+      <c r="IA87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62480,6 +62741,9 @@
       <c r="HZ88" t="n">
         <v>4</v>
       </c>
+      <c r="IA88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63186,6 +63450,9 @@
       <c r="HZ89" t="n">
         <v>7</v>
       </c>
+      <c r="IA89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -63892,6 +64159,9 @@
       <c r="HZ90" t="n">
         <v>137</v>
       </c>
+      <c r="IA90" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64598,6 +64868,9 @@
       <c r="HZ91" t="n">
         <v>282</v>
       </c>
+      <c r="IA91" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65304,6 +65577,9 @@
       <c r="HZ92" t="n">
         <v>315</v>
       </c>
+      <c r="IA92" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66010,6 +66286,9 @@
       <c r="HZ93" t="n">
         <v>75.40000000000001</v>
       </c>
+      <c r="IA93" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66716,6 +66995,9 @@
       <c r="HZ94" t="n">
         <v>57</v>
       </c>
+      <c r="IA94" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67422,6 +67704,9 @@
       <c r="HZ95" t="n">
         <v>13</v>
       </c>
+      <c r="IA95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68128,6 +68413,9 @@
       <c r="HZ96" t="n">
         <v>7</v>
       </c>
+      <c r="IA96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -68834,6 +69122,9 @@
       <c r="HZ97" t="n">
         <v>35</v>
       </c>
+      <c r="IA97" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69540,6 +69831,9 @@
       <c r="HZ98" t="n">
         <v>39</v>
       </c>
+      <c r="IA98" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70246,6 +70540,9 @@
       <c r="HZ99" t="n">
         <v>41</v>
       </c>
+      <c r="IA99" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -70952,6 +71249,9 @@
       <c r="HZ100" t="n">
         <v>3</v>
       </c>
+      <c r="IA100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71658,6 +71958,9 @@
       <c r="HZ101" t="n">
         <v>4</v>
       </c>
+      <c r="IA101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72364,6 +72667,9 @@
       <c r="HZ102" t="n">
         <v>50</v>
       </c>
+      <c r="IA102" t="n">
+        <v>77.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IA102"/>
+  <dimension ref="A1:IB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,6 +1061,9 @@
       <c r="IA1" t="n">
         <v>10424</v>
       </c>
+      <c r="IB1" t="n">
+        <v>10436</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1770,6 +1773,9 @@
       <c r="IA2" t="n">
         <v>2021</v>
       </c>
+      <c r="IB2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2479,6 +2485,9 @@
       <c r="IA3" t="n">
         <v>11</v>
       </c>
+      <c r="IB3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3188,6 +3197,9 @@
       <c r="IA4" t="n">
         <v>0</v>
       </c>
+      <c r="IB4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3897,6 +3909,9 @@
       <c r="IA5" t="n">
         <v>0</v>
       </c>
+      <c r="IB5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4606,6 +4621,9 @@
       <c r="IA6" t="n">
         <v>115</v>
       </c>
+      <c r="IB6" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5315,6 +5333,9 @@
       <c r="IA7" t="n">
         <v>69</v>
       </c>
+      <c r="IB7" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6024,6 +6045,9 @@
       <c r="IA8" t="n">
         <v>46</v>
       </c>
+      <c r="IB8" t="n">
+        <v>-21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6733,6 +6757,9 @@
       <c r="IA9" t="n">
         <v>1</v>
       </c>
+      <c r="IB9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7442,6 +7469,9 @@
       <c r="IA10" t="n">
         <v>6</v>
       </c>
+      <c r="IB10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8151,6 +8181,9 @@
       <c r="IA11" t="n">
         <v>252</v>
       </c>
+      <c r="IB11" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8860,6 +8893,9 @@
       <c r="IA12" t="n">
         <v>172</v>
       </c>
+      <c r="IB12" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9569,6 +9605,9 @@
       <c r="IA13" t="n">
         <v>424</v>
       </c>
+      <c r="IB13" t="n">
+        <v>326</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10278,6 +10317,9 @@
       <c r="IA14" t="n">
         <v>1.47</v>
       </c>
+      <c r="IB14" t="n">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10987,6 +11029,9 @@
       <c r="IA15" t="n">
         <v>120</v>
       </c>
+      <c r="IB15" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11696,6 +11741,9 @@
       <c r="IA16" t="n">
         <v>58</v>
       </c>
+      <c r="IB16" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12405,6 +12453,9 @@
       <c r="IA17" t="n">
         <v>26</v>
       </c>
+      <c r="IB17" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13114,6 +13165,9 @@
       <c r="IA18" t="n">
         <v>14</v>
       </c>
+      <c r="IB18" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13823,6 +13877,9 @@
       <c r="IA19" t="n">
         <v>20</v>
       </c>
+      <c r="IB19" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14532,6 +14589,9 @@
       <c r="IA20" t="n">
         <v>18</v>
       </c>
+      <c r="IB20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15241,6 +15301,9 @@
       <c r="IA21" t="n">
         <v>13</v>
       </c>
+      <c r="IB21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -15950,6 +16013,9 @@
       <c r="IA22" t="n">
         <v>7</v>
       </c>
+      <c r="IB22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16659,6 +16725,9 @@
       <c r="IA23" t="n">
         <v>0</v>
       </c>
+      <c r="IB23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17368,6 +17437,9 @@
       <c r="IA24" t="n">
         <v>25</v>
       </c>
+      <c r="IB24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18077,6 +18149,9 @@
       <c r="IA25" t="n">
         <v>72</v>
       </c>
+      <c r="IB25" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18786,6 +18861,9 @@
       <c r="IA26" t="n">
         <v>23.56</v>
       </c>
+      <c r="IB26" t="n">
+        <v>23.29</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19495,6 +19573,9 @@
       <c r="IA27" t="n">
         <v>16.96</v>
       </c>
+      <c r="IB27" t="n">
+        <v>15.52</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20204,6 +20285,9 @@
       <c r="IA28" t="n">
         <v>32</v>
       </c>
+      <c r="IB28" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -20913,6 +20997,9 @@
       <c r="IA29" t="n">
         <v>54</v>
       </c>
+      <c r="IB29" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21622,6 +21709,9 @@
       <c r="IA30" t="n">
         <v>48</v>
       </c>
+      <c r="IB30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22331,6 +22421,9 @@
       <c r="IA31" t="n">
         <v>60</v>
       </c>
+      <c r="IB31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23040,6 +23133,9 @@
       <c r="IA32" t="n">
         <v>2.4</v>
       </c>
+      <c r="IB32" t="n">
+        <v>2.14</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23749,6 +23845,9 @@
       <c r="IA33" t="n">
         <v>3.33</v>
       </c>
+      <c r="IB33" t="n">
+        <v>3.21</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24458,6 +24557,9 @@
       <c r="IA34" t="n">
         <v>41.7</v>
       </c>
+      <c r="IB34" t="n">
+        <v>42.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25167,6 +25269,9 @@
       <c r="IA35" t="n">
         <v>30</v>
       </c>
+      <c r="IB35" t="n">
+        <v>31.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25876,6 +25981,9 @@
       <c r="IA36" t="n">
         <v>187.9</v>
       </c>
+      <c r="IB36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26585,6 +26693,9 @@
       <c r="IA37" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="IB37" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27294,6 +27405,9 @@
       <c r="IA38" t="n">
         <v>25.41</v>
       </c>
+      <c r="IB38" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28003,6 +28117,9 @@
       <c r="IA39" t="n">
         <v>97</v>
       </c>
+      <c r="IB39" t="n">
+        <v>94.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28712,6 +28829,9 @@
       <c r="IA40" t="n">
         <v>8</v>
       </c>
+      <c r="IB40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29421,6 +29541,9 @@
       <c r="IA41" t="n">
         <v>7</v>
       </c>
+      <c r="IB41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30130,6 +30253,9 @@
       <c r="IA42" t="n">
         <v>2</v>
       </c>
+      <c r="IB42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30839,6 +30965,9 @@
       <c r="IA43" t="n">
         <v>6</v>
       </c>
+      <c r="IB43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31548,6 +31677,9 @@
       <c r="IA44" t="n">
         <v>135</v>
       </c>
+      <c r="IB44" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32257,6 +32389,9 @@
       <c r="IA45" t="n">
         <v>272</v>
       </c>
+      <c r="IB45" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -32966,6 +33101,9 @@
       <c r="IA46" t="n">
         <v>339</v>
       </c>
+      <c r="IB46" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33675,6 +33813,9 @@
       <c r="IA47" t="n">
         <v>80</v>
       </c>
+      <c r="IB47" t="n">
+        <v>71.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34384,6 +34525,9 @@
       <c r="IA48" t="n">
         <v>54</v>
       </c>
+      <c r="IB48" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35093,6 +35237,9 @@
       <c r="IA49" t="n">
         <v>16</v>
       </c>
+      <c r="IB49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35802,6 +35949,9 @@
       <c r="IA50" t="n">
         <v>15</v>
       </c>
+      <c r="IB50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36511,6 +36661,9 @@
       <c r="IA51" t="n">
         <v>32</v>
       </c>
+      <c r="IB51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37220,6 +37373,9 @@
       <c r="IA52" t="n">
         <v>48</v>
       </c>
+      <c r="IB52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -37929,6 +38085,9 @@
       <c r="IA53" t="n">
         <v>49</v>
       </c>
+      <c r="IB53" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38638,6 +38797,9 @@
       <c r="IA54" t="n">
         <v>1</v>
       </c>
+      <c r="IB54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39347,6 +39509,9 @@
       <c r="IA55" t="n">
         <v>13</v>
       </c>
+      <c r="IB55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40056,6 +40221,9 @@
       <c r="IA56" t="n">
         <v>72.2</v>
       </c>
+      <c r="IB56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40765,6 +40933,9 @@
       <c r="IA57" t="n">
         <v>182</v>
       </c>
+      <c r="IB57" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41474,6 +41645,9 @@
       <c r="IA58" t="n">
         <v>170</v>
       </c>
+      <c r="IB58" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42183,6 +42357,9 @@
       <c r="IA59" t="n">
         <v>352</v>
       </c>
+      <c r="IB59" t="n">
+        <v>321</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -42892,6 +43069,9 @@
       <c r="IA60" t="n">
         <v>1.07</v>
       </c>
+      <c r="IB60" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43601,6 +43781,9 @@
       <c r="IA61" t="n">
         <v>69</v>
       </c>
+      <c r="IB61" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44310,6 +44493,9 @@
       <c r="IA62" t="n">
         <v>42</v>
       </c>
+      <c r="IB62" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45019,6 +45205,9 @@
       <c r="IA63" t="n">
         <v>31</v>
       </c>
+      <c r="IB63" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45728,6 +45917,9 @@
       <c r="IA64" t="n">
         <v>20</v>
       </c>
+      <c r="IB64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46437,6 +46629,9 @@
       <c r="IA65" t="n">
         <v>14</v>
       </c>
+      <c r="IB65" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47146,6 +47341,9 @@
       <c r="IA66" t="n">
         <v>9</v>
       </c>
+      <c r="IB66" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -47855,6 +48053,9 @@
       <c r="IA67" t="n">
         <v>7</v>
       </c>
+      <c r="IB67" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48564,6 +48765,9 @@
       <c r="IA68" t="n">
         <v>11</v>
       </c>
+      <c r="IB68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49273,6 +49477,9 @@
       <c r="IA69" t="n">
         <v>4</v>
       </c>
+      <c r="IB69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -49982,6 +50189,9 @@
       <c r="IA70" t="n">
         <v>24</v>
       </c>
+      <c r="IB70" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50691,6 +50901,9 @@
       <c r="IA71" t="n">
         <v>37.5</v>
       </c>
+      <c r="IB71" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51400,6 +51613,9 @@
       <c r="IA72" t="n">
         <v>39.11</v>
       </c>
+      <c r="IB72" t="n">
+        <v>18.88</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52109,6 +52325,9 @@
       <c r="IA73" t="n">
         <v>14.67</v>
       </c>
+      <c r="IB73" t="n">
+        <v>11.89</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -52818,6 +53037,9 @@
       <c r="IA74" t="n">
         <v>34</v>
       </c>
+      <c r="IB74" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53527,6 +53749,9 @@
       <c r="IA75" t="n">
         <v>51</v>
       </c>
+      <c r="IB75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54236,6 +54461,9 @@
       <c r="IA76" t="n">
         <v>41</v>
       </c>
+      <c r="IB76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -54945,6 +55173,9 @@
       <c r="IA77" t="n">
         <v>58</v>
       </c>
+      <c r="IB77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55654,6 +55885,9 @@
       <c r="IA78" t="n">
         <v>2.42</v>
       </c>
+      <c r="IB78" t="n">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56363,6 +56597,9 @@
       <c r="IA79" t="n">
         <v>6.44</v>
       </c>
+      <c r="IB79" t="n">
+        <v>3.06</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57072,6 +57309,9 @@
       <c r="IA80" t="n">
         <v>34.5</v>
       </c>
+      <c r="IB80" t="n">
+        <v>51.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -57781,6 +58021,9 @@
       <c r="IA81" t="n">
         <v>15.5</v>
       </c>
+      <c r="IB81" t="n">
+        <v>32.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58490,6 +58733,9 @@
       <c r="IA82" t="n">
         <v>186.9</v>
       </c>
+      <c r="IB82" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59199,6 +59445,9 @@
       <c r="IA83" t="n">
         <v>86.7</v>
       </c>
+      <c r="IB83" t="n">
+        <v>89.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -59908,6 +60157,9 @@
       <c r="IA84" t="n">
         <v>24.91</v>
       </c>
+      <c r="IB84" t="n">
+        <v>28.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60617,6 +60869,9 @@
       <c r="IA85" t="n">
         <v>84.3</v>
       </c>
+      <c r="IB85" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61326,6 +61581,9 @@
       <c r="IA86" t="n">
         <v>8</v>
       </c>
+      <c r="IB86" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62035,6 +62293,9 @@
       <c r="IA87" t="n">
         <v>8</v>
       </c>
+      <c r="IB87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -62744,6 +63005,9 @@
       <c r="IA88" t="n">
         <v>4</v>
       </c>
+      <c r="IB88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63453,6 +63717,9 @@
       <c r="IA89" t="n">
         <v>3</v>
       </c>
+      <c r="IB89" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64162,6 +64429,9 @@
       <c r="IA90" t="n">
         <v>133</v>
       </c>
+      <c r="IB90" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -64871,6 +65141,9 @@
       <c r="IA91" t="n">
         <v>220</v>
       </c>
+      <c r="IB91" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65580,6 +65853,9 @@
       <c r="IA92" t="n">
         <v>257</v>
       </c>
+      <c r="IB92" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66289,6 +66565,9 @@
       <c r="IA93" t="n">
         <v>73</v>
       </c>
+      <c r="IB93" t="n">
+        <v>74.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -66998,6 +67277,9 @@
       <c r="IA94" t="n">
         <v>51</v>
       </c>
+      <c r="IB94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67707,6 +67989,9 @@
       <c r="IA95" t="n">
         <v>10</v>
       </c>
+      <c r="IB95" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68416,6 +68701,9 @@
       <c r="IA96" t="n">
         <v>9</v>
       </c>
+      <c r="IB96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69125,6 +69413,9 @@
       <c r="IA97" t="n">
         <v>34</v>
       </c>
+      <c r="IB97" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -69834,6 +70125,9 @@
       <c r="IA98" t="n">
         <v>41</v>
       </c>
+      <c r="IB98" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70543,6 +70837,9 @@
       <c r="IA99" t="n">
         <v>57</v>
       </c>
+      <c r="IB99" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71252,6 +71549,9 @@
       <c r="IA100" t="n">
         <v>0</v>
       </c>
+      <c r="IB100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -71961,6 +72261,9 @@
       <c r="IA101" t="n">
         <v>7</v>
       </c>
+      <c r="IB101" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72670,6 +72973,9 @@
       <c r="IA102" t="n">
         <v>77.8</v>
       </c>
+      <c r="IB102" t="n">
+        <v>88.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IB102"/>
+  <dimension ref="A1:IC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,6 +1064,9 @@
       <c r="IB1" t="n">
         <v>10436</v>
       </c>
+      <c r="IC1" t="n">
+        <v>10439</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1776,6 +1779,9 @@
       <c r="IB2" t="n">
         <v>2021</v>
       </c>
+      <c r="IC2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2488,6 +2494,9 @@
       <c r="IB3" t="n">
         <v>13</v>
       </c>
+      <c r="IC3" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3200,6 +3209,9 @@
       <c r="IB4" t="n">
         <v>0</v>
       </c>
+      <c r="IC4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3912,6 +3924,9 @@
       <c r="IB5" t="n">
         <v>1</v>
       </c>
+      <c r="IC5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4624,6 +4639,9 @@
       <c r="IB6" t="n">
         <v>91</v>
       </c>
+      <c r="IC6" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5336,6 +5354,9 @@
       <c r="IB7" t="n">
         <v>112</v>
       </c>
+      <c r="IC7" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6048,6 +6069,9 @@
       <c r="IB8" t="n">
         <v>-21</v>
       </c>
+      <c r="IC8" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6760,6 +6784,9 @@
       <c r="IB9" t="n">
         <v>0</v>
       </c>
+      <c r="IC9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7472,6 +7499,9 @@
       <c r="IB10" t="n">
         <v>7</v>
       </c>
+      <c r="IC10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8184,6 +8214,9 @@
       <c r="IB11" t="n">
         <v>201</v>
       </c>
+      <c r="IC11" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8896,6 +8929,9 @@
       <c r="IB12" t="n">
         <v>125</v>
       </c>
+      <c r="IC12" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9608,6 +9644,9 @@
       <c r="IB13" t="n">
         <v>326</v>
       </c>
+      <c r="IC13" t="n">
+        <v>445</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10320,6 +10359,9 @@
       <c r="IB14" t="n">
         <v>1.61</v>
       </c>
+      <c r="IC14" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11032,6 +11074,9 @@
       <c r="IB15" t="n">
         <v>85</v>
       </c>
+      <c r="IC15" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11744,6 +11789,9 @@
       <c r="IB16" t="n">
         <v>65</v>
       </c>
+      <c r="IC16" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12456,6 +12504,9 @@
       <c r="IB17" t="n">
         <v>36</v>
       </c>
+      <c r="IC17" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13168,6 +13219,9 @@
       <c r="IB18" t="n">
         <v>26</v>
       </c>
+      <c r="IC18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13880,6 +13934,9 @@
       <c r="IB19" t="n">
         <v>23</v>
       </c>
+      <c r="IC19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14592,6 +14649,9 @@
       <c r="IB20" t="n">
         <v>14</v>
       </c>
+      <c r="IC20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15304,6 +15364,9 @@
       <c r="IB21" t="n">
         <v>10</v>
       </c>
+      <c r="IC21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16016,6 +16079,9 @@
       <c r="IB22" t="n">
         <v>5</v>
       </c>
+      <c r="IC22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16728,6 +16794,9 @@
       <c r="IB23" t="n">
         <v>2</v>
       </c>
+      <c r="IC23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17440,6 +17509,9 @@
       <c r="IB24" t="n">
         <v>21</v>
       </c>
+      <c r="IC24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18152,6 +18224,9 @@
       <c r="IB25" t="n">
         <v>66.7</v>
       </c>
+      <c r="IC25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18864,6 +18939,9 @@
       <c r="IB26" t="n">
         <v>23.29</v>
       </c>
+      <c r="IC26" t="n">
+        <v>37.08</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19576,6 +19654,9 @@
       <c r="IB27" t="n">
         <v>15.52</v>
       </c>
+      <c r="IC27" t="n">
+        <v>21.19</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20288,6 +20369,9 @@
       <c r="IB28" t="n">
         <v>38</v>
       </c>
+      <c r="IC28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21000,6 +21084,9 @@
       <c r="IB29" t="n">
         <v>65</v>
       </c>
+      <c r="IC29" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21712,6 +21799,9 @@
       <c r="IB30" t="n">
         <v>35</v>
       </c>
+      <c r="IC30" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22424,6 +22514,9 @@
       <c r="IB31" t="n">
         <v>45</v>
       </c>
+      <c r="IC31" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23136,6 +23229,9 @@
       <c r="IB32" t="n">
         <v>2.14</v>
       </c>
+      <c r="IC32" t="n">
+        <v>2.71</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23848,6 +23944,9 @@
       <c r="IB33" t="n">
         <v>3.21</v>
       </c>
+      <c r="IC33" t="n">
+        <v>4.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24560,6 +24659,9 @@
       <c r="IB34" t="n">
         <v>42.2</v>
       </c>
+      <c r="IC34" t="n">
+        <v>35.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25272,6 +25374,9 @@
       <c r="IB35" t="n">
         <v>31.1</v>
       </c>
+      <c r="IC35" t="n">
+        <v>21.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -25984,6 +26089,9 @@
       <c r="IB36" t="n">
         <v>188</v>
       </c>
+      <c r="IC36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26696,6 +26804,9 @@
       <c r="IB37" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="IC37" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27408,6 +27519,9 @@
       <c r="IB38" t="n">
         <v>25.24</v>
       </c>
+      <c r="IC38" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28120,6 +28234,9 @@
       <c r="IB39" t="n">
         <v>94.40000000000001</v>
       </c>
+      <c r="IC39" t="n">
+        <v>104.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28832,6 +28949,9 @@
       <c r="IB40" t="n">
         <v>9</v>
       </c>
+      <c r="IC40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29544,6 +29664,9 @@
       <c r="IB41" t="n">
         <v>6</v>
       </c>
+      <c r="IC41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30256,6 +30379,9 @@
       <c r="IB42" t="n">
         <v>2</v>
       </c>
+      <c r="IC42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -30968,6 +31094,9 @@
       <c r="IB43" t="n">
         <v>6</v>
       </c>
+      <c r="IC43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31680,6 +31809,9 @@
       <c r="IB44" t="n">
         <v>116</v>
       </c>
+      <c r="IC44" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32392,6 +32524,9 @@
       <c r="IB45" t="n">
         <v>196</v>
       </c>
+      <c r="IC45" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33104,6 +33239,9 @@
       <c r="IB46" t="n">
         <v>233</v>
       </c>
+      <c r="IC46" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33816,6 +33954,9 @@
       <c r="IB47" t="n">
         <v>71.5</v>
       </c>
+      <c r="IC47" t="n">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34528,6 +34669,9 @@
       <c r="IB48" t="n">
         <v>65</v>
       </c>
+      <c r="IC48" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35240,6 +35384,9 @@
       <c r="IB49" t="n">
         <v>10</v>
       </c>
+      <c r="IC49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -35952,6 +36099,9 @@
       <c r="IB50" t="n">
         <v>9</v>
       </c>
+      <c r="IC50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36664,6 +36814,9 @@
       <c r="IB51" t="n">
         <v>38</v>
       </c>
+      <c r="IC51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37376,6 +37529,9 @@
       <c r="IB52" t="n">
         <v>35</v>
       </c>
+      <c r="IC52" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38088,6 +38244,9 @@
       <c r="IB53" t="n">
         <v>38</v>
       </c>
+      <c r="IC53" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38800,6 +38959,9 @@
       <c r="IB54" t="n">
         <v>0</v>
       </c>
+      <c r="IC54" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39512,6 +39674,9 @@
       <c r="IB55" t="n">
         <v>10</v>
       </c>
+      <c r="IC55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40224,6 +40389,9 @@
       <c r="IB56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IC56" t="n">
+        <v>83.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -40936,6 +41104,9 @@
       <c r="IB57" t="n">
         <v>201</v>
       </c>
+      <c r="IC57" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41648,6 +41819,9 @@
       <c r="IB58" t="n">
         <v>120</v>
       </c>
+      <c r="IC58" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42360,6 +42534,9 @@
       <c r="IB59" t="n">
         <v>321</v>
       </c>
+      <c r="IC59" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43072,6 +43249,9 @@
       <c r="IB60" t="n">
         <v>1.68</v>
       </c>
+      <c r="IC60" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43784,6 +43964,9 @@
       <c r="IB61" t="n">
         <v>83</v>
       </c>
+      <c r="IC61" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44496,6 +44679,9 @@
       <c r="IB62" t="n">
         <v>37</v>
       </c>
+      <c r="IC62" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45208,6 +45394,9 @@
       <c r="IB63" t="n">
         <v>36</v>
       </c>
+      <c r="IC63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -45920,6 +46109,9 @@
       <c r="IB64" t="n">
         <v>23</v>
       </c>
+      <c r="IC64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46632,6 +46824,9 @@
       <c r="IB65" t="n">
         <v>26</v>
       </c>
+      <c r="IC65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47344,6 +47539,9 @@
       <c r="IB66" t="n">
         <v>17</v>
       </c>
+      <c r="IC66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48056,6 +48254,9 @@
       <c r="IB67" t="n">
         <v>15</v>
       </c>
+      <c r="IC67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48768,6 +48969,9 @@
       <c r="IB68" t="n">
         <v>10</v>
       </c>
+      <c r="IC68" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49480,6 +49684,9 @@
       <c r="IB69" t="n">
         <v>0</v>
       </c>
+      <c r="IC69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50192,6 +50399,9 @@
       <c r="IB70" t="n">
         <v>27</v>
       </c>
+      <c r="IC70" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -50904,6 +51114,9 @@
       <c r="IB71" t="n">
         <v>63</v>
       </c>
+      <c r="IC71" t="n">
+        <v>36.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51616,6 +51829,9 @@
       <c r="IB72" t="n">
         <v>18.88</v>
       </c>
+      <c r="IC72" t="n">
+        <v>88.25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52328,6 +52544,9 @@
       <c r="IB73" t="n">
         <v>11.89</v>
       </c>
+      <c r="IC73" t="n">
+        <v>32.09</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53040,6 +53259,9 @@
       <c r="IB74" t="n">
         <v>38</v>
       </c>
+      <c r="IC74" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53752,6 +53974,9 @@
       <c r="IB75" t="n">
         <v>57</v>
       </c>
+      <c r="IC75" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54464,6 +54689,9 @@
       <c r="IB76" t="n">
         <v>30</v>
       </c>
+      <c r="IC76" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55176,6 +55404,9 @@
       <c r="IB77" t="n">
         <v>52</v>
       </c>
+      <c r="IC77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -55888,6 +56119,9 @@
       <c r="IB78" t="n">
         <v>1.93</v>
       </c>
+      <c r="IC78" t="n">
+        <v>4.73</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56600,6 +56834,9 @@
       <c r="IB79" t="n">
         <v>3.06</v>
       </c>
+      <c r="IC79" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57312,6 +57549,9 @@
       <c r="IB80" t="n">
         <v>51.9</v>
       </c>
+      <c r="IC80" t="n">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58024,6 +58264,9 @@
       <c r="IB81" t="n">
         <v>32.7</v>
       </c>
+      <c r="IC81" t="n">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58736,6 +58979,9 @@
       <c r="IB82" t="n">
         <v>188.8</v>
       </c>
+      <c r="IC82" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59448,6 +59694,9 @@
       <c r="IB83" t="n">
         <v>89.5</v>
       </c>
+      <c r="IC83" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60160,6 +60409,9 @@
       <c r="IB84" t="n">
         <v>28.41</v>
       </c>
+      <c r="IC84" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -60872,6 +61124,9 @@
       <c r="IB85" t="n">
         <v>158</v>
       </c>
+      <c r="IC85" t="n">
+        <v>76.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61584,6 +61839,9 @@
       <c r="IB86" t="n">
         <v>3</v>
       </c>
+      <c r="IC86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62296,6 +62554,9 @@
       <c r="IB87" t="n">
         <v>5</v>
       </c>
+      <c r="IC87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63008,6 +63269,9 @@
       <c r="IB88" t="n">
         <v>2</v>
       </c>
+      <c r="IC88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63720,6 +63984,9 @@
       <c r="IB89" t="n">
         <v>12</v>
       </c>
+      <c r="IC89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64432,6 +64699,9 @@
       <c r="IB90" t="n">
         <v>126</v>
       </c>
+      <c r="IC90" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65144,6 +65414,9 @@
       <c r="IB91" t="n">
         <v>177</v>
       </c>
+      <c r="IC91" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -65856,6 +66129,9 @@
       <c r="IB92" t="n">
         <v>239</v>
       </c>
+      <c r="IC92" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66568,6 +66844,9 @@
       <c r="IB93" t="n">
         <v>74.5</v>
       </c>
+      <c r="IC93" t="n">
+        <v>69.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67280,6 +67559,9 @@
       <c r="IB94" t="n">
         <v>57</v>
       </c>
+      <c r="IC94" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -67992,6 +68274,9 @@
       <c r="IB95" t="n">
         <v>21</v>
       </c>
+      <c r="IC95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68704,6 +68989,9 @@
       <c r="IB96" t="n">
         <v>18</v>
       </c>
+      <c r="IC96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69416,6 +69704,9 @@
       <c r="IB97" t="n">
         <v>38</v>
       </c>
+      <c r="IC97" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70128,6 +70419,9 @@
       <c r="IB98" t="n">
         <v>30</v>
       </c>
+      <c r="IC98" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -70840,6 +71134,9 @@
       <c r="IB99" t="n">
         <v>29</v>
       </c>
+      <c r="IC99" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71552,6 +71849,9 @@
       <c r="IB100" t="n">
         <v>1</v>
       </c>
+      <c r="IC100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72264,6 +72564,9 @@
       <c r="IB101" t="n">
         <v>15</v>
       </c>
+      <c r="IC101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -72976,6 +73279,9 @@
       <c r="IB102" t="n">
         <v>88.2</v>
       </c>
+      <c r="IC102" t="n">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IC102"/>
+  <dimension ref="A1:ID102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,6 +1067,9 @@
       <c r="IC1" t="n">
         <v>10439</v>
       </c>
+      <c r="ID1" t="n">
+        <v>10451</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1782,6 +1785,9 @@
       <c r="IC2" t="n">
         <v>2021</v>
       </c>
+      <c r="ID2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2497,6 +2503,9 @@
       <c r="IC3" t="n">
         <v>14</v>
       </c>
+      <c r="ID3" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3212,6 +3221,9 @@
       <c r="IC4" t="n">
         <v>1</v>
       </c>
+      <c r="ID4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3927,6 +3939,9 @@
       <c r="IC5" t="n">
         <v>1</v>
       </c>
+      <c r="ID5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4642,6 +4657,9 @@
       <c r="IC6" t="n">
         <v>81</v>
       </c>
+      <c r="ID6" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5357,6 +5375,9 @@
       <c r="IC7" t="n">
         <v>31</v>
       </c>
+      <c r="ID7" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6072,6 +6093,9 @@
       <c r="IC8" t="n">
         <v>50</v>
       </c>
+      <c r="ID8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6787,6 +6811,9 @@
       <c r="IC9" t="n">
         <v>1</v>
       </c>
+      <c r="ID9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7502,6 +7529,9 @@
       <c r="IC10" t="n">
         <v>8</v>
       </c>
+      <c r="ID10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8217,6 +8247,9 @@
       <c r="IC11" t="n">
         <v>247</v>
       </c>
+      <c r="ID11" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8932,6 +8965,9 @@
       <c r="IC12" t="n">
         <v>198</v>
       </c>
+      <c r="ID12" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9647,6 +9683,9 @@
       <c r="IC13" t="n">
         <v>445</v>
       </c>
+      <c r="ID13" t="n">
+        <v>345</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10362,6 +10401,9 @@
       <c r="IC14" t="n">
         <v>1.25</v>
       </c>
+      <c r="ID14" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11077,6 +11119,9 @@
       <c r="IC15" t="n">
         <v>112</v>
       </c>
+      <c r="ID15" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11792,6 +11837,9 @@
       <c r="IC16" t="n">
         <v>70</v>
       </c>
+      <c r="ID16" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12507,6 +12555,9 @@
       <c r="IC17" t="n">
         <v>39</v>
       </c>
+      <c r="ID17" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13222,6 +13273,9 @@
       <c r="IC18" t="n">
         <v>21</v>
       </c>
+      <c r="ID18" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13937,6 +13991,9 @@
       <c r="IC19" t="n">
         <v>22</v>
       </c>
+      <c r="ID19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14652,6 +14709,9 @@
       <c r="IC20" t="n">
         <v>12</v>
       </c>
+      <c r="ID20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15367,6 +15427,9 @@
       <c r="IC21" t="n">
         <v>10</v>
       </c>
+      <c r="ID21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16082,6 +16145,9 @@
       <c r="IC22" t="n">
         <v>8</v>
       </c>
+      <c r="ID22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16797,6 +16863,9 @@
       <c r="IC23" t="n">
         <v>1</v>
       </c>
+      <c r="ID23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17512,6 +17581,9 @@
       <c r="IC24" t="n">
         <v>21</v>
       </c>
+      <c r="ID24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18227,6 +18299,9 @@
       <c r="IC25" t="n">
         <v>57.1</v>
       </c>
+      <c r="ID25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -18942,6 +19017,9 @@
       <c r="IC26" t="n">
         <v>37.08</v>
       </c>
+      <c r="ID26" t="n">
+        <v>28.75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19657,6 +19735,9 @@
       <c r="IC27" t="n">
         <v>21.19</v>
       </c>
+      <c r="ID27" t="n">
+        <v>16.43</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20372,6 +20453,9 @@
       <c r="IC28" t="n">
         <v>39</v>
       </c>
+      <c r="ID28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21087,6 +21171,9 @@
       <c r="IC29" t="n">
         <v>70</v>
       </c>
+      <c r="ID29" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21802,6 +21889,9 @@
       <c r="IC30" t="n">
         <v>45</v>
       </c>
+      <c r="ID30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22517,6 +22607,9 @@
       <c r="IC31" t="n">
         <v>57</v>
       </c>
+      <c r="ID31" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23232,6 +23325,9 @@
       <c r="IC32" t="n">
         <v>2.71</v>
       </c>
+      <c r="ID32" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -23947,6 +24043,9 @@
       <c r="IC33" t="n">
         <v>4.75</v>
       </c>
+      <c r="ID33" t="n">
+        <v>3.92</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24662,6 +24761,9 @@
       <c r="IC34" t="n">
         <v>35.1</v>
       </c>
+      <c r="ID34" t="n">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25377,6 +25479,9 @@
       <c r="IC35" t="n">
         <v>21.1</v>
       </c>
+      <c r="ID35" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26092,6 +26197,9 @@
       <c r="IC36" t="n">
         <v>188.7</v>
       </c>
+      <c r="ID36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26807,6 +26915,9 @@
       <c r="IC37" t="n">
         <v>84.8</v>
       </c>
+      <c r="ID37" t="n">
+        <v>83.59999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27522,6 +27633,9 @@
       <c r="IC38" t="n">
         <v>26</v>
       </c>
+      <c r="ID38" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28237,6 +28351,9 @@
       <c r="IC39" t="n">
         <v>104.9</v>
       </c>
+      <c r="ID39" t="n">
+        <v>92.2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -28952,6 +29069,9 @@
       <c r="IC40" t="n">
         <v>8</v>
       </c>
+      <c r="ID40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29667,6 +29787,9 @@
       <c r="IC41" t="n">
         <v>5</v>
       </c>
+      <c r="ID41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30382,6 +30505,9 @@
       <c r="IC42" t="n">
         <v>3</v>
       </c>
+      <c r="ID42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31097,6 +31223,9 @@
       <c r="IC43" t="n">
         <v>7</v>
       </c>
+      <c r="ID43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31812,6 +31941,9 @@
       <c r="IC44" t="n">
         <v>158</v>
       </c>
+      <c r="ID44" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32527,6 +32659,9 @@
       <c r="IC45" t="n">
         <v>290</v>
       </c>
+      <c r="ID45" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33242,6 +33377,9 @@
       <c r="IC46" t="n">
         <v>336</v>
       </c>
+      <c r="ID46" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33957,6 +34095,9 @@
       <c r="IC47" t="n">
         <v>75.5</v>
       </c>
+      <c r="ID47" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34672,6 +34813,9 @@
       <c r="IC48" t="n">
         <v>70</v>
       </c>
+      <c r="ID48" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35387,6 +35531,9 @@
       <c r="IC49" t="n">
         <v>16</v>
       </c>
+      <c r="ID49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36102,6 +36249,9 @@
       <c r="IC50" t="n">
         <v>13</v>
       </c>
+      <c r="ID50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36817,6 +36967,9 @@
       <c r="IC51" t="n">
         <v>39</v>
       </c>
+      <c r="ID51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37532,6 +37685,9 @@
       <c r="IC52" t="n">
         <v>45</v>
       </c>
+      <c r="ID52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38247,6 +38403,9 @@
       <c r="IC53" t="n">
         <v>56</v>
       </c>
+      <c r="ID53" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -38962,6 +39121,9 @@
       <c r="IC54" t="n">
         <v>8</v>
       </c>
+      <c r="ID54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39677,6 +39839,9 @@
       <c r="IC55" t="n">
         <v>10</v>
       </c>
+      <c r="ID55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40392,6 +40557,9 @@
       <c r="IC56" t="n">
         <v>83.3</v>
       </c>
+      <c r="ID56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41107,6 +41275,9 @@
       <c r="IC57" t="n">
         <v>203</v>
       </c>
+      <c r="ID57" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41822,6 +41993,9 @@
       <c r="IC58" t="n">
         <v>150</v>
       </c>
+      <c r="ID58" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42537,6 +42711,9 @@
       <c r="IC59" t="n">
         <v>353</v>
       </c>
+      <c r="ID59" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43252,6 +43429,9 @@
       <c r="IC60" t="n">
         <v>1.35</v>
       </c>
+      <c r="ID60" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -43967,6 +44147,9 @@
       <c r="IC61" t="n">
         <v>89</v>
       </c>
+      <c r="ID61" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44682,6 +44865,9 @@
       <c r="IC62" t="n">
         <v>66</v>
       </c>
+      <c r="ID62" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45397,6 +45583,9 @@
       <c r="IC63" t="n">
         <v>28</v>
       </c>
+      <c r="ID63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46112,6 +46301,9 @@
       <c r="IC64" t="n">
         <v>22</v>
       </c>
+      <c r="ID64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -46827,6 +47019,9 @@
       <c r="IC65" t="n">
         <v>21</v>
       </c>
+      <c r="ID65" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47542,6 +47737,9 @@
       <c r="IC66" t="n">
         <v>4</v>
       </c>
+      <c r="ID66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48257,6 +48455,9 @@
       <c r="IC67" t="n">
         <v>3</v>
       </c>
+      <c r="ID67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -48972,6 +49173,9 @@
       <c r="IC68" t="n">
         <v>4</v>
       </c>
+      <c r="ID68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49687,6 +49891,9 @@
       <c r="IC69" t="n">
         <v>3</v>
       </c>
+      <c r="ID69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50402,6 +50609,9 @@
       <c r="IC70" t="n">
         <v>11</v>
       </c>
+      <c r="ID70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51117,6 +51327,9 @@
       <c r="IC71" t="n">
         <v>36.4</v>
       </c>
+      <c r="ID71" t="n">
+        <v>47.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -51832,6 +52045,9 @@
       <c r="IC72" t="n">
         <v>88.25</v>
       </c>
+      <c r="ID72" t="n">
+        <v>35.3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52547,6 +52763,9 @@
       <c r="IC73" t="n">
         <v>32.09</v>
       </c>
+      <c r="ID73" t="n">
+        <v>16.81</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53262,6 +53481,9 @@
       <c r="IC74" t="n">
         <v>40</v>
       </c>
+      <c r="ID74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -53977,6 +54199,9 @@
       <c r="IC75" t="n">
         <v>65</v>
       </c>
+      <c r="ID75" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54692,6 +54917,9 @@
       <c r="IC76" t="n">
         <v>45</v>
       </c>
+      <c r="ID76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55407,6 +55635,9 @@
       <c r="IC77" t="n">
         <v>52</v>
       </c>
+      <c r="ID77" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56122,6 +56353,9 @@
       <c r="IC78" t="n">
         <v>4.73</v>
       </c>
+      <c r="ID78" t="n">
+        <v>2.43</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -56837,6 +57071,9 @@
       <c r="IC79" t="n">
         <v>13</v>
       </c>
+      <c r="ID79" t="n">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57552,6 +57789,9 @@
       <c r="IC80" t="n">
         <v>15.4</v>
       </c>
+      <c r="ID80" t="n">
+        <v>37.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58267,6 +58507,9 @@
       <c r="IC81" t="n">
         <v>7.7</v>
       </c>
+      <c r="ID81" t="n">
+        <v>19.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -58982,6 +59225,9 @@
       <c r="IC82" t="n">
         <v>188.2</v>
       </c>
+      <c r="ID82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59697,6 +59943,9 @@
       <c r="IC83" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="ID83" t="n">
+        <v>85.59999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60412,6 +60661,9 @@
       <c r="IC84" t="n">
         <v>24.41</v>
       </c>
+      <c r="ID84" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61127,6 +61379,9 @@
       <c r="IC85" t="n">
         <v>76.3</v>
       </c>
+      <c r="ID85" t="n">
+        <v>105.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -61842,6 +62097,9 @@
       <c r="IC86" t="n">
         <v>9</v>
       </c>
+      <c r="ID86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62557,6 +62815,9 @@
       <c r="IC87" t="n">
         <v>6</v>
       </c>
+      <c r="ID87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63272,6 +63533,9 @@
       <c r="IC88" t="n">
         <v>6</v>
       </c>
+      <c r="ID88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -63987,6 +64251,9 @@
       <c r="IC89" t="n">
         <v>2</v>
       </c>
+      <c r="ID89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64702,6 +64969,9 @@
       <c r="IC90" t="n">
         <v>140</v>
       </c>
+      <c r="ID90" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65417,6 +65687,9 @@
       <c r="IC91" t="n">
         <v>213</v>
       </c>
+      <c r="ID91" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66132,6 +66405,9 @@
       <c r="IC92" t="n">
         <v>246</v>
       </c>
+      <c r="ID92" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -66847,6 +67123,9 @@
       <c r="IC93" t="n">
         <v>69.7</v>
       </c>
+      <c r="ID93" t="n">
+        <v>69.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67562,6 +67841,9 @@
       <c r="IC94" t="n">
         <v>65</v>
       </c>
+      <c r="ID94" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68277,6 +68559,9 @@
       <c r="IC95" t="n">
         <v>12</v>
       </c>
+      <c r="ID95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -68992,6 +69277,9 @@
       <c r="IC96" t="n">
         <v>5</v>
       </c>
+      <c r="ID96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69707,6 +69995,9 @@
       <c r="IC97" t="n">
         <v>40</v>
       </c>
+      <c r="ID97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70422,6 +70713,9 @@
       <c r="IC98" t="n">
         <v>45</v>
       </c>
+      <c r="ID98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71137,6 +71431,9 @@
       <c r="IC99" t="n">
         <v>64</v>
       </c>
+      <c r="ID99" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -71852,6 +72149,9 @@
       <c r="IC100" t="n">
         <v>8</v>
       </c>
+      <c r="ID100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72567,6 +72867,9 @@
       <c r="IC101" t="n">
         <v>3</v>
       </c>
+      <c r="ID101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73282,8 +73585,11 @@
       <c r="IC102" t="n">
         <v>75</v>
       </c>
+      <c r="ID102" t="n">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ID102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1070,6 +1070,9 @@
       <c r="ID1" t="n">
         <v>10451</v>
       </c>
+      <c r="IE1" t="n">
+        <v>10456</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1788,6 +1791,9 @@
       <c r="ID2" t="n">
         <v>2021</v>
       </c>
+      <c r="IE2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2506,6 +2512,9 @@
       <c r="ID3" t="n">
         <v>15</v>
       </c>
+      <c r="IE3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3224,6 +3233,9 @@
       <c r="ID4" t="n">
         <v>0</v>
       </c>
+      <c r="IE4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3942,6 +3954,9 @@
       <c r="ID5" t="n">
         <v>0</v>
       </c>
+      <c r="IE5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4660,6 +4675,9 @@
       <c r="ID6" t="n">
         <v>81</v>
       </c>
+      <c r="IE6" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5378,6 +5396,9 @@
       <c r="ID7" t="n">
         <v>71</v>
       </c>
+      <c r="IE7" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6096,6 +6117,9 @@
       <c r="ID8" t="n">
         <v>10</v>
       </c>
+      <c r="IE8" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6814,6 +6838,9 @@
       <c r="ID9" t="n">
         <v>1</v>
       </c>
+      <c r="IE9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7532,6 +7559,9 @@
       <c r="ID10" t="n">
         <v>16</v>
       </c>
+      <c r="IE10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8250,6 +8280,9 @@
       <c r="ID11" t="n">
         <v>214</v>
       </c>
+      <c r="IE11" t="n">
+        <v>246</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8968,6 +9001,9 @@
       <c r="ID12" t="n">
         <v>131</v>
       </c>
+      <c r="IE12" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9686,6 +9722,9 @@
       <c r="ID13" t="n">
         <v>345</v>
       </c>
+      <c r="IE13" t="n">
+        <v>389</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10404,6 +10443,9 @@
       <c r="ID14" t="n">
         <v>1.63</v>
       </c>
+      <c r="IE14" t="n">
+        <v>1.72</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11122,6 +11164,9 @@
       <c r="ID15" t="n">
         <v>54</v>
       </c>
+      <c r="IE15" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11840,6 +11885,9 @@
       <c r="ID16" t="n">
         <v>74</v>
       </c>
+      <c r="IE16" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12558,6 +12606,9 @@
       <c r="ID17" t="n">
         <v>44</v>
       </c>
+      <c r="IE17" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13276,6 +13327,9 @@
       <c r="ID18" t="n">
         <v>26</v>
       </c>
+      <c r="IE18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -13994,6 +14048,9 @@
       <c r="ID19" t="n">
         <v>25</v>
       </c>
+      <c r="IE19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14712,6 +14769,9 @@
       <c r="ID20" t="n">
         <v>12</v>
       </c>
+      <c r="IE20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15430,6 +15490,9 @@
       <c r="ID21" t="n">
         <v>6</v>
       </c>
+      <c r="IE21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16148,6 +16211,9 @@
       <c r="ID22" t="n">
         <v>8</v>
       </c>
+      <c r="IE22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16866,6 +16932,9 @@
       <c r="ID23" t="n">
         <v>1</v>
       </c>
+      <c r="IE23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17584,6 +17653,9 @@
       <c r="ID24" t="n">
         <v>21</v>
       </c>
+      <c r="IE24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18302,6 +18374,9 @@
       <c r="ID25" t="n">
         <v>57.1</v>
       </c>
+      <c r="IE25" t="n">
+        <v>59.1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19020,6 +19095,9 @@
       <c r="ID26" t="n">
         <v>28.75</v>
       </c>
+      <c r="IE26" t="n">
+        <v>29.92</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19738,6 +19816,9 @@
       <c r="ID27" t="n">
         <v>16.43</v>
       </c>
+      <c r="IE27" t="n">
+        <v>17.68</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20456,6 +20537,9 @@
       <c r="ID28" t="n">
         <v>39</v>
       </c>
+      <c r="IE28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21174,6 +21258,9 @@
       <c r="ID29" t="n">
         <v>65</v>
       </c>
+      <c r="IE29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21892,6 +21979,9 @@
       <c r="ID30" t="n">
         <v>41</v>
       </c>
+      <c r="IE30" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22610,6 +22700,9 @@
       <c r="ID31" t="n">
         <v>47</v>
       </c>
+      <c r="IE31" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23328,6 +23421,9 @@
       <c r="ID32" t="n">
         <v>2.24</v>
       </c>
+      <c r="IE32" t="n">
+        <v>2.45</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24046,6 +24142,9 @@
       <c r="ID33" t="n">
         <v>3.92</v>
       </c>
+      <c r="IE33" t="n">
+        <v>4.15</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24764,6 +24863,9 @@
       <c r="ID34" t="n">
         <v>42.6</v>
       </c>
+      <c r="IE34" t="n">
+        <v>40.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25482,6 +25584,9 @@
       <c r="ID35" t="n">
         <v>25.5</v>
       </c>
+      <c r="IE35" t="n">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26200,6 +26305,9 @@
       <c r="ID36" t="n">
         <v>188.3</v>
       </c>
+      <c r="IE36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -26918,6 +27026,9 @@
       <c r="ID37" t="n">
         <v>83.59999999999999</v>
       </c>
+      <c r="IE37" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27636,6 +27747,9 @@
       <c r="ID38" t="n">
         <v>25.33</v>
       </c>
+      <c r="IE38" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28354,6 +28468,9 @@
       <c r="ID39" t="n">
         <v>92.2</v>
       </c>
+      <c r="IE39" t="n">
+        <v>95.59999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29072,6 +29189,9 @@
       <c r="ID40" t="n">
         <v>8</v>
       </c>
+      <c r="IE40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29790,6 +29910,9 @@
       <c r="ID41" t="n">
         <v>6</v>
       </c>
+      <c r="IE41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30508,6 +30631,9 @@
       <c r="ID42" t="n">
         <v>4</v>
       </c>
+      <c r="IE42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31226,6 +31352,9 @@
       <c r="ID43" t="n">
         <v>5</v>
       </c>
+      <c r="IE43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -31944,6 +32073,9 @@
       <c r="ID44" t="n">
         <v>154</v>
       </c>
+      <c r="IE44" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32662,6 +32794,9 @@
       <c r="ID45" t="n">
         <v>168</v>
       </c>
+      <c r="IE45" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33380,6 +33515,9 @@
       <c r="ID46" t="n">
         <v>235</v>
       </c>
+      <c r="IE46" t="n">
+        <v>277</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34098,6 +34236,9 @@
       <c r="ID47" t="n">
         <v>68.09999999999999</v>
       </c>
+      <c r="IE47" t="n">
+        <v>71.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34816,6 +34957,9 @@
       <c r="ID48" t="n">
         <v>65</v>
       </c>
+      <c r="IE48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35534,6 +35678,9 @@
       <c r="ID49" t="n">
         <v>13</v>
       </c>
+      <c r="IE49" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36252,6 +36399,9 @@
       <c r="ID50" t="n">
         <v>8</v>
       </c>
+      <c r="IE50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -36970,6 +37120,9 @@
       <c r="ID51" t="n">
         <v>39</v>
       </c>
+      <c r="IE51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37688,6 +37841,9 @@
       <c r="ID52" t="n">
         <v>41</v>
       </c>
+      <c r="IE52" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38406,6 +38562,9 @@
       <c r="ID53" t="n">
         <v>61</v>
       </c>
+      <c r="IE53" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39124,6 +39283,9 @@
       <c r="ID54" t="n">
         <v>1</v>
       </c>
+      <c r="IE54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -39842,6 +40004,9 @@
       <c r="ID55" t="n">
         <v>6</v>
       </c>
+      <c r="IE55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40560,6 +40725,9 @@
       <c r="ID56" t="n">
         <v>50</v>
       </c>
+      <c r="IE56" t="n">
+        <v>84.59999999999999</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41278,6 +41446,9 @@
       <c r="ID57" t="n">
         <v>193</v>
       </c>
+      <c r="IE57" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41996,6 +42167,9 @@
       <c r="ID58" t="n">
         <v>160</v>
       </c>
+      <c r="IE58" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42714,6 +42888,9 @@
       <c r="ID59" t="n">
         <v>353</v>
       </c>
+      <c r="IE59" t="n">
+        <v>327</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43432,6 +43609,9 @@
       <c r="ID60" t="n">
         <v>1.21</v>
       </c>
+      <c r="IE60" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44150,6 +44330,9 @@
       <c r="ID61" t="n">
         <v>49</v>
       </c>
+      <c r="IE61" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -44868,6 +45051,9 @@
       <c r="ID62" t="n">
         <v>60</v>
       </c>
+      <c r="IE62" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45586,6 +45772,9 @@
       <c r="ID63" t="n">
         <v>32</v>
       </c>
+      <c r="IE63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46304,6 +46493,9 @@
       <c r="ID64" t="n">
         <v>25</v>
       </c>
+      <c r="IE64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47022,6 +47214,9 @@
       <c r="ID65" t="n">
         <v>26</v>
       </c>
+      <c r="IE65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47740,6 +47935,9 @@
       <c r="ID66" t="n">
         <v>10</v>
       </c>
+      <c r="IE66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48458,6 +48656,9 @@
       <c r="ID67" t="n">
         <v>4</v>
       </c>
+      <c r="IE67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49176,6 +49377,9 @@
       <c r="ID68" t="n">
         <v>9</v>
       </c>
+      <c r="IE68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -49894,6 +50098,9 @@
       <c r="ID69" t="n">
         <v>2</v>
       </c>
+      <c r="IE69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50612,6 +50819,9 @@
       <c r="ID70" t="n">
         <v>21</v>
       </c>
+      <c r="IE70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51330,6 +51540,9 @@
       <c r="ID71" t="n">
         <v>47.6</v>
       </c>
+      <c r="IE71" t="n">
+        <v>38.9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52048,6 +52261,9 @@
       <c r="ID72" t="n">
         <v>35.3</v>
       </c>
+      <c r="IE72" t="n">
+        <v>46.71</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52766,6 +52982,9 @@
       <c r="ID73" t="n">
         <v>16.81</v>
       </c>
+      <c r="IE73" t="n">
+        <v>18.17</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53484,6 +53703,9 @@
       <c r="ID74" t="n">
         <v>36</v>
       </c>
+      <c r="IE74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54202,6 +54424,9 @@
       <c r="ID75" t="n">
         <v>71</v>
       </c>
+      <c r="IE75" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -54920,6 +55145,9 @@
       <c r="ID76" t="n">
         <v>34</v>
       </c>
+      <c r="IE76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55638,6 +55866,9 @@
       <c r="ID77" t="n">
         <v>51</v>
       </c>
+      <c r="IE77" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56356,6 +56587,9 @@
       <c r="ID78" t="n">
         <v>2.43</v>
       </c>
+      <c r="IE78" t="n">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57074,6 +57308,9 @@
       <c r="ID79" t="n">
         <v>5.1</v>
       </c>
+      <c r="IE79" t="n">
+        <v>5.57</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -57792,6 +58029,9 @@
       <c r="ID80" t="n">
         <v>37.3</v>
       </c>
+      <c r="IE80" t="n">
+        <v>35.9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58510,6 +58750,9 @@
       <c r="ID81" t="n">
         <v>19.6</v>
       </c>
+      <c r="IE81" t="n">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59228,6 +59471,9 @@
       <c r="ID82" t="n">
         <v>187.7</v>
       </c>
+      <c r="IE82" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -59946,6 +60192,9 @@
       <c r="ID83" t="n">
         <v>85.59999999999999</v>
       </c>
+      <c r="IE83" t="n">
+        <v>86.09999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60664,6 +60913,9 @@
       <c r="ID84" t="n">
         <v>25.66</v>
       </c>
+      <c r="IE84" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61382,6 +61634,9 @@
       <c r="ID85" t="n">
         <v>105.5</v>
       </c>
+      <c r="IE85" t="n">
+        <v>103.6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62100,6 +62355,9 @@
       <c r="ID86" t="n">
         <v>7</v>
       </c>
+      <c r="IE86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -62818,6 +63076,9 @@
       <c r="ID87" t="n">
         <v>4</v>
       </c>
+      <c r="IE87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63536,6 +63797,9 @@
       <c r="ID88" t="n">
         <v>6</v>
       </c>
+      <c r="IE88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64254,6 +64518,9 @@
       <c r="ID89" t="n">
         <v>5</v>
       </c>
+      <c r="IE89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -64972,6 +65239,9 @@
       <c r="ID90" t="n">
         <v>148</v>
       </c>
+      <c r="IE90" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65690,6 +65960,9 @@
       <c r="ID91" t="n">
         <v>195</v>
       </c>
+      <c r="IE91" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66408,6 +66681,9 @@
       <c r="ID92" t="n">
         <v>246</v>
       </c>
+      <c r="IE92" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67126,6 +67402,9 @@
       <c r="ID93" t="n">
         <v>69.7</v>
       </c>
+      <c r="IE93" t="n">
+        <v>69.40000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -67844,6 +68123,9 @@
       <c r="ID94" t="n">
         <v>71</v>
       </c>
+      <c r="IE94" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68562,6 +68844,9 @@
       <c r="ID95" t="n">
         <v>7</v>
       </c>
+      <c r="IE95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69280,6 +69565,9 @@
       <c r="ID96" t="n">
         <v>8</v>
       </c>
+      <c r="IE96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -69998,6 +70286,9 @@
       <c r="ID97" t="n">
         <v>36</v>
       </c>
+      <c r="IE97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -70716,6 +71007,9 @@
       <c r="ID98" t="n">
         <v>34</v>
       </c>
+      <c r="IE98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71434,6 +71728,9 @@
       <c r="ID99" t="n">
         <v>60</v>
       </c>
+      <c r="IE99" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72152,6 +72449,9 @@
       <c r="ID100" t="n">
         <v>2</v>
       </c>
+      <c r="IE100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -72870,6 +73170,9 @@
       <c r="ID101" t="n">
         <v>4</v>
       </c>
+      <c r="IE101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73588,8 +73891,11 @@
       <c r="ID102" t="n">
         <v>40</v>
       </c>
+      <c r="IE102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IE102"/>
+  <dimension ref="A1:IF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,6 +1073,9 @@
       <c r="IE1" t="n">
         <v>10456</v>
       </c>
+      <c r="IF1" t="n">
+        <v>10469</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1794,6 +1797,9 @@
       <c r="IE2" t="n">
         <v>2021</v>
       </c>
+      <c r="IF2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2515,6 +2521,9 @@
       <c r="IE3" t="n">
         <v>16</v>
       </c>
+      <c r="IF3" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3236,6 +3245,9 @@
       <c r="IE4" t="n">
         <v>1</v>
       </c>
+      <c r="IF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3957,6 +3969,9 @@
       <c r="IE5" t="n">
         <v>1</v>
       </c>
+      <c r="IF5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4678,6 +4693,9 @@
       <c r="IE6" t="n">
         <v>87</v>
       </c>
+      <c r="IF6" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5399,6 +5417,9 @@
       <c r="IE7" t="n">
         <v>53</v>
       </c>
+      <c r="IF7" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6120,6 +6141,9 @@
       <c r="IE8" t="n">
         <v>34</v>
       </c>
+      <c r="IF8" t="n">
+        <v>-31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6841,6 +6865,9 @@
       <c r="IE9" t="n">
         <v>1</v>
       </c>
+      <c r="IF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7562,6 +7589,9 @@
       <c r="IE10" t="n">
         <v>10</v>
       </c>
+      <c r="IF10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8283,6 +8313,9 @@
       <c r="IE11" t="n">
         <v>246</v>
       </c>
+      <c r="IF11" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9004,6 +9037,9 @@
       <c r="IE12" t="n">
         <v>143</v>
       </c>
+      <c r="IF12" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9725,6 +9761,9 @@
       <c r="IE13" t="n">
         <v>389</v>
       </c>
+      <c r="IF13" t="n">
+        <v>327</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10446,6 +10485,9 @@
       <c r="IE14" t="n">
         <v>1.72</v>
       </c>
+      <c r="IF14" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11167,6 +11209,9 @@
       <c r="IE15" t="n">
         <v>82</v>
       </c>
+      <c r="IF15" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11888,6 +11933,9 @@
       <c r="IE16" t="n">
         <v>69</v>
       </c>
+      <c r="IF16" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12609,6 +12657,9 @@
       <c r="IE17" t="n">
         <v>42</v>
       </c>
+      <c r="IF17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13330,6 +13381,9 @@
       <c r="IE18" t="n">
         <v>22</v>
       </c>
+      <c r="IF18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14051,6 +14105,9 @@
       <c r="IE19" t="n">
         <v>16</v>
       </c>
+      <c r="IF19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14772,6 +14829,9 @@
       <c r="IE20" t="n">
         <v>13</v>
       </c>
+      <c r="IF20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15493,6 +15553,9 @@
       <c r="IE21" t="n">
         <v>11</v>
       </c>
+      <c r="IF21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16214,6 +16277,9 @@
       <c r="IE22" t="n">
         <v>9</v>
       </c>
+      <c r="IF22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -16935,6 +17001,9 @@
       <c r="IE23" t="n">
         <v>0</v>
       </c>
+      <c r="IF23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17656,6 +17725,9 @@
       <c r="IE24" t="n">
         <v>22</v>
       </c>
+      <c r="IF24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18377,6 +18449,9 @@
       <c r="IE25" t="n">
         <v>59.1</v>
       </c>
+      <c r="IF25" t="n">
+        <v>53.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19098,6 +19173,9 @@
       <c r="IE26" t="n">
         <v>29.92</v>
       </c>
+      <c r="IF26" t="n">
+        <v>40.88</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19819,6 +19897,9 @@
       <c r="IE27" t="n">
         <v>17.68</v>
       </c>
+      <c r="IF27" t="n">
+        <v>21.8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20540,6 +20621,9 @@
       <c r="IE28" t="n">
         <v>41</v>
       </c>
+      <c r="IF28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21261,6 +21345,9 @@
       <c r="IE29" t="n">
         <v>63</v>
       </c>
+      <c r="IF29" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21982,6 +22069,9 @@
       <c r="IE30" t="n">
         <v>32</v>
       </c>
+      <c r="IF30" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22703,6 +22793,9 @@
       <c r="IE31" t="n">
         <v>54</v>
       </c>
+      <c r="IF31" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23424,6 +23517,9 @@
       <c r="IE32" t="n">
         <v>2.45</v>
       </c>
+      <c r="IF32" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24145,6 +24241,9 @@
       <c r="IE33" t="n">
         <v>4.15</v>
       </c>
+      <c r="IF33" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24866,6 +24965,9 @@
       <c r="IE34" t="n">
         <v>40.7</v>
       </c>
+      <c r="IF34" t="n">
+        <v>27.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25587,6 +25689,9 @@
       <c r="IE35" t="n">
         <v>24.1</v>
       </c>
+      <c r="IF35" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26308,6 +26413,9 @@
       <c r="IE36" t="n">
         <v>188.5</v>
       </c>
+      <c r="IF36" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27029,6 +27137,9 @@
       <c r="IE37" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="IF37" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27750,6 +27861,9 @@
       <c r="IE38" t="n">
         <v>25.58</v>
       </c>
+      <c r="IF38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28471,6 +28585,9 @@
       <c r="IE39" t="n">
         <v>95.59999999999999</v>
       </c>
+      <c r="IF39" t="n">
+        <v>99.09999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29192,6 +29309,9 @@
       <c r="IE40" t="n">
         <v>7</v>
       </c>
+      <c r="IF40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -29913,6 +30033,9 @@
       <c r="IE41" t="n">
         <v>7</v>
       </c>
+      <c r="IF41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30634,6 +30757,9 @@
       <c r="IE42" t="n">
         <v>4</v>
       </c>
+      <c r="IF42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31355,6 +31481,9 @@
       <c r="IE43" t="n">
         <v>5</v>
       </c>
+      <c r="IF43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32076,6 +32205,9 @@
       <c r="IE44" t="n">
         <v>157</v>
       </c>
+      <c r="IF44" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32797,6 +32929,9 @@
       <c r="IE45" t="n">
         <v>212</v>
       </c>
+      <c r="IF45" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33518,6 +33653,9 @@
       <c r="IE46" t="n">
         <v>277</v>
       </c>
+      <c r="IF46" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34239,6 +34377,9 @@
       <c r="IE47" t="n">
         <v>71.2</v>
       </c>
+      <c r="IF47" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -34960,6 +35101,9 @@
       <c r="IE48" t="n">
         <v>63</v>
       </c>
+      <c r="IF48" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35681,6 +35825,9 @@
       <c r="IE49" t="n">
         <v>6</v>
       </c>
+      <c r="IF49" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36402,6 +36549,9 @@
       <c r="IE50" t="n">
         <v>7</v>
       </c>
+      <c r="IF50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37123,6 +37273,9 @@
       <c r="IE51" t="n">
         <v>41</v>
       </c>
+      <c r="IF51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -37844,6 +37997,9 @@
       <c r="IE52" t="n">
         <v>32</v>
       </c>
+      <c r="IF52" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38565,6 +38721,9 @@
       <c r="IE53" t="n">
         <v>52</v>
       </c>
+      <c r="IF53" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39286,6 +39445,9 @@
       <c r="IE54" t="n">
         <v>2</v>
       </c>
+      <c r="IF54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40007,6 +40169,9 @@
       <c r="IE55" t="n">
         <v>11</v>
       </c>
+      <c r="IF55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40728,6 +40893,9 @@
       <c r="IE56" t="n">
         <v>84.59999999999999</v>
       </c>
+      <c r="IF56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41449,6 +41617,9 @@
       <c r="IE57" t="n">
         <v>175</v>
       </c>
+      <c r="IF57" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42170,6 +42341,9 @@
       <c r="IE58" t="n">
         <v>152</v>
       </c>
+      <c r="IF58" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -42891,6 +43065,9 @@
       <c r="IE59" t="n">
         <v>327</v>
       </c>
+      <c r="IF59" t="n">
+        <v>355</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43612,6 +43789,9 @@
       <c r="IE60" t="n">
         <v>1.15</v>
       </c>
+      <c r="IF60" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44333,6 +44513,9 @@
       <c r="IE61" t="n">
         <v>69</v>
       </c>
+      <c r="IF61" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45054,6 +45237,9 @@
       <c r="IE62" t="n">
         <v>67</v>
       </c>
+      <c r="IF62" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45775,6 +45961,9 @@
       <c r="IE63" t="n">
         <v>33</v>
       </c>
+      <c r="IF63" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46496,6 +46685,9 @@
       <c r="IE64" t="n">
         <v>16</v>
       </c>
+      <c r="IF64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47217,6 +47409,9 @@
       <c r="IE65" t="n">
         <v>22</v>
       </c>
+      <c r="IF65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -47938,6 +48133,9 @@
       <c r="IE66" t="n">
         <v>7</v>
       </c>
+      <c r="IF66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48659,6 +48857,9 @@
       <c r="IE67" t="n">
         <v>5</v>
       </c>
+      <c r="IF67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49380,6 +49581,9 @@
       <c r="IE68" t="n">
         <v>7</v>
       </c>
+      <c r="IF68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50101,6 +50305,9 @@
       <c r="IE69" t="n">
         <v>4</v>
       </c>
+      <c r="IF69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -50822,6 +51029,9 @@
       <c r="IE70" t="n">
         <v>18</v>
       </c>
+      <c r="IF70" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51543,6 +51753,9 @@
       <c r="IE71" t="n">
         <v>38.9</v>
       </c>
+      <c r="IF71" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52264,6 +52477,9 @@
       <c r="IE72" t="n">
         <v>46.71</v>
       </c>
+      <c r="IF72" t="n">
+        <v>29.58</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -52985,6 +53201,9 @@
       <c r="IE73" t="n">
         <v>18.17</v>
       </c>
+      <c r="IF73" t="n">
+        <v>13.65</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53706,6 +53925,9 @@
       <c r="IE74" t="n">
         <v>37</v>
       </c>
+      <c r="IF74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54427,6 +54649,9 @@
       <c r="IE75" t="n">
         <v>53</v>
       </c>
+      <c r="IF75" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55148,6 +55373,9 @@
       <c r="IE76" t="n">
         <v>39</v>
       </c>
+      <c r="IF76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -55869,6 +56097,9 @@
       <c r="IE77" t="n">
         <v>39</v>
       </c>
+      <c r="IF77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56590,6 +56821,9 @@
       <c r="IE78" t="n">
         <v>2.17</v>
       </c>
+      <c r="IF78" t="n">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57311,6 +57545,9 @@
       <c r="IE79" t="n">
         <v>5.57</v>
       </c>
+      <c r="IF79" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58032,6 +58269,9 @@
       <c r="IE80" t="n">
         <v>35.9</v>
       </c>
+      <c r="IF80" t="n">
+        <v>51.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58753,6 +58993,9 @@
       <c r="IE81" t="n">
         <v>17.9</v>
       </c>
+      <c r="IF81" t="n">
+        <v>26.7</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59474,6 +59717,9 @@
       <c r="IE82" t="n">
         <v>188.5</v>
       </c>
+      <c r="IF82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60195,6 +60441,9 @@
       <c r="IE83" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="IF83" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -60916,6 +61165,9 @@
       <c r="IE84" t="n">
         <v>25.24</v>
       </c>
+      <c r="IF84" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61637,6 +61889,9 @@
       <c r="IE85" t="n">
         <v>103.6</v>
       </c>
+      <c r="IF85" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62358,6 +62613,9 @@
       <c r="IE86" t="n">
         <v>8</v>
       </c>
+      <c r="IF86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63079,6 +63337,9 @@
       <c r="IE87" t="n">
         <v>5</v>
       </c>
+      <c r="IF87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -63800,6 +64061,9 @@
       <c r="IE88" t="n">
         <v>5</v>
       </c>
+      <c r="IF88" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64521,6 +64785,9 @@
       <c r="IE89" t="n">
         <v>4</v>
       </c>
+      <c r="IF89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65242,6 +65509,9 @@
       <c r="IE90" t="n">
         <v>134</v>
       </c>
+      <c r="IF90" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -65963,6 +66233,9 @@
       <c r="IE91" t="n">
         <v>188</v>
       </c>
+      <c r="IF91" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66684,6 +66957,9 @@
       <c r="IE92" t="n">
         <v>227</v>
       </c>
+      <c r="IF92" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67405,6 +67681,9 @@
       <c r="IE93" t="n">
         <v>69.40000000000001</v>
       </c>
+      <c r="IF93" t="n">
+        <v>73.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68126,6 +68405,9 @@
       <c r="IE94" t="n">
         <v>53</v>
       </c>
+      <c r="IF94" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -68847,6 +69129,9 @@
       <c r="IE95" t="n">
         <v>10</v>
       </c>
+      <c r="IF95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69568,6 +69853,9 @@
       <c r="IE96" t="n">
         <v>6</v>
       </c>
+      <c r="IF96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70289,6 +70577,9 @@
       <c r="IE97" t="n">
         <v>37</v>
       </c>
+      <c r="IF97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71010,6 +71301,9 @@
       <c r="IE98" t="n">
         <v>39</v>
       </c>
+      <c r="IF98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -71731,6 +72025,9 @@
       <c r="IE99" t="n">
         <v>49</v>
       </c>
+      <c r="IF99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72452,6 +72749,9 @@
       <c r="IE100" t="n">
         <v>3</v>
       </c>
+      <c r="IF100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73173,6 +73473,9 @@
       <c r="IE101" t="n">
         <v>5</v>
       </c>
+      <c r="IF101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -73894,6 +74197,9 @@
       <c r="IE102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IF102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IF102"/>
+  <dimension ref="A1:IG102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,6 +1076,9 @@
       <c r="IF1" t="n">
         <v>10469</v>
       </c>
+      <c r="IG1" t="n">
+        <v>10477</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1800,6 +1803,9 @@
       <c r="IF2" t="n">
         <v>2021</v>
       </c>
+      <c r="IG2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2524,6 +2530,9 @@
       <c r="IF3" t="n">
         <v>17</v>
       </c>
+      <c r="IG3" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3248,6 +3257,9 @@
       <c r="IF4" t="n">
         <v>0</v>
       </c>
+      <c r="IG4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3972,6 +3984,9 @@
       <c r="IF5" t="n">
         <v>1</v>
       </c>
+      <c r="IG5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4696,6 +4711,9 @@
       <c r="IF6" t="n">
         <v>55</v>
       </c>
+      <c r="IG6" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5420,6 +5438,9 @@
       <c r="IF7" t="n">
         <v>86</v>
       </c>
+      <c r="IG7" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6144,6 +6165,9 @@
       <c r="IF8" t="n">
         <v>-31</v>
       </c>
+      <c r="IG8" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6868,6 +6892,9 @@
       <c r="IF9" t="n">
         <v>0</v>
       </c>
+      <c r="IG9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7592,6 +7619,9 @@
       <c r="IF10" t="n">
         <v>11</v>
       </c>
+      <c r="IG10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8316,6 +8346,9 @@
       <c r="IF11" t="n">
         <v>198</v>
       </c>
+      <c r="IG11" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9040,6 +9073,9 @@
       <c r="IF12" t="n">
         <v>129</v>
       </c>
+      <c r="IG12" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9764,6 +9800,9 @@
       <c r="IF13" t="n">
         <v>327</v>
       </c>
+      <c r="IG13" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10488,6 +10527,9 @@
       <c r="IF14" t="n">
         <v>1.53</v>
       </c>
+      <c r="IG14" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11212,6 +11254,9 @@
       <c r="IF15" t="n">
         <v>87</v>
       </c>
+      <c r="IG15" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11936,6 +11981,9 @@
       <c r="IF16" t="n">
         <v>61</v>
       </c>
+      <c r="IG16" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12660,6 +12708,9 @@
       <c r="IF17" t="n">
         <v>30</v>
       </c>
+      <c r="IG17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13384,6 +13435,9 @@
       <c r="IF18" t="n">
         <v>19</v>
       </c>
+      <c r="IG18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14108,6 +14162,9 @@
       <c r="IF19" t="n">
         <v>18</v>
       </c>
+      <c r="IG19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14832,6 +14889,9 @@
       <c r="IF20" t="n">
         <v>8</v>
       </c>
+      <c r="IG20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15556,6 +15616,9 @@
       <c r="IF21" t="n">
         <v>4</v>
       </c>
+      <c r="IG21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16280,6 +16343,9 @@
       <c r="IF22" t="n">
         <v>5</v>
       </c>
+      <c r="IG22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17004,6 +17070,9 @@
       <c r="IF23" t="n">
         <v>2</v>
       </c>
+      <c r="IG23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17728,6 +17797,9 @@
       <c r="IF24" t="n">
         <v>15</v>
       </c>
+      <c r="IG24" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18452,6 +18524,9 @@
       <c r="IF25" t="n">
         <v>53.3</v>
       </c>
+      <c r="IG25" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19176,6 +19251,9 @@
       <c r="IF26" t="n">
         <v>40.88</v>
       </c>
+      <c r="IG26" t="n">
+        <v>35.9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19900,6 +19978,9 @@
       <c r="IF27" t="n">
         <v>21.8</v>
       </c>
+      <c r="IG27" t="n">
+        <v>14.96</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20624,6 +20705,9 @@
       <c r="IF28" t="n">
         <v>33</v>
       </c>
+      <c r="IG28" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21348,6 +21432,9 @@
       <c r="IF29" t="n">
         <v>49</v>
       </c>
+      <c r="IG29" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22072,6 +22159,9 @@
       <c r="IF30" t="n">
         <v>32</v>
       </c>
+      <c r="IG30" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22796,6 +22886,9 @@
       <c r="IF31" t="n">
         <v>48</v>
       </c>
+      <c r="IG31" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23520,6 +23613,9 @@
       <c r="IF32" t="n">
         <v>3.2</v>
       </c>
+      <c r="IG32" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24244,6 +24340,9 @@
       <c r="IF33" t="n">
         <v>6</v>
       </c>
+      <c r="IG33" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -24968,6 +25067,9 @@
       <c r="IF34" t="n">
         <v>27.1</v>
       </c>
+      <c r="IG34" t="n">
+        <v>48.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25692,6 +25794,9 @@
       <c r="IF35" t="n">
         <v>16.7</v>
       </c>
+      <c r="IG35" t="n">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26416,6 +26521,9 @@
       <c r="IF36" t="n">
         <v>188.6</v>
       </c>
+      <c r="IG36" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27140,6 +27248,9 @@
       <c r="IF37" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="IG37" t="n">
+        <v>84.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27864,6 +27975,9 @@
       <c r="IF38" t="n">
         <v>25.66</v>
       </c>
+      <c r="IG38" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28588,6 +28702,9 @@
       <c r="IF39" t="n">
         <v>99.09999999999999</v>
       </c>
+      <c r="IG39" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29312,6 +29429,9 @@
       <c r="IF40" t="n">
         <v>7</v>
       </c>
+      <c r="IG40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30036,6 +30156,9 @@
       <c r="IF41" t="n">
         <v>6</v>
       </c>
+      <c r="IG41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30760,6 +30883,9 @@
       <c r="IF42" t="n">
         <v>5</v>
       </c>
+      <c r="IG42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31484,6 +31610,9 @@
       <c r="IF43" t="n">
         <v>5</v>
       </c>
+      <c r="IG43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32208,6 +32337,9 @@
       <c r="IF44" t="n">
         <v>142</v>
       </c>
+      <c r="IG44" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -32932,6 +33064,9 @@
       <c r="IF45" t="n">
         <v>169</v>
       </c>
+      <c r="IG45" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33656,6 +33791,9 @@
       <c r="IF46" t="n">
         <v>231</v>
       </c>
+      <c r="IG46" t="n">
+        <v>275</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34380,6 +34518,9 @@
       <c r="IF47" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="IG47" t="n">
+        <v>76.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35104,6 +35245,9 @@
       <c r="IF48" t="n">
         <v>49</v>
       </c>
+      <c r="IG48" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35828,6 +35972,9 @@
       <c r="IF49" t="n">
         <v>21</v>
       </c>
+      <c r="IG49" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36552,6 +36699,9 @@
       <c r="IF50" t="n">
         <v>8</v>
       </c>
+      <c r="IG50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37276,6 +37426,9 @@
       <c r="IF51" t="n">
         <v>33</v>
       </c>
+      <c r="IG51" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38000,6 +38153,9 @@
       <c r="IF52" t="n">
         <v>32</v>
       </c>
+      <c r="IG52" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38724,6 +38880,9 @@
       <c r="IF53" t="n">
         <v>48</v>
       </c>
+      <c r="IG53" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39448,6 +39607,9 @@
       <c r="IF54" t="n">
         <v>1</v>
       </c>
+      <c r="IG54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40172,6 +40334,9 @@
       <c r="IF55" t="n">
         <v>4</v>
       </c>
+      <c r="IG55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -40896,6 +41061,9 @@
       <c r="IF56" t="n">
         <v>50</v>
       </c>
+      <c r="IG56" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41620,6 +41788,9 @@
       <c r="IF57" t="n">
         <v>220</v>
       </c>
+      <c r="IG57" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42344,6 +42515,9 @@
       <c r="IF58" t="n">
         <v>135</v>
       </c>
+      <c r="IG58" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43068,6 +43242,9 @@
       <c r="IF59" t="n">
         <v>355</v>
       </c>
+      <c r="IG59" t="n">
+        <v>387</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43792,6 +43969,9 @@
       <c r="IF60" t="n">
         <v>1.63</v>
       </c>
+      <c r="IG60" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44516,6 +44696,9 @@
       <c r="IF61" t="n">
         <v>88</v>
       </c>
+      <c r="IG61" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45240,6 +45423,9 @@
       <c r="IF62" t="n">
         <v>69</v>
       </c>
+      <c r="IG62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -45964,6 +46150,9 @@
       <c r="IF63" t="n">
         <v>42</v>
       </c>
+      <c r="IG63" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46688,6 +46877,9 @@
       <c r="IF64" t="n">
         <v>18</v>
       </c>
+      <c r="IG64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47412,6 +47604,9 @@
       <c r="IF65" t="n">
         <v>19</v>
       </c>
+      <c r="IG65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48136,6 +48331,9 @@
       <c r="IF66" t="n">
         <v>12</v>
       </c>
+      <c r="IG66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -48860,6 +49058,9 @@
       <c r="IF67" t="n">
         <v>8</v>
       </c>
+      <c r="IG67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49584,6 +49785,9 @@
       <c r="IF68" t="n">
         <v>11</v>
       </c>
+      <c r="IG68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50308,6 +50512,9 @@
       <c r="IF69" t="n">
         <v>3</v>
       </c>
+      <c r="IG69" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51032,6 +51239,9 @@
       <c r="IF70" t="n">
         <v>26</v>
       </c>
+      <c r="IG70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51756,6 +51966,9 @@
       <c r="IF71" t="n">
         <v>46.2</v>
       </c>
+      <c r="IG71" t="n">
+        <v>38.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52480,6 +52693,9 @@
       <c r="IF72" t="n">
         <v>29.58</v>
       </c>
+      <c r="IG72" t="n">
+        <v>48.38</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53204,6 +53420,9 @@
       <c r="IF73" t="n">
         <v>13.65</v>
       </c>
+      <c r="IG73" t="n">
+        <v>18.43</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -53928,6 +54147,9 @@
       <c r="IF74" t="n">
         <v>36</v>
       </c>
+      <c r="IG74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54652,6 +54874,9 @@
       <c r="IF75" t="n">
         <v>48</v>
       </c>
+      <c r="IG75" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55376,6 +55601,9 @@
       <c r="IF76" t="n">
         <v>39</v>
       </c>
+      <c r="IG76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56100,6 +56328,9 @@
       <c r="IF77" t="n">
         <v>45</v>
       </c>
+      <c r="IG77" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -56824,6 +57055,9 @@
       <c r="IF78" t="n">
         <v>1.73</v>
       </c>
+      <c r="IG78" t="n">
+        <v>2.52</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57548,6 +57782,9 @@
       <c r="IF79" t="n">
         <v>3.75</v>
       </c>
+      <c r="IG79" t="n">
+        <v>6.62</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58272,6 +58509,9 @@
       <c r="IF80" t="n">
         <v>51.1</v>
       </c>
+      <c r="IG80" t="n">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -58996,6 +59236,9 @@
       <c r="IF81" t="n">
         <v>26.7</v>
       </c>
+      <c r="IG81" t="n">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59720,6 +59963,9 @@
       <c r="IF82" t="n">
         <v>187.9</v>
       </c>
+      <c r="IG82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60444,6 +60690,9 @@
       <c r="IF83" t="n">
         <v>86.5</v>
       </c>
+      <c r="IG83" t="n">
+        <v>84.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61168,6 +61417,9 @@
       <c r="IF84" t="n">
         <v>25.8</v>
       </c>
+      <c r="IG84" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -61892,6 +62144,9 @@
       <c r="IF85" t="n">
         <v>98</v>
       </c>
+      <c r="IG85" t="n">
+        <v>91.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62616,6 +62871,9 @@
       <c r="IF86" t="n">
         <v>5</v>
       </c>
+      <c r="IG86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63340,6 +63598,9 @@
       <c r="IF87" t="n">
         <v>4</v>
       </c>
+      <c r="IG87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64064,6 +64325,9 @@
       <c r="IF88" t="n">
         <v>9</v>
       </c>
+      <c r="IG88" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -64788,6 +65052,9 @@
       <c r="IF89" t="n">
         <v>4</v>
       </c>
+      <c r="IG89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65512,6 +65779,9 @@
       <c r="IF90" t="n">
         <v>156</v>
       </c>
+      <c r="IG90" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66236,6 +66506,9 @@
       <c r="IF91" t="n">
         <v>194</v>
       </c>
+      <c r="IG91" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -66960,6 +67233,9 @@
       <c r="IF92" t="n">
         <v>262</v>
       </c>
+      <c r="IG92" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67684,6 +67960,9 @@
       <c r="IF93" t="n">
         <v>73.8</v>
       </c>
+      <c r="IG93" t="n">
+        <v>74.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68408,6 +68687,9 @@
       <c r="IF94" t="n">
         <v>48</v>
       </c>
+      <c r="IG94" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69132,6 +69414,9 @@
       <c r="IF95" t="n">
         <v>15</v>
       </c>
+      <c r="IG95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -69856,6 +70141,9 @@
       <c r="IF96" t="n">
         <v>11</v>
       </c>
+      <c r="IG96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70580,6 +70868,9 @@
       <c r="IF97" t="n">
         <v>36</v>
       </c>
+      <c r="IG97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71304,6 +71595,9 @@
       <c r="IF98" t="n">
         <v>39</v>
       </c>
+      <c r="IG98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72028,6 +72322,9 @@
       <c r="IF99" t="n">
         <v>42</v>
       </c>
+      <c r="IG99" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -72752,6 +73049,9 @@
       <c r="IF100" t="n">
         <v>1</v>
       </c>
+      <c r="IG100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73476,6 +73776,9 @@
       <c r="IF101" t="n">
         <v>8</v>
       </c>
+      <c r="IG101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74200,6 +74503,9 @@
       <c r="IF102" t="n">
         <v>66.7</v>
       </c>
+      <c r="IG102" t="n">
+        <v>37.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IG102"/>
+  <dimension ref="A1:IH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1079,9 @@
       <c r="IG1" t="n">
         <v>10477</v>
       </c>
+      <c r="IH1" t="n">
+        <v>10487</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1806,6 +1809,9 @@
       <c r="IG2" t="n">
         <v>2021</v>
       </c>
+      <c r="IH2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2533,6 +2539,9 @@
       <c r="IG3" t="n">
         <v>18</v>
       </c>
+      <c r="IH3" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3260,6 +3269,9 @@
       <c r="IG4" t="n">
         <v>1</v>
       </c>
+      <c r="IH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3987,6 +3999,9 @@
       <c r="IG5" t="n">
         <v>1</v>
       </c>
+      <c r="IH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4714,6 +4729,9 @@
       <c r="IG6" t="n">
         <v>74</v>
       </c>
+      <c r="IH6" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5441,6 +5459,9 @@
       <c r="IG7" t="n">
         <v>61</v>
       </c>
+      <c r="IH7" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6168,6 +6189,9 @@
       <c r="IG8" t="n">
         <v>13</v>
       </c>
+      <c r="IH8" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6895,6 +6919,9 @@
       <c r="IG9" t="n">
         <v>1</v>
       </c>
+      <c r="IH9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7622,6 +7649,9 @@
       <c r="IG10" t="n">
         <v>15</v>
       </c>
+      <c r="IH10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8349,6 +8379,9 @@
       <c r="IG11" t="n">
         <v>205</v>
       </c>
+      <c r="IH11" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9076,6 +9109,9 @@
       <c r="IG12" t="n">
         <v>154</v>
       </c>
+      <c r="IH12" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9803,6 +9839,9 @@
       <c r="IG13" t="n">
         <v>359</v>
       </c>
+      <c r="IH13" t="n">
+        <v>364</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10530,6 +10569,9 @@
       <c r="IG14" t="n">
         <v>1.33</v>
       </c>
+      <c r="IH14" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11257,6 +11299,9 @@
       <c r="IG15" t="n">
         <v>84</v>
       </c>
+      <c r="IH15" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -11984,6 +12029,9 @@
       <c r="IG16" t="n">
         <v>75</v>
       </c>
+      <c r="IH16" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12711,6 +12759,9 @@
       <c r="IG17" t="n">
         <v>34</v>
       </c>
+      <c r="IH17" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13438,6 +13489,9 @@
       <c r="IG18" t="n">
         <v>17</v>
       </c>
+      <c r="IH18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14165,6 +14219,9 @@
       <c r="IG19" t="n">
         <v>15</v>
       </c>
+      <c r="IH19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14892,6 +14949,9 @@
       <c r="IG20" t="n">
         <v>10</v>
       </c>
+      <c r="IH20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15619,6 +15679,9 @@
       <c r="IG21" t="n">
         <v>7</v>
       </c>
+      <c r="IH21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16346,6 +16409,9 @@
       <c r="IG22" t="n">
         <v>11</v>
       </c>
+      <c r="IH22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17073,6 +17139,9 @@
       <c r="IG23" t="n">
         <v>3</v>
       </c>
+      <c r="IH23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17800,6 +17869,9 @@
       <c r="IG24" t="n">
         <v>24</v>
       </c>
+      <c r="IH24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18527,6 +18599,9 @@
       <c r="IG25" t="n">
         <v>41.7</v>
       </c>
+      <c r="IH25" t="n">
+        <v>51.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19254,6 +19329,9 @@
       <c r="IG26" t="n">
         <v>35.9</v>
       </c>
+      <c r="IH26" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19981,6 +20059,9 @@
       <c r="IG27" t="n">
         <v>14.96</v>
       </c>
+      <c r="IH27" t="n">
+        <v>13.48</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20708,6 +20789,9 @@
       <c r="IG28" t="n">
         <v>37</v>
       </c>
+      <c r="IH28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21435,6 +21519,9 @@
       <c r="IG29" t="n">
         <v>48</v>
       </c>
+      <c r="IH29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22162,6 +22249,9 @@
       <c r="IG30" t="n">
         <v>45</v>
       </c>
+      <c r="IH30" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22889,6 +22979,9 @@
       <c r="IG31" t="n">
         <v>43</v>
       </c>
+      <c r="IH31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23616,6 +23709,9 @@
       <c r="IG32" t="n">
         <v>1.79</v>
       </c>
+      <c r="IH32" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24343,6 +24439,9 @@
       <c r="IG33" t="n">
         <v>4.3</v>
       </c>
+      <c r="IH33" t="n">
+        <v>4.14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25070,6 +25169,9 @@
       <c r="IG34" t="n">
         <v>48.8</v>
       </c>
+      <c r="IH34" t="n">
+        <v>39.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25797,6 +25899,9 @@
       <c r="IG35" t="n">
         <v>23.3</v>
       </c>
+      <c r="IH35" t="n">
+        <v>24.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26524,6 +26629,9 @@
       <c r="IG36" t="n">
         <v>188.8</v>
       </c>
+      <c r="IH36" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27251,6 +27359,9 @@
       <c r="IG37" t="n">
         <v>84.90000000000001</v>
       </c>
+      <c r="IH37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -27978,6 +28089,9 @@
       <c r="IG38" t="n">
         <v>24.41</v>
       </c>
+      <c r="IH38" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28705,6 +28819,9 @@
       <c r="IG39" t="n">
         <v>86.5</v>
       </c>
+      <c r="IH39" t="n">
+        <v>90.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29432,6 +29549,9 @@
       <c r="IG40" t="n">
         <v>9</v>
       </c>
+      <c r="IH40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30159,6 +30279,9 @@
       <c r="IG41" t="n">
         <v>6</v>
       </c>
+      <c r="IH41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -30886,6 +31009,9 @@
       <c r="IG42" t="n">
         <v>4</v>
       </c>
+      <c r="IH42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31613,6 +31739,9 @@
       <c r="IG43" t="n">
         <v>4</v>
       </c>
+      <c r="IH43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32340,6 +32469,9 @@
       <c r="IG44" t="n">
         <v>134</v>
       </c>
+      <c r="IH44" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33067,6 +33199,9 @@
       <c r="IG45" t="n">
         <v>212</v>
       </c>
+      <c r="IH45" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33794,6 +33929,9 @@
       <c r="IG46" t="n">
         <v>275</v>
       </c>
+      <c r="IH46" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34521,6 +34659,9 @@
       <c r="IG47" t="n">
         <v>76.59999999999999</v>
       </c>
+      <c r="IH47" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35248,6 +35389,9 @@
       <c r="IG48" t="n">
         <v>48</v>
       </c>
+      <c r="IH48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -35975,6 +36119,9 @@
       <c r="IG49" t="n">
         <v>16</v>
       </c>
+      <c r="IH49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36702,6 +36849,9 @@
       <c r="IG50" t="n">
         <v>12</v>
       </c>
+      <c r="IH50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37429,6 +37579,9 @@
       <c r="IG51" t="n">
         <v>37</v>
       </c>
+      <c r="IH51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38156,6 +38309,9 @@
       <c r="IG52" t="n">
         <v>45</v>
       </c>
+      <c r="IH52" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -38883,6 +39039,9 @@
       <c r="IG53" t="n">
         <v>43</v>
       </c>
+      <c r="IH53" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39610,6 +39769,9 @@
       <c r="IG54" t="n">
         <v>2</v>
       </c>
+      <c r="IH54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40337,6 +40499,9 @@
       <c r="IG55" t="n">
         <v>7</v>
       </c>
+      <c r="IH55" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41064,6 +41229,9 @@
       <c r="IG56" t="n">
         <v>70</v>
       </c>
+      <c r="IH56" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41791,6 +41959,9 @@
       <c r="IG57" t="n">
         <v>224</v>
       </c>
+      <c r="IH57" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42518,6 +42689,9 @@
       <c r="IG58" t="n">
         <v>163</v>
       </c>
+      <c r="IH58" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43245,6 +43419,9 @@
       <c r="IG59" t="n">
         <v>387</v>
       </c>
+      <c r="IH59" t="n">
+        <v>379</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -43972,6 +44149,9 @@
       <c r="IG60" t="n">
         <v>1.37</v>
       </c>
+      <c r="IH60" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44699,6 +44879,9 @@
       <c r="IG61" t="n">
         <v>91</v>
       </c>
+      <c r="IH61" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45426,6 +45609,9 @@
       <c r="IG62" t="n">
         <v>57</v>
       </c>
+      <c r="IH62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46153,6 +46339,9 @@
       <c r="IG63" t="n">
         <v>45</v>
       </c>
+      <c r="IH63" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -46880,6 +47069,9 @@
       <c r="IG64" t="n">
         <v>16</v>
       </c>
+      <c r="IH64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47607,6 +47799,9 @@
       <c r="IG65" t="n">
         <v>17</v>
       </c>
+      <c r="IH65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48334,6 +48529,9 @@
       <c r="IG66" t="n">
         <v>8</v>
       </c>
+      <c r="IH66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49061,6 +49259,9 @@
       <c r="IG67" t="n">
         <v>3</v>
       </c>
+      <c r="IH67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49788,6 +49989,9 @@
       <c r="IG68" t="n">
         <v>8</v>
       </c>
+      <c r="IH68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50515,6 +50719,9 @@
       <c r="IG69" t="n">
         <v>5</v>
       </c>
+      <c r="IH69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51242,6 +51449,9 @@
       <c r="IG70" t="n">
         <v>21</v>
       </c>
+      <c r="IH70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -51969,6 +52179,9 @@
       <c r="IG71" t="n">
         <v>38.1</v>
       </c>
+      <c r="IH71" t="n">
+        <v>52.6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52696,6 +52909,9 @@
       <c r="IG72" t="n">
         <v>48.38</v>
       </c>
+      <c r="IH72" t="n">
+        <v>37.9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53423,6 +53639,9 @@
       <c r="IG73" t="n">
         <v>18.43</v>
       </c>
+      <c r="IH73" t="n">
+        <v>19.95</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54150,6 +54369,9 @@
       <c r="IG74" t="n">
         <v>32</v>
       </c>
+      <c r="IH74" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -54877,6 +55099,9 @@
       <c r="IG75" t="n">
         <v>53</v>
       </c>
+      <c r="IH75" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55604,6 +55829,9 @@
       <c r="IG76" t="n">
         <v>33</v>
       </c>
+      <c r="IH76" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56331,6 +56559,9 @@
       <c r="IG77" t="n">
         <v>53</v>
       </c>
+      <c r="IH77" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57058,6 +57289,9 @@
       <c r="IG78" t="n">
         <v>2.52</v>
       </c>
+      <c r="IH78" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -57785,6 +58019,9 @@
       <c r="IG79" t="n">
         <v>6.62</v>
       </c>
+      <c r="IH79" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58512,6 +58749,9 @@
       <c r="IG80" t="n">
         <v>30.2</v>
       </c>
+      <c r="IH80" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59239,6 +59479,9 @@
       <c r="IG81" t="n">
         <v>15.1</v>
       </c>
+      <c r="IH81" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -59966,6 +60209,9 @@
       <c r="IG82" t="n">
         <v>187.5</v>
       </c>
+      <c r="IH82" t="n">
+        <v>189.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60693,6 +60939,9 @@
       <c r="IG83" t="n">
         <v>84.90000000000001</v>
       </c>
+      <c r="IH83" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61420,6 +61669,9 @@
       <c r="IG84" t="n">
         <v>25.49</v>
       </c>
+      <c r="IH84" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62147,6 +62399,9 @@
       <c r="IG85" t="n">
         <v>91.8</v>
       </c>
+      <c r="IH85" t="n">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -62874,6 +63129,9 @@
       <c r="IG86" t="n">
         <v>5</v>
       </c>
+      <c r="IH86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63601,6 +63859,9 @@
       <c r="IG87" t="n">
         <v>7</v>
       </c>
+      <c r="IH87" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64328,6 +64589,9 @@
       <c r="IG88" t="n">
         <v>8</v>
       </c>
+      <c r="IH88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65055,6 +65319,9 @@
       <c r="IG89" t="n">
         <v>3</v>
       </c>
+      <c r="IH89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -65782,6 +66049,9 @@
       <c r="IG90" t="n">
         <v>127</v>
       </c>
+      <c r="IH90" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66509,6 +66779,9 @@
       <c r="IG91" t="n">
         <v>240</v>
       </c>
+      <c r="IH91" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67236,6 +67509,9 @@
       <c r="IG92" t="n">
         <v>290</v>
       </c>
+      <c r="IH92" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -67963,6 +68239,9 @@
       <c r="IG93" t="n">
         <v>74.90000000000001</v>
       </c>
+      <c r="IH93" t="n">
+        <v>72.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68690,6 +68969,9 @@
       <c r="IG94" t="n">
         <v>53</v>
       </c>
+      <c r="IH94" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69417,6 +69699,9 @@
       <c r="IG95" t="n">
         <v>12</v>
       </c>
+      <c r="IH95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70144,6 +70429,9 @@
       <c r="IG96" t="n">
         <v>9</v>
       </c>
+      <c r="IH96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -70871,6 +71159,9 @@
       <c r="IG97" t="n">
         <v>32</v>
       </c>
+      <c r="IH97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71598,6 +71889,9 @@
       <c r="IG98" t="n">
         <v>33</v>
       </c>
+      <c r="IH98" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72325,6 +72619,9 @@
       <c r="IG99" t="n">
         <v>44</v>
       </c>
+      <c r="IH99" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73052,6 +73349,9 @@
       <c r="IG100" t="n">
         <v>5</v>
       </c>
+      <c r="IH100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -73779,6 +74079,9 @@
       <c r="IG101" t="n">
         <v>3</v>
       </c>
+      <c r="IH101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74506,6 +74809,9 @@
       <c r="IG102" t="n">
         <v>37.5</v>
       </c>
+      <c r="IH102" t="n">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IH102"/>
+  <dimension ref="A1:II102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,6 +1082,9 @@
       <c r="IH1" t="n">
         <v>10487</v>
       </c>
+      <c r="II1" t="n">
+        <v>10492</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1812,6 +1815,9 @@
       <c r="IH2" t="n">
         <v>2021</v>
       </c>
+      <c r="II2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2542,6 +2548,9 @@
       <c r="IH3" t="n">
         <v>19</v>
       </c>
+      <c r="II3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3272,6 +3281,9 @@
       <c r="IH4" t="n">
         <v>0</v>
       </c>
+      <c r="II4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4002,6 +4014,9 @@
       <c r="IH5" t="n">
         <v>0</v>
       </c>
+      <c r="II5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4732,6 +4747,9 @@
       <c r="IH6" t="n">
         <v>97</v>
       </c>
+      <c r="II6" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5462,6 +5480,9 @@
       <c r="IH7" t="n">
         <v>69</v>
       </c>
+      <c r="II7" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6192,6 +6213,9 @@
       <c r="IH8" t="n">
         <v>28</v>
       </c>
+      <c r="II8" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6922,6 +6946,9 @@
       <c r="IH9" t="n">
         <v>1</v>
       </c>
+      <c r="II9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7652,6 +7679,9 @@
       <c r="IH10" t="n">
         <v>4</v>
       </c>
+      <c r="II10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8382,6 +8412,9 @@
       <c r="IH11" t="n">
         <v>194</v>
       </c>
+      <c r="II11" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9112,6 +9145,9 @@
       <c r="IH12" t="n">
         <v>170</v>
       </c>
+      <c r="II12" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9842,6 +9878,9 @@
       <c r="IH13" t="n">
         <v>364</v>
       </c>
+      <c r="II13" t="n">
+        <v>384</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10572,6 +10611,9 @@
       <c r="IH14" t="n">
         <v>1.14</v>
       </c>
+      <c r="II14" t="n">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11302,6 +11344,9 @@
       <c r="IH15" t="n">
         <v>73</v>
       </c>
+      <c r="II15" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12032,6 +12077,9 @@
       <c r="IH16" t="n">
         <v>55</v>
       </c>
+      <c r="II16" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12762,6 +12810,9 @@
       <c r="IH17" t="n">
         <v>34</v>
       </c>
+      <c r="II17" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13492,6 +13543,9 @@
       <c r="IH18" t="n">
         <v>19</v>
       </c>
+      <c r="II18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14222,6 +14276,9 @@
       <c r="IH19" t="n">
         <v>18</v>
       </c>
+      <c r="II19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14952,6 +15009,9 @@
       <c r="IH20" t="n">
         <v>14</v>
       </c>
+      <c r="II20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15682,6 +15742,9 @@
       <c r="IH21" t="n">
         <v>12</v>
       </c>
+      <c r="II21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16412,6 +16475,9 @@
       <c r="IH22" t="n">
         <v>9</v>
       </c>
+      <c r="II22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17142,6 +17208,9 @@
       <c r="IH23" t="n">
         <v>4</v>
       </c>
+      <c r="II23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17872,6 +17941,9 @@
       <c r="IH24" t="n">
         <v>27</v>
       </c>
+      <c r="II24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18602,6 +18674,9 @@
       <c r="IH25" t="n">
         <v>51.9</v>
       </c>
+      <c r="II25" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19332,6 +19407,9 @@
       <c r="IH26" t="n">
         <v>26</v>
       </c>
+      <c r="II26" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20062,6 +20140,9 @@
       <c r="IH27" t="n">
         <v>13.48</v>
       </c>
+      <c r="II27" t="n">
+        <v>15.36</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20792,6 +20873,9 @@
       <c r="IH28" t="n">
         <v>39</v>
       </c>
+      <c r="II28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21522,6 +21606,9 @@
       <c r="IH29" t="n">
         <v>56</v>
       </c>
+      <c r="II29" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22252,6 +22339,9 @@
       <c r="IH30" t="n">
         <v>28</v>
       </c>
+      <c r="II30" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -22982,6 +23072,9 @@
       <c r="IH31" t="n">
         <v>58</v>
       </c>
+      <c r="II31" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23712,6 +23805,9 @@
       <c r="IH32" t="n">
         <v>2.15</v>
       </c>
+      <c r="II32" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24442,6 +24538,9 @@
       <c r="IH33" t="n">
         <v>4.14</v>
       </c>
+      <c r="II33" t="n">
+        <v>4.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25172,6 +25271,9 @@
       <c r="IH34" t="n">
         <v>39.7</v>
       </c>
+      <c r="II34" t="n">
+        <v>36.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -25902,6 +26004,9 @@
       <c r="IH35" t="n">
         <v>24.1</v>
       </c>
+      <c r="II35" t="n">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26632,6 +26737,9 @@
       <c r="IH36" t="n">
         <v>189</v>
       </c>
+      <c r="II36" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27362,6 +27470,9 @@
       <c r="IH37" t="n">
         <v>84</v>
       </c>
+      <c r="II37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28092,6 +28203,9 @@
       <c r="IH38" t="n">
         <v>24.91</v>
       </c>
+      <c r="II38" t="n">
+        <v>25.16</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28822,6 +28936,9 @@
       <c r="IH39" t="n">
         <v>90.8</v>
       </c>
+      <c r="II39" t="n">
+        <v>95.40000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29552,6 +29669,9 @@
       <c r="IH40" t="n">
         <v>8</v>
       </c>
+      <c r="II40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30282,6 +30402,9 @@
       <c r="IH41" t="n">
         <v>7</v>
       </c>
+      <c r="II41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31012,6 +31135,9 @@
       <c r="IH42" t="n">
         <v>3</v>
       </c>
+      <c r="II42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31742,6 +31868,9 @@
       <c r="IH43" t="n">
         <v>4</v>
       </c>
+      <c r="II43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32472,6 +32601,9 @@
       <c r="IH44" t="n">
         <v>141</v>
       </c>
+      <c r="II44" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33202,6 +33334,9 @@
       <c r="IH45" t="n">
         <v>216</v>
       </c>
+      <c r="II45" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33932,6 +34067,9 @@
       <c r="IH46" t="n">
         <v>257</v>
       </c>
+      <c r="II46" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34662,6 +34800,9 @@
       <c r="IH47" t="n">
         <v>70.59999999999999</v>
       </c>
+      <c r="II47" t="n">
+        <v>77.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35392,6 +35533,9 @@
       <c r="IH48" t="n">
         <v>56</v>
       </c>
+      <c r="II48" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36122,6 +36266,9 @@
       <c r="IH49" t="n">
         <v>11</v>
       </c>
+      <c r="II49" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -36852,6 +36999,9 @@
       <c r="IH50" t="n">
         <v>16</v>
       </c>
+      <c r="II50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37582,6 +37732,9 @@
       <c r="IH51" t="n">
         <v>39</v>
       </c>
+      <c r="II51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38312,6 +38465,9 @@
       <c r="IH52" t="n">
         <v>28</v>
       </c>
+      <c r="II52" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39042,6 +39198,9 @@
       <c r="IH53" t="n">
         <v>35</v>
       </c>
+      <c r="II53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39772,6 +39931,9 @@
       <c r="IH54" t="n">
         <v>3</v>
       </c>
+      <c r="II54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40502,6 +40664,9 @@
       <c r="IH55" t="n">
         <v>12</v>
       </c>
+      <c r="II55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41232,6 +41397,9 @@
       <c r="IH56" t="n">
         <v>85.7</v>
       </c>
+      <c r="II56" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41962,6 +42130,9 @@
       <c r="IH57" t="n">
         <v>214</v>
       </c>
+      <c r="II57" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42692,6 +42863,9 @@
       <c r="IH58" t="n">
         <v>165</v>
       </c>
+      <c r="II58" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43422,6 +43596,9 @@
       <c r="IH59" t="n">
         <v>379</v>
       </c>
+      <c r="II59" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44152,6 +44329,9 @@
       <c r="IH60" t="n">
         <v>1.3</v>
       </c>
+      <c r="II60" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -44882,6 +45062,9 @@
       <c r="IH61" t="n">
         <v>94</v>
       </c>
+      <c r="II61" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45612,6 +45795,9 @@
       <c r="IH62" t="n">
         <v>54</v>
       </c>
+      <c r="II62" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46342,6 +46528,9 @@
       <c r="IH63" t="n">
         <v>27</v>
       </c>
+      <c r="II63" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47072,6 +47261,9 @@
       <c r="IH64" t="n">
         <v>18</v>
       </c>
+      <c r="II64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47802,6 +47994,9 @@
       <c r="IH65" t="n">
         <v>19</v>
       </c>
+      <c r="II65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48532,6 +48727,9 @@
       <c r="IH66" t="n">
         <v>10</v>
       </c>
+      <c r="II66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49262,6 +49460,9 @@
       <c r="IH67" t="n">
         <v>7</v>
       </c>
+      <c r="II67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -49992,6 +50193,9 @@
       <c r="IH68" t="n">
         <v>8</v>
       </c>
+      <c r="II68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50722,6 +50926,9 @@
       <c r="IH69" t="n">
         <v>1</v>
       </c>
+      <c r="II69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51452,6 +51659,9 @@
       <c r="IH70" t="n">
         <v>19</v>
       </c>
+      <c r="II70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52182,6 +52392,9 @@
       <c r="IH71" t="n">
         <v>52.6</v>
       </c>
+      <c r="II71" t="n">
+        <v>61.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -52912,6 +53125,9 @@
       <c r="IH72" t="n">
         <v>37.9</v>
       </c>
+      <c r="II72" t="n">
+        <v>32.73</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53642,6 +53858,9 @@
       <c r="IH73" t="n">
         <v>19.95</v>
       </c>
+      <c r="II73" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54372,6 +54591,9 @@
       <c r="IH74" t="n">
         <v>32</v>
       </c>
+      <c r="II74" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55102,6 +55324,9 @@
       <c r="IH75" t="n">
         <v>65</v>
       </c>
+      <c r="II75" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -55832,6 +56057,9 @@
       <c r="IH76" t="n">
         <v>42</v>
       </c>
+      <c r="II76" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56562,6 +56790,9 @@
       <c r="IH77" t="n">
         <v>39</v>
       </c>
+      <c r="II77" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57292,6 +57523,9 @@
       <c r="IH78" t="n">
         <v>2.05</v>
       </c>
+      <c r="II78" t="n">
+        <v>2.56</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58022,6 +58256,9 @@
       <c r="IH79" t="n">
         <v>3.9</v>
       </c>
+      <c r="II79" t="n">
+        <v>4.18</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58752,6 +58989,9 @@
       <c r="IH80" t="n">
         <v>46.2</v>
       </c>
+      <c r="II80" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59482,6 +59722,9 @@
       <c r="IH81" t="n">
         <v>25.6</v>
       </c>
+      <c r="II81" t="n">
+        <v>23.9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60212,6 +60455,9 @@
       <c r="IH82" t="n">
         <v>189.6</v>
       </c>
+      <c r="II82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -60942,6 +61188,9 @@
       <c r="IH83" t="n">
         <v>87.2</v>
       </c>
+      <c r="II83" t="n">
+        <v>85.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61672,6 +61921,9 @@
       <c r="IH84" t="n">
         <v>25</v>
       </c>
+      <c r="II84" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62402,6 +62654,9 @@
       <c r="IH85" t="n">
         <v>87.40000000000001</v>
       </c>
+      <c r="II85" t="n">
+        <v>93.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63132,6 +63387,9 @@
       <c r="IH86" t="n">
         <v>12</v>
       </c>
+      <c r="II86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -63862,6 +64120,9 @@
       <c r="IH87" t="n">
         <v>2</v>
       </c>
+      <c r="II87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64592,6 +64853,9 @@
       <c r="IH88" t="n">
         <v>3</v>
       </c>
+      <c r="II88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65322,6 +65586,9 @@
       <c r="IH89" t="n">
         <v>6</v>
       </c>
+      <c r="II89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66052,6 +66319,9 @@
       <c r="IH90" t="n">
         <v>127</v>
       </c>
+      <c r="II90" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -66782,6 +67052,9 @@
       <c r="IH91" t="n">
         <v>241</v>
       </c>
+      <c r="II91" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67512,6 +67785,9 @@
       <c r="IH92" t="n">
         <v>274</v>
       </c>
+      <c r="II92" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68242,6 +68518,9 @@
       <c r="IH93" t="n">
         <v>72.3</v>
       </c>
+      <c r="II93" t="n">
+        <v>75.59999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -68972,6 +69251,9 @@
       <c r="IH94" t="n">
         <v>65</v>
       </c>
+      <c r="II94" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69702,6 +69984,9 @@
       <c r="IH95" t="n">
         <v>7</v>
       </c>
+      <c r="II95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70432,6 +70717,9 @@
       <c r="IH96" t="n">
         <v>14</v>
       </c>
+      <c r="II96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71162,6 +71450,9 @@
       <c r="IH97" t="n">
         <v>32</v>
       </c>
+      <c r="II97" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -71892,6 +72183,9 @@
       <c r="IH98" t="n">
         <v>42</v>
       </c>
+      <c r="II98" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72622,6 +72916,9 @@
       <c r="IH99" t="n">
         <v>42</v>
       </c>
+      <c r="II99" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73352,6 +73649,9 @@
       <c r="IH100" t="n">
         <v>0</v>
       </c>
+      <c r="II100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74082,6 +74382,9 @@
       <c r="IH101" t="n">
         <v>7</v>
       </c>
+      <c r="II101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -74812,6 +75115,9 @@
       <c r="IH102" t="n">
         <v>70</v>
       </c>
+      <c r="II102" t="n">
+        <v>81.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:II102"/>
+  <dimension ref="A1:IJ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,6 +1085,9 @@
       <c r="II1" t="n">
         <v>10492</v>
       </c>
+      <c r="IJ1" t="n">
+        <v>10505</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1818,6 +1821,9 @@
       <c r="II2" t="n">
         <v>2021</v>
       </c>
+      <c r="IJ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2551,6 +2557,9 @@
       <c r="II3" t="n">
         <v>20</v>
       </c>
+      <c r="IJ3" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3284,6 +3293,9 @@
       <c r="II4" t="n">
         <v>1</v>
       </c>
+      <c r="IJ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4017,6 +4029,9 @@
       <c r="II5" t="n">
         <v>1</v>
       </c>
+      <c r="IJ5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4750,6 +4765,9 @@
       <c r="II6" t="n">
         <v>100</v>
       </c>
+      <c r="IJ6" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5483,6 +5501,9 @@
       <c r="II7" t="n">
         <v>73</v>
       </c>
+      <c r="IJ7" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6216,6 +6237,9 @@
       <c r="II8" t="n">
         <v>27</v>
       </c>
+      <c r="IJ8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6949,6 +6973,9 @@
       <c r="II9" t="n">
         <v>1</v>
       </c>
+      <c r="IJ9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7682,6 +7709,9 @@
       <c r="II10" t="n">
         <v>9</v>
       </c>
+      <c r="IJ10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8415,6 +8445,9 @@
       <c r="II11" t="n">
         <v>236</v>
       </c>
+      <c r="IJ11" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9148,6 +9181,9 @@
       <c r="II12" t="n">
         <v>148</v>
       </c>
+      <c r="IJ12" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9881,6 +9917,9 @@
       <c r="II13" t="n">
         <v>384</v>
       </c>
+      <c r="IJ13" t="n">
+        <v>390</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10614,6 +10653,9 @@
       <c r="II14" t="n">
         <v>1.59</v>
       </c>
+      <c r="IJ14" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11347,6 +11389,9 @@
       <c r="II15" t="n">
         <v>103</v>
       </c>
+      <c r="IJ15" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12080,6 +12125,9 @@
       <c r="II16" t="n">
         <v>61</v>
       </c>
+      <c r="IJ16" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12813,6 +12861,9 @@
       <c r="II17" t="n">
         <v>36</v>
       </c>
+      <c r="IJ17" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13546,6 +13597,9 @@
       <c r="II18" t="n">
         <v>21</v>
       </c>
+      <c r="IJ18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14279,6 +14333,9 @@
       <c r="II19" t="n">
         <v>22</v>
       </c>
+      <c r="IJ19" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15012,6 +15069,9 @@
       <c r="II20" t="n">
         <v>15</v>
       </c>
+      <c r="IJ20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15745,6 +15805,9 @@
       <c r="II21" t="n">
         <v>11</v>
       </c>
+      <c r="IJ21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16478,6 +16541,9 @@
       <c r="II22" t="n">
         <v>9</v>
       </c>
+      <c r="IJ22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17211,6 +17277,9 @@
       <c r="II23" t="n">
         <v>1</v>
       </c>
+      <c r="IJ23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17944,6 +18013,9 @@
       <c r="II24" t="n">
         <v>25</v>
       </c>
+      <c r="IJ24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18677,6 +18749,9 @@
       <c r="II25" t="n">
         <v>60</v>
       </c>
+      <c r="IJ25" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19410,6 +19485,9 @@
       <c r="II26" t="n">
         <v>25.6</v>
       </c>
+      <c r="IJ26" t="n">
+        <v>55.71</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20143,6 +20221,9 @@
       <c r="II27" t="n">
         <v>15.36</v>
       </c>
+      <c r="IJ27" t="n">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20876,6 +20957,9 @@
       <c r="II28" t="n">
         <v>29</v>
       </c>
+      <c r="IJ28" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21609,6 +21693,9 @@
       <c r="II29" t="n">
         <v>65</v>
       </c>
+      <c r="IJ29" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22342,6 +22429,9 @@
       <c r="II30" t="n">
         <v>34</v>
       </c>
+      <c r="IJ30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23075,6 +23165,9 @@
       <c r="II31" t="n">
         <v>65</v>
       </c>
+      <c r="IJ31" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23808,6 +23901,9 @@
       <c r="II32" t="n">
         <v>2.6</v>
       </c>
+      <c r="IJ32" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24541,6 +24637,9 @@
       <c r="II33" t="n">
         <v>4.33</v>
       </c>
+      <c r="IJ33" t="n">
+        <v>6.86</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25274,6 +25373,9 @@
       <c r="II34" t="n">
         <v>36.9</v>
       </c>
+      <c r="IJ34" t="n">
+        <v>35.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26007,6 +26109,9 @@
       <c r="II35" t="n">
         <v>23.1</v>
       </c>
+      <c r="IJ35" t="n">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26740,6 +26845,9 @@
       <c r="II36" t="n">
         <v>189</v>
       </c>
+      <c r="IJ36" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27473,6 +27581,9 @@
       <c r="II37" t="n">
         <v>84</v>
       </c>
+      <c r="IJ37" t="n">
+        <v>83.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28206,6 +28317,9 @@
       <c r="II38" t="n">
         <v>25.16</v>
       </c>
+      <c r="IJ38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -28939,6 +29053,9 @@
       <c r="II39" t="n">
         <v>95.40000000000001</v>
       </c>
+      <c r="IJ39" t="n">
+        <v>105.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29672,6 +29789,9 @@
       <c r="II40" t="n">
         <v>6</v>
       </c>
+      <c r="IJ40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30405,6 +30525,9 @@
       <c r="II41" t="n">
         <v>9</v>
       </c>
+      <c r="IJ41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31138,6 +31261,9 @@
       <c r="II42" t="n">
         <v>3</v>
       </c>
+      <c r="IJ42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -31871,6 +31997,9 @@
       <c r="II43" t="n">
         <v>4</v>
       </c>
+      <c r="IJ43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32604,6 +32733,9 @@
       <c r="II44" t="n">
         <v>149</v>
       </c>
+      <c r="IJ44" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33337,6 +33469,9 @@
       <c r="II45" t="n">
         <v>234</v>
       </c>
+      <c r="IJ45" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34070,6 +34205,9 @@
       <c r="II46" t="n">
         <v>297</v>
       </c>
+      <c r="IJ46" t="n">
+        <v>264</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34803,6 +34941,9 @@
       <c r="II47" t="n">
         <v>77.3</v>
       </c>
+      <c r="IJ47" t="n">
+        <v>67.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35536,6 +35677,9 @@
       <c r="II48" t="n">
         <v>65</v>
       </c>
+      <c r="IJ48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36269,6 +36413,9 @@
       <c r="II49" t="n">
         <v>17</v>
       </c>
+      <c r="IJ49" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37002,6 +37149,9 @@
       <c r="II50" t="n">
         <v>10</v>
       </c>
+      <c r="IJ50" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37735,6 +37885,9 @@
       <c r="II51" t="n">
         <v>29</v>
       </c>
+      <c r="IJ51" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38468,6 +38621,9 @@
       <c r="II52" t="n">
         <v>34</v>
       </c>
+      <c r="IJ52" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39201,6 +39357,9 @@
       <c r="II53" t="n">
         <v>44</v>
       </c>
+      <c r="IJ53" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -39934,6 +40093,9 @@
       <c r="II54" t="n">
         <v>5</v>
       </c>
+      <c r="IJ54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40667,6 +40829,9 @@
       <c r="II55" t="n">
         <v>11</v>
       </c>
+      <c r="IJ55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41400,6 +41565,9 @@
       <c r="II56" t="n">
         <v>73.3</v>
       </c>
+      <c r="IJ56" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42133,6 +42301,9 @@
       <c r="II57" t="n">
         <v>198</v>
       </c>
+      <c r="IJ57" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -42866,6 +43037,9 @@
       <c r="II58" t="n">
         <v>162</v>
       </c>
+      <c r="IJ58" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43599,6 +43773,9 @@
       <c r="II59" t="n">
         <v>360</v>
       </c>
+      <c r="IJ59" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44332,6 +44509,9 @@
       <c r="II60" t="n">
         <v>1.22</v>
       </c>
+      <c r="IJ60" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45065,6 +45245,9 @@
       <c r="II61" t="n">
         <v>80</v>
       </c>
+      <c r="IJ61" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45798,6 +45981,9 @@
       <c r="II62" t="n">
         <v>47</v>
       </c>
+      <c r="IJ62" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46531,6 +46717,9 @@
       <c r="II63" t="n">
         <v>24</v>
       </c>
+      <c r="IJ63" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47264,6 +47453,9 @@
       <c r="II64" t="n">
         <v>22</v>
       </c>
+      <c r="IJ64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -47997,6 +48189,9 @@
       <c r="II65" t="n">
         <v>21</v>
       </c>
+      <c r="IJ65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48730,6 +48925,9 @@
       <c r="II66" t="n">
         <v>11</v>
       </c>
+      <c r="IJ66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49463,6 +49661,9 @@
       <c r="II67" t="n">
         <v>9</v>
       </c>
+      <c r="IJ67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50196,6 +50397,9 @@
       <c r="II68" t="n">
         <v>6</v>
       </c>
+      <c r="IJ68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -50929,6 +51133,9 @@
       <c r="II69" t="n">
         <v>1</v>
       </c>
+      <c r="IJ69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51662,6 +51869,9 @@
       <c r="II70" t="n">
         <v>18</v>
       </c>
+      <c r="IJ70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52395,6 +52605,9 @@
       <c r="II71" t="n">
         <v>61.1</v>
       </c>
+      <c r="IJ71" t="n">
+        <v>43.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53128,6 +53341,9 @@
       <c r="II72" t="n">
         <v>32.73</v>
       </c>
+      <c r="IJ72" t="n">
+        <v>51.29</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -53861,6 +54077,9 @@
       <c r="II73" t="n">
         <v>20</v>
       </c>
+      <c r="IJ73" t="n">
+        <v>22.44</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54594,6 +54813,9 @@
       <c r="II74" t="n">
         <v>28</v>
       </c>
+      <c r="IJ74" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55327,6 +55549,9 @@
       <c r="II75" t="n">
         <v>56</v>
       </c>
+      <c r="IJ75" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56060,6 +56285,9 @@
       <c r="II76" t="n">
         <v>49</v>
       </c>
+      <c r="IJ76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -56793,6 +57021,9 @@
       <c r="II77" t="n">
         <v>46</v>
       </c>
+      <c r="IJ77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57526,6 +57757,9 @@
       <c r="II78" t="n">
         <v>2.56</v>
       </c>
+      <c r="IJ78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58259,6 +58493,9 @@
       <c r="II79" t="n">
         <v>4.18</v>
       </c>
+      <c r="IJ79" t="n">
+        <v>6.86</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -58992,6 +59229,9 @@
       <c r="II80" t="n">
         <v>37</v>
       </c>
+      <c r="IJ80" t="n">
+        <v>29.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59725,6 +59965,9 @@
       <c r="II81" t="n">
         <v>23.9</v>
       </c>
+      <c r="IJ81" t="n">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60458,6 +60701,9 @@
       <c r="II82" t="n">
         <v>187.7</v>
       </c>
+      <c r="IJ82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61191,6 +61437,9 @@
       <c r="II83" t="n">
         <v>85.8</v>
       </c>
+      <c r="IJ83" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -61924,6 +62173,9 @@
       <c r="II84" t="n">
         <v>24.41</v>
       </c>
+      <c r="IJ84" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62657,6 +62909,9 @@
       <c r="II85" t="n">
         <v>93.40000000000001</v>
       </c>
+      <c r="IJ85" t="n">
+        <v>75.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63390,6 +63645,9 @@
       <c r="II86" t="n">
         <v>8</v>
       </c>
+      <c r="IJ86" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64123,6 +64381,9 @@
       <c r="II87" t="n">
         <v>5</v>
       </c>
+      <c r="IJ87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -64856,6 +65117,9 @@
       <c r="II88" t="n">
         <v>3</v>
       </c>
+      <c r="IJ88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65589,6 +65853,9 @@
       <c r="II89" t="n">
         <v>7</v>
       </c>
+      <c r="IJ89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66322,6 +66589,9 @@
       <c r="II90" t="n">
         <v>140</v>
       </c>
+      <c r="IJ90" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67055,6 +67325,9 @@
       <c r="II91" t="n">
         <v>224</v>
       </c>
+      <c r="IJ91" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -67788,6 +68061,9 @@
       <c r="II92" t="n">
         <v>272</v>
       </c>
+      <c r="IJ92" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68521,6 +68797,9 @@
       <c r="II93" t="n">
         <v>75.59999999999999</v>
       </c>
+      <c r="IJ93" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69254,6 +69533,9 @@
       <c r="II94" t="n">
         <v>56</v>
       </c>
+      <c r="IJ94" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -69987,6 +70269,9 @@
       <c r="II95" t="n">
         <v>11</v>
       </c>
+      <c r="IJ95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -70720,6 +71005,9 @@
       <c r="II96" t="n">
         <v>11</v>
       </c>
+      <c r="IJ96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71453,6 +71741,9 @@
       <c r="II97" t="n">
         <v>28</v>
       </c>
+      <c r="IJ97" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72186,6 +72477,9 @@
       <c r="II98" t="n">
         <v>49</v>
       </c>
+      <c r="IJ98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -72919,6 +73213,9 @@
       <c r="II99" t="n">
         <v>49</v>
       </c>
+      <c r="IJ99" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73652,6 +73949,9 @@
       <c r="II100" t="n">
         <v>3</v>
       </c>
+      <c r="IJ100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74385,6 +74685,9 @@
       <c r="II101" t="n">
         <v>9</v>
       </c>
+      <c r="IJ101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75118,6 +75421,9 @@
       <c r="II102" t="n">
         <v>81.8</v>
       </c>
+      <c r="IJ102" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IJ102"/>
+  <dimension ref="A1:IK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,6 +1156,9 @@
       <c r="IJ1" t="n">
         <v>10505</v>
       </c>
+      <c r="IK1" t="n">
+        <v>10514</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1824,6 +1895,9 @@
       <c r="IJ2" t="n">
         <v>2021</v>
       </c>
+      <c r="IK2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2560,6 +2634,9 @@
       <c r="IJ3" t="n">
         <v>21</v>
       </c>
+      <c r="IK3" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3296,6 +3373,9 @@
       <c r="IJ4" t="n">
         <v>1</v>
       </c>
+      <c r="IK4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4032,6 +4112,9 @@
       <c r="IJ5" t="n">
         <v>1</v>
       </c>
+      <c r="IK5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4768,6 +4851,9 @@
       <c r="IJ6" t="n">
         <v>55</v>
       </c>
+      <c r="IK6" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5504,6 +5590,9 @@
       <c r="IJ7" t="n">
         <v>51</v>
       </c>
+      <c r="IK7" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6240,6 +6329,9 @@
       <c r="IJ8" t="n">
         <v>4</v>
       </c>
+      <c r="IK8" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6976,6 +7068,9 @@
       <c r="IJ9" t="n">
         <v>1</v>
       </c>
+      <c r="IK9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7712,6 +7807,9 @@
       <c r="IJ10" t="n">
         <v>1</v>
       </c>
+      <c r="IK10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8448,6 +8546,9 @@
       <c r="IJ11" t="n">
         <v>240</v>
       </c>
+      <c r="IK11" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9184,6 +9285,9 @@
       <c r="IJ12" t="n">
         <v>150</v>
       </c>
+      <c r="IK12" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9920,6 +10024,9 @@
       <c r="IJ13" t="n">
         <v>390</v>
       </c>
+      <c r="IK13" t="n">
+        <v>423</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10656,6 +10763,9 @@
       <c r="IJ14" t="n">
         <v>1.6</v>
       </c>
+      <c r="IK14" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11392,6 +11502,9 @@
       <c r="IJ15" t="n">
         <v>90</v>
       </c>
+      <c r="IK15" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12128,6 +12241,9 @@
       <c r="IJ16" t="n">
         <v>77</v>
       </c>
+      <c r="IK16" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12864,6 +12980,9 @@
       <c r="IJ17" t="n">
         <v>37</v>
       </c>
+      <c r="IK17" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13600,6 +13719,9 @@
       <c r="IJ18" t="n">
         <v>23</v>
       </c>
+      <c r="IK18" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14336,6 +14458,9 @@
       <c r="IJ19" t="n">
         <v>25</v>
       </c>
+      <c r="IK19" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15072,6 +15197,9 @@
       <c r="IJ20" t="n">
         <v>7</v>
       </c>
+      <c r="IK20" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15808,6 +15936,9 @@
       <c r="IJ21" t="n">
         <v>6</v>
       </c>
+      <c r="IK21" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16544,6 +16675,9 @@
       <c r="IJ22" t="n">
         <v>10</v>
       </c>
+      <c r="IK22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17280,6 +17414,9 @@
       <c r="IJ23" t="n">
         <v>3</v>
       </c>
+      <c r="IK23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18016,6 +18153,9 @@
       <c r="IJ24" t="n">
         <v>20</v>
       </c>
+      <c r="IK24" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18752,6 +18892,9 @@
       <c r="IJ25" t="n">
         <v>35</v>
       </c>
+      <c r="IK25" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19488,6 +19631,9 @@
       <c r="IJ26" t="n">
         <v>55.71</v>
       </c>
+      <c r="IK26" t="n">
+        <v>20.14</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20224,6 +20370,9 @@
       <c r="IJ27" t="n">
         <v>19.5</v>
       </c>
+      <c r="IK27" t="n">
+        <v>12.09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20960,6 +21109,9 @@
       <c r="IJ28" t="n">
         <v>36</v>
       </c>
+      <c r="IK28" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21696,6 +21848,9 @@
       <c r="IJ29" t="n">
         <v>58</v>
       </c>
+      <c r="IK29" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22432,6 +22587,9 @@
       <c r="IJ30" t="n">
         <v>40</v>
       </c>
+      <c r="IK30" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23168,6 +23326,9 @@
       <c r="IJ31" t="n">
         <v>48</v>
       </c>
+      <c r="IK31" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -23904,6 +24065,9 @@
       <c r="IJ32" t="n">
         <v>2.4</v>
       </c>
+      <c r="IK32" t="n">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24640,6 +24804,9 @@
       <c r="IJ33" t="n">
         <v>6.86</v>
       </c>
+      <c r="IK33" t="n">
+        <v>2.95</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25376,6 +25543,9 @@
       <c r="IJ34" t="n">
         <v>35.4</v>
       </c>
+      <c r="IK34" t="n">
+        <v>53.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26112,6 +26282,9 @@
       <c r="IJ35" t="n">
         <v>14.6</v>
       </c>
+      <c r="IK35" t="n">
+        <v>33.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -26848,6 +27021,9 @@
       <c r="IJ36" t="n">
         <v>188.3</v>
       </c>
+      <c r="IK36" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27584,6 +27760,9 @@
       <c r="IJ37" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="IK37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28320,6 +28499,9 @@
       <c r="IJ38" t="n">
         <v>25.66</v>
       </c>
+      <c r="IK38" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29056,6 +29238,9 @@
       <c r="IJ39" t="n">
         <v>105.5</v>
       </c>
+      <c r="IK39" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29792,6 +29977,9 @@
       <c r="IJ40" t="n">
         <v>6</v>
       </c>
+      <c r="IK40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30528,6 +30716,9 @@
       <c r="IJ41" t="n">
         <v>8</v>
       </c>
+      <c r="IK41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31264,6 +31455,9 @@
       <c r="IJ42" t="n">
         <v>3</v>
       </c>
+      <c r="IK42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32000,6 +32194,9 @@
       <c r="IJ43" t="n">
         <v>5</v>
       </c>
+      <c r="IK43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32736,6 +32933,9 @@
       <c r="IJ44" t="n">
         <v>165</v>
       </c>
+      <c r="IK44" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33472,6 +33672,9 @@
       <c r="IJ45" t="n">
         <v>221</v>
       </c>
+      <c r="IK45" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34208,6 +34411,9 @@
       <c r="IJ46" t="n">
         <v>264</v>
       </c>
+      <c r="IK46" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -34944,6 +35150,9 @@
       <c r="IJ47" t="n">
         <v>67.7</v>
       </c>
+      <c r="IK47" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35680,6 +35889,9 @@
       <c r="IJ48" t="n">
         <v>58</v>
       </c>
+      <c r="IK48" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36416,6 +36628,9 @@
       <c r="IJ49" t="n">
         <v>18</v>
       </c>
+      <c r="IK49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37152,6 +37367,9 @@
       <c r="IJ50" t="n">
         <v>10</v>
       </c>
+      <c r="IK50" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -37888,6 +38106,9 @@
       <c r="IJ51" t="n">
         <v>36</v>
       </c>
+      <c r="IK51" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38624,6 +38845,9 @@
       <c r="IJ52" t="n">
         <v>40</v>
       </c>
+      <c r="IK52" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39360,6 +39584,9 @@
       <c r="IJ53" t="n">
         <v>64</v>
       </c>
+      <c r="IK53" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40096,6 +40323,9 @@
       <c r="IJ54" t="n">
         <v>6</v>
       </c>
+      <c r="IK54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -40832,6 +41062,9 @@
       <c r="IJ55" t="n">
         <v>6</v>
       </c>
+      <c r="IK55" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41568,6 +41801,9 @@
       <c r="IJ56" t="n">
         <v>85.7</v>
       </c>
+      <c r="IK56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42304,6 +42540,9 @@
       <c r="IJ57" t="n">
         <v>205</v>
       </c>
+      <c r="IK57" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43040,6 +43279,9 @@
       <c r="IJ58" t="n">
         <v>154</v>
       </c>
+      <c r="IK58" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -43776,6 +44018,9 @@
       <c r="IJ59" t="n">
         <v>359</v>
       </c>
+      <c r="IK59" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44512,6 +44757,9 @@
       <c r="IJ60" t="n">
         <v>1.33</v>
       </c>
+      <c r="IK60" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45248,6 +45496,9 @@
       <c r="IJ61" t="n">
         <v>54</v>
       </c>
+      <c r="IK61" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -45984,6 +46235,9 @@
       <c r="IJ62" t="n">
         <v>64</v>
       </c>
+      <c r="IK62" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46720,6 +46974,9 @@
       <c r="IJ63" t="n">
         <v>30</v>
       </c>
+      <c r="IK63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47456,6 +47713,9 @@
       <c r="IJ64" t="n">
         <v>25</v>
       </c>
+      <c r="IK64" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48192,6 +48452,9 @@
       <c r="IJ65" t="n">
         <v>23</v>
       </c>
+      <c r="IK65" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -48928,6 +49191,9 @@
       <c r="IJ66" t="n">
         <v>7</v>
       </c>
+      <c r="IK66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49664,6 +49930,9 @@
       <c r="IJ67" t="n">
         <v>5</v>
       </c>
+      <c r="IK67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50400,6 +50669,9 @@
       <c r="IJ68" t="n">
         <v>7</v>
       </c>
+      <c r="IK68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51136,6 +51408,9 @@
       <c r="IJ69" t="n">
         <v>2</v>
       </c>
+      <c r="IK69" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -51872,6 +52147,9 @@
       <c r="IJ70" t="n">
         <v>16</v>
       </c>
+      <c r="IK70" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52608,6 +52886,9 @@
       <c r="IJ71" t="n">
         <v>43.8</v>
       </c>
+      <c r="IK71" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53344,6 +53625,9 @@
       <c r="IJ72" t="n">
         <v>51.29</v>
       </c>
+      <c r="IK72" t="n">
+        <v>67.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54080,6 +54364,9 @@
       <c r="IJ73" t="n">
         <v>22.44</v>
       </c>
+      <c r="IK73" t="n">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -54816,6 +55103,9 @@
       <c r="IJ74" t="n">
         <v>33</v>
       </c>
+      <c r="IK74" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55552,6 +55842,9 @@
       <c r="IJ75" t="n">
         <v>56</v>
       </c>
+      <c r="IK75" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56288,6 +56581,9 @@
       <c r="IJ76" t="n">
         <v>40</v>
       </c>
+      <c r="IK76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57024,6 +57320,9 @@
       <c r="IJ77" t="n">
         <v>48</v>
       </c>
+      <c r="IK77" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -57760,6 +58059,9 @@
       <c r="IJ78" t="n">
         <v>3</v>
       </c>
+      <c r="IK78" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58496,6 +58798,9 @@
       <c r="IJ79" t="n">
         <v>6.86</v>
       </c>
+      <c r="IK79" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59232,6 +59537,9 @@
       <c r="IJ80" t="n">
         <v>29.2</v>
       </c>
+      <c r="IK80" t="n">
+        <v>32.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -59968,6 +60276,9 @@
       <c r="IJ81" t="n">
         <v>14.6</v>
       </c>
+      <c r="IK81" t="n">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -60704,6 +61015,9 @@
       <c r="IJ82" t="n">
         <v>188</v>
       </c>
+      <c r="IK82" t="n">
+        <v>186.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61440,6 +61754,9 @@
       <c r="IJ83" t="n">
         <v>85</v>
       </c>
+      <c r="IK83" t="n">
+        <v>84.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62176,6 +62493,9 @@
       <c r="IJ84" t="n">
         <v>24.41</v>
       </c>
+      <c r="IK84" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -62912,6 +63232,9 @@
       <c r="IJ85" t="n">
         <v>75.40000000000001</v>
       </c>
+      <c r="IK85" t="n">
+        <v>97.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63648,6 +63971,9 @@
       <c r="IJ86" t="n">
         <v>13</v>
       </c>
+      <c r="IK86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64384,6 +64710,9 @@
       <c r="IJ87" t="n">
         <v>3</v>
       </c>
+      <c r="IK87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65120,6 +65449,9 @@
       <c r="IJ88" t="n">
         <v>2</v>
       </c>
+      <c r="IK88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -65856,6 +66188,9 @@
       <c r="IJ89" t="n">
         <v>5</v>
       </c>
+      <c r="IK89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66592,6 +66927,9 @@
       <c r="IJ90" t="n">
         <v>155</v>
       </c>
+      <c r="IK90" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67328,6 +67666,9 @@
       <c r="IJ91" t="n">
         <v>192</v>
       </c>
+      <c r="IK91" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68064,6 +68405,9 @@
       <c r="IJ92" t="n">
         <v>247</v>
       </c>
+      <c r="IK92" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -68800,6 +69144,9 @@
       <c r="IJ93" t="n">
         <v>68.8</v>
       </c>
+      <c r="IK93" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69536,6 +69883,9 @@
       <c r="IJ94" t="n">
         <v>56</v>
       </c>
+      <c r="IK94" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70272,6 +70622,9 @@
       <c r="IJ95" t="n">
         <v>8</v>
       </c>
+      <c r="IK95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71008,6 +71361,9 @@
       <c r="IJ96" t="n">
         <v>7</v>
       </c>
+      <c r="IK96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -71744,6 +72100,9 @@
       <c r="IJ97" t="n">
         <v>33</v>
       </c>
+      <c r="IK97" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72480,6 +72839,9 @@
       <c r="IJ98" t="n">
         <v>40</v>
       </c>
+      <c r="IK98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73216,6 +73578,9 @@
       <c r="IJ99" t="n">
         <v>49</v>
       </c>
+      <c r="IK99" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -73952,6 +74317,9 @@
       <c r="IJ100" t="n">
         <v>4</v>
       </c>
+      <c r="IK100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -74688,6 +75056,9 @@
       <c r="IJ101" t="n">
         <v>5</v>
       </c>
+      <c r="IK101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75424,6 +75795,9 @@
       <c r="IJ102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IK102" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IK102"/>
+  <dimension ref="A1:IL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,6 +1159,9 @@
       <c r="IK1" t="n">
         <v>10514</v>
       </c>
+      <c r="IL1" t="n">
+        <v>10523</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1898,6 +1901,9 @@
       <c r="IK2" t="n">
         <v>2021</v>
       </c>
+      <c r="IL2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2637,6 +2643,9 @@
       <c r="IK3" t="n">
         <v>22</v>
       </c>
+      <c r="IL3" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3376,6 +3385,9 @@
       <c r="IK4" t="n">
         <v>0</v>
       </c>
+      <c r="IL4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4115,6 +4127,9 @@
       <c r="IK5" t="n">
         <v>0</v>
       </c>
+      <c r="IL5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4854,6 +4869,9 @@
       <c r="IK6" t="n">
         <v>140</v>
       </c>
+      <c r="IL6" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5593,6 +5611,9 @@
       <c r="IK7" t="n">
         <v>45</v>
       </c>
+      <c r="IL7" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6332,6 +6353,9 @@
       <c r="IK8" t="n">
         <v>95</v>
       </c>
+      <c r="IL8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7071,6 +7095,9 @@
       <c r="IK9" t="n">
         <v>1</v>
       </c>
+      <c r="IL9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7810,6 +7837,9 @@
       <c r="IK10" t="n">
         <v>3</v>
       </c>
+      <c r="IL10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8549,6 +8579,9 @@
       <c r="IK11" t="n">
         <v>239</v>
       </c>
+      <c r="IL11" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9288,6 +9321,9 @@
       <c r="IK12" t="n">
         <v>184</v>
       </c>
+      <c r="IL12" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10027,6 +10063,9 @@
       <c r="IK13" t="n">
         <v>423</v>
       </c>
+      <c r="IL13" t="n">
+        <v>394</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10766,6 +10805,9 @@
       <c r="IK14" t="n">
         <v>1.3</v>
       </c>
+      <c r="IL14" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11505,6 +11547,9 @@
       <c r="IK15" t="n">
         <v>94</v>
       </c>
+      <c r="IL15" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12244,6 +12289,9 @@
       <c r="IK16" t="n">
         <v>54</v>
       </c>
+      <c r="IL16" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -12983,6 +13031,9 @@
       <c r="IK17" t="n">
         <v>42</v>
       </c>
+      <c r="IL17" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13722,6 +13773,9 @@
       <c r="IK18" t="n">
         <v>20</v>
       </c>
+      <c r="IL18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14461,6 +14515,9 @@
       <c r="IK19" t="n">
         <v>8</v>
       </c>
+      <c r="IL19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15200,6 +15257,9 @@
       <c r="IK20" t="n">
         <v>21</v>
       </c>
+      <c r="IL20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15939,6 +15999,9 @@
       <c r="IK21" t="n">
         <v>15</v>
       </c>
+      <c r="IL21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16678,6 +16741,9 @@
       <c r="IK22" t="n">
         <v>12</v>
       </c>
+      <c r="IL22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17417,6 +17483,9 @@
       <c r="IK23" t="n">
         <v>2</v>
       </c>
+      <c r="IL23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18156,6 +18225,9 @@
       <c r="IK24" t="n">
         <v>35</v>
       </c>
+      <c r="IL24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18895,6 +18967,9 @@
       <c r="IK25" t="n">
         <v>60</v>
       </c>
+      <c r="IL25" t="n">
+        <v>42.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19634,6 +19709,9 @@
       <c r="IK26" t="n">
         <v>20.14</v>
       </c>
+      <c r="IL26" t="n">
+        <v>43.78</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20373,6 +20451,9 @@
       <c r="IK27" t="n">
         <v>12.09</v>
       </c>
+      <c r="IL27" t="n">
+        <v>18.76</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21112,6 +21193,9 @@
       <c r="IK28" t="n">
         <v>39</v>
       </c>
+      <c r="IL28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21851,6 +21935,9 @@
       <c r="IK29" t="n">
         <v>50</v>
       </c>
+      <c r="IL29" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22590,6 +22677,9 @@
       <c r="IK30" t="n">
         <v>37</v>
       </c>
+      <c r="IL30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23329,6 +23419,9 @@
       <c r="IK31" t="n">
         <v>62</v>
       </c>
+      <c r="IL31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24068,6 +24161,9 @@
       <c r="IK32" t="n">
         <v>1.77</v>
       </c>
+      <c r="IL32" t="n">
+        <v>2.38</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24807,6 +24903,9 @@
       <c r="IK33" t="n">
         <v>2.95</v>
       </c>
+      <c r="IL33" t="n">
+        <v>5.56</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25546,6 +25645,9 @@
       <c r="IK34" t="n">
         <v>53.2</v>
       </c>
+      <c r="IL34" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26285,6 +26387,9 @@
       <c r="IK35" t="n">
         <v>33.9</v>
       </c>
+      <c r="IL35" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27024,6 +27129,9 @@
       <c r="IK36" t="n">
         <v>188.8</v>
       </c>
+      <c r="IL36" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27763,6 +27871,9 @@
       <c r="IK37" t="n">
         <v>84</v>
       </c>
+      <c r="IL37" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28502,6 +28613,9 @@
       <c r="IK38" t="n">
         <v>25.58</v>
       </c>
+      <c r="IL38" t="n">
+        <v>25.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29241,6 +29355,9 @@
       <c r="IK39" t="n">
         <v>104</v>
       </c>
+      <c r="IL39" t="n">
+        <v>110.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -29980,6 +30097,9 @@
       <c r="IK40" t="n">
         <v>6</v>
       </c>
+      <c r="IL40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30719,6 +30839,9 @@
       <c r="IK41" t="n">
         <v>8</v>
       </c>
+      <c r="IL41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31458,6 +31581,9 @@
       <c r="IK42" t="n">
         <v>4</v>
       </c>
+      <c r="IL42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32197,6 +32323,9 @@
       <c r="IK43" t="n">
         <v>5</v>
       </c>
+      <c r="IL43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -32936,6 +33065,9 @@
       <c r="IK44" t="n">
         <v>159</v>
       </c>
+      <c r="IL44" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33675,6 +33807,9 @@
       <c r="IK45" t="n">
         <v>248</v>
       </c>
+      <c r="IL45" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34414,6 +34549,9 @@
       <c r="IK46" t="n">
         <v>310</v>
       </c>
+      <c r="IL46" t="n">
+        <v>313</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35153,6 +35291,9 @@
       <c r="IK47" t="n">
         <v>73.3</v>
       </c>
+      <c r="IL47" t="n">
+        <v>79.40000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -35892,6 +36033,9 @@
       <c r="IK48" t="n">
         <v>50</v>
       </c>
+      <c r="IL48" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36631,6 +36775,9 @@
       <c r="IK49" t="n">
         <v>15</v>
       </c>
+      <c r="IL49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37370,6 +37517,9 @@
       <c r="IK50" t="n">
         <v>15</v>
       </c>
+      <c r="IL50" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38109,6 +38259,9 @@
       <c r="IK51" t="n">
         <v>39</v>
       </c>
+      <c r="IL51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -38848,6 +39001,9 @@
       <c r="IK52" t="n">
         <v>37</v>
       </c>
+      <c r="IL52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39587,6 +39743,9 @@
       <c r="IK53" t="n">
         <v>37</v>
       </c>
+      <c r="IL53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40326,6 +40485,9 @@
       <c r="IK54" t="n">
         <v>9</v>
       </c>
+      <c r="IL54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41065,6 +41227,9 @@
       <c r="IK55" t="n">
         <v>15</v>
       </c>
+      <c r="IL55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41804,6 +41969,9 @@
       <c r="IK56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IL56" t="n">
+        <v>88.90000000000001</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42543,6 +42711,9 @@
       <c r="IK57" t="n">
         <v>203</v>
       </c>
+      <c r="IL57" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43282,6 +43453,9 @@
       <c r="IK58" t="n">
         <v>133</v>
       </c>
+      <c r="IL58" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44021,6 +44195,9 @@
       <c r="IK59" t="n">
         <v>336</v>
       </c>
+      <c r="IL59" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44760,6 +44937,9 @@
       <c r="IK60" t="n">
         <v>1.53</v>
       </c>
+      <c r="IL60" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45499,6 +45679,9 @@
       <c r="IK61" t="n">
         <v>88</v>
       </c>
+      <c r="IL61" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46238,6 +46421,9 @@
       <c r="IK62" t="n">
         <v>60</v>
       </c>
+      <c r="IL62" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -46977,6 +47163,9 @@
       <c r="IK63" t="n">
         <v>29</v>
       </c>
+      <c r="IL63" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47716,6 +47905,9 @@
       <c r="IK64" t="n">
         <v>8</v>
       </c>
+      <c r="IL64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48455,6 +48647,9 @@
       <c r="IK65" t="n">
         <v>20</v>
       </c>
+      <c r="IL65" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49194,6 +49389,9 @@
       <c r="IK66" t="n">
         <v>5</v>
       </c>
+      <c r="IL66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -49933,6 +50131,9 @@
       <c r="IK67" t="n">
         <v>3</v>
       </c>
+      <c r="IL67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50672,6 +50873,9 @@
       <c r="IK68" t="n">
         <v>9</v>
       </c>
+      <c r="IL68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51411,6 +51615,9 @@
       <c r="IK69" t="n">
         <v>6</v>
       </c>
+      <c r="IL69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52150,6 +52357,9 @@
       <c r="IK70" t="n">
         <v>20</v>
       </c>
+      <c r="IL70" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -52889,6 +53099,9 @@
       <c r="IK71" t="n">
         <v>25</v>
       </c>
+      <c r="IL71" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53628,6 +53841,9 @@
       <c r="IK72" t="n">
         <v>67.2</v>
       </c>
+      <c r="IL72" t="n">
+        <v>33.4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54367,6 +54583,9 @@
       <c r="IK73" t="n">
         <v>16.8</v>
       </c>
+      <c r="IL73" t="n">
+        <v>23.86</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55106,6 +55325,9 @@
       <c r="IK74" t="n">
         <v>33</v>
       </c>
+      <c r="IL74" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -55845,6 +56067,9 @@
       <c r="IK75" t="n">
         <v>75</v>
       </c>
+      <c r="IL75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56584,6 +56809,9 @@
       <c r="IK76" t="n">
         <v>40</v>
       </c>
+      <c r="IL76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57323,6 +57551,9 @@
       <c r="IK77" t="n">
         <v>43</v>
       </c>
+      <c r="IL77" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58062,6 +58293,9 @@
       <c r="IK78" t="n">
         <v>2.15</v>
       </c>
+      <c r="IL78" t="n">
+        <v>3.07</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -58801,6 +59035,9 @@
       <c r="IK79" t="n">
         <v>8.6</v>
       </c>
+      <c r="IL79" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59540,6 +59777,9 @@
       <c r="IK80" t="n">
         <v>32.6</v>
       </c>
+      <c r="IL80" t="n">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60279,6 +60519,9 @@
       <c r="IK81" t="n">
         <v>11.6</v>
       </c>
+      <c r="IL81" t="n">
+        <v>23.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61018,6 +61261,9 @@
       <c r="IK82" t="n">
         <v>186.7</v>
       </c>
+      <c r="IL82" t="n">
+        <v>186.6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -61757,6 +62003,9 @@
       <c r="IK83" t="n">
         <v>84.7</v>
       </c>
+      <c r="IL83" t="n">
+        <v>84.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62496,6 +62745,9 @@
       <c r="IK84" t="n">
         <v>25.24</v>
       </c>
+      <c r="IL84" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63235,6 +63487,9 @@
       <c r="IK85" t="n">
         <v>97.8</v>
       </c>
+      <c r="IL85" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -63974,6 +64229,9 @@
       <c r="IK86" t="n">
         <v>7</v>
       </c>
+      <c r="IL86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64713,6 +64971,9 @@
       <c r="IK87" t="n">
         <v>7</v>
       </c>
+      <c r="IL87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65452,6 +65713,9 @@
       <c r="IK88" t="n">
         <v>3</v>
       </c>
+      <c r="IL88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66191,6 +66455,9 @@
       <c r="IK89" t="n">
         <v>5</v>
       </c>
+      <c r="IL89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -66930,6 +67197,9 @@
       <c r="IK90" t="n">
         <v>120</v>
       </c>
+      <c r="IL90" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67669,6 +67939,9 @@
       <c r="IK91" t="n">
         <v>201</v>
       </c>
+      <c r="IL91" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68408,6 +68681,9 @@
       <c r="IK92" t="n">
         <v>224</v>
       </c>
+      <c r="IL92" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69147,6 +69423,9 @@
       <c r="IK93" t="n">
         <v>66.7</v>
       </c>
+      <c r="IL93" t="n">
+        <v>71.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -69886,6 +70165,9 @@
       <c r="IK94" t="n">
         <v>75</v>
       </c>
+      <c r="IL94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70625,6 +70907,9 @@
       <c r="IK95" t="n">
         <v>9</v>
       </c>
+      <c r="IL95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71364,6 +71649,9 @@
       <c r="IK96" t="n">
         <v>11</v>
       </c>
+      <c r="IL96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72103,6 +72391,9 @@
       <c r="IK97" t="n">
         <v>33</v>
       </c>
+      <c r="IL97" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -72842,6 +73133,9 @@
       <c r="IK98" t="n">
         <v>40</v>
       </c>
+      <c r="IL98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73581,6 +73875,9 @@
       <c r="IK99" t="n">
         <v>54</v>
       </c>
+      <c r="IL99" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74320,6 +74617,9 @@
       <c r="IK100" t="n">
         <v>2</v>
       </c>
+      <c r="IL100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75059,6 +75359,9 @@
       <c r="IK101" t="n">
         <v>3</v>
       </c>
+      <c r="IL101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -75798,6 +76101,9 @@
       <c r="IK102" t="n">
         <v>60</v>
       </c>
+      <c r="IL102" t="n">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,6 +1094,9 @@
       <c r="IL1" t="n">
         <v>10523</v>
       </c>
+      <c r="IM1" t="n">
+        <v>10535</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1904,6 +1839,9 @@
       <c r="IL2" t="n">
         <v>2021</v>
       </c>
+      <c r="IM2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2646,6 +2584,9 @@
       <c r="IL3" t="n">
         <v>23</v>
       </c>
+      <c r="IM3" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3388,6 +3329,9 @@
       <c r="IL4" t="n">
         <v>1</v>
       </c>
+      <c r="IM4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4130,6 +4074,9 @@
       <c r="IL5" t="n">
         <v>1</v>
       </c>
+      <c r="IM5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4872,6 +4819,9 @@
       <c r="IL6" t="n">
         <v>66</v>
       </c>
+      <c r="IM6" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5614,6 +5564,9 @@
       <c r="IL7" t="n">
         <v>64</v>
       </c>
+      <c r="IM7" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6356,6 +6309,9 @@
       <c r="IL8" t="n">
         <v>2</v>
       </c>
+      <c r="IM8" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7098,6 +7054,9 @@
       <c r="IL9" t="n">
         <v>1</v>
       </c>
+      <c r="IM9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7840,6 +7799,9 @@
       <c r="IL10" t="n">
         <v>18</v>
       </c>
+      <c r="IM10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8582,6 +8544,9 @@
       <c r="IL11" t="n">
         <v>239</v>
       </c>
+      <c r="IM11" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9324,6 +9289,9 @@
       <c r="IL12" t="n">
         <v>155</v>
       </c>
+      <c r="IM12" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10066,6 +10034,9 @@
       <c r="IL13" t="n">
         <v>394</v>
       </c>
+      <c r="IM13" t="n">
+        <v>379</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10808,6 +10779,9 @@
       <c r="IL14" t="n">
         <v>1.54</v>
       </c>
+      <c r="IM14" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11550,6 +11524,9 @@
       <c r="IL15" t="n">
         <v>114</v>
       </c>
+      <c r="IM15" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12292,6 +12269,9 @@
       <c r="IL16" t="n">
         <v>64</v>
       </c>
+      <c r="IM16" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13034,6 +13014,9 @@
       <c r="IL17" t="n">
         <v>51</v>
       </c>
+      <c r="IM17" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13776,6 +13759,9 @@
       <c r="IL18" t="n">
         <v>23</v>
       </c>
+      <c r="IM18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14518,6 +14504,9 @@
       <c r="IL19" t="n">
         <v>15</v>
       </c>
+      <c r="IM19" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15260,6 +15249,9 @@
       <c r="IL20" t="n">
         <v>9</v>
       </c>
+      <c r="IM20" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -16002,6 +15994,9 @@
       <c r="IL21" t="n">
         <v>8</v>
       </c>
+      <c r="IM21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16744,6 +16739,9 @@
       <c r="IL22" t="n">
         <v>11</v>
       </c>
+      <c r="IM22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17486,6 +17484,9 @@
       <c r="IL23" t="n">
         <v>1</v>
       </c>
+      <c r="IM23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18228,6 +18229,9 @@
       <c r="IL24" t="n">
         <v>21</v>
       </c>
+      <c r="IM24" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18970,6 +18974,9 @@
       <c r="IL25" t="n">
         <v>42.9</v>
       </c>
+      <c r="IM25" t="n">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19712,6 +19719,9 @@
       <c r="IL26" t="n">
         <v>43.78</v>
       </c>
+      <c r="IM26" t="n">
+        <v>31.58</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20454,6 +20464,9 @@
       <c r="IL27" t="n">
         <v>18.76</v>
       </c>
+      <c r="IM27" t="n">
+        <v>14.58</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21196,6 +21209,9 @@
       <c r="IL28" t="n">
         <v>35</v>
       </c>
+      <c r="IM28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21938,6 +21954,9 @@
       <c r="IL29" t="n">
         <v>50</v>
       </c>
+      <c r="IM29" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22680,6 +22699,9 @@
       <c r="IL30" t="n">
         <v>33</v>
       </c>
+      <c r="IM30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23422,6 +23444,9 @@
       <c r="IL31" t="n">
         <v>50</v>
       </c>
+      <c r="IM31" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24164,6 +24189,9 @@
       <c r="IL32" t="n">
         <v>2.38</v>
       </c>
+      <c r="IM32" t="n">
+        <v>2.31</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24906,6 +24934,9 @@
       <c r="IL33" t="n">
         <v>5.56</v>
       </c>
+      <c r="IM33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25648,6 +25679,9 @@
       <c r="IL34" t="n">
         <v>40</v>
       </c>
+      <c r="IM34" t="n">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26390,6 +26424,9 @@
       <c r="IL35" t="n">
         <v>18</v>
       </c>
+      <c r="IM35" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27132,6 +27169,9 @@
       <c r="IL36" t="n">
         <v>189</v>
       </c>
+      <c r="IM36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27874,6 +27914,9 @@
       <c r="IL37" t="n">
         <v>83.7</v>
       </c>
+      <c r="IM37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28616,6 +28659,9 @@
       <c r="IL38" t="n">
         <v>25.91</v>
       </c>
+      <c r="IM38" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29358,6 +29404,9 @@
       <c r="IL39" t="n">
         <v>110.7</v>
       </c>
+      <c r="IM39" t="n">
+        <v>113.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30100,6 +30149,9 @@
       <c r="IL40" t="n">
         <v>6</v>
       </c>
+      <c r="IM40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30842,6 +30894,9 @@
       <c r="IL41" t="n">
         <v>6</v>
       </c>
+      <c r="IM41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31584,6 +31639,9 @@
       <c r="IL42" t="n">
         <v>5</v>
       </c>
+      <c r="IM42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32326,6 +32384,9 @@
       <c r="IL43" t="n">
         <v>6</v>
       </c>
+      <c r="IM43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33068,6 +33129,9 @@
       <c r="IL44" t="n">
         <v>139</v>
       </c>
+      <c r="IM44" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33810,6 +33874,9 @@
       <c r="IL45" t="n">
         <v>250</v>
       </c>
+      <c r="IM45" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34552,6 +34619,9 @@
       <c r="IL46" t="n">
         <v>313</v>
       </c>
+      <c r="IM46" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35294,6 +35364,9 @@
       <c r="IL47" t="n">
         <v>79.40000000000001</v>
       </c>
+      <c r="IM47" t="n">
+        <v>75.5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36036,6 +36109,9 @@
       <c r="IL48" t="n">
         <v>50</v>
       </c>
+      <c r="IM48" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36778,6 +36854,9 @@
       <c r="IL49" t="n">
         <v>13</v>
       </c>
+      <c r="IM49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37520,6 +37599,9 @@
       <c r="IL50" t="n">
         <v>13</v>
       </c>
+      <c r="IM50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38262,6 +38344,9 @@
       <c r="IL51" t="n">
         <v>35</v>
       </c>
+      <c r="IM51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39004,6 +39089,9 @@
       <c r="IL52" t="n">
         <v>33</v>
       </c>
+      <c r="IM52" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39746,6 +39834,9 @@
       <c r="IL53" t="n">
         <v>44</v>
       </c>
+      <c r="IM53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40488,6 +40579,9 @@
       <c r="IL54" t="n">
         <v>5</v>
       </c>
+      <c r="IM54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41230,6 +41324,9 @@
       <c r="IL55" t="n">
         <v>8</v>
       </c>
+      <c r="IM55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41972,6 +42069,9 @@
       <c r="IL56" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="IM56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42714,6 +42814,9 @@
       <c r="IL57" t="n">
         <v>203</v>
       </c>
+      <c r="IM57" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43456,6 +43559,9 @@
       <c r="IL58" t="n">
         <v>131</v>
       </c>
+      <c r="IM58" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44198,6 +44304,9 @@
       <c r="IL59" t="n">
         <v>334</v>
       </c>
+      <c r="IM59" t="n">
+        <v>315</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -44940,6 +45049,9 @@
       <c r="IL60" t="n">
         <v>1.55</v>
       </c>
+      <c r="IM60" t="n">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45682,6 +45794,9 @@
       <c r="IL61" t="n">
         <v>91</v>
       </c>
+      <c r="IM61" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46424,6 +46539,9 @@
       <c r="IL62" t="n">
         <v>54</v>
       </c>
+      <c r="IM62" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47166,6 +47284,9 @@
       <c r="IL63" t="n">
         <v>18</v>
       </c>
+      <c r="IM63" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -47908,6 +48029,9 @@
       <c r="IL64" t="n">
         <v>15</v>
       </c>
+      <c r="IM64" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48650,6 +48774,9 @@
       <c r="IL65" t="n">
         <v>23</v>
       </c>
+      <c r="IM65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49392,6 +49519,9 @@
       <c r="IL66" t="n">
         <v>10</v>
       </c>
+      <c r="IM66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50134,6 +50264,9 @@
       <c r="IL67" t="n">
         <v>8</v>
       </c>
+      <c r="IM67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -50876,6 +51009,9 @@
       <c r="IL68" t="n">
         <v>3</v>
       </c>
+      <c r="IM68" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51618,6 +51754,9 @@
       <c r="IL69" t="n">
         <v>1</v>
       </c>
+      <c r="IM69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52360,6 +52499,9 @@
       <c r="IL70" t="n">
         <v>14</v>
       </c>
+      <c r="IM70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53102,6 +53244,9 @@
       <c r="IL71" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="IM71" t="n">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53844,6 +53989,9 @@
       <c r="IL72" t="n">
         <v>33.4</v>
       </c>
+      <c r="IM72" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54586,6 +54734,9 @@
       <c r="IL73" t="n">
         <v>23.86</v>
       </c>
+      <c r="IM73" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55328,6 +55479,9 @@
       <c r="IL74" t="n">
         <v>28</v>
       </c>
+      <c r="IM74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56070,6 +56224,9 @@
       <c r="IL75" t="n">
         <v>57</v>
       </c>
+      <c r="IM75" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56812,6 +56969,9 @@
       <c r="IL76" t="n">
         <v>40</v>
       </c>
+      <c r="IM76" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57554,6 +57714,9 @@
       <c r="IL77" t="n">
         <v>43</v>
       </c>
+      <c r="IM77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58296,6 +58459,9 @@
       <c r="IL78" t="n">
         <v>3.07</v>
       </c>
+      <c r="IM78" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59038,6 +59204,9 @@
       <c r="IL79" t="n">
         <v>4.3</v>
       </c>
+      <c r="IM79" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59780,6 +59949,9 @@
       <c r="IL80" t="n">
         <v>30.2</v>
       </c>
+      <c r="IM80" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60522,6 +60694,9 @@
       <c r="IL81" t="n">
         <v>23.3</v>
       </c>
+      <c r="IM81" t="n">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61264,6 +61439,9 @@
       <c r="IL82" t="n">
         <v>186.6</v>
       </c>
+      <c r="IM82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62006,6 +62184,9 @@
       <c r="IL83" t="n">
         <v>84.8</v>
       </c>
+      <c r="IM83" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62748,6 +62929,9 @@
       <c r="IL84" t="n">
         <v>25.74</v>
       </c>
+      <c r="IM84" t="n">
+        <v>28.33</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63490,6 +63674,9 @@
       <c r="IL85" t="n">
         <v>103</v>
       </c>
+      <c r="IM85" t="n">
+        <v>162.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64232,6 +64419,9 @@
       <c r="IL86" t="n">
         <v>4</v>
       </c>
+      <c r="IM86" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -64974,6 +65164,9 @@
       <c r="IL87" t="n">
         <v>8</v>
       </c>
+      <c r="IM87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65716,6 +65909,9 @@
       <c r="IL88" t="n">
         <v>2</v>
       </c>
+      <c r="IM88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66458,6 +66654,9 @@
       <c r="IL89" t="n">
         <v>8</v>
       </c>
+      <c r="IM89" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67200,6 +67399,9 @@
       <c r="IL90" t="n">
         <v>132</v>
       </c>
+      <c r="IM90" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -67942,6 +68144,9 @@
       <c r="IL91" t="n">
         <v>196</v>
       </c>
+      <c r="IM91" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68684,6 +68889,9 @@
       <c r="IL92" t="n">
         <v>240</v>
       </c>
+      <c r="IM92" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69426,6 +69634,9 @@
       <c r="IL93" t="n">
         <v>71.90000000000001</v>
       </c>
+      <c r="IM93" t="n">
+        <v>71.09999999999999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70168,6 +70379,9 @@
       <c r="IL94" t="n">
         <v>57</v>
       </c>
+      <c r="IM94" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -70910,6 +71124,9 @@
       <c r="IL95" t="n">
         <v>12</v>
       </c>
+      <c r="IM95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71652,6 +71869,9 @@
       <c r="IL96" t="n">
         <v>6</v>
       </c>
+      <c r="IM96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72394,6 +72614,9 @@
       <c r="IL97" t="n">
         <v>28</v>
       </c>
+      <c r="IM97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73136,6 +73359,9 @@
       <c r="IL98" t="n">
         <v>40</v>
       </c>
+      <c r="IM98" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -73878,6 +74104,9 @@
       <c r="IL99" t="n">
         <v>54</v>
       </c>
+      <c r="IM99" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74620,6 +74849,9 @@
       <c r="IL100" t="n">
         <v>8</v>
       </c>
+      <c r="IM100" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75362,6 +75594,9 @@
       <c r="IL101" t="n">
         <v>8</v>
       </c>
+      <c r="IM101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76104,6 +76339,9 @@
       <c r="IL102" t="n">
         <v>80</v>
       </c>
+      <c r="IM102" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IM102"/>
+  <dimension ref="A1:IN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,6 +1097,9 @@
       <c r="IM1" t="n">
         <v>10535</v>
       </c>
+      <c r="IN1" t="n">
+        <v>10542</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1842,6 +1845,9 @@
       <c r="IM2" t="n">
         <v>2021</v>
       </c>
+      <c r="IN2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2587,6 +2593,9 @@
       <c r="IM3" t="n">
         <v>25</v>
       </c>
+      <c r="IN3" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3332,6 +3341,9 @@
       <c r="IM4" t="n">
         <v>0</v>
       </c>
+      <c r="IN4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4077,6 +4089,9 @@
       <c r="IM5" t="n">
         <v>0</v>
       </c>
+      <c r="IN5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4822,6 +4837,9 @@
       <c r="IM6" t="n">
         <v>86</v>
       </c>
+      <c r="IN6" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5567,6 +5585,9 @@
       <c r="IM7" t="n">
         <v>43</v>
       </c>
+      <c r="IN7" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6312,6 +6333,9 @@
       <c r="IM8" t="n">
         <v>43</v>
       </c>
+      <c r="IN8" t="n">
+        <v>-71</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7057,6 +7081,9 @@
       <c r="IM9" t="n">
         <v>1</v>
       </c>
+      <c r="IN9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7802,6 +7829,9 @@
       <c r="IM10" t="n">
         <v>7</v>
       </c>
+      <c r="IN10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8547,6 +8577,9 @@
       <c r="IM11" t="n">
         <v>231</v>
       </c>
+      <c r="IN11" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9292,6 +9325,9 @@
       <c r="IM12" t="n">
         <v>148</v>
       </c>
+      <c r="IN12" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10037,6 +10073,9 @@
       <c r="IM13" t="n">
         <v>379</v>
       </c>
+      <c r="IN13" t="n">
+        <v>369</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10782,6 +10821,9 @@
       <c r="IM14" t="n">
         <v>1.56</v>
       </c>
+      <c r="IN14" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -11527,6 +11569,9 @@
       <c r="IM15" t="n">
         <v>107</v>
       </c>
+      <c r="IN15" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -12272,6 +12317,9 @@
       <c r="IM16" t="n">
         <v>65</v>
       </c>
+      <c r="IN16" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13017,6 +13065,9 @@
       <c r="IM17" t="n">
         <v>31</v>
       </c>
+      <c r="IN17" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13762,6 +13813,9 @@
       <c r="IM18" t="n">
         <v>19</v>
       </c>
+      <c r="IN18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14507,6 +14561,9 @@
       <c r="IM19" t="n">
         <v>24</v>
       </c>
+      <c r="IN19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -15252,6 +15309,9 @@
       <c r="IM20" t="n">
         <v>12</v>
       </c>
+      <c r="IN20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -15997,6 +16057,9 @@
       <c r="IM21" t="n">
         <v>8</v>
       </c>
+      <c r="IN21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -16742,6 +16805,9 @@
       <c r="IM22" t="n">
         <v>13</v>
       </c>
+      <c r="IN22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17487,6 +17553,9 @@
       <c r="IM23" t="n">
         <v>1</v>
       </c>
+      <c r="IN23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18232,6 +18301,9 @@
       <c r="IM24" t="n">
         <v>26</v>
       </c>
+      <c r="IN24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -18977,6 +19049,9 @@
       <c r="IM25" t="n">
         <v>46.2</v>
       </c>
+      <c r="IN25" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19722,6 +19797,9 @@
       <c r="IM26" t="n">
         <v>31.58</v>
       </c>
+      <c r="IN26" t="n">
+        <v>61.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20467,6 +20545,9 @@
       <c r="IM27" t="n">
         <v>14.58</v>
       </c>
+      <c r="IN27" t="n">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -21212,6 +21293,9 @@
       <c r="IM28" t="n">
         <v>30</v>
       </c>
+      <c r="IN28" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21957,6 +22041,9 @@
       <c r="IM29" t="n">
         <v>54</v>
       </c>
+      <c r="IN29" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -22702,6 +22789,9 @@
       <c r="IM30" t="n">
         <v>40</v>
       </c>
+      <c r="IN30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -23447,6 +23537,9 @@
       <c r="IM31" t="n">
         <v>60</v>
       </c>
+      <c r="IN31" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -24192,6 +24285,9 @@
       <c r="IM32" t="n">
         <v>2.31</v>
       </c>
+      <c r="IN32" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -24937,6 +25033,9 @@
       <c r="IM33" t="n">
         <v>5</v>
       </c>
+      <c r="IN33" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -25682,6 +25781,9 @@
       <c r="IM34" t="n">
         <v>41.7</v>
       </c>
+      <c r="IN34" t="n">
+        <v>29.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -26427,6 +26529,9 @@
       <c r="IM35" t="n">
         <v>20</v>
       </c>
+      <c r="IN35" t="n">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -27172,6 +27277,9 @@
       <c r="IM36" t="n">
         <v>188.4</v>
       </c>
+      <c r="IN36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -27917,6 +28025,9 @@
       <c r="IM37" t="n">
         <v>84</v>
       </c>
+      <c r="IN37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -28662,6 +28773,9 @@
       <c r="IM38" t="n">
         <v>26</v>
       </c>
+      <c r="IN38" t="n">
+        <v>26.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -29407,6 +29521,9 @@
       <c r="IM39" t="n">
         <v>113.4</v>
       </c>
+      <c r="IN39" t="n">
+        <v>114.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -30152,6 +30269,9 @@
       <c r="IM40" t="n">
         <v>5</v>
       </c>
+      <c r="IN40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -30897,6 +31017,9 @@
       <c r="IM41" t="n">
         <v>8</v>
       </c>
+      <c r="IN41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -31642,6 +31765,9 @@
       <c r="IM42" t="n">
         <v>4</v>
       </c>
+      <c r="IN42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -32387,6 +32513,9 @@
       <c r="IM43" t="n">
         <v>6</v>
       </c>
+      <c r="IN43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33132,6 +33261,9 @@
       <c r="IM44" t="n">
         <v>136</v>
       </c>
+      <c r="IN44" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33877,6 +34009,9 @@
       <c r="IM45" t="n">
         <v>232</v>
       </c>
+      <c r="IN45" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -34622,6 +34757,9 @@
       <c r="IM46" t="n">
         <v>286</v>
       </c>
+      <c r="IN46" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -35367,6 +35505,9 @@
       <c r="IM47" t="n">
         <v>75.5</v>
       </c>
+      <c r="IN47" t="n">
+        <v>70.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -36112,6 +36253,9 @@
       <c r="IM48" t="n">
         <v>54</v>
       </c>
+      <c r="IN48" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -36857,6 +37001,9 @@
       <c r="IM49" t="n">
         <v>15</v>
       </c>
+      <c r="IN49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -37602,6 +37749,9 @@
       <c r="IM50" t="n">
         <v>12</v>
       </c>
+      <c r="IN50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -38347,6 +38497,9 @@
       <c r="IM51" t="n">
         <v>30</v>
       </c>
+      <c r="IN51" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -39092,6 +39245,9 @@
       <c r="IM52" t="n">
         <v>40</v>
       </c>
+      <c r="IN52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -39837,6 +39993,9 @@
       <c r="IM53" t="n">
         <v>51</v>
       </c>
+      <c r="IN53" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -40582,6 +40741,9 @@
       <c r="IM54" t="n">
         <v>3</v>
       </c>
+      <c r="IN54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41327,6 +41489,9 @@
       <c r="IM55" t="n">
         <v>8</v>
       </c>
+      <c r="IN55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -42072,6 +42237,9 @@
       <c r="IM56" t="n">
         <v>66.7</v>
       </c>
+      <c r="IN56" t="n">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -42817,6 +42985,9 @@
       <c r="IM57" t="n">
         <v>193</v>
       </c>
+      <c r="IN57" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -43562,6 +43733,9 @@
       <c r="IM58" t="n">
         <v>122</v>
       </c>
+      <c r="IN58" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -44307,6 +44481,9 @@
       <c r="IM59" t="n">
         <v>315</v>
       </c>
+      <c r="IN59" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -45052,6 +45229,9 @@
       <c r="IM60" t="n">
         <v>1.58</v>
       </c>
+      <c r="IN60" t="n">
+        <v>1.76</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -45797,6 +45977,9 @@
       <c r="IM61" t="n">
         <v>76</v>
       </c>
+      <c r="IN61" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -46542,6 +46725,9 @@
       <c r="IM62" t="n">
         <v>50</v>
       </c>
+      <c r="IN62" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -47287,6 +47473,9 @@
       <c r="IM63" t="n">
         <v>36</v>
       </c>
+      <c r="IN63" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -48032,6 +48221,9 @@
       <c r="IM64" t="n">
         <v>24</v>
       </c>
+      <c r="IN64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -48777,6 +48969,9 @@
       <c r="IM65" t="n">
         <v>19</v>
       </c>
+      <c r="IN65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -49522,6 +49717,9 @@
       <c r="IM66" t="n">
         <v>5</v>
       </c>
+      <c r="IN66" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -50267,6 +50465,9 @@
       <c r="IM67" t="n">
         <v>5</v>
       </c>
+      <c r="IN67" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -51012,6 +51213,9 @@
       <c r="IM68" t="n">
         <v>10</v>
       </c>
+      <c r="IN68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -51757,6 +51961,9 @@
       <c r="IM69" t="n">
         <v>3</v>
       </c>
+      <c r="IN69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -52502,6 +52709,9 @@
       <c r="IM70" t="n">
         <v>18</v>
       </c>
+      <c r="IN70" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -53247,6 +53457,9 @@
       <c r="IM71" t="n">
         <v>27.8</v>
       </c>
+      <c r="IN71" t="n">
+        <v>54.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -53992,6 +54205,9 @@
       <c r="IM72" t="n">
         <v>63</v>
       </c>
+      <c r="IN72" t="n">
+        <v>21.59</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -54737,6 +54953,9 @@
       <c r="IM73" t="n">
         <v>17.5</v>
       </c>
+      <c r="IN73" t="n">
+        <v>11.84</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -55482,6 +55701,9 @@
       <c r="IM74" t="n">
         <v>36</v>
       </c>
+      <c r="IN74" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -56227,6 +56449,9 @@
       <c r="IM75" t="n">
         <v>59</v>
       </c>
+      <c r="IN75" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -56972,6 +57197,9 @@
       <c r="IM76" t="n">
         <v>48</v>
       </c>
+      <c r="IN76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -57717,6 +57945,9 @@
       <c r="IM77" t="n">
         <v>45</v>
       </c>
+      <c r="IN77" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -58462,6 +58693,9 @@
       <c r="IM78" t="n">
         <v>2.5</v>
       </c>
+      <c r="IN78" t="n">
+        <v>1.94</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -59207,6 +59441,9 @@
       <c r="IM79" t="n">
         <v>9</v>
       </c>
+      <c r="IN79" t="n">
+        <v>3.53</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -59952,6 +60189,9 @@
       <c r="IM80" t="n">
         <v>33.3</v>
       </c>
+      <c r="IN80" t="n">
+        <v>48.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -60697,6 +60937,9 @@
       <c r="IM81" t="n">
         <v>11.1</v>
       </c>
+      <c r="IN81" t="n">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -61442,6 +61685,9 @@
       <c r="IM82" t="n">
         <v>188</v>
       </c>
+      <c r="IN82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -62187,6 +62433,9 @@
       <c r="IM83" t="n">
         <v>88</v>
       </c>
+      <c r="IN83" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -62932,6 +63181,9 @@
       <c r="IM84" t="n">
         <v>28.33</v>
       </c>
+      <c r="IN84" t="n">
+        <v>26.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -63677,6 +63929,9 @@
       <c r="IM85" t="n">
         <v>162.4</v>
       </c>
+      <c r="IN85" t="n">
+        <v>109.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -64422,6 +64677,9 @@
       <c r="IM86" t="n">
         <v>2</v>
       </c>
+      <c r="IN86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -65167,6 +65425,9 @@
       <c r="IM87" t="n">
         <v>5</v>
       </c>
+      <c r="IN87" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -65912,6 +66173,9 @@
       <c r="IM88" t="n">
         <v>3</v>
       </c>
+      <c r="IN88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -66657,6 +66921,9 @@
       <c r="IM89" t="n">
         <v>13</v>
       </c>
+      <c r="IN89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -67402,6 +67669,9 @@
       <c r="IM90" t="n">
         <v>128</v>
       </c>
+      <c r="IN90" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -68147,6 +68417,9 @@
       <c r="IM91" t="n">
         <v>179</v>
       </c>
+      <c r="IN91" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -68892,6 +69165,9 @@
       <c r="IM92" t="n">
         <v>224</v>
       </c>
+      <c r="IN92" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -69637,6 +69913,9 @@
       <c r="IM93" t="n">
         <v>71.09999999999999</v>
       </c>
+      <c r="IN93" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -70382,6 +70661,9 @@
       <c r="IM94" t="n">
         <v>59</v>
       </c>
+      <c r="IN94" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -71127,6 +71409,9 @@
       <c r="IM95" t="n">
         <v>10</v>
       </c>
+      <c r="IN95" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -71872,6 +72157,9 @@
       <c r="IM96" t="n">
         <v>8</v>
       </c>
+      <c r="IN96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -72617,6 +72905,9 @@
       <c r="IM97" t="n">
         <v>36</v>
       </c>
+      <c r="IN97" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -73362,6 +73653,9 @@
       <c r="IM98" t="n">
         <v>48</v>
       </c>
+      <c r="IN98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -74107,6 +74401,9 @@
       <c r="IM99" t="n">
         <v>59</v>
       </c>
+      <c r="IN99" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -74852,6 +75149,9 @@
       <c r="IM100" t="n">
         <v>5</v>
       </c>
+      <c r="IN100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -75597,6 +75897,9 @@
       <c r="IM101" t="n">
         <v>5</v>
       </c>
+      <c r="IN101" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -76342,6 +76645,9 @@
       <c r="IM102" t="n">
         <v>100</v>
       </c>
+      <c r="IN102" t="n">
+        <v>70.59999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IN102"/>
+  <dimension ref="A1:IO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IG99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IM105" activeCellId="0" sqref="IM105"/>
@@ -1197,8 +1197,11 @@
       <c r="IM1" s="2" t="n">
         <v>10535</v>
       </c>
-      <c r="IN1" t="n">
+      <c r="IN1" s="2" t="n">
         <v>10542</v>
+      </c>
+      <c r="IO1" t="n">
+        <v>10549</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1945,8 +1948,11 @@
       <c r="IM2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IN2" t="n">
+      <c r="IN2" s="2" t="n">
         <v>2021</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="1">
@@ -2693,8 +2699,11 @@
       <c r="IM3" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IN3" t="n">
+      <c r="IN3" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3441,8 +3450,11 @@
       <c r="IM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IN4" t="n">
+      <c r="IN4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4189,8 +4201,11 @@
       <c r="IM5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IN5" t="n">
+      <c r="IN5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IO5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -4937,8 +4952,11 @@
       <c r="IM6" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="IN6" t="n">
+      <c r="IN6" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IO6" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5685,8 +5703,11 @@
       <c r="IM7" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IN7" t="n">
+      <c r="IN7" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="IO7" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6433,8 +6454,11 @@
       <c r="IM8" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IN8" t="n">
+      <c r="IN8" s="2" t="n">
         <v>-71</v>
+      </c>
+      <c r="IO8" t="n">
+        <v>-11</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7181,7 +7205,10 @@
       <c r="IM9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IN9" t="n">
+      <c r="IN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7929,8 +7956,11 @@
       <c r="IM10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IN10" t="n">
+      <c r="IN10" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IO10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8677,8 +8707,11 @@
       <c r="IM11" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="IN11" t="n">
+      <c r="IN11" s="2" t="n">
         <v>209</v>
+      </c>
+      <c r="IO11" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9425,8 +9458,11 @@
       <c r="IM12" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="IN12" t="n">
+      <c r="IN12" s="2" t="n">
         <v>160</v>
+      </c>
+      <c r="IO12" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10173,8 +10209,11 @@
       <c r="IM13" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="IN13" t="n">
+      <c r="IN13" s="2" t="n">
         <v>369</v>
+      </c>
+      <c r="IO13" t="n">
+        <v>357</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -10921,8 +10960,11 @@
       <c r="IM14" s="2" t="n">
         <v>1.56</v>
       </c>
-      <c r="IN14" t="n">
+      <c r="IN14" s="2" t="n">
         <v>1.31</v>
+      </c>
+      <c r="IO14" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -11669,8 +11711,11 @@
       <c r="IM15" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="IN15" t="n">
+      <c r="IN15" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="IO15" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -12417,8 +12462,11 @@
       <c r="IM16" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IN16" t="n">
+      <c r="IN16" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IO16" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13165,8 +13213,11 @@
       <c r="IM17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IN17" t="n">
+      <c r="IN17" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IO17" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -13913,8 +13964,11 @@
       <c r="IM18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IN18" t="n">
+      <c r="IN18" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IO18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -14661,8 +14715,11 @@
       <c r="IM19" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IN19" t="n">
+      <c r="IN19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IO19" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -15409,8 +15466,11 @@
       <c r="IM20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IN20" t="n">
+      <c r="IN20" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IO20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -16157,8 +16217,11 @@
       <c r="IM21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IN21" t="n">
+      <c r="IN21" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IO21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -16905,7 +16968,10 @@
       <c r="IM22" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IN22" t="n">
+      <c r="IN22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IO22" t="n">
         <v>8</v>
       </c>
     </row>
@@ -17653,7 +17719,10 @@
       <c r="IM23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IN23" t="n">
+      <c r="IN23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IO23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18401,8 +18470,11 @@
       <c r="IM24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IN24" t="n">
+      <c r="IN24" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IO24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -19149,8 +19221,11 @@
       <c r="IM25" s="2" t="n">
         <v>46.2</v>
       </c>
-      <c r="IN25" t="n">
+      <c r="IN25" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IO25" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -19897,8 +19972,11 @@
       <c r="IM26" s="2" t="n">
         <v>31.58</v>
       </c>
-      <c r="IN26" t="n">
+      <c r="IN26" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="IO26" t="n">
+        <v>35.7</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -20645,8 +20723,11 @@
       <c r="IM27" s="2" t="n">
         <v>14.58</v>
       </c>
-      <c r="IN27" t="n">
+      <c r="IN27" s="2" t="n">
         <v>24.6</v>
+      </c>
+      <c r="IO27" t="n">
+        <v>18.79</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -21393,8 +21474,11 @@
       <c r="IM28" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IN28" t="n">
+      <c r="IN28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IO28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -22141,8 +22225,11 @@
       <c r="IM29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IN29" t="n">
+      <c r="IN29" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IO29" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -22889,8 +22976,11 @@
       <c r="IM30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IN30" t="n">
+      <c r="IN30" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IO30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -23637,8 +23727,11 @@
       <c r="IM31" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IN31" t="n">
+      <c r="IN31" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IO31" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -24385,8 +24478,11 @@
       <c r="IM32" s="2" t="n">
         <v>2.31</v>
       </c>
-      <c r="IN32" t="n">
+      <c r="IN32" s="2" t="n">
         <v>3.2</v>
+      </c>
+      <c r="IO32" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -25133,8 +25229,11 @@
       <c r="IM33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN33" t="n">
+      <c r="IN33" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IO33" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -25881,8 +25980,11 @@
       <c r="IM34" s="2" t="n">
         <v>41.7</v>
       </c>
-      <c r="IN34" t="n">
+      <c r="IN34" s="2" t="n">
         <v>29.2</v>
+      </c>
+      <c r="IO34" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -26629,8 +26731,11 @@
       <c r="IM35" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IN35" t="n">
+      <c r="IN35" s="2" t="n">
         <v>12.5</v>
+      </c>
+      <c r="IO35" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -27377,8 +27482,11 @@
       <c r="IM36" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="IN36" t="n">
+      <c r="IN36" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="IO36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -28125,8 +28233,11 @@
       <c r="IM37" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="IN37" t="n">
+      <c r="IN37" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="IO37" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -28873,8 +28984,11 @@
       <c r="IM38" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IN38" t="n">
+      <c r="IN38" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="IO38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -29621,8 +29735,11 @@
       <c r="IM39" s="2" t="n">
         <v>113.4</v>
       </c>
-      <c r="IN39" t="n">
+      <c r="IN39" s="2" t="n">
         <v>114.4</v>
+      </c>
+      <c r="IO39" t="n">
+        <v>105.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -30369,8 +30486,11 @@
       <c r="IM40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN40" t="n">
+      <c r="IN40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IO40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -31117,7 +31237,10 @@
       <c r="IM41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IN41" t="n">
+      <c r="IN41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IO41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -31865,7 +31988,10 @@
       <c r="IM42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IN42" t="n">
+      <c r="IN42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IO42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32613,8 +32739,11 @@
       <c r="IM43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IN43" t="n">
+      <c r="IN43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IO43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -33361,8 +33490,11 @@
       <c r="IM44" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="IN44" t="n">
+      <c r="IN44" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="IO44" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -34109,8 +34241,11 @@
       <c r="IM45" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="IN45" t="n">
+      <c r="IN45" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="IO45" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -34857,8 +34992,11 @@
       <c r="IM46" s="2" t="n">
         <v>286</v>
       </c>
-      <c r="IN46" t="n">
+      <c r="IN46" s="2" t="n">
         <v>261</v>
+      </c>
+      <c r="IO46" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -35605,8 +35743,11 @@
       <c r="IM47" s="2" t="n">
         <v>75.5</v>
       </c>
-      <c r="IN47" t="n">
+      <c r="IN47" s="2" t="n">
         <v>70.7</v>
+      </c>
+      <c r="IO47" t="n">
+        <v>70.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -36353,8 +36494,11 @@
       <c r="IM48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IN48" t="n">
+      <c r="IN48" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IO48" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -37101,8 +37245,11 @@
       <c r="IM49" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IN49" t="n">
+      <c r="IN49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IO49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -37849,8 +37996,11 @@
       <c r="IM50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IN50" t="n">
+      <c r="IN50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IO50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -38597,8 +38747,11 @@
       <c r="IM51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IN51" t="n">
+      <c r="IN51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IO51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -39345,8 +39498,11 @@
       <c r="IM52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IN52" t="n">
+      <c r="IN52" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IO52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -40093,8 +40249,11 @@
       <c r="IM53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IN53" t="n">
+      <c r="IN53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IO53" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -40841,8 +41000,11 @@
       <c r="IM54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IN54" t="n">
+      <c r="IN54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IO54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -41589,8 +41751,11 @@
       <c r="IM55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IN55" t="n">
+      <c r="IN55" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IO55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -42337,8 +42502,11 @@
       <c r="IM56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IN56" t="n">
+      <c r="IN56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IO56" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -43085,8 +43253,11 @@
       <c r="IM57" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="IN57" t="n">
+      <c r="IN57" s="2" t="n">
         <v>234</v>
+      </c>
+      <c r="IO57" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -43833,8 +44004,11 @@
       <c r="IM58" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="IN58" t="n">
+      <c r="IN58" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="IO58" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -44581,8 +44755,11 @@
       <c r="IM59" s="2" t="n">
         <v>315</v>
       </c>
-      <c r="IN59" t="n">
+      <c r="IN59" s="2" t="n">
         <v>367</v>
+      </c>
+      <c r="IO59" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -45329,8 +45506,11 @@
       <c r="IM60" s="2" t="n">
         <v>1.58</v>
       </c>
-      <c r="IN60" t="n">
+      <c r="IN60" s="2" t="n">
         <v>1.76</v>
+      </c>
+      <c r="IO60" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -46077,8 +46257,11 @@
       <c r="IM61" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="IN61" t="n">
+      <c r="IN61" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="IO61" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -46825,8 +47008,11 @@
       <c r="IM62" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IN62" t="n">
+      <c r="IN62" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IO62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -47573,8 +47759,11 @@
       <c r="IM63" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IN63" t="n">
+      <c r="IN63" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IO63" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -48321,8 +48510,11 @@
       <c r="IM64" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IN64" t="n">
+      <c r="IN64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IO64" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -49069,8 +49261,11 @@
       <c r="IM65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IN65" t="n">
+      <c r="IN65" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IO65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -49817,8 +50012,11 @@
       <c r="IM66" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN66" t="n">
+      <c r="IN66" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IO66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -50565,8 +50763,11 @@
       <c r="IM67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN67" t="n">
+      <c r="IN67" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IO67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -51313,8 +51514,11 @@
       <c r="IM68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IN68" t="n">
+      <c r="IN68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IO68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -52061,8 +52265,11 @@
       <c r="IM69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IN69" t="n">
+      <c r="IN69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IO69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -52809,8 +53016,11 @@
       <c r="IM70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IN70" t="n">
+      <c r="IN70" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IO70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -53557,8 +53767,11 @@
       <c r="IM71" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="IN71" t="n">
+      <c r="IN71" s="2" t="n">
         <v>54.8</v>
+      </c>
+      <c r="IO71" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -54305,8 +54518,11 @@
       <c r="IM72" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="IN72" t="n">
+      <c r="IN72" s="2" t="n">
         <v>21.59</v>
+      </c>
+      <c r="IO72" t="n">
+        <v>29.91</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -55053,8 +55269,11 @@
       <c r="IM73" s="2" t="n">
         <v>17.5</v>
       </c>
-      <c r="IN73" t="n">
+      <c r="IN73" s="2" t="n">
         <v>11.84</v>
+      </c>
+      <c r="IO73" t="n">
+        <v>13.16</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -55801,8 +56020,11 @@
       <c r="IM74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IN74" t="n">
+      <c r="IN74" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IO74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -56549,8 +56771,11 @@
       <c r="IM75" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IN75" t="n">
+      <c r="IN75" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IO75" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -57297,8 +57522,11 @@
       <c r="IM76" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IN76" t="n">
+      <c r="IN76" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IO76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -58045,8 +58273,11 @@
       <c r="IM77" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IN77" t="n">
+      <c r="IN77" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IO77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -58793,8 +59024,11 @@
       <c r="IM78" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="IN78" t="n">
+      <c r="IN78" s="2" t="n">
         <v>1.94</v>
+      </c>
+      <c r="IO78" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -59541,8 +59775,11 @@
       <c r="IM79" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IN79" t="n">
+      <c r="IN79" s="2" t="n">
         <v>3.53</v>
+      </c>
+      <c r="IO79" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -60289,8 +60526,11 @@
       <c r="IM80" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="IN80" t="n">
+      <c r="IN80" s="2" t="n">
         <v>48.3</v>
+      </c>
+      <c r="IO80" t="n">
+        <v>42.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -61037,8 +61277,11 @@
       <c r="IM81" s="2" t="n">
         <v>11.1</v>
       </c>
-      <c r="IN81" t="n">
+      <c r="IN81" s="2" t="n">
         <v>28.3</v>
+      </c>
+      <c r="IO81" t="n">
+        <v>21.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -61785,8 +62028,11 @@
       <c r="IM82" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="IN82" t="n">
+      <c r="IN82" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="IO82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -62533,8 +62779,11 @@
       <c r="IM83" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="IN83" t="n">
+      <c r="IN83" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="IO83" t="n">
+        <v>88.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -63281,8 +63530,11 @@
       <c r="IM84" s="2" t="n">
         <v>28.33</v>
       </c>
-      <c r="IN84" t="n">
+      <c r="IN84" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="IO84" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -64029,8 +64281,11 @@
       <c r="IM85" s="2" t="n">
         <v>162.4</v>
       </c>
-      <c r="IN85" t="n">
+      <c r="IN85" s="2" t="n">
         <v>109.4</v>
+      </c>
+      <c r="IO85" t="n">
+        <v>109.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -64777,8 +65032,11 @@
       <c r="IM86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IN86" t="n">
+      <c r="IN86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IO86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -65525,8 +65783,11 @@
       <c r="IM87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN87" t="n">
+      <c r="IN87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IO87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -66273,8 +66534,11 @@
       <c r="IM88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IN88" t="n">
+      <c r="IN88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IO88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -67021,8 +67285,11 @@
       <c r="IM89" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IN89" t="n">
+      <c r="IN89" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IO89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -67769,8 +68036,11 @@
       <c r="IM90" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="IN90" t="n">
+      <c r="IN90" s="2" t="n">
         <v>166</v>
+      </c>
+      <c r="IO90" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -68517,8 +68787,11 @@
       <c r="IM91" s="2" t="n">
         <v>179</v>
       </c>
-      <c r="IN91" t="n">
+      <c r="IN91" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="IO91" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -69265,8 +69538,11 @@
       <c r="IM92" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="IN92" t="n">
+      <c r="IN92" s="2" t="n">
         <v>268</v>
+      </c>
+      <c r="IO92" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -70013,8 +70289,11 @@
       <c r="IM93" s="2" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="IN93" t="n">
+      <c r="IN93" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="IO93" t="n">
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -70761,8 +71040,11 @@
       <c r="IM94" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IN94" t="n">
+      <c r="IN94" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IO94" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -71509,8 +71791,11 @@
       <c r="IM95" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IN95" t="n">
+      <c r="IN95" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IO95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -72257,8 +72542,11 @@
       <c r="IM96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IN96" t="n">
+      <c r="IN96" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IO96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -73005,8 +73293,11 @@
       <c r="IM97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IN97" t="n">
+      <c r="IN97" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IO97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -73753,8 +74044,11 @@
       <c r="IM98" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IN98" t="n">
+      <c r="IN98" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IO98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -74501,8 +74795,11 @@
       <c r="IM99" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IN99" t="n">
+      <c r="IN99" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IO99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -75249,8 +75546,11 @@
       <c r="IM100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN100" t="n">
+      <c r="IN100" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IO100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -75997,8 +76297,11 @@
       <c r="IM101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN101" t="n">
+      <c r="IN101" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IO101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -76745,8 +77048,11 @@
       <c r="IM102" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="IN102" t="n">
+      <c r="IN102" s="2" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="IO102" t="n">
+        <v>81.8</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IO102"/>
+  <dimension ref="A1:IP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IG99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IM105" activeCellId="0" sqref="IM105"/>
@@ -1200,8 +1200,11 @@
       <c r="IN1" s="2" t="n">
         <v>10542</v>
       </c>
-      <c r="IO1" t="n">
+      <c r="IO1" s="2" t="n">
         <v>10549</v>
+      </c>
+      <c r="IP1" t="n">
+        <v>10557</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1951,7 +1954,10 @@
       <c r="IN2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IO2" t="n">
+      <c r="IO2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IP2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2702,8 +2708,11 @@
       <c r="IN3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IO3" t="n">
+      <c r="IO3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3453,8 +3462,11 @@
       <c r="IN4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IO4" t="n">
+      <c r="IO4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4204,8 +4216,11 @@
       <c r="IN5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IO5" t="n">
+      <c r="IO5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IP5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -4955,8 +4970,11 @@
       <c r="IN6" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IO6" t="n">
+      <c r="IO6" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5706,8 +5724,11 @@
       <c r="IN7" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="IO7" t="n">
+      <c r="IO7" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="IP7" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6457,8 +6478,11 @@
       <c r="IN8" s="2" t="n">
         <v>-71</v>
       </c>
-      <c r="IO8" t="n">
+      <c r="IO8" s="2" t="n">
         <v>-11</v>
+      </c>
+      <c r="IP8" t="n">
+        <v>-64</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7208,7 +7232,10 @@
       <c r="IN9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IO9" t="n">
+      <c r="IO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7959,8 +7986,11 @@
       <c r="IN10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IO10" t="n">
+      <c r="IO10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IP10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8710,8 +8740,11 @@
       <c r="IN11" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="IO11" t="n">
+      <c r="IO11" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="IP11" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9461,8 +9494,11 @@
       <c r="IN12" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="IO12" t="n">
+      <c r="IO12" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="IP12" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10212,8 +10248,11 @@
       <c r="IN13" s="2" t="n">
         <v>369</v>
       </c>
-      <c r="IO13" t="n">
+      <c r="IO13" s="2" t="n">
         <v>357</v>
+      </c>
+      <c r="IP13" t="n">
+        <v>416</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -10963,8 +11002,11 @@
       <c r="IN14" s="2" t="n">
         <v>1.31</v>
       </c>
-      <c r="IO14" t="n">
+      <c r="IO14" s="2" t="n">
         <v>1.53</v>
+      </c>
+      <c r="IP14" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -11714,7 +11756,10 @@
       <c r="IN15" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="IO15" t="n">
+      <c r="IO15" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="IP15" t="n">
         <v>82</v>
       </c>
     </row>
@@ -12465,8 +12510,11 @@
       <c r="IN16" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IO16" t="n">
+      <c r="IO16" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IP16" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13216,8 +13264,11 @@
       <c r="IN17" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IO17" t="n">
+      <c r="IO17" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IP17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -13967,8 +14018,11 @@
       <c r="IN18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IO18" t="n">
+      <c r="IO18" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IP18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -14718,8 +14772,11 @@
       <c r="IN19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IO19" t="n">
+      <c r="IO19" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IP19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -15469,8 +15526,11 @@
       <c r="IN20" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO20" t="n">
+      <c r="IO20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IP20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -16220,8 +16280,11 @@
       <c r="IN21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IO21" t="n">
+      <c r="IO21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IP21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -16971,8 +17034,11 @@
       <c r="IN22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IO22" t="n">
+      <c r="IO22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IP22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -17722,7 +17788,10 @@
       <c r="IN23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IO23" t="n">
+      <c r="IO23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18473,8 +18542,11 @@
       <c r="IN24" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IO24" t="n">
+      <c r="IO24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IP24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -19224,8 +19296,11 @@
       <c r="IN25" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IO25" t="n">
+      <c r="IO25" s="2" t="n">
         <v>52.6</v>
+      </c>
+      <c r="IP25" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -19975,8 +20050,11 @@
       <c r="IN26" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="IO26" t="n">
+      <c r="IO26" s="2" t="n">
         <v>35.7</v>
+      </c>
+      <c r="IP26" t="n">
+        <v>59.43</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -20726,8 +20804,11 @@
       <c r="IN27" s="2" t="n">
         <v>24.6</v>
       </c>
-      <c r="IO27" t="n">
+      <c r="IO27" s="2" t="n">
         <v>18.79</v>
+      </c>
+      <c r="IP27" t="n">
+        <v>19.81</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -21477,8 +21558,11 @@
       <c r="IN28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IO28" t="n">
+      <c r="IO28" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IP28" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -22228,8 +22312,11 @@
       <c r="IN29" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IO29" t="n">
+      <c r="IO29" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IP29" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -22979,8 +23066,11 @@
       <c r="IN30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IO30" t="n">
+      <c r="IO30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IP30" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -23730,8 +23820,11 @@
       <c r="IN31" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IO31" t="n">
+      <c r="IO31" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IP31" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -24481,8 +24574,11 @@
       <c r="IN32" s="2" t="n">
         <v>3.2</v>
       </c>
-      <c r="IO32" t="n">
+      <c r="IO32" s="2" t="n">
         <v>2.89</v>
+      </c>
+      <c r="IP32" t="n">
+        <v>2.76</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -25232,8 +25328,11 @@
       <c r="IN33" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IO33" t="n">
+      <c r="IO33" s="2" t="n">
         <v>5.5</v>
+      </c>
+      <c r="IP33" t="n">
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -25983,8 +26082,11 @@
       <c r="IN34" s="2" t="n">
         <v>29.2</v>
       </c>
-      <c r="IO34" t="n">
+      <c r="IO34" s="2" t="n">
         <v>32.7</v>
+      </c>
+      <c r="IP34" t="n">
+        <v>34.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -26734,8 +26836,11 @@
       <c r="IN35" s="2" t="n">
         <v>12.5</v>
       </c>
-      <c r="IO35" t="n">
+      <c r="IO35" s="2" t="n">
         <v>18.2</v>
+      </c>
+      <c r="IP35" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -27485,8 +27590,11 @@
       <c r="IN36" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="IO36" t="n">
+      <c r="IO36" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="IP36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -28236,8 +28344,11 @@
       <c r="IN37" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="IO37" t="n">
+      <c r="IO37" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="IP37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -28987,8 +29098,11 @@
       <c r="IN38" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="IO38" t="n">
+      <c r="IO38" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="IP38" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -29738,8 +29852,11 @@
       <c r="IN39" s="2" t="n">
         <v>114.4</v>
       </c>
-      <c r="IO39" t="n">
+      <c r="IO39" s="2" t="n">
         <v>105.7</v>
+      </c>
+      <c r="IP39" t="n">
+        <v>91.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -30489,8 +30606,11 @@
       <c r="IN40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IO40" t="n">
+      <c r="IO40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IP40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -31240,7 +31360,10 @@
       <c r="IN41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IO41" t="n">
+      <c r="IO41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IP41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -31991,7 +32114,10 @@
       <c r="IN42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IO42" t="n">
+      <c r="IO42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IP42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32742,8 +32868,11 @@
       <c r="IN43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO43" t="n">
+      <c r="IO43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IP43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -33493,8 +33622,11 @@
       <c r="IN44" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="IO44" t="n">
+      <c r="IO44" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="IP44" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -34244,8 +34376,11 @@
       <c r="IN45" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="IO45" t="n">
+      <c r="IO45" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="IP45" t="n">
+        <v>261</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -34995,8 +35130,11 @@
       <c r="IN46" s="2" t="n">
         <v>261</v>
       </c>
-      <c r="IO46" t="n">
+      <c r="IO46" s="2" t="n">
         <v>251</v>
+      </c>
+      <c r="IP46" t="n">
+        <v>308</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -35746,8 +35884,11 @@
       <c r="IN47" s="2" t="n">
         <v>70.7</v>
       </c>
-      <c r="IO47" t="n">
+      <c r="IO47" s="2" t="n">
         <v>70.3</v>
+      </c>
+      <c r="IP47" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -36497,8 +36638,11 @@
       <c r="IN48" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IO48" t="n">
+      <c r="IO48" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IP48" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -37248,7 +37392,10 @@
       <c r="IN49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IO49" t="n">
+      <c r="IO49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IP49" t="n">
         <v>8</v>
       </c>
     </row>
@@ -37999,8 +38146,11 @@
       <c r="IN50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IO50" t="n">
+      <c r="IO50" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IP50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -38750,8 +38900,11 @@
       <c r="IN51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IO51" t="n">
+      <c r="IO51" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IP51" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -39501,8 +39654,11 @@
       <c r="IN52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IO52" t="n">
+      <c r="IO52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IP52" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -40252,8 +40408,11 @@
       <c r="IN53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IO53" t="n">
+      <c r="IO53" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IP53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -41003,8 +41162,11 @@
       <c r="IN54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IO54" t="n">
+      <c r="IO54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IP54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -41754,8 +41916,11 @@
       <c r="IN55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IO55" t="n">
+      <c r="IO55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IP55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -42505,8 +42670,11 @@
       <c r="IN56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IO56" t="n">
+      <c r="IO56" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IP56" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -43256,8 +43424,11 @@
       <c r="IN57" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="IO57" t="n">
+      <c r="IO57" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="IP57" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -44007,8 +44178,11 @@
       <c r="IN58" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="IO58" t="n">
+      <c r="IO58" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="IP58" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -44758,8 +44932,11 @@
       <c r="IN59" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="IO59" t="n">
+      <c r="IO59" s="2" t="n">
         <v>329</v>
+      </c>
+      <c r="IP59" t="n">
+        <v>342</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -45509,8 +45686,11 @@
       <c r="IN60" s="2" t="n">
         <v>1.76</v>
       </c>
-      <c r="IO60" t="n">
+      <c r="IO60" s="2" t="n">
         <v>1.67</v>
+      </c>
+      <c r="IP60" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -46260,8 +46440,11 @@
       <c r="IN61" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="IO61" t="n">
+      <c r="IO61" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="IP61" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -47011,8 +47194,11 @@
       <c r="IN62" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IO62" t="n">
+      <c r="IO62" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IP62" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -47762,8 +47948,11 @@
       <c r="IN63" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IO63" t="n">
+      <c r="IO63" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IP63" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -48513,8 +48702,11 @@
       <c r="IN64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IO64" t="n">
+      <c r="IO64" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IP64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -49264,8 +49456,11 @@
       <c r="IN65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IO65" t="n">
+      <c r="IO65" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IP65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -50015,8 +50210,11 @@
       <c r="IN66" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IO66" t="n">
+      <c r="IO66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IP66" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -50766,8 +50964,11 @@
       <c r="IN67" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IO67" t="n">
+      <c r="IO67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IP67" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -51517,8 +51718,11 @@
       <c r="IN68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IO68" t="n">
+      <c r="IO68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IP68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -52268,8 +52472,11 @@
       <c r="IN69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IO69" t="n">
+      <c r="IO69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IP69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -53019,7 +53226,10 @@
       <c r="IN70" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IO70" t="n">
+      <c r="IO70" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IP70" t="n">
         <v>25</v>
       </c>
     </row>
@@ -53770,8 +53980,11 @@
       <c r="IN71" s="2" t="n">
         <v>54.8</v>
       </c>
-      <c r="IO71" t="n">
+      <c r="IO71" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IP71" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -54521,8 +54734,11 @@
       <c r="IN72" s="2" t="n">
         <v>21.59</v>
       </c>
-      <c r="IO72" t="n">
+      <c r="IO72" s="2" t="n">
         <v>29.91</v>
+      </c>
+      <c r="IP72" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -55272,8 +55488,11 @@
       <c r="IN73" s="2" t="n">
         <v>11.84</v>
       </c>
-      <c r="IO73" t="n">
+      <c r="IO73" s="2" t="n">
         <v>13.16</v>
+      </c>
+      <c r="IP73" t="n">
+        <v>13.68</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -56023,8 +56242,11 @@
       <c r="IN74" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IO74" t="n">
+      <c r="IO74" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IP74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -56774,8 +56996,11 @@
       <c r="IN75" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IO75" t="n">
+      <c r="IO75" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IP75" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -57525,8 +57750,11 @@
       <c r="IN76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IO76" t="n">
+      <c r="IO76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IP76" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -58276,8 +58504,11 @@
       <c r="IN77" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IO77" t="n">
+      <c r="IO77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IP77" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -59027,8 +59258,11 @@
       <c r="IN78" s="2" t="n">
         <v>1.94</v>
       </c>
-      <c r="IO78" t="n">
+      <c r="IO78" s="2" t="n">
         <v>2.08</v>
+      </c>
+      <c r="IP78" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -59778,8 +60012,11 @@
       <c r="IN79" s="2" t="n">
         <v>3.53</v>
       </c>
-      <c r="IO79" t="n">
+      <c r="IO79" s="2" t="n">
         <v>4.73</v>
+      </c>
+      <c r="IP79" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -60529,8 +60766,11 @@
       <c r="IN80" s="2" t="n">
         <v>48.3</v>
       </c>
-      <c r="IO80" t="n">
+      <c r="IO80" s="2" t="n">
         <v>42.3</v>
+      </c>
+      <c r="IP80" t="n">
+        <v>52.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -61280,8 +61520,11 @@
       <c r="IN81" s="2" t="n">
         <v>28.3</v>
       </c>
-      <c r="IO81" t="n">
+      <c r="IO81" s="2" t="n">
         <v>21.2</v>
+      </c>
+      <c r="IP81" t="n">
+        <v>41.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -62031,8 +62274,11 @@
       <c r="IN82" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="IO82" t="n">
+      <c r="IO82" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="IP82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -62782,8 +63028,11 @@
       <c r="IN83" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="IO83" t="n">
+      <c r="IO83" s="2" t="n">
         <v>88.7</v>
+      </c>
+      <c r="IP83" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -63533,8 +63782,11 @@
       <c r="IN84" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="IO84" t="n">
+      <c r="IO84" s="2" t="n">
         <v>26.58</v>
+      </c>
+      <c r="IP84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -64284,8 +64536,11 @@
       <c r="IN85" s="2" t="n">
         <v>109.4</v>
       </c>
-      <c r="IO85" t="n">
+      <c r="IO85" s="2" t="n">
         <v>109.3</v>
+      </c>
+      <c r="IP85" t="n">
+        <v>84.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -65035,8 +65290,11 @@
       <c r="IN86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IO86" t="n">
+      <c r="IO86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IP86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -65786,8 +66044,11 @@
       <c r="IN87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IO87" t="n">
+      <c r="IO87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -66537,8 +66798,11 @@
       <c r="IN88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IO88" t="n">
+      <c r="IO88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IP88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -67288,8 +67552,11 @@
       <c r="IN89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IO89" t="n">
+      <c r="IO89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IP89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -68039,8 +68306,11 @@
       <c r="IN90" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="IO90" t="n">
+      <c r="IO90" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="IP90" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -68790,8 +69060,11 @@
       <c r="IN91" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="IO91" t="n">
+      <c r="IO91" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="IP91" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -69541,8 +69814,11 @@
       <c r="IN92" s="2" t="n">
         <v>268</v>
       </c>
-      <c r="IO92" t="n">
+      <c r="IO92" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="IP92" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -70292,8 +70568,11 @@
       <c r="IN93" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="IO93" t="n">
+      <c r="IO93" s="2" t="n">
         <v>68.09999999999999</v>
+      </c>
+      <c r="IP93" t="n">
+        <v>69.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -71043,8 +71322,11 @@
       <c r="IN94" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IO94" t="n">
+      <c r="IO94" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IP94" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -71794,7 +72076,10 @@
       <c r="IN95" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IO95" t="n">
+      <c r="IO95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IP95" t="n">
         <v>12</v>
       </c>
     </row>
@@ -72545,7 +72830,10 @@
       <c r="IN96" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IO96" t="n">
+      <c r="IO96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IP96" t="n">
         <v>12</v>
       </c>
     </row>
@@ -73296,8 +73584,11 @@
       <c r="IN97" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IO97" t="n">
+      <c r="IO97" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IP97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -74047,8 +74338,11 @@
       <c r="IN98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IO98" t="n">
+      <c r="IO98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IP98" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -74798,8 +75092,11 @@
       <c r="IN99" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="IO99" t="n">
+      <c r="IO99" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IP99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -75549,8 +75846,11 @@
       <c r="IN100" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IO100" t="n">
+      <c r="IO100" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IP100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -76300,8 +76600,11 @@
       <c r="IN101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IO101" t="n">
+      <c r="IO101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IP101" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -77051,8 +77354,11 @@
       <c r="IN102" s="2" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="IO102" t="n">
+      <c r="IO102" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="IP102" t="n">
+        <v>73.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IP102"/>
+  <dimension ref="A1:IQ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IG99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IM105" activeCellId="0" sqref="IM105"/>
@@ -1203,8 +1203,11 @@
       <c r="IO1" s="2" t="n">
         <v>10549</v>
       </c>
-      <c r="IP1" t="n">
+      <c r="IP1" s="2" t="n">
         <v>10557</v>
+      </c>
+      <c r="IQ1" t="n">
+        <v>10564</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1957,7 +1960,10 @@
       <c r="IO2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IP2" t="n">
+      <c r="IP2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IQ2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2711,8 +2717,11 @@
       <c r="IO3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IP3" t="n">
+      <c r="IP3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3465,8 +3474,11 @@
       <c r="IO4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IP4" t="n">
+      <c r="IP4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4219,8 +4231,11 @@
       <c r="IO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IP5" t="n">
+      <c r="IP5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -4973,8 +4988,11 @@
       <c r="IO6" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IP6" t="n">
+      <c r="IP6" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IQ6" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5727,8 +5745,11 @@
       <c r="IO7" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="IP7" t="n">
+      <c r="IP7" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="IQ7" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6481,8 +6502,11 @@
       <c r="IO8" s="2" t="n">
         <v>-11</v>
       </c>
-      <c r="IP8" t="n">
+      <c r="IP8" s="2" t="n">
         <v>-64</v>
+      </c>
+      <c r="IQ8" t="n">
+        <v>-4</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7235,7 +7259,10 @@
       <c r="IO9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IP9" t="n">
+      <c r="IP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7989,8 +8016,11 @@
       <c r="IO10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IP10" t="n">
+      <c r="IP10" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IQ10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8743,8 +8773,11 @@
       <c r="IO11" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="IP11" t="n">
+      <c r="IP11" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="IQ11" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9497,8 +9530,11 @@
       <c r="IO12" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="IP12" t="n">
+      <c r="IP12" s="2" t="n">
         <v>195</v>
+      </c>
+      <c r="IQ12" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10251,8 +10287,11 @@
       <c r="IO13" s="2" t="n">
         <v>357</v>
       </c>
-      <c r="IP13" t="n">
+      <c r="IP13" s="2" t="n">
         <v>416</v>
+      </c>
+      <c r="IQ13" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11005,8 +11044,11 @@
       <c r="IO14" s="2" t="n">
         <v>1.53</v>
       </c>
-      <c r="IP14" t="n">
+      <c r="IP14" s="2" t="n">
         <v>1.13</v>
+      </c>
+      <c r="IQ14" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -11759,8 +11801,11 @@
       <c r="IO15" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="IP15" t="n">
+      <c r="IP15" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="IQ15" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -12513,8 +12558,11 @@
       <c r="IO16" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IP16" t="n">
+      <c r="IP16" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="IQ16" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13267,8 +13315,11 @@
       <c r="IO17" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IP17" t="n">
+      <c r="IP17" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IQ17" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14021,8 +14072,11 @@
       <c r="IO18" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IP18" t="n">
+      <c r="IP18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IQ18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -14775,8 +14829,11 @@
       <c r="IO19" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IP19" t="n">
+      <c r="IP19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IQ19" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -15529,8 +15586,11 @@
       <c r="IO20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IP20" t="n">
+      <c r="IP20" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IQ20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -16283,8 +16343,11 @@
       <c r="IO21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IP21" t="n">
+      <c r="IP21" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IQ21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17037,8 +17100,11 @@
       <c r="IO22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IP22" t="n">
+      <c r="IP22" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IQ22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -17791,8 +17857,11 @@
       <c r="IO23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IP23" t="n">
+      <c r="IP23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -18545,8 +18614,11 @@
       <c r="IO24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IP24" t="n">
+      <c r="IP24" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IQ24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -19299,8 +19371,11 @@
       <c r="IO25" s="2" t="n">
         <v>52.6</v>
       </c>
-      <c r="IP25" t="n">
+      <c r="IP25" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IQ25" t="n">
+        <v>48.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -20053,8 +20128,11 @@
       <c r="IO26" s="2" t="n">
         <v>35.7</v>
       </c>
-      <c r="IP26" t="n">
+      <c r="IP26" s="2" t="n">
         <v>59.43</v>
+      </c>
+      <c r="IQ26" t="n">
+        <v>26.38</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -20807,8 +20885,11 @@
       <c r="IO27" s="2" t="n">
         <v>18.79</v>
       </c>
-      <c r="IP27" t="n">
+      <c r="IP27" s="2" t="n">
         <v>19.81</v>
+      </c>
+      <c r="IQ27" t="n">
+        <v>12.7</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -21561,8 +21642,11 @@
       <c r="IO28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IP28" t="n">
+      <c r="IP28" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IQ28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -22315,8 +22399,11 @@
       <c r="IO29" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IP29" t="n">
+      <c r="IP29" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IQ29" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -23069,8 +23156,11 @@
       <c r="IO30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IP30" t="n">
+      <c r="IP30" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IQ30" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -23823,8 +23913,11 @@
       <c r="IO31" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IP31" t="n">
+      <c r="IP31" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IQ31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -24577,8 +24670,11 @@
       <c r="IO32" s="2" t="n">
         <v>2.89</v>
       </c>
-      <c r="IP32" t="n">
+      <c r="IP32" s="2" t="n">
         <v>2.76</v>
+      </c>
+      <c r="IQ32" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -25331,8 +25427,11 @@
       <c r="IO33" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="IP33" t="n">
+      <c r="IP33" s="2" t="n">
         <v>8.289999999999999</v>
+      </c>
+      <c r="IQ33" t="n">
+        <v>3.69</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -26085,8 +26184,11 @@
       <c r="IO34" s="2" t="n">
         <v>32.7</v>
       </c>
-      <c r="IP34" t="n">
+      <c r="IP34" s="2" t="n">
         <v>34.5</v>
+      </c>
+      <c r="IQ34" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -26839,8 +26941,11 @@
       <c r="IO35" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="IP35" t="n">
+      <c r="IP35" s="2" t="n">
         <v>12.1</v>
+      </c>
+      <c r="IQ35" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -27593,8 +27698,11 @@
       <c r="IO36" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="IP36" t="n">
+      <c r="IP36" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="IQ36" t="n">
+        <v>187.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -28347,8 +28455,11 @@
       <c r="IO37" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="IP37" t="n">
+      <c r="IP37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="IQ37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -29101,8 +29212,11 @@
       <c r="IO38" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="IP38" t="n">
+      <c r="IP38" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="IQ38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -29855,8 +29969,11 @@
       <c r="IO39" s="2" t="n">
         <v>105.7</v>
       </c>
-      <c r="IP39" t="n">
+      <c r="IP39" s="2" t="n">
         <v>91.8</v>
+      </c>
+      <c r="IQ39" t="n">
+        <v>93.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -30609,7 +30726,10 @@
       <c r="IO40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IP40" t="n">
+      <c r="IP40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IQ40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -31363,8 +31483,11 @@
       <c r="IO41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP41" t="n">
+      <c r="IP41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IQ41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -32117,8 +32240,11 @@
       <c r="IO42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IP42" t="n">
+      <c r="IP42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -32871,7 +32997,10 @@
       <c r="IO43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IP43" t="n">
+      <c r="IP43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IQ43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33625,8 +33754,11 @@
       <c r="IO44" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="IP44" t="n">
+      <c r="IP44" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="IQ44" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -34379,8 +34511,11 @@
       <c r="IO45" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IP45" t="n">
+      <c r="IP45" s="2" t="n">
         <v>261</v>
+      </c>
+      <c r="IQ45" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -35133,8 +35268,11 @@
       <c r="IO46" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="IP46" t="n">
+      <c r="IP46" s="2" t="n">
         <v>308</v>
+      </c>
+      <c r="IQ46" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -35887,8 +36025,11 @@
       <c r="IO47" s="2" t="n">
         <v>70.3</v>
       </c>
-      <c r="IP47" t="n">
+      <c r="IP47" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="IQ47" t="n">
+        <v>72.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -36641,8 +36782,11 @@
       <c r="IO48" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IP48" t="n">
+      <c r="IP48" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IQ48" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -37395,8 +37539,11 @@
       <c r="IO49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IP49" t="n">
+      <c r="IP49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -38149,8 +38296,11 @@
       <c r="IO50" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IP50" t="n">
+      <c r="IP50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IQ50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -38903,8 +39053,11 @@
       <c r="IO51" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IP51" t="n">
+      <c r="IP51" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IQ51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -39657,8 +39810,11 @@
       <c r="IO52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IP52" t="n">
+      <c r="IP52" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IQ52" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -40411,8 +40567,11 @@
       <c r="IO53" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IP53" t="n">
+      <c r="IP53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IQ53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -41165,8 +41324,11 @@
       <c r="IO54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IP54" t="n">
+      <c r="IP54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -41919,8 +42081,11 @@
       <c r="IO55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IP55" t="n">
+      <c r="IP55" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IQ55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -42673,8 +42838,11 @@
       <c r="IO56" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IP56" t="n">
+      <c r="IP56" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="IQ56" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -43427,8 +43595,11 @@
       <c r="IO57" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IP57" t="n">
+      <c r="IP57" s="2" t="n">
         <v>201</v>
+      </c>
+      <c r="IQ57" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -44181,8 +44352,11 @@
       <c r="IO58" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="IP58" t="n">
+      <c r="IP58" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="IQ58" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -44935,8 +45109,11 @@
       <c r="IO59" s="2" t="n">
         <v>329</v>
       </c>
-      <c r="IP59" t="n">
+      <c r="IP59" s="2" t="n">
         <v>342</v>
+      </c>
+      <c r="IQ59" t="n">
+        <v>345</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -45689,8 +45866,11 @@
       <c r="IO60" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="IP60" t="n">
+      <c r="IP60" s="2" t="n">
         <v>1.43</v>
+      </c>
+      <c r="IQ60" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -46443,8 +46623,11 @@
       <c r="IO61" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="IP61" t="n">
+      <c r="IP61" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="IQ61" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -47197,8 +47380,11 @@
       <c r="IO62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IP62" t="n">
+      <c r="IP62" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IQ62" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -47951,8 +48137,11 @@
       <c r="IO63" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IP63" t="n">
+      <c r="IP63" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IQ63" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -48705,8 +48894,11 @@
       <c r="IO64" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IP64" t="n">
+      <c r="IP64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IQ64" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -49459,8 +49651,11 @@
       <c r="IO65" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IP65" t="n">
+      <c r="IP65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IQ65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -50213,8 +50408,11 @@
       <c r="IO66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IP66" t="n">
+      <c r="IP66" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IQ66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -50967,8 +51165,11 @@
       <c r="IO67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IP67" t="n">
+      <c r="IP67" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IQ67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -51721,8 +51922,11 @@
       <c r="IO68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IP68" t="n">
+      <c r="IP68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -52475,8 +52679,11 @@
       <c r="IO69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IP69" t="n">
+      <c r="IP69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -53229,8 +53436,11 @@
       <c r="IO70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IP70" t="n">
+      <c r="IP70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IQ70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -53983,8 +54193,11 @@
       <c r="IO71" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IP71" t="n">
+      <c r="IP71" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="IQ71" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -54737,8 +54950,11 @@
       <c r="IO72" s="2" t="n">
         <v>29.91</v>
       </c>
-      <c r="IP72" t="n">
+      <c r="IP72" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IQ72" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -55491,8 +55707,11 @@
       <c r="IO73" s="2" t="n">
         <v>13.16</v>
       </c>
-      <c r="IP73" t="n">
+      <c r="IP73" s="2" t="n">
         <v>13.68</v>
+      </c>
+      <c r="IQ73" t="n">
+        <v>16.43</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -56245,8 +56464,11 @@
       <c r="IO74" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IP74" t="n">
+      <c r="IP74" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IQ74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -56999,8 +57221,11 @@
       <c r="IO75" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IP75" t="n">
+      <c r="IP75" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IQ75" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -57753,8 +57978,11 @@
       <c r="IO76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IP76" t="n">
+      <c r="IP76" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IQ76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -58507,8 +58735,11 @@
       <c r="IO77" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IP77" t="n">
+      <c r="IP77" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IQ77" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -59261,8 +59492,11 @@
       <c r="IO78" s="2" t="n">
         <v>2.08</v>
       </c>
-      <c r="IP78" t="n">
+      <c r="IP78" s="2" t="n">
         <v>1.84</v>
+      </c>
+      <c r="IQ78" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -60015,8 +60249,11 @@
       <c r="IO79" s="2" t="n">
         <v>4.73</v>
       </c>
-      <c r="IP79" t="n">
+      <c r="IP79" s="2" t="n">
         <v>2.42</v>
+      </c>
+      <c r="IQ79" t="n">
+        <v>2.87</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -60769,8 +61006,11 @@
       <c r="IO80" s="2" t="n">
         <v>42.3</v>
       </c>
-      <c r="IP80" t="n">
+      <c r="IP80" s="2" t="n">
         <v>52.2</v>
+      </c>
+      <c r="IQ80" t="n">
+        <v>48.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -61523,8 +61763,11 @@
       <c r="IO81" s="2" t="n">
         <v>21.2</v>
       </c>
-      <c r="IP81" t="n">
+      <c r="IP81" s="2" t="n">
         <v>41.3</v>
+      </c>
+      <c r="IQ81" t="n">
+        <v>34.9</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -62277,8 +62520,11 @@
       <c r="IO82" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="IP82" t="n">
+      <c r="IP82" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="IQ82" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -63031,8 +63277,11 @@
       <c r="IO83" s="2" t="n">
         <v>88.7</v>
       </c>
-      <c r="IP83" t="n">
+      <c r="IP83" s="2" t="n">
         <v>85.7</v>
+      </c>
+      <c r="IQ83" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -63785,8 +64034,11 @@
       <c r="IO84" s="2" t="n">
         <v>26.58</v>
       </c>
-      <c r="IP84" t="n">
+      <c r="IP84" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="IQ84" t="n">
+        <v>23.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -64539,8 +64791,11 @@
       <c r="IO85" s="2" t="n">
         <v>109.3</v>
       </c>
-      <c r="IP85" t="n">
+      <c r="IP85" s="2" t="n">
         <v>84.5</v>
+      </c>
+      <c r="IQ85" t="n">
+        <v>59.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -65293,8 +65548,11 @@
       <c r="IO86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IP86" t="n">
+      <c r="IP86" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IQ86" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -66047,8 +66305,11 @@
       <c r="IO87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP87" t="n">
+      <c r="IP87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IQ87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -66801,8 +67062,11 @@
       <c r="IO88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IP88" t="n">
+      <c r="IP88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IQ88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -67555,8 +67819,11 @@
       <c r="IO89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IP89" t="n">
+      <c r="IP89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -68309,8 +68576,11 @@
       <c r="IO90" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="IP90" t="n">
+      <c r="IP90" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="IQ90" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -69063,8 +69333,11 @@
       <c r="IO91" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="IP91" t="n">
+      <c r="IP91" s="2" t="n">
         <v>193</v>
+      </c>
+      <c r="IQ91" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -69817,8 +70090,11 @@
       <c r="IO92" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="IP92" t="n">
+      <c r="IP92" s="2" t="n">
         <v>239</v>
+      </c>
+      <c r="IQ92" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -70571,8 +70847,11 @@
       <c r="IO93" s="2" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="IP93" t="n">
+      <c r="IP93" s="2" t="n">
         <v>69.90000000000001</v>
+      </c>
+      <c r="IQ93" t="n">
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -71325,8 +71604,11 @@
       <c r="IO94" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IP94" t="n">
+      <c r="IP94" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IQ94" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -72079,8 +72361,11 @@
       <c r="IO95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IP95" t="n">
+      <c r="IP95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IQ95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -72833,8 +73118,11 @@
       <c r="IO96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IP96" t="n">
+      <c r="IP96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IQ96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -73587,8 +73875,11 @@
       <c r="IO97" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IP97" t="n">
+      <c r="IP97" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IQ97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -74341,8 +74632,11 @@
       <c r="IO98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IP98" t="n">
+      <c r="IP98" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IQ98" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -75095,8 +75389,11 @@
       <c r="IO99" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IP99" t="n">
+      <c r="IP99" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IQ99" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -75849,8 +76146,11 @@
       <c r="IO100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IP100" t="n">
+      <c r="IP100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IQ100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -76603,8 +76903,11 @@
       <c r="IO101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IP101" t="n">
+      <c r="IP101" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IQ101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -77357,8 +77660,11 @@
       <c r="IO102" s="2" t="n">
         <v>81.8</v>
       </c>
-      <c r="IP102" t="n">
+      <c r="IP102" s="2" t="n">
         <v>73.7</v>
+      </c>
+      <c r="IQ102" t="n">
+        <v>53.3</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IQ102"/>
+  <dimension ref="A1:IR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IG99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IM105" activeCellId="0" sqref="IM105"/>
@@ -1206,8 +1206,11 @@
       <c r="IP1" s="2" t="n">
         <v>10557</v>
       </c>
-      <c r="IQ1" t="n">
+      <c r="IQ1" s="2" t="n">
         <v>10564</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>10571</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1963,7 +1966,10 @@
       <c r="IP2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IQ2" t="n">
+      <c r="IQ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IR2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2720,8 +2726,11 @@
       <c r="IP3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IQ3" t="n">
+      <c r="IQ3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3477,8 +3486,11 @@
       <c r="IP4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IQ4" t="n">
+      <c r="IQ4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4234,8 +4246,11 @@
       <c r="IP5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IQ5" t="n">
+      <c r="IQ5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IR5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -4991,8 +5006,11 @@
       <c r="IP6" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IQ6" t="n">
+      <c r="IQ6" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5748,8 +5766,11 @@
       <c r="IP7" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="IQ7" t="n">
+      <c r="IQ7" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6505,8 +6526,11 @@
       <c r="IP8" s="2" t="n">
         <v>-64</v>
       </c>
-      <c r="IQ8" t="n">
+      <c r="IQ8" s="2" t="n">
         <v>-4</v>
+      </c>
+      <c r="IR8" t="n">
+        <v>-32</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7262,7 +7286,10 @@
       <c r="IP9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IQ9" t="n">
+      <c r="IQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8019,8 +8046,11 @@
       <c r="IP10" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IQ10" t="n">
+      <c r="IQ10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8776,8 +8806,11 @@
       <c r="IP11" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="IQ11" t="n">
+      <c r="IQ11" s="2" t="n">
         <v>192</v>
+      </c>
+      <c r="IR11" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9533,8 +9566,11 @@
       <c r="IP12" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="IQ12" t="n">
+      <c r="IQ12" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="IR12" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10290,8 +10326,11 @@
       <c r="IP13" s="2" t="n">
         <v>416</v>
       </c>
-      <c r="IQ13" t="n">
+      <c r="IQ13" s="2" t="n">
         <v>343</v>
+      </c>
+      <c r="IR13" t="n">
+        <v>408</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11047,8 +11086,11 @@
       <c r="IP14" s="2" t="n">
         <v>1.13</v>
       </c>
-      <c r="IQ14" t="n">
+      <c r="IQ14" s="2" t="n">
         <v>1.27</v>
+      </c>
+      <c r="IR14" t="n">
+        <v>1.76</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -11804,8 +11846,11 @@
       <c r="IP15" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="IQ15" t="n">
+      <c r="IQ15" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="IR15" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -12561,8 +12606,11 @@
       <c r="IP16" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="IQ16" t="n">
+      <c r="IQ16" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="IR16" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13318,8 +13366,11 @@
       <c r="IP17" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IQ17" t="n">
+      <c r="IQ17" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IR17" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14075,8 +14126,11 @@
       <c r="IP18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IQ18" t="n">
+      <c r="IQ18" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IR18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -14832,8 +14886,11 @@
       <c r="IP19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IQ19" t="n">
+      <c r="IQ19" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IR19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -15589,8 +15646,11 @@
       <c r="IP20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IQ20" t="n">
+      <c r="IQ20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IR20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -16346,8 +16406,11 @@
       <c r="IP21" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IQ21" t="n">
+      <c r="IQ21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IR21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17103,7 +17166,10 @@
       <c r="IP22" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IQ22" t="n">
+      <c r="IQ22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IR22" t="n">
         <v>11</v>
       </c>
     </row>
@@ -17860,8 +17926,11 @@
       <c r="IP23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IQ23" t="n">
+      <c r="IQ23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IR23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -18617,8 +18686,11 @@
       <c r="IP24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IQ24" t="n">
+      <c r="IQ24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IR24" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -19374,8 +19446,11 @@
       <c r="IP25" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="IQ25" t="n">
+      <c r="IQ25" s="2" t="n">
         <v>48.1</v>
+      </c>
+      <c r="IR25" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -20131,8 +20206,11 @@
       <c r="IP26" s="2" t="n">
         <v>59.43</v>
       </c>
-      <c r="IQ26" t="n">
+      <c r="IQ26" s="2" t="n">
         <v>26.38</v>
+      </c>
+      <c r="IR26" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -20888,8 +20966,11 @@
       <c r="IP27" s="2" t="n">
         <v>19.81</v>
       </c>
-      <c r="IQ27" t="n">
+      <c r="IQ27" s="2" t="n">
         <v>12.7</v>
+      </c>
+      <c r="IR27" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -21645,8 +21726,11 @@
       <c r="IP28" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IQ28" t="n">
+      <c r="IQ28" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IR28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -22402,8 +22486,11 @@
       <c r="IP29" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IQ29" t="n">
+      <c r="IQ29" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IR29" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -23159,8 +23246,11 @@
       <c r="IP30" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IQ30" t="n">
+      <c r="IQ30" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IR30" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -23916,7 +24006,10 @@
       <c r="IP31" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IQ31" t="n">
+      <c r="IQ31" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IR31" t="n">
         <v>48</v>
       </c>
     </row>
@@ -24673,8 +24766,11 @@
       <c r="IP32" s="2" t="n">
         <v>2.76</v>
       </c>
-      <c r="IQ32" t="n">
+      <c r="IQ32" s="2" t="n">
         <v>1.78</v>
+      </c>
+      <c r="IR32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -25430,8 +25526,11 @@
       <c r="IP33" s="2" t="n">
         <v>8.289999999999999</v>
       </c>
-      <c r="IQ33" t="n">
+      <c r="IQ33" s="2" t="n">
         <v>3.69</v>
+      </c>
+      <c r="IR33" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -26187,8 +26286,11 @@
       <c r="IP34" s="2" t="n">
         <v>34.5</v>
       </c>
-      <c r="IQ34" t="n">
+      <c r="IQ34" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IR34" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -26944,8 +27046,11 @@
       <c r="IP35" s="2" t="n">
         <v>12.1</v>
       </c>
-      <c r="IQ35" t="n">
+      <c r="IQ35" s="2" t="n">
         <v>27.1</v>
+      </c>
+      <c r="IR35" t="n">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -27701,8 +27806,11 @@
       <c r="IP36" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="IQ36" t="n">
+      <c r="IQ36" s="2" t="n">
         <v>187.1</v>
+      </c>
+      <c r="IR36" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -28458,8 +28566,11 @@
       <c r="IP37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="IQ37" t="n">
+      <c r="IQ37" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="IR37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -29215,7 +29326,10 @@
       <c r="IP38" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="IQ38" t="n">
+      <c r="IQ38" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IR38" t="n">
         <v>25.33</v>
       </c>
     </row>
@@ -29972,8 +30086,11 @@
       <c r="IP39" s="2" t="n">
         <v>91.8</v>
       </c>
-      <c r="IQ39" t="n">
+      <c r="IQ39" s="2" t="n">
         <v>93.09999999999999</v>
+      </c>
+      <c r="IR39" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -30729,8 +30846,11 @@
       <c r="IP40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IQ40" t="n">
+      <c r="IQ40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IR40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -31486,7 +31606,10 @@
       <c r="IP41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IQ41" t="n">
+      <c r="IQ41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -32243,8 +32366,11 @@
       <c r="IP42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IQ42" t="n">
+      <c r="IQ42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IR42" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -33000,7 +33126,10 @@
       <c r="IP43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IQ43" t="n">
+      <c r="IQ43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IR43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33757,8 +33886,11 @@
       <c r="IP44" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="IQ44" t="n">
+      <c r="IQ44" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="IR44" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -34514,8 +34646,11 @@
       <c r="IP45" s="2" t="n">
         <v>261</v>
       </c>
-      <c r="IQ45" t="n">
+      <c r="IQ45" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="IR45" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -35271,8 +35406,11 @@
       <c r="IP46" s="2" t="n">
         <v>308</v>
       </c>
-      <c r="IQ46" t="n">
+      <c r="IQ46" s="2" t="n">
         <v>249</v>
+      </c>
+      <c r="IR46" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -36028,8 +36166,11 @@
       <c r="IP47" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="IQ47" t="n">
+      <c r="IQ47" s="2" t="n">
         <v>72.59999999999999</v>
+      </c>
+      <c r="IR47" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -36785,8 +36926,11 @@
       <c r="IP48" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IQ48" t="n">
+      <c r="IQ48" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IR48" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -37542,8 +37686,11 @@
       <c r="IP49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IQ49" t="n">
+      <c r="IQ49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IR49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -38299,8 +38446,11 @@
       <c r="IP50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IQ50" t="n">
+      <c r="IQ50" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IR50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -39056,8 +39206,11 @@
       <c r="IP51" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IQ51" t="n">
+      <c r="IQ51" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IR51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -39813,8 +39966,11 @@
       <c r="IP52" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IQ52" t="n">
+      <c r="IQ52" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IR52" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -40570,8 +40726,11 @@
       <c r="IP53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IQ53" t="n">
+      <c r="IQ53" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IR53" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -41327,8 +41486,11 @@
       <c r="IP54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IQ54" t="n">
+      <c r="IQ54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IR54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -42084,8 +42246,11 @@
       <c r="IP55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IQ55" t="n">
+      <c r="IQ55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IR55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -42841,8 +43006,11 @@
       <c r="IP56" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="IQ56" t="n">
+      <c r="IQ56" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="IR56" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -43598,8 +43766,11 @@
       <c r="IP57" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="IQ57" t="n">
+      <c r="IQ57" s="2" t="n">
         <v>192</v>
+      </c>
+      <c r="IR57" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -44355,8 +44526,11 @@
       <c r="IP58" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="IQ58" t="n">
+      <c r="IQ58" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="IR58" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -45112,8 +45286,11 @@
       <c r="IP59" s="2" t="n">
         <v>342</v>
       </c>
-      <c r="IQ59" t="n">
+      <c r="IQ59" s="2" t="n">
         <v>345</v>
+      </c>
+      <c r="IR59" t="n">
+        <v>354</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -45869,7 +46046,10 @@
       <c r="IP60" s="2" t="n">
         <v>1.43</v>
       </c>
-      <c r="IQ60" t="n">
+      <c r="IQ60" s="2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="IR60" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -46626,8 +46806,11 @@
       <c r="IP61" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="IQ61" t="n">
+      <c r="IQ61" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="IR61" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -47383,8 +47566,11 @@
       <c r="IP62" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IQ62" t="n">
+      <c r="IQ62" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IR62" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -48140,8 +48326,11 @@
       <c r="IP63" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IQ63" t="n">
+      <c r="IQ63" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IR63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -48897,8 +49086,11 @@
       <c r="IP64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IQ64" t="n">
+      <c r="IQ64" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IR64" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -49654,8 +49846,11 @@
       <c r="IP65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IQ65" t="n">
+      <c r="IQ65" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IR65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -50411,8 +50606,11 @@
       <c r="IP66" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IQ66" t="n">
+      <c r="IQ66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IR66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -51168,8 +51366,11 @@
       <c r="IP67" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IQ67" t="n">
+      <c r="IQ67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IR67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -51925,7 +52126,10 @@
       <c r="IP68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IQ68" t="n">
+      <c r="IQ68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR68" t="n">
         <v>6</v>
       </c>
     </row>
@@ -52682,8 +52886,11 @@
       <c r="IP69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IQ69" t="n">
+      <c r="IQ69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IR69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -53439,8 +53646,11 @@
       <c r="IP70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IQ70" t="n">
+      <c r="IQ70" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IR70" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -54196,8 +54406,11 @@
       <c r="IP71" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="IQ71" t="n">
+      <c r="IQ71" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="IR71" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -54953,8 +55166,11 @@
       <c r="IP72" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IQ72" t="n">
+      <c r="IQ72" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IR72" t="n">
+        <v>35.4</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -55710,8 +55926,11 @@
       <c r="IP73" s="2" t="n">
         <v>13.68</v>
       </c>
-      <c r="IQ73" t="n">
+      <c r="IQ73" s="2" t="n">
         <v>16.43</v>
+      </c>
+      <c r="IR73" t="n">
+        <v>19.67</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -56467,8 +56686,11 @@
       <c r="IP74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IQ74" t="n">
+      <c r="IQ74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IR74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -57224,8 +57446,11 @@
       <c r="IP75" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IQ75" t="n">
+      <c r="IQ75" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IR75" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -57981,8 +58206,11 @@
       <c r="IP76" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IQ76" t="n">
+      <c r="IQ76" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IR76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -58738,8 +58966,11 @@
       <c r="IP77" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IQ77" t="n">
+      <c r="IQ77" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IR77" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -59495,8 +59726,11 @@
       <c r="IP78" s="2" t="n">
         <v>1.84</v>
       </c>
-      <c r="IQ78" t="n">
+      <c r="IQ78" s="2" t="n">
         <v>2.05</v>
+      </c>
+      <c r="IR78" t="n">
+        <v>3.06</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -60252,8 +60486,11 @@
       <c r="IP79" s="2" t="n">
         <v>2.42</v>
       </c>
-      <c r="IQ79" t="n">
+      <c r="IQ79" s="2" t="n">
         <v>2.87</v>
+      </c>
+      <c r="IR79" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -61009,8 +61246,11 @@
       <c r="IP80" s="2" t="n">
         <v>52.2</v>
       </c>
-      <c r="IQ80" t="n">
+      <c r="IQ80" s="2" t="n">
         <v>48.8</v>
+      </c>
+      <c r="IR80" t="n">
+        <v>29.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -61766,8 +62006,11 @@
       <c r="IP81" s="2" t="n">
         <v>41.3</v>
       </c>
-      <c r="IQ81" t="n">
+      <c r="IQ81" s="2" t="n">
         <v>34.9</v>
+      </c>
+      <c r="IR81" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -62523,8 +62766,11 @@
       <c r="IP82" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="IQ82" t="n">
+      <c r="IQ82" s="2" t="n">
         <v>187</v>
+      </c>
+      <c r="IR82" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -63280,8 +63526,11 @@
       <c r="IP83" s="2" t="n">
         <v>85.7</v>
       </c>
-      <c r="IQ83" t="n">
+      <c r="IQ83" s="2" t="n">
         <v>86.2</v>
+      </c>
+      <c r="IR83" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -64037,8 +64286,11 @@
       <c r="IP84" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="IQ84" t="n">
+      <c r="IQ84" s="2" t="n">
         <v>23.91</v>
+      </c>
+      <c r="IR84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -64794,8 +65046,11 @@
       <c r="IP85" s="2" t="n">
         <v>84.5</v>
       </c>
-      <c r="IQ85" t="n">
+      <c r="IQ85" s="2" t="n">
         <v>59.2</v>
+      </c>
+      <c r="IR85" t="n">
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -65551,8 +65806,11 @@
       <c r="IP86" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IQ86" t="n">
+      <c r="IQ86" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IR86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -66308,8 +66566,11 @@
       <c r="IP87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IQ87" t="n">
+      <c r="IQ87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IR87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -67065,8 +67326,11 @@
       <c r="IP88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IQ88" t="n">
+      <c r="IQ88" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IR88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -67822,8 +68086,11 @@
       <c r="IP89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IQ89" t="n">
+      <c r="IQ89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IR89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -68579,8 +68846,11 @@
       <c r="IP90" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="IQ90" t="n">
+      <c r="IQ90" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="IR90" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -69336,8 +69606,11 @@
       <c r="IP91" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="IQ91" t="n">
+      <c r="IQ91" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="IR91" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -70093,8 +70366,11 @@
       <c r="IP92" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="IQ92" t="n">
+      <c r="IQ92" s="2" t="n">
         <v>248</v>
+      </c>
+      <c r="IR92" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -70850,8 +71126,11 @@
       <c r="IP93" s="2" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="IQ93" t="n">
+      <c r="IQ93" s="2" t="n">
         <v>71.90000000000001</v>
+      </c>
+      <c r="IR93" t="n">
+        <v>69.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -71607,8 +71886,11 @@
       <c r="IP94" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IQ94" t="n">
+      <c r="IQ94" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IR94" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -72364,8 +72646,11 @@
       <c r="IP95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IQ95" t="n">
+      <c r="IQ95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IR95" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -73121,8 +73406,11 @@
       <c r="IP96" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IQ96" t="n">
+      <c r="IQ96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IR96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -73878,8 +74166,11 @@
       <c r="IP97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IQ97" t="n">
+      <c r="IQ97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IR97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -74635,8 +74926,11 @@
       <c r="IP98" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IQ98" t="n">
+      <c r="IQ98" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IR98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -75392,8 +75686,11 @@
       <c r="IP99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IQ99" t="n">
+      <c r="IQ99" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IR99" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -76149,8 +76446,11 @@
       <c r="IP100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IQ100" t="n">
+      <c r="IQ100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IR100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -76906,8 +77206,11 @@
       <c r="IP101" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IQ101" t="n">
+      <c r="IQ101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IR101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -77663,8 +77966,11 @@
       <c r="IP102" s="2" t="n">
         <v>73.7</v>
       </c>
-      <c r="IQ102" t="n">
+      <c r="IQ102" s="2" t="n">
         <v>53.3</v>
+      </c>
+      <c r="IR102" t="n">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IS102"/>
+  <dimension ref="A1:IT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IG99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IM105" activeCellId="0" sqref="IM105"/>
@@ -1212,8 +1212,11 @@
       <c r="IR1" s="2" t="n">
         <v>10571</v>
       </c>
-      <c r="IS1" t="n">
+      <c r="IS1" s="2" t="n">
         <v>10586</v>
+      </c>
+      <c r="IT1" t="n">
+        <v>10591</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1975,7 +1978,10 @@
       <c r="IR2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IS2" t="n">
+      <c r="IS2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IT2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2738,8 +2744,11 @@
       <c r="IR3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS3" t="n">
+      <c r="IS3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3501,8 +3510,11 @@
       <c r="IR4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IS4" t="n">
+      <c r="IS4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4264,7 +4276,10 @@
       <c r="IR5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IS5" t="n">
+      <c r="IS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5027,8 +5042,11 @@
       <c r="IR6" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IS6" t="n">
+      <c r="IS6" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5790,8 +5808,11 @@
       <c r="IR7" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IS7" t="n">
+      <c r="IS7" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6553,8 +6574,11 @@
       <c r="IR8" s="2" t="n">
         <v>-32</v>
       </c>
-      <c r="IS8" t="n">
+      <c r="IS8" s="2" t="n">
         <v>-3</v>
+      </c>
+      <c r="IT8" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7316,8 +7340,11 @@
       <c r="IR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IS9" t="n">
+      <c r="IS9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IT9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8079,8 +8106,11 @@
       <c r="IR10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IS10" t="n">
+      <c r="IS10" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8842,8 +8872,11 @@
       <c r="IR11" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="IS11" t="n">
+      <c r="IS11" s="2" t="n">
         <v>239</v>
+      </c>
+      <c r="IT11" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9605,8 +9638,11 @@
       <c r="IR12" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="IS12" t="n">
+      <c r="IS12" s="2" t="n">
         <v>117</v>
+      </c>
+      <c r="IT12" t="n">
+        <v>172</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10368,8 +10404,11 @@
       <c r="IR13" s="2" t="n">
         <v>408</v>
       </c>
-      <c r="IS13" t="n">
+      <c r="IS13" s="2" t="n">
         <v>356</v>
+      </c>
+      <c r="IT13" t="n">
+        <v>403</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11131,8 +11170,11 @@
       <c r="IR14" s="2" t="n">
         <v>1.76</v>
       </c>
-      <c r="IS14" t="n">
+      <c r="IS14" s="2" t="n">
         <v>2.04</v>
+      </c>
+      <c r="IT14" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -11894,8 +11936,11 @@
       <c r="IR15" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="IS15" t="n">
+      <c r="IS15" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="IT15" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -12657,8 +12702,11 @@
       <c r="IR16" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IS16" t="n">
+      <c r="IS16" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IT16" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13420,8 +13468,11 @@
       <c r="IR17" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IS17" t="n">
+      <c r="IS17" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IT17" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14183,8 +14234,11 @@
       <c r="IR18" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IS18" t="n">
+      <c r="IS18" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IT18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -14946,8 +15000,11 @@
       <c r="IR19" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IS19" t="n">
+      <c r="IS19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IT19" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -15709,8 +15766,11 @@
       <c r="IR20" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS20" t="n">
+      <c r="IS20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IT20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -16472,8 +16532,11 @@
       <c r="IR21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IS21" t="n">
+      <c r="IS21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IT21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17235,8 +17298,11 @@
       <c r="IR22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IS22" t="n">
+      <c r="IS22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IT22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -17998,8 +18064,11 @@
       <c r="IR23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IS23" t="n">
+      <c r="IS23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IT23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -18761,8 +18830,11 @@
       <c r="IR24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IS24" t="n">
+      <c r="IS24" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IT24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -19524,8 +19596,11 @@
       <c r="IR25" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IS25" t="n">
+      <c r="IS25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IT25" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -20287,8 +20362,11 @@
       <c r="IR26" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="IS26" t="n">
+      <c r="IS26" s="2" t="n">
         <v>27.38</v>
+      </c>
+      <c r="IT26" t="n">
+        <v>22.39</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21050,8 +21128,11 @@
       <c r="IR27" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="IS27" t="n">
+      <c r="IS27" s="2" t="n">
         <v>13.69</v>
+      </c>
+      <c r="IT27" t="n">
+        <v>14.93</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -21813,8 +21894,11 @@
       <c r="IR28" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IS28" t="n">
+      <c r="IS28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IT28" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -22576,8 +22660,11 @@
       <c r="IR29" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IS29" t="n">
+      <c r="IS29" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IT29" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -23339,8 +23426,11 @@
       <c r="IR30" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IS30" t="n">
+      <c r="IS30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IT30" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -24102,8 +24192,11 @@
       <c r="IR31" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IS31" t="n">
+      <c r="IS31" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IT31" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -24865,8 +24958,11 @@
       <c r="IR32" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IS32" t="n">
+      <c r="IS32" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="IT32" t="n">
+        <v>2.41</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -25628,8 +25724,11 @@
       <c r="IR33" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IS33" t="n">
+      <c r="IS33" s="2" t="n">
         <v>3.62</v>
+      </c>
+      <c r="IT33" t="n">
+        <v>3.61</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -26391,8 +26490,11 @@
       <c r="IR34" s="2" t="n">
         <v>31.2</v>
       </c>
-      <c r="IS34" t="n">
+      <c r="IS34" s="2" t="n">
         <v>46.8</v>
+      </c>
+      <c r="IT34" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -27154,7 +27256,10 @@
       <c r="IR35" s="2" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="IS35" t="n">
+      <c r="IS35" s="2" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="IT35" t="n">
         <v>27.7</v>
       </c>
     </row>
@@ -27917,8 +28022,11 @@
       <c r="IR36" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="IS36" t="n">
+      <c r="IS36" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="IT36" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -28680,8 +28788,11 @@
       <c r="IR37" s="2" t="n">
         <v>86.5</v>
       </c>
-      <c r="IS37" t="n">
+      <c r="IS37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="IT37" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -29443,8 +29554,11 @@
       <c r="IR38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="IS38" t="n">
+      <c r="IS38" s="2" t="n">
         <v>25.74</v>
+      </c>
+      <c r="IT38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -30206,8 +30320,11 @@
       <c r="IR39" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="IS39" t="n">
+      <c r="IS39" s="2" t="n">
         <v>101.8</v>
+      </c>
+      <c r="IT39" t="n">
+        <v>107.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -30969,7 +31086,10 @@
       <c r="IR40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IS40" t="n">
+      <c r="IS40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IT40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -31732,7 +31852,10 @@
       <c r="IR41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IS41" t="n">
+      <c r="IS41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IT41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -32495,7 +32618,10 @@
       <c r="IR42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IS42" t="n">
+      <c r="IS42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -33258,8 +33384,11 @@
       <c r="IR43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS43" t="n">
+      <c r="IS43" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IT43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -34021,8 +34150,11 @@
       <c r="IR44" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="IS44" t="n">
+      <c r="IS44" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="IT44" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -34784,8 +34916,11 @@
       <c r="IR45" s="2" t="n">
         <v>280</v>
       </c>
-      <c r="IS45" t="n">
+      <c r="IS45" s="2" t="n">
         <v>240</v>
+      </c>
+      <c r="IT45" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -35547,8 +35682,11 @@
       <c r="IR46" s="2" t="n">
         <v>288</v>
       </c>
-      <c r="IS46" t="n">
+      <c r="IS46" s="2" t="n">
         <v>271</v>
+      </c>
+      <c r="IT46" t="n">
+        <v>306</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -36310,8 +36448,11 @@
       <c r="IR47" s="2" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="IS47" t="n">
+      <c r="IS47" s="2" t="n">
         <v>76.09999999999999</v>
+      </c>
+      <c r="IT47" t="n">
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -37073,8 +37214,11 @@
       <c r="IR48" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IS48" t="n">
+      <c r="IS48" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IT48" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -37836,8 +37980,11 @@
       <c r="IR49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IS49" t="n">
+      <c r="IS49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IT49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -38599,8 +38746,11 @@
       <c r="IR50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IS50" t="n">
+      <c r="IS50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IT50" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -39362,8 +39512,11 @@
       <c r="IR51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IS51" t="n">
+      <c r="IS51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IT51" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -40125,8 +40278,11 @@
       <c r="IR52" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IS52" t="n">
+      <c r="IS52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IT52" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -40888,8 +41044,11 @@
       <c r="IR53" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IS53" t="n">
+      <c r="IS53" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IT53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -41651,8 +41810,11 @@
       <c r="IR54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS54" t="n">
+      <c r="IS54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IT54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -42414,8 +42576,11 @@
       <c r="IR55" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IS55" t="n">
+      <c r="IS55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IT55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -43177,8 +43342,11 @@
       <c r="IR56" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IS56" t="n">
+      <c r="IS56" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="IT56" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -43940,8 +44108,11 @@
       <c r="IR57" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="IS57" t="n">
+      <c r="IS57" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="IT57" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -44703,8 +44874,11 @@
       <c r="IR58" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="IS58" t="n">
+      <c r="IS58" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="IT58" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -45466,8 +45640,11 @@
       <c r="IR59" s="2" t="n">
         <v>354</v>
       </c>
-      <c r="IS59" t="n">
+      <c r="IS59" s="2" t="n">
         <v>404</v>
+      </c>
+      <c r="IT59" t="n">
+        <v>327</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -46229,8 +46406,11 @@
       <c r="IR60" s="2" t="n">
         <v>1.25</v>
       </c>
-      <c r="IS60" t="n">
+      <c r="IS60" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IT60" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -46992,8 +47172,11 @@
       <c r="IR61" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="IS61" t="n">
+      <c r="IS61" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="IT61" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -47755,8 +47938,11 @@
       <c r="IR62" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IS62" t="n">
+      <c r="IS62" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IT62" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -48518,8 +48704,11 @@
       <c r="IR63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IS63" t="n">
+      <c r="IS63" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IT63" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -49281,8 +49470,11 @@
       <c r="IR64" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IS64" t="n">
+      <c r="IS64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IT64" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -50044,8 +50236,11 @@
       <c r="IR65" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IS65" t="n">
+      <c r="IS65" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IT65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -50807,8 +51002,11 @@
       <c r="IR66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IS66" t="n">
+      <c r="IS66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IT66" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -51570,8 +51768,11 @@
       <c r="IR67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IS67" t="n">
+      <c r="IS67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IT67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -52333,8 +52534,11 @@
       <c r="IR68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IS68" t="n">
+      <c r="IS68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IT68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -53096,8 +53300,11 @@
       <c r="IR69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IS69" t="n">
+      <c r="IS69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IT69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -53859,8 +54066,11 @@
       <c r="IR70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IS70" t="n">
+      <c r="IS70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IT70" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -54622,8 +54832,11 @@
       <c r="IR71" s="2" t="n">
         <v>55.6</v>
       </c>
-      <c r="IS71" t="n">
+      <c r="IS71" s="2" t="n">
         <v>58.3</v>
+      </c>
+      <c r="IT71" t="n">
+        <v>30.8</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -55385,8 +55598,11 @@
       <c r="IR72" s="2" t="n">
         <v>35.4</v>
       </c>
-      <c r="IS72" t="n">
+      <c r="IS72" s="2" t="n">
         <v>28.86</v>
+      </c>
+      <c r="IT72" t="n">
+        <v>81.75</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -56148,8 +56364,11 @@
       <c r="IR73" s="2" t="n">
         <v>19.67</v>
       </c>
-      <c r="IS73" t="n">
+      <c r="IS73" s="2" t="n">
         <v>16.83</v>
+      </c>
+      <c r="IT73" t="n">
+        <v>25.15</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -56911,8 +57130,11 @@
       <c r="IR74" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IS74" t="n">
+      <c r="IS74" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IT74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -57674,8 +57896,11 @@
       <c r="IR75" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IS75" t="n">
+      <c r="IS75" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IT75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -58437,8 +58662,11 @@
       <c r="IR76" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IS76" t="n">
+      <c r="IS76" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IT76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -59200,8 +59428,11 @@
       <c r="IR77" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IS77" t="n">
+      <c r="IS77" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IT77" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -59963,8 +60194,11 @@
       <c r="IR78" s="2" t="n">
         <v>3.06</v>
       </c>
-      <c r="IS78" t="n">
+      <c r="IS78" s="2" t="n">
         <v>2.08</v>
+      </c>
+      <c r="IT78" t="n">
+        <v>2.62</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -60726,8 +60960,11 @@
       <c r="IR79" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="IS79" t="n">
+      <c r="IS79" s="2" t="n">
         <v>3.57</v>
+      </c>
+      <c r="IT79" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -61489,8 +61726,11 @@
       <c r="IR80" s="2" t="n">
         <v>29.1</v>
       </c>
-      <c r="IS80" t="n">
+      <c r="IS80" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IT80" t="n">
+        <v>35.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -62252,8 +62492,11 @@
       <c r="IR81" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="IS81" t="n">
+      <c r="IS81" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IT81" t="n">
+        <v>11.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -63015,8 +63258,11 @@
       <c r="IR82" s="2" t="n">
         <v>187.2</v>
       </c>
-      <c r="IS82" t="n">
+      <c r="IS82" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="IT82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -63778,8 +64024,11 @@
       <c r="IR83" s="2" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="IS83" t="n">
+      <c r="IS83" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="IT83" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -64541,8 +64790,11 @@
       <c r="IR84" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="IS84" t="n">
+      <c r="IS84" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="IT84" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -65304,8 +65556,11 @@
       <c r="IR85" s="2" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="IS85" t="n">
+      <c r="IS85" s="2" t="n">
         <v>77.40000000000001</v>
+      </c>
+      <c r="IT85" t="n">
+        <v>107.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -66067,8 +66322,11 @@
       <c r="IR86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IS86" t="n">
+      <c r="IS86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IT86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -66830,8 +67088,11 @@
       <c r="IR87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS87" t="n">
+      <c r="IS87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IT87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -67593,8 +67854,11 @@
       <c r="IR88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IS88" t="n">
+      <c r="IS88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IT88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -68356,8 +68620,11 @@
       <c r="IR89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IS89" t="n">
+      <c r="IS89" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IT89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -69119,8 +69386,11 @@
       <c r="IR90" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="IS90" t="n">
+      <c r="IS90" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="IT90" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -69882,8 +70152,11 @@
       <c r="IR91" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IS91" t="n">
+      <c r="IS91" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="IT91" t="n">
+        <v>202</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -70645,8 +70918,11 @@
       <c r="IR92" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="IS92" t="n">
+      <c r="IS92" s="2" t="n">
         <v>304</v>
+      </c>
+      <c r="IT92" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -71408,8 +71684,11 @@
       <c r="IR93" s="2" t="n">
         <v>69.8</v>
       </c>
-      <c r="IS93" t="n">
+      <c r="IS93" s="2" t="n">
         <v>75.2</v>
+      </c>
+      <c r="IT93" t="n">
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -72171,8 +72450,11 @@
       <c r="IR94" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IS94" t="n">
+      <c r="IS94" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IT94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -72934,8 +73216,11 @@
       <c r="IR95" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IS95" t="n">
+      <c r="IS95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IT95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -73697,8 +73982,11 @@
       <c r="IR96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IS96" t="n">
+      <c r="IS96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IT96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -74460,8 +74748,11 @@
       <c r="IR97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IS97" t="n">
+      <c r="IS97" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IT97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -75223,8 +75514,11 @@
       <c r="IR98" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IS98" t="n">
+      <c r="IS98" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IT98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -75986,8 +76280,11 @@
       <c r="IR99" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IS99" t="n">
+      <c r="IS99" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IT99" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -76749,8 +77046,11 @@
       <c r="IR100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IS100" t="n">
+      <c r="IS100" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IT100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -77512,8 +77812,11 @@
       <c r="IR101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IS101" t="n">
+      <c r="IS101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IT101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -78275,8 +78578,11 @@
       <c r="IR102" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IS102" t="n">
+      <c r="IS102" s="2" t="n">
         <v>64.3</v>
+      </c>
+      <c r="IT102" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IV102"/>
+  <dimension ref="A1:IX102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IG99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IM105" activeCellId="0" sqref="IM105"/>
@@ -1221,8 +1221,14 @@
       <c r="IU1" s="2" t="n">
         <v>10602</v>
       </c>
-      <c r="IV1" t="n">
+      <c r="IV1" s="2" t="n">
         <v>10607</v>
+      </c>
+      <c r="IW1" s="2" t="n">
+        <v>10618</v>
+      </c>
+      <c r="IX1" t="n">
+        <v>10626</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1993,7 +1999,13 @@
       <c r="IU2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IV2" t="n">
+      <c r="IV2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IW2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IX2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2765,8 +2777,14 @@
       <c r="IU3" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IV3" t="n">
+      <c r="IV3" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IW3" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3537,8 +3555,14 @@
       <c r="IU4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IV4" t="n">
+      <c r="IV4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IW4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4309,7 +4333,13 @@
       <c r="IU5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IV5" t="n">
+      <c r="IV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5081,8 +5111,14 @@
       <c r="IU6" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IV6" t="n">
+      <c r="IV6" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="IW6" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="IX6" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5853,8 +5889,14 @@
       <c r="IU7" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IV7" t="n">
+      <c r="IV7" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IW7" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="IX7" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6625,8 +6667,14 @@
       <c r="IU8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IV8" t="n">
+      <c r="IV8" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IW8" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="IX8" t="n">
+        <v>-35</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7397,8 +7445,14 @@
       <c r="IU9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IV9" t="n">
+      <c r="IV9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IW9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8169,8 +8223,14 @@
       <c r="IU10" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IV10" t="n">
+      <c r="IV10" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IW10" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IX10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8941,8 +9001,14 @@
       <c r="IU11" s="2" t="n">
         <v>245</v>
       </c>
-      <c r="IV11" t="n">
+      <c r="IV11" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="IW11" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="IX11" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9713,8 +9779,14 @@
       <c r="IU12" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="IV12" t="n">
+      <c r="IV12" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="IW12" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="IX12" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10485,8 +10557,14 @@
       <c r="IU13" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="IV13" t="n">
+      <c r="IV13" s="2" t="n">
         <v>333</v>
+      </c>
+      <c r="IW13" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="IX13" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11257,8 +11335,14 @@
       <c r="IU14" s="2" t="n">
         <v>1.88</v>
       </c>
-      <c r="IV14" t="n">
+      <c r="IV14" s="2" t="n">
         <v>1.62</v>
+      </c>
+      <c r="IW14" s="2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="IX14" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12029,8 +12113,14 @@
       <c r="IU15" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="IV15" t="n">
+      <c r="IV15" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="IW15" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="IX15" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -12801,8 +12891,14 @@
       <c r="IU16" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IV16" t="n">
+      <c r="IV16" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IW16" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IX16" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13573,7 +13669,13 @@
       <c r="IU17" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IV17" t="n">
+      <c r="IV17" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IW17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IX17" t="n">
         <v>40</v>
       </c>
     </row>
@@ -14345,8 +14447,14 @@
       <c r="IU18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IV18" t="n">
+      <c r="IV18" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IW18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IX18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15117,8 +15225,14 @@
       <c r="IU19" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IV19" t="n">
+      <c r="IV19" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IW19" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IX19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -15889,8 +16003,14 @@
       <c r="IU20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IV20" t="n">
+      <c r="IV20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IW20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IX20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -16661,8 +16781,14 @@
       <c r="IU21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IV21" t="n">
+      <c r="IV21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IW21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IX21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17433,8 +17559,14 @@
       <c r="IU22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IV22" t="n">
+      <c r="IV22" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IW22" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IX22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18205,8 +18337,14 @@
       <c r="IU23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IV23" t="n">
+      <c r="IV23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IW23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -18977,8 +19115,14 @@
       <c r="IU24" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IV24" t="n">
+      <c r="IV24" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IW24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IX24" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -19749,8 +19893,14 @@
       <c r="IU25" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="IV25" t="n">
+      <c r="IV25" s="2" t="n">
         <v>46.2</v>
+      </c>
+      <c r="IW25" s="2" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="IX25" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -20521,8 +20671,14 @@
       <c r="IU26" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IV26" t="n">
+      <c r="IV26" s="2" t="n">
         <v>27.75</v>
+      </c>
+      <c r="IW26" s="2" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="IX26" t="n">
+        <v>53.57</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21293,8 +21449,14 @@
       <c r="IU27" s="2" t="n">
         <v>20.83</v>
       </c>
-      <c r="IV27" t="n">
+      <c r="IV27" s="2" t="n">
         <v>12.81</v>
+      </c>
+      <c r="IW27" s="2" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="IX27" t="n">
+        <v>31.25</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22065,8 +22227,14 @@
       <c r="IU28" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IV28" t="n">
+      <c r="IV28" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IW28" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="IX28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -22837,8 +23005,14 @@
       <c r="IU29" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IV29" t="n">
+      <c r="IV29" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IW29" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="IX29" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -23609,8 +23783,14 @@
       <c r="IU30" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IV30" t="n">
+      <c r="IV30" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IW30" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IX30" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -24381,8 +24561,14 @@
       <c r="IU31" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IV31" t="n">
+      <c r="IV31" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IW31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IX31" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -25153,8 +25339,14 @@
       <c r="IU32" s="2" t="n">
         <v>3.11</v>
       </c>
-      <c r="IV32" t="n">
+      <c r="IV32" s="2" t="n">
         <v>1.69</v>
+      </c>
+      <c r="IW32" s="2" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="IX32" t="n">
+        <v>3.58</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -25925,8 +26117,14 @@
       <c r="IU33" s="2" t="n">
         <v>11.2</v>
       </c>
-      <c r="IV33" t="n">
+      <c r="IV33" s="2" t="n">
         <v>3.67</v>
+      </c>
+      <c r="IW33" s="2" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="IX33" t="n">
+        <v>6.14</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -26697,8 +26895,14 @@
       <c r="IU34" s="2" t="n">
         <v>28.6</v>
       </c>
-      <c r="IV34" t="n">
+      <c r="IV34" s="2" t="n">
         <v>56.8</v>
+      </c>
+      <c r="IW34" s="2" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="IX34" t="n">
+        <v>27.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -27469,8 +27673,14 @@
       <c r="IU35" s="2" t="n">
         <v>8.9</v>
       </c>
-      <c r="IV35" t="n">
+      <c r="IV35" s="2" t="n">
         <v>27.3</v>
+      </c>
+      <c r="IW35" s="2" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="IX35" t="n">
+        <v>16.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -28241,8 +28451,14 @@
       <c r="IU36" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="IV36" t="n">
+      <c r="IV36" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="IW36" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="IX36" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -29013,8 +29229,14 @@
       <c r="IU37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="IV37" t="n">
+      <c r="IV37" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="IW37" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="IX37" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -29785,7 +30007,13 @@
       <c r="IU38" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="IV38" t="n">
+      <c r="IV38" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="IW38" s="2" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="IX38" t="n">
         <v>25.91</v>
       </c>
     </row>
@@ -30557,8 +30785,14 @@
       <c r="IU39" s="2" t="n">
         <v>109.7</v>
       </c>
-      <c r="IV39" t="n">
+      <c r="IV39" s="2" t="n">
         <v>109.7</v>
+      </c>
+      <c r="IW39" s="2" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="IX39" t="n">
+        <v>108.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -31329,8 +31563,14 @@
       <c r="IU40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IV40" t="n">
+      <c r="IV40" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IW40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -32101,8 +32341,14 @@
       <c r="IU41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IV41" t="n">
+      <c r="IV41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IW41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -32873,7 +33119,13 @@
       <c r="IU42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IV42" t="n">
+      <c r="IV42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IW42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX42" t="n">
         <v>7</v>
       </c>
     </row>
@@ -33645,7 +33897,13 @@
       <c r="IU43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IV43" t="n">
+      <c r="IV43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34417,8 +34675,14 @@
       <c r="IU44" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="IV44" t="n">
+      <c r="IV44" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="IW44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="IX44" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -35189,8 +35453,14 @@
       <c r="IU45" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="IV45" t="n">
+      <c r="IV45" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="IW45" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="IX45" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -35961,8 +36231,14 @@
       <c r="IU46" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="IV46" t="n">
+      <c r="IV46" s="2" t="n">
         <v>252</v>
+      </c>
+      <c r="IW46" s="2" t="n">
+        <v>287</v>
+      </c>
+      <c r="IX46" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -36733,8 +37009,14 @@
       <c r="IU47" s="2" t="n">
         <v>69.3</v>
       </c>
-      <c r="IV47" t="n">
+      <c r="IV47" s="2" t="n">
         <v>75.7</v>
+      </c>
+      <c r="IW47" s="2" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="IX47" t="n">
+        <v>76.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -37505,8 +37787,14 @@
       <c r="IU48" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IV48" t="n">
+      <c r="IV48" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IW48" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="IX48" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -38277,8 +38565,14 @@
       <c r="IU49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IV49" t="n">
+      <c r="IV49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IW49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IX49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -39049,8 +39343,14 @@
       <c r="IU50" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IV50" t="n">
+      <c r="IV50" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IW50" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IX50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -39821,8 +40121,14 @@
       <c r="IU51" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IV51" t="n">
+      <c r="IV51" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IW51" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="IX51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -40593,8 +40899,14 @@
       <c r="IU52" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IV52" t="n">
+      <c r="IV52" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IW52" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IX52" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -41365,8 +41677,14 @@
       <c r="IU53" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IV53" t="n">
+      <c r="IV53" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IW53" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="IX53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -42137,8 +42455,14 @@
       <c r="IU54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IV54" t="n">
+      <c r="IV54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IW54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -42909,8 +43233,14 @@
       <c r="IU55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IV55" t="n">
+      <c r="IV55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IW55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IX55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -43681,8 +44011,14 @@
       <c r="IU56" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IV56" t="n">
+      <c r="IV56" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="IW56" s="2" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="IX56" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -44453,8 +44789,14 @@
       <c r="IU57" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="IV57" t="n">
+      <c r="IV57" s="2" t="n">
         <v>200</v>
+      </c>
+      <c r="IW57" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="IX57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -45225,8 +45567,14 @@
       <c r="IU58" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="IV58" t="n">
+      <c r="IV58" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="IW58" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="IX58" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -45997,8 +46345,14 @@
       <c r="IU59" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="IV59" t="n">
+      <c r="IV59" s="2" t="n">
         <v>321</v>
+      </c>
+      <c r="IW59" s="2" t="n">
+        <v>297</v>
+      </c>
+      <c r="IX59" t="n">
+        <v>401</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -46769,8 +47123,14 @@
       <c r="IU60" s="2" t="n">
         <v>1.95</v>
       </c>
-      <c r="IV60" t="n">
+      <c r="IV60" s="2" t="n">
         <v>1.65</v>
+      </c>
+      <c r="IW60" s="2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="IX60" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -47541,8 +47901,14 @@
       <c r="IU61" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IV61" t="n">
+      <c r="IV61" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="IW61" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="IX61" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -48313,8 +48679,14 @@
       <c r="IU62" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IV62" t="n">
+      <c r="IV62" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IW62" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IX62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -49085,8 +49457,14 @@
       <c r="IU63" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IV63" t="n">
+      <c r="IV63" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IW63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="IX63" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -49857,8 +50235,14 @@
       <c r="IU64" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IV64" t="n">
+      <c r="IV64" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IW64" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IX64" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -50629,8 +51013,14 @@
       <c r="IU65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IV65" t="n">
+      <c r="IV65" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IW65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IX65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -51401,8 +51791,14 @@
       <c r="IU66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IV66" t="n">
+      <c r="IV66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IW66" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -52173,8 +52569,14 @@
       <c r="IU67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IV67" t="n">
+      <c r="IV67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IW67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IX67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -52945,7 +53347,13 @@
       <c r="IU68" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IV68" t="n">
+      <c r="IV68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IX68" t="n">
         <v>8</v>
       </c>
     </row>
@@ -53717,8 +54125,14 @@
       <c r="IU69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IV69" t="n">
+      <c r="IV69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IW69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IX69" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -54489,8 +54903,14 @@
       <c r="IU70" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IV70" t="n">
+      <c r="IV70" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IW70" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IX70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -55261,8 +55681,14 @@
       <c r="IU71" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="IV71" t="n">
+      <c r="IV71" s="2" t="n">
         <v>52.6</v>
+      </c>
+      <c r="IW71" s="2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="IX71" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -56033,8 +56459,14 @@
       <c r="IU72" s="2" t="n">
         <v>93.75</v>
       </c>
-      <c r="IV72" t="n">
+      <c r="IV72" s="2" t="n">
         <v>32.1</v>
+      </c>
+      <c r="IW72" s="2" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="IX72" t="n">
+        <v>36.45</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -56805,8 +57237,14 @@
       <c r="IU73" s="2" t="n">
         <v>17.05</v>
       </c>
-      <c r="IV73" t="n">
+      <c r="IV73" s="2" t="n">
         <v>16.89</v>
+      </c>
+      <c r="IW73" s="2" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="IX73" t="n">
+        <v>14.85</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -57577,8 +58015,14 @@
       <c r="IU74" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IV74" t="n">
+      <c r="IV74" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IW74" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IX74" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -58349,8 +58793,14 @@
       <c r="IU75" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="IV75" t="n">
+      <c r="IV75" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="IW75" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IX75" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -59121,8 +59571,14 @@
       <c r="IU76" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IV76" t="n">
+      <c r="IV76" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IW76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IX76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -59893,8 +60349,14 @@
       <c r="IU77" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IV77" t="n">
+      <c r="IV77" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IW77" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IX77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -60665,8 +61127,14 @@
       <c r="IU78" s="2" t="n">
         <v>2.77</v>
       </c>
-      <c r="IV78" t="n">
+      <c r="IV78" s="2" t="n">
         <v>2.58</v>
+      </c>
+      <c r="IW78" s="2" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="IX78" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -61437,8 +61905,14 @@
       <c r="IU79" s="2" t="n">
         <v>15.25</v>
       </c>
-      <c r="IV79" t="n">
+      <c r="IV79" s="2" t="n">
         <v>4.9</v>
+      </c>
+      <c r="IW79" s="2" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="IX79" t="n">
+        <v>5.18</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -62209,8 +62683,14 @@
       <c r="IU80" s="2" t="n">
         <v>29.5</v>
       </c>
-      <c r="IV80" t="n">
+      <c r="IV80" s="2" t="n">
         <v>36.7</v>
+      </c>
+      <c r="IW80" s="2" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="IX80" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -62981,8 +63461,14 @@
       <c r="IU81" s="2" t="n">
         <v>6.6</v>
       </c>
-      <c r="IV81" t="n">
+      <c r="IV81" s="2" t="n">
         <v>20.4</v>
+      </c>
+      <c r="IW81" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IX81" t="n">
+        <v>19.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -63753,8 +64239,14 @@
       <c r="IU82" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="IV82" t="n">
+      <c r="IV82" s="2" t="n">
         <v>186.7</v>
+      </c>
+      <c r="IW82" s="2" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="IX82" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -64525,8 +65017,14 @@
       <c r="IU83" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="IV83" t="n">
+      <c r="IV83" s="2" t="n">
         <v>84.8</v>
+      </c>
+      <c r="IW83" s="2" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="IX83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -65297,8 +65795,14 @@
       <c r="IU84" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="IV84" t="n">
+      <c r="IV84" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="IW84" s="2" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="IX84" t="n">
+        <v>27.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -66069,8 +66573,14 @@
       <c r="IU85" s="2" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c r="IV85" t="n">
+      <c r="IV85" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="IW85" s="2" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="IX85" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -66841,8 +67351,14 @@
       <c r="IU86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IV86" t="n">
+      <c r="IV86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IW86" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IX86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -67613,8 +68129,14 @@
       <c r="IU87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IV87" t="n">
+      <c r="IV87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IW87" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -68385,8 +68907,14 @@
       <c r="IU88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IV88" t="n">
+      <c r="IV88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IW88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -69157,8 +69685,14 @@
       <c r="IU89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IV89" t="n">
+      <c r="IV89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IW89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IX89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -69929,8 +70463,14 @@
       <c r="IU90" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="IV90" t="n">
+      <c r="IV90" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="IW90" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="IX90" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -70701,8 +71241,14 @@
       <c r="IU91" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="IV91" t="n">
+      <c r="IV91" s="2" t="n">
         <v>178</v>
+      </c>
+      <c r="IW91" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="IX91" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -71473,8 +72019,14 @@
       <c r="IU92" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="IV92" t="n">
+      <c r="IV92" s="2" t="n">
         <v>231</v>
+      </c>
+      <c r="IW92" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="IX92" t="n">
+        <v>305</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -72245,8 +72797,14 @@
       <c r="IU93" s="2" t="n">
         <v>65.59999999999999</v>
       </c>
-      <c r="IV93" t="n">
+      <c r="IV93" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IW93" s="2" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="IX93" t="n">
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -73017,8 +73575,14 @@
       <c r="IU94" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="IV94" t="n">
+      <c r="IV94" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="IW94" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IX94" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -73789,8 +74353,14 @@
       <c r="IU95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IV95" t="n">
+      <c r="IV95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IW95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IX95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -74561,8 +75131,14 @@
       <c r="IU96" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IV96" t="n">
+      <c r="IV96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IW96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX96" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -75333,8 +75909,14 @@
       <c r="IU97" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IV97" t="n">
+      <c r="IV97" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IW97" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IX97" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -76105,8 +76687,14 @@
       <c r="IU98" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IV98" t="n">
+      <c r="IV98" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IW98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IX98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -76877,8 +77465,14 @@
       <c r="IU99" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="IV99" t="n">
+      <c r="IV99" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IW99" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IX99" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -77649,8 +78243,14 @@
       <c r="IU100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IV100" t="n">
+      <c r="IV100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IW100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -78421,8 +79021,14 @@
       <c r="IU101" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IV101" t="n">
+      <c r="IV101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IW101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IX101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -79193,8 +79799,14 @@
       <c r="IU102" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IV102" t="n">
+      <c r="IV102" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IW102" s="2" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="IX102" t="n">
+        <v>72.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Port Adelaide_stats.xlsx
+++ b/django_AFL_ML/Data/Port Adelaide_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JD102"/>
+  <dimension ref="A1:JL102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IG99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IM105" activeCellId="0" sqref="IM105"/>
@@ -1245,8 +1245,32 @@
       <c r="JC1" s="2" t="n">
         <v>10678</v>
       </c>
-      <c r="JD1" t="n">
+      <c r="JD1" s="2" t="n">
         <v>10686</v>
+      </c>
+      <c r="JE1" s="2" t="n">
+        <v>10695</v>
+      </c>
+      <c r="JF1" s="2" t="n">
+        <v>10695</v>
+      </c>
+      <c r="JG1" s="2" t="n">
+        <v>10695</v>
+      </c>
+      <c r="JH1" s="2" t="n">
+        <v>10704</v>
+      </c>
+      <c r="JI1" s="2" t="n">
+        <v>10706</v>
+      </c>
+      <c r="JJ1" s="2" t="n">
+        <v>10722</v>
+      </c>
+      <c r="JK1" s="2" t="n">
+        <v>10724</v>
+      </c>
+      <c r="JL1" t="n">
+        <v>10741</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2041,7 +2065,31 @@
       <c r="JC2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JD2" t="n">
+      <c r="JD2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JE2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JF2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JG2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JH2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JI2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JJ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JK2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JL2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2837,8 +2885,32 @@
       <c r="JC3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JD3" t="n">
+      <c r="JD3" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JE3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JF3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JG3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JH3" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JI3" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JJ3" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JK3" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3633,7 +3705,31 @@
       <c r="JC4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JD4" t="n">
+      <c r="JD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4429,7 +4525,31 @@
       <c r="JC5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JD5" t="n">
+      <c r="JD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JK5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5225,8 +5345,32 @@
       <c r="JC6" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="JD6" t="n">
+      <c r="JD6" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="JE6" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JF6" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JG6" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="JH6" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="JI6" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="JJ6" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="JK6" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="JL6" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6021,8 +6165,32 @@
       <c r="JC7" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="JD7" t="n">
+      <c r="JD7" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JE7" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="JF7" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="JG7" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="JH7" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JI7" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JJ7" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="JK7" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JL7" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6817,8 +6985,32 @@
       <c r="JC8" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="JD8" t="n">
+      <c r="JD8" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JE8" s="2" t="n">
+        <v>-14</v>
+      </c>
+      <c r="JF8" s="2" t="n">
+        <v>-14</v>
+      </c>
+      <c r="JG8" s="2" t="n">
+        <v>-14</v>
+      </c>
+      <c r="JH8" s="2" t="n">
+        <v>-12</v>
+      </c>
+      <c r="JI8" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="JJ8" s="2" t="n">
+        <v>-38</v>
+      </c>
+      <c r="JK8" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="JL8" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7613,7 +7805,31 @@
       <c r="JC9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JD9" t="n">
+      <c r="JD9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8409,8 +8625,32 @@
       <c r="JC10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JD10" t="n">
+      <c r="JD10" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JE10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JF10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JG10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JH10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JI10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JJ10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JK10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9205,7 +9445,31 @@
       <c r="JC11" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="JD11" t="n">
+      <c r="JD11" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="JE11" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="JF11" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="JG11" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="JH11" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="JI11" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="JJ11" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="JK11" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="JL11" t="n">
         <v>237</v>
       </c>
     </row>
@@ -10001,8 +10265,32 @@
       <c r="JC12" s="2" t="n">
         <v>183</v>
       </c>
-      <c r="JD12" t="n">
+      <c r="JD12" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="JE12" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="JF12" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="JG12" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="JH12" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="JI12" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="JJ12" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="JK12" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="JL12" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10797,8 +11085,32 @@
       <c r="JC13" s="2" t="n">
         <v>383</v>
       </c>
-      <c r="JD13" t="n">
+      <c r="JD13" s="2" t="n">
         <v>399</v>
+      </c>
+      <c r="JE13" s="2" t="n">
+        <v>407</v>
+      </c>
+      <c r="JF13" s="2" t="n">
+        <v>407</v>
+      </c>
+      <c r="JG13" s="2" t="n">
+        <v>407</v>
+      </c>
+      <c r="JH13" s="2" t="n">
+        <v>378</v>
+      </c>
+      <c r="JI13" s="2" t="n">
+        <v>401</v>
+      </c>
+      <c r="JJ13" s="2" t="n">
+        <v>373</v>
+      </c>
+      <c r="JK13" s="2" t="n">
+        <v>425</v>
+      </c>
+      <c r="JL13" t="n">
+        <v>401</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11593,8 +11905,32 @@
       <c r="JC14" s="2" t="n">
         <v>1.09</v>
       </c>
-      <c r="JD14" t="n">
+      <c r="JD14" s="2" t="n">
         <v>1.46</v>
+      </c>
+      <c r="JE14" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="JF14" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="JG14" s="2" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="JH14" s="2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="JI14" s="2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="JJ14" s="2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="JK14" s="2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="JL14" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12389,8 +12725,32 @@
       <c r="JC15" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="JD15" t="n">
+      <c r="JD15" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="JE15" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="JF15" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="JG15" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="JH15" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="JI15" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="JJ15" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JK15" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="JL15" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13185,8 +13545,32 @@
       <c r="JC16" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JD16" t="n">
+      <c r="JD16" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JE16" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JF16" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JG16" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JH16" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="JI16" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JJ16" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="JK16" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JL16" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13981,8 +14365,32 @@
       <c r="JC17" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JD17" t="n">
+      <c r="JD17" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="JE17" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JF17" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JG17" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JH17" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JI17" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JJ17" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JK17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL17" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14777,8 +15185,32 @@
       <c r="JC18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JD18" t="n">
+      <c r="JD18" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JE18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JF18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JG18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JH18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JI18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JJ18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JK18" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JL18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15573,8 +16005,32 @@
       <c r="JC19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JD19" t="n">
+      <c r="JD19" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JE19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JF19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JG19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JH19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JI19" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JJ19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JK19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JL19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16369,8 +16825,32 @@
       <c r="JC20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JD20" t="n">
+      <c r="JD20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JE20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JF20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JG20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JH20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JI20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JJ20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JK20" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JL20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17165,8 +17645,32 @@
       <c r="JC21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JD21" t="n">
+      <c r="JD21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JE21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JF21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JH21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JI21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK21" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JL21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17961,8 +18465,32 @@
       <c r="JC22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JD22" t="n">
+      <c r="JD22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JE22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JF22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JH22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JI22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18757,8 +19285,32 @@
       <c r="JC23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JD23" t="n">
+      <c r="JD23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JE23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JF23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JG23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JH23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JI23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JJ23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -19553,8 +20105,32 @@
       <c r="JC24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JD24" t="n">
+      <c r="JD24" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JE24" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JF24" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JG24" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JH24" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JI24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JJ24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JK24" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="JL24" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -20349,8 +20925,32 @@
       <c r="JC25" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JD25" t="n">
+      <c r="JD25" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JE25" s="2" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="JF25" s="2" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="JG25" s="2" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="JH25" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="JI25" s="2" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="JJ25" s="2" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="JK25" s="2" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="JL25" t="n">
+        <v>51.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -21145,8 +21745,32 @@
       <c r="JC26" s="2" t="n">
         <v>27.36</v>
       </c>
-      <c r="JD26" t="n">
+      <c r="JD26" s="2" t="n">
         <v>33.25</v>
+      </c>
+      <c r="JE26" s="2" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="JF26" s="2" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="JG26" s="2" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="JH26" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JI26" s="2" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="JJ26" s="2" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="JK26" s="2" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="JL26" t="n">
+        <v>25.06</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21941,8 +22565,32 @@
       <c r="JC27" s="2" t="n">
         <v>18.24</v>
       </c>
-      <c r="JD27" t="n">
+      <c r="JD27" s="2" t="n">
         <v>16.62</v>
+      </c>
+      <c r="JE27" s="2" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="JF27" s="2" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="JG27" s="2" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="JH27" s="2" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="JI27" s="2" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="JJ27" s="2" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="JK27" s="2" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="JL27" t="n">
+        <v>12.94</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22737,8 +23385,32 @@
       <c r="JC28" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JD28" t="n">
+      <c r="JD28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JE28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JF28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JG28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JH28" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JI28" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JJ28" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JK28" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JL28" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -23533,8 +24205,32 @@
       <c r="JC29" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JD29" t="n">
+      <c r="JD29" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JE29" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JF29" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JG29" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JH29" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JI29" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JJ29" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JK29" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JL29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -24329,8 +25025,32 @@
       <c r="JC30" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JD30" t="n">
+      <c r="JD30" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JE30" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JF30" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JG30" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JH30" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JI30" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JJ30" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JK30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JL30" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -25125,8 +25845,32 @@
       <c r="JC31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JD31" t="n">
+      <c r="JD31" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JE31" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JF31" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JG31" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JH31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JI31" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JJ31" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JK31" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JL31" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -25921,8 +26665,32 @@
       <c r="JC32" s="2" t="n">
         <v>2.43</v>
       </c>
-      <c r="JD32" t="n">
+      <c r="JD32" s="2" t="n">
         <v>2.71</v>
+      </c>
+      <c r="JE32" s="2" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="JF32" s="2" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="JG32" s="2" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="JH32" s="2" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="JI32" s="2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="JJ32" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="JK32" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="JL32" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -26717,8 +27485,32 @@
       <c r="JC33" s="2" t="n">
         <v>3.64</v>
       </c>
-      <c r="JD33" t="n">
+      <c r="JD33" s="2" t="n">
         <v>5.42</v>
+      </c>
+      <c r="JE33" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="JF33" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="JG33" s="2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="JH33" s="2" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="JI33" s="2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="JJ33" s="2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="JK33" s="2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="JL33" t="n">
+        <v>3.81</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -27513,8 +28305,32 @@
       <c r="JC34" s="2" t="n">
         <v>41.2</v>
       </c>
-      <c r="JD34" t="n">
+      <c r="JD34" s="2" t="n">
         <v>30.8</v>
+      </c>
+      <c r="JE34" s="2" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="JF34" s="2" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="JG34" s="2" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="JH34" s="2" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="JI34" s="2" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="JJ34" s="2" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="JK34" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="JL34" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -28309,8 +29125,32 @@
       <c r="JC35" s="2" t="n">
         <v>27.5</v>
       </c>
-      <c r="JD35" t="n">
+      <c r="JD35" s="2" t="n">
         <v>18.5</v>
+      </c>
+      <c r="JE35" s="2" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="JF35" s="2" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="JG35" s="2" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="JH35" s="2" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="JI35" s="2" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="JJ35" s="2" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="JK35" s="2" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="JL35" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -29105,8 +29945,32 @@
       <c r="JC36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="JD36" t="n">
+      <c r="JD36" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="JE36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="JF36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="JG36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="JH36" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JI36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="JJ36" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="JK36" s="2" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="JL36" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -29901,8 +30765,32 @@
       <c r="JC37" s="2" t="n">
         <v>86.8</v>
       </c>
-      <c r="JD37" t="n">
+      <c r="JD37" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="JE37" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="JF37" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="JG37" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="JH37" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="JI37" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="JJ37" s="2" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="JK37" s="2" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="JL37" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -30697,7 +31585,31 @@
       <c r="JC38" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JD38" t="n">
+      <c r="JD38" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JE38" s="2" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="JF38" s="2" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="JG38" s="2" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="JH38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JI38" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="JJ38" s="2" t="n">
+        <v>25.91</v>
+      </c>
+      <c r="JK38" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JL38" t="n">
         <v>25.58</v>
       </c>
     </row>
@@ -31493,8 +32405,32 @@
       <c r="JC39" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="JD39" t="n">
+      <c r="JD39" s="2" t="n">
         <v>106.5</v>
+      </c>
+      <c r="JE39" s="2" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="JF39" s="2" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="JG39" s="2" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="JH39" s="2" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="JI39" s="2" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="JJ39" s="2" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="JK39" s="2" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="JL39" t="n">
+        <v>112.1</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -32289,8 +33225,32 @@
       <c r="JC40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JD40" t="n">
+      <c r="JD40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JE40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JF40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JI40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JJ40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -33085,8 +34045,32 @@
       <c r="JC41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JD41" t="n">
+      <c r="JD41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JE41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JF41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JH41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JI41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JJ41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -33881,8 +34865,32 @@
       <c r="JC42" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JD42" t="n">
+      <c r="JD42" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JE42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JF42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JI42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JJ42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -34677,8 +35685,32 @@
       <c r="JC43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JD43" t="n">
+      <c r="JD43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JE43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JF43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JI43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JJ43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -35473,8 +36505,32 @@
       <c r="JC44" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="JD44" t="n">
+      <c r="JD44" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="JE44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JF44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JG44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JH44" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="JI44" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="JJ44" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="JK44" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JL44" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -36269,8 +37325,32 @@
       <c r="JC45" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="JD45" t="n">
+      <c r="JD45" s="2" t="n">
         <v>267</v>
+      </c>
+      <c r="JE45" s="2" t="n">
+        <v>275</v>
+      </c>
+      <c r="JF45" s="2" t="n">
+        <v>275</v>
+      </c>
+      <c r="JG45" s="2" t="n">
+        <v>275</v>
+      </c>
+      <c r="JH45" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="JI45" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="JJ45" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="JK45" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="JL45" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -37065,8 +38145,32 @@
       <c r="JC46" s="2" t="n">
         <v>284</v>
       </c>
-      <c r="JD46" t="n">
+      <c r="JD46" s="2" t="n">
         <v>298</v>
+      </c>
+      <c r="JE46" s="2" t="n">
+        <v>311</v>
+      </c>
+      <c r="JF46" s="2" t="n">
+        <v>311</v>
+      </c>
+      <c r="JG46" s="2" t="n">
+        <v>311</v>
+      </c>
+      <c r="JH46" s="2" t="n">
+        <v>276</v>
+      </c>
+      <c r="JI46" s="2" t="n">
+        <v>293</v>
+      </c>
+      <c r="JJ46" s="2" t="n">
+        <v>277</v>
+      </c>
+      <c r="JK46" s="2" t="n">
+        <v>337</v>
+      </c>
+      <c r="JL46" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -37861,8 +38965,32 @@
       <c r="JC47" s="2" t="n">
         <v>74.2</v>
       </c>
-      <c r="JD47" t="n">
+      <c r="JD47" s="2" t="n">
         <v>74.7</v>
+      </c>
+      <c r="JE47" s="2" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="JF47" s="2" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="JG47" s="2" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="JH47" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JI47" s="2" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="JJ47" s="2" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="JK47" s="2" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="JL47" t="n">
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -38657,8 +39785,32 @@
       <c r="JC48" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JD48" t="n">
+      <c r="JD48" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JE48" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JF48" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JG48" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="JH48" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JI48" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JJ48" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JK48" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JL48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -39453,8 +40605,32 @@
       <c r="JC49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JD49" t="n">
+      <c r="JD49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JE49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JF49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JG49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JH49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JI49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JJ49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JK49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JL49" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -40249,8 +41425,32 @@
       <c r="JC50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JD50" t="n">
+      <c r="JD50" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JE50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JF50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JG50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JH50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JI50" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JJ50" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK50" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JL50" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -41045,8 +42245,32 @@
       <c r="JC51" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JD51" t="n">
+      <c r="JD51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JE51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JF51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JG51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JH51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JI51" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JJ51" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JK51" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JL51" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -41841,8 +43065,32 @@
       <c r="JC52" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JD52" t="n">
+      <c r="JD52" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JE52" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JF52" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JG52" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JH52" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JI52" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JJ52" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JK52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JL52" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -42637,7 +43885,31 @@
       <c r="JC53" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JD53" t="n">
+      <c r="JD53" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JE53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JF53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JG53" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JH53" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JI53" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JJ53" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JK53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JL53" t="n">
         <v>54</v>
       </c>
     </row>
@@ -43433,8 +44705,32 @@
       <c r="JC54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JD54" t="n">
+      <c r="JD54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JE54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JF54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JH54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI54" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JJ54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JK54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -44229,8 +45525,32 @@
       <c r="JC55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JD55" t="n">
+      <c r="JD55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JE55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JF55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JG55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JH55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JI55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JK55" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JL55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -45025,8 +46345,32 @@
       <c r="JC56" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="JD56" t="n">
+      <c r="JD56" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="JE56" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JF56" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JG56" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JH56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="JI56" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JJ56" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JK56" s="2" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="JL56" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -45821,8 +47165,32 @@
       <c r="JC57" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="JD57" t="n">
+      <c r="JD57" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="JE57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="JF57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="JG57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="JH57" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="JI57" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JJ57" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="JK57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JL57" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -46617,8 +47985,32 @@
       <c r="JC58" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="JD58" t="n">
+      <c r="JD58" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="JE58" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="JF58" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="JG58" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="JH58" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="JI58" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="JJ58" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="JK58" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="JL58" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -47413,8 +48805,32 @@
       <c r="JC59" s="2" t="n">
         <v>399</v>
       </c>
-      <c r="JD59" t="n">
+      <c r="JD59" s="2" t="n">
         <v>307</v>
+      </c>
+      <c r="JE59" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="JF59" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="JG59" s="2" t="n">
+        <v>351</v>
+      </c>
+      <c r="JH59" s="2" t="n">
+        <v>336</v>
+      </c>
+      <c r="JI59" s="2" t="n">
+        <v>318</v>
+      </c>
+      <c r="JJ59" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="JK59" s="2" t="n">
+        <v>367</v>
+      </c>
+      <c r="JL59" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -48209,8 +49625,32 @@
       <c r="JC60" s="2" t="n">
         <v>1.33</v>
       </c>
-      <c r="JD60" t="n">
+      <c r="JD60" s="2" t="n">
         <v>1.65</v>
+      </c>
+      <c r="JE60" s="2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="JF60" s="2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="JG60" s="2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="JH60" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="JI60" s="2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="JJ60" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="JK60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="JL60" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -49005,8 +50445,32 @@
       <c r="JC61" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="JD61" t="n">
+      <c r="JD61" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="JE61" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JF61" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JG61" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JH61" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="JI61" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="JJ61" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JK61" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="JL61" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -49801,8 +51265,32 @@
       <c r="JC62" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JD62" t="n">
+      <c r="JD62" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JE62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JF62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JG62" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JH62" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JI62" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JJ62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JK62" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JL62" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -50597,8 +52085,32 @@
       <c r="JC63" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JD63" t="n">
+      <c r="JD63" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JE63" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JF63" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JG63" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="JH63" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JI63" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JJ63" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JK63" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JL63" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -51393,8 +52905,32 @@
       <c r="JC64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JD64" t="n">
+      <c r="JD64" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JE64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JF64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JG64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JH64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JI64" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JJ64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JK64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JL64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -52189,8 +53725,32 @@
       <c r="JC65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JD65" t="n">
+      <c r="JD65" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JE65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JF65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JG65" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JH65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JI65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JJ65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JK65" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JL65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -52985,8 +54545,32 @@
       <c r="JC66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JD66" t="n">
+      <c r="JD66" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JE66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JF66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JG66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JH66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JI66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JJ66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JK66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -53781,8 +55365,32 @@
       <c r="JC67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JD67" t="n">
+      <c r="JD67" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JE67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JF67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH67" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JI67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JJ67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JK67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -54577,8 +56185,32 @@
       <c r="JC68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JD68" t="n">
+      <c r="JD68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JE68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JF68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JI68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JJ68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JK68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JL68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -55373,8 +57005,32 @@
       <c r="JC69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JD69" t="n">
+      <c r="JD69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JE69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JF69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JH69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JI69" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JJ69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JK69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JL69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -56169,8 +57825,32 @@
       <c r="JC70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JD70" t="n">
+      <c r="JD70" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JE70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JF70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JG70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JH70" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JI70" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="JJ70" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JK70" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JL70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -56965,8 +58645,32 @@
       <c r="JC71" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="JD71" t="n">
+      <c r="JD71" s="2" t="n">
         <v>21.4</v>
+      </c>
+      <c r="JE71" s="2" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="JF71" s="2" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="JG71" s="2" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="JH71" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="JI71" s="2" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="JJ71" s="2" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="JK71" s="2" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="JL71" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -57761,8 +59465,32 @@
       <c r="JC72" s="2" t="n">
         <v>26.6</v>
       </c>
-      <c r="JD72" t="n">
+      <c r="JD72" s="2" t="n">
         <v>102.33</v>
+      </c>
+      <c r="JE72" s="2" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="JF72" s="2" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="JG72" s="2" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="JH72" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JI72" s="2" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="JJ72" s="2" t="n">
+        <v>24.12</v>
+      </c>
+      <c r="JK72" s="2" t="n">
+        <v>40.78</v>
+      </c>
+      <c r="JL72" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -58557,8 +60285,32 @@
       <c r="JC73" s="2" t="n">
         <v>16.62</v>
       </c>
-      <c r="JD73" t="n">
+      <c r="JD73" s="2" t="n">
         <v>21.93</v>
+      </c>
+      <c r="JE73" s="2" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="JF73" s="2" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="JG73" s="2" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="JH73" s="2" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="JI73" s="2" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="JJ73" s="2" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="JK73" s="2" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="JL73" t="n">
+        <v>14.35</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -59353,8 +61105,32 @@
       <c r="JC74" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JD74" t="n">
+      <c r="JD74" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JE74" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JF74" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JG74" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JH74" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JI74" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JJ74" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JK74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JL74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -60149,8 +61925,32 @@
       <c r="JC75" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JD75" t="n">
+      <c r="JD75" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JE75" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JF75" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JG75" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JH75" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JI75" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JJ75" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JK75" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JL75" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -60945,8 +62745,32 @@
       <c r="JC76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JD76" t="n">
+      <c r="JD76" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JE76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JF76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JG76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JH76" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JI76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JJ76" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JK76" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JL76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -61741,8 +63565,32 @@
       <c r="JC77" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JD77" t="n">
+      <c r="JD77" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JE77" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JF77" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JG77" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JH77" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JI77" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JJ77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="JK77" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JL77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -62537,8 +64385,32 @@
       <c r="JC78" s="2" t="n">
         <v>2.08</v>
       </c>
-      <c r="JD78" t="n">
+      <c r="JD78" s="2" t="n">
         <v>2.64</v>
+      </c>
+      <c r="JE78" s="2" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="JF78" s="2" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="JG78" s="2" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="JH78" s="2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="JI78" s="2" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="JJ78" s="2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="JK78" s="2" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="JL78" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -63333,8 +65205,32 @@
       <c r="JC79" s="2" t="n">
         <v>3.33</v>
       </c>
-      <c r="JD79" t="n">
+      <c r="JD79" s="2" t="n">
         <v>12.33</v>
+      </c>
+      <c r="JE79" s="2" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="JF79" s="2" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="JG79" s="2" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="JH79" s="2" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="JI79" s="2" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="JJ79" s="2" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="JK79" s="2" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="JL79" t="n">
+        <v>6.86</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -64129,8 +66025,32 @@
       <c r="JC80" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JD80" t="n">
+      <c r="JD80" s="2" t="n">
         <v>35.1</v>
+      </c>
+      <c r="JE80" s="2" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="JF80" s="2" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="JG80" s="2" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="JH80" s="2" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="JI80" s="2" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="JJ80" s="2" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="JK80" s="2" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="JL80" t="n">
+        <v>31.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -64925,8 +66845,32 @@
       <c r="JC81" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JD81" t="n">
+      <c r="JD81" s="2" t="n">
         <v>8.1</v>
+      </c>
+      <c r="JE81" s="2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="JF81" s="2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="JG81" s="2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="JH81" s="2" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="JI81" s="2" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="JJ81" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="JK81" s="2" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="JL81" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -65721,8 +67665,32 @@
       <c r="JC82" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="JD82" t="n">
+      <c r="JD82" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="JE82" s="2" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="JF82" s="2" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="JG82" s="2" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="JH82" s="2" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="JI82" s="2" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="JJ82" s="2" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="JK82" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="JL82" t="n">
+        <v>186.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -66517,8 +68485,32 @@
       <c r="JC83" s="2" t="n">
         <v>88.7</v>
       </c>
-      <c r="JD83" t="n">
+      <c r="JD83" s="2" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="JE83" s="2" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JF83" s="2" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JG83" s="2" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="JH83" s="2" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="JI83" s="2" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="JJ83" s="2" t="n">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="JK83" s="2" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="JL83" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -67313,8 +69305,32 @@
       <c r="JC84" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="JD84" t="n">
+      <c r="JD84" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="JE84" s="2" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JF84" s="2" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JG84" s="2" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JH84" s="2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="JI84" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JJ84" s="2" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="JK84" s="2" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="JL84" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -68109,8 +70125,32 @@
       <c r="JC85" s="2" t="n">
         <v>100.4</v>
       </c>
-      <c r="JD85" t="n">
+      <c r="JD85" s="2" t="n">
         <v>100.1</v>
+      </c>
+      <c r="JE85" s="2" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="JF85" s="2" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="JG85" s="2" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="JH85" s="2" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="JI85" s="2" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="JJ85" s="2" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="JK85" s="2" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="JL85" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -68905,8 +70945,32 @@
       <c r="JC86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JD86" t="n">
+      <c r="JD86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JE86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JF86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JG86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JH86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JI86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL86" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -69701,8 +71765,32 @@
       <c r="JC87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JD87" t="n">
+      <c r="JD87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JE87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JF87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JG87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JH87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JI87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JJ87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -70497,8 +72585,32 @@
       <c r="JC88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JD88" t="n">
+      <c r="JD88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JE88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JF88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JI88" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JJ88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -71293,8 +73405,32 @@
       <c r="JC89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JD89" t="n">
+      <c r="JD89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JE89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JF89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JG89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JH89" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JI89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JJ89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JK89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -72089,8 +74225,32 @@
       <c r="JC90" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="JD90" t="n">
+      <c r="JD90" s="2" t="n">
         <v>113</v>
+      </c>
+      <c r="JE90" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="JF90" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="JG90" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="JH90" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="JI90" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="JJ90" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="JK90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JL90" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -72885,8 +75045,32 @@
       <c r="JC91" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="JD91" t="n">
+      <c r="JD91" s="2" t="n">
         <v>185</v>
+      </c>
+      <c r="JE91" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="JF91" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="JG91" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="JH91" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="JI91" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="JJ91" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="JK91" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="JL91" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -73681,8 +75865,32 @@
       <c r="JC92" s="2" t="n">
         <v>307</v>
       </c>
-      <c r="JD92" t="n">
+      <c r="JD92" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="JE92" s="2" t="n">
+        <v>266</v>
+      </c>
+      <c r="JF92" s="2" t="n">
+        <v>266</v>
+      </c>
+      <c r="JG92" s="2" t="n">
+        <v>266</v>
+      </c>
+      <c r="JH92" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="JI92" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="JJ92" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="JK92" s="2" t="n">
+        <v>266</v>
+      </c>
+      <c r="JL92" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -74477,8 +76685,32 @@
       <c r="JC93" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="JD93" t="n">
+      <c r="JD93" s="2" t="n">
         <v>66.8</v>
+      </c>
+      <c r="JE93" s="2" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="JF93" s="2" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="JG93" s="2" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="JH93" s="2" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="JI93" s="2" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="JJ93" s="2" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="JK93" s="2" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="JL93" t="n">
+        <v>63.1</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -75273,8 +77505,32 @@
       <c r="JC94" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JD94" t="n">
+      <c r="JD94" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JE94" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JF94" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JG94" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="JH94" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JI94" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="JJ94" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JK94" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JL94" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -76069,8 +78325,32 @@
       <c r="JC95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JD95" t="n">
+      <c r="JD95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JE95" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JF95" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JG95" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JH95" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JI95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JJ95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JK95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL95" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -76865,8 +79145,32 @@
       <c r="JC96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JD96" t="n">
+      <c r="JD96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JE96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JF96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JG96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JH96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JI96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JJ96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JK96" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -77661,8 +79965,32 @@
       <c r="JC97" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JD97" t="n">
+      <c r="JD97" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JE97" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JF97" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JG97" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JH97" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JI97" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JJ97" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JK97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JL97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -78457,8 +80785,32 @@
       <c r="JC98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JD98" t="n">
+      <c r="JD98" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JE98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JF98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JG98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JH98" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JI98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JJ98" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JK98" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="JL98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -79253,8 +81605,32 @@
       <c r="JC99" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JD99" t="n">
+      <c r="JD99" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JE99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JF99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JG99" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JH99" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JI99" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JJ99" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JK99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JL99" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -80049,8 +82425,32 @@
       <c r="JC100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JD100" t="n">
+      <c r="JD100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JE100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JF100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JG100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JH100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JI100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JJ100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JK100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -80845,8 +83245,32 @@
       <c r="JC101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JD101" t="n">
+      <c r="JD101" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JE101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JF101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JG101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JH101" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JI101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JJ101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JK101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JL101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -81641,8 +84065,32 @@
       <c r="JC102" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JD102" t="n">
+      <c r="JD102" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="JE102" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JF102" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JG102" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="JH102" s="2" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="JI102" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="JJ102" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="JK102" s="2" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="JL102" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>
